--- a/SharePoint/Docs/MS-DWSS/MS-DWSS_RequirementSpecification.xlsx
+++ b/SharePoint/Docs/MS-DWSS/MS-DWSS_RequirementSpecification.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="16925"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15450" windowHeight="10560" tabRatio="570"/>
@@ -5822,10 +5822,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Verified by derived requirement: MS-DWSS_R261, MS-DWSS_R262 and MS-DWSS_R263.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[In GetDwsMetaDataResponse] If the site is not one of those types ["DWS", "MWS", or an empty string.], an empty string MUST be returned.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5982,9 +5978,6 @@
     <t>[In Appendix B: Product Behavior] Implementation does return the Schema element for Tasks. (Windows SharePoint Services 3.0, SharePoint Foundation 2010, and Microsoft SharePoint Server 2016 and above follow this behavior.)</t>
   </si>
   <si>
-    <t>Verified by derived requirements: MS-DWSS_R256, MS-DWSS_R257 and MS-DWSS_R258.</t>
-  </si>
-  <si>
     <t>Verified by derived requirements: MS-DWSS_R2561, MS-DWSS_R2562.</t>
   </si>
   <si>
@@ -6007,6 +6000,12 @@
   </si>
   <si>
     <t>Verified by derived requirement: MS-DWSS_R1682.</t>
+  </si>
+  <si>
+    <t>Verified by derived requirements: MS-DWSS_R256, MS-DWSS_R257, MS-DWSS_R258.</t>
+  </si>
+  <si>
+    <t>Verified by derived requirement: MS-DWSS_R261, MS-DWSS_R262, MS-DWSS_R263.</t>
   </si>
 </sst>
 </file>
@@ -6394,6 +6393,21 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -6417,21 +6431,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -10910,7 +10909,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>1464</v>
@@ -10921,127 +10920,127 @@
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="21">
-      <c r="A4" s="70" t="s">
+      <c r="A4" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="70"/>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="73" t="s">
+      <c r="B5" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="74"/>
-      <c r="I5" s="74"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="72" t="s">
+      <c r="B6" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="71" t="s">
+      <c r="B7" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="71"/>
-      <c r="D7" s="71"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71"/>
-      <c r="G7" s="71"/>
-      <c r="H7" s="71"/>
-      <c r="I7" s="71"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="71" t="s">
+      <c r="B8" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="71"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="71"/>
-      <c r="G8" s="71"/>
-      <c r="H8" s="71"/>
-      <c r="I8" s="71"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="63"/>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" ht="78.75" customHeight="1">
       <c r="A9" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="66" t="s">
+      <c r="B9" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="67"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="67"/>
-      <c r="H9" s="67"/>
-      <c r="I9" s="67"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="72"/>
+      <c r="I9" s="72"/>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="33.75" customHeight="1">
       <c r="A10" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="66" t="s">
+      <c r="B10" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="67"/>
-      <c r="D10" s="67"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="67"/>
-      <c r="H10" s="67"/>
-      <c r="I10" s="67"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="72"/>
+      <c r="H10" s="72"/>
+      <c r="I10" s="72"/>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="62" t="s">
+      <c r="B11" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="62"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="62"/>
-      <c r="I11" s="62"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="67"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10">
@@ -11054,12 +11053,12 @@
       <c r="C12" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="63"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="63"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="63"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="68"/>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1">
@@ -11072,12 +11071,12 @@
       <c r="C13" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="64"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="64"/>
-      <c r="I13" s="64"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="69"/>
+      <c r="I13" s="69"/>
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10">
@@ -11090,12 +11089,12 @@
       <c r="C14" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="64"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="64"/>
-      <c r="G14" s="64"/>
-      <c r="H14" s="64"/>
-      <c r="I14" s="64"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="69"/>
+      <c r="H14" s="69"/>
+      <c r="I14" s="69"/>
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10">
@@ -11108,60 +11107,60 @@
       <c r="C15" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="65"/>
-      <c r="H15" s="65"/>
-      <c r="I15" s="65"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="70"/>
+      <c r="I15" s="70"/>
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" ht="30" customHeight="1">
       <c r="A16" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="62" t="s">
+      <c r="B16" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="62"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="62"/>
-      <c r="H16" s="62"/>
-      <c r="I16" s="62"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="67"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="67"/>
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:12" ht="81" customHeight="1">
       <c r="A17" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="68" t="s">
+      <c r="B17" s="73" t="s">
         <v>1461</v>
       </c>
-      <c r="C17" s="69"/>
-      <c r="D17" s="69"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="69"/>
-      <c r="G17" s="69"/>
-      <c r="H17" s="69"/>
-      <c r="I17" s="69"/>
+      <c r="C17" s="74"/>
+      <c r="D17" s="74"/>
+      <c r="E17" s="74"/>
+      <c r="F17" s="74"/>
+      <c r="G17" s="74"/>
+      <c r="H17" s="74"/>
+      <c r="I17" s="74"/>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1">
       <c r="A18" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="62" t="s">
+      <c r="B18" s="67" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="62"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="62"/>
-      <c r="H18" s="62"/>
-      <c r="I18" s="62"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="67"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="67"/>
+      <c r="H18" s="67"/>
+      <c r="I18" s="67"/>
       <c r="J18" s="5"/>
       <c r="L18" s="4"/>
     </row>
@@ -22321,10 +22320,10 @@
         <v>6</v>
       </c>
       <c r="G462" s="43" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H462" s="42" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I462" s="45"/>
     </row>
@@ -24306,7 +24305,7 @@
         <v>17</v>
       </c>
       <c r="I540" s="45" t="s">
-        <v>1588</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="541" spans="1:9" customFormat="1" ht="30">
@@ -24635,7 +24634,7 @@
         <v>17</v>
       </c>
       <c r="I553" s="45" t="s">
-        <v>1581</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="554" spans="1:9" customFormat="1" ht="45">
@@ -24646,7 +24645,7 @@
         <v>1067</v>
       </c>
       <c r="C554" s="30" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="D554" s="26"/>
       <c r="E554" s="28" t="s">
@@ -24662,7 +24661,7 @@
         <v>17</v>
       </c>
       <c r="I554" s="45" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="555" spans="1:9" customFormat="1">
@@ -24673,7 +24672,7 @@
         <v>1067</v>
       </c>
       <c r="C555" s="27" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
       <c r="D555" s="26"/>
       <c r="E555" s="28" t="s">
@@ -24698,7 +24697,7 @@
         <v>1067</v>
       </c>
       <c r="C556" s="30" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="D556" s="26"/>
       <c r="E556" s="28" t="s">
@@ -24764,7 +24763,7 @@
         <v>17</v>
       </c>
       <c r="I558" s="45" t="s">
-        <v>1541</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="559" spans="1:9" customFormat="1">
@@ -24775,7 +24774,7 @@
         <v>1067</v>
       </c>
       <c r="C559" s="27" t="s">
-        <v>1585</v>
+        <v>1583</v>
       </c>
       <c r="D559" s="26"/>
       <c r="E559" s="28" t="s">
@@ -24800,7 +24799,7 @@
         <v>1067</v>
       </c>
       <c r="C560" s="27" t="s">
-        <v>1586</v>
+        <v>1584</v>
       </c>
       <c r="D560" s="26"/>
       <c r="E560" s="28" t="s">
@@ -24825,7 +24824,7 @@
         <v>1067</v>
       </c>
       <c r="C561" s="27" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
       <c r="D561" s="26"/>
       <c r="E561" s="28" t="s">
@@ -25125,7 +25124,7 @@
         <v>1067</v>
       </c>
       <c r="C573" s="30" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="D573" s="26"/>
       <c r="E573" s="28" t="s">
@@ -25150,7 +25149,7 @@
         <v>1067</v>
       </c>
       <c r="C574" s="30" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="D574" s="26"/>
       <c r="E574" s="28" t="s">
@@ -25175,7 +25174,7 @@
         <v>1067</v>
       </c>
       <c r="C575" s="30" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="D575" s="26"/>
       <c r="E575" s="28" t="s">
@@ -25304,7 +25303,7 @@
         <v>1067</v>
       </c>
       <c r="C580" s="27" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D580" s="26"/>
       <c r="E580" s="28" t="s">
@@ -25354,7 +25353,7 @@
         <v>1143</v>
       </c>
       <c r="C582" s="27" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="D582" s="26"/>
       <c r="E582" s="28" t="s">
@@ -25379,7 +25378,7 @@
         <v>1143</v>
       </c>
       <c r="C583" s="30" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="D583" s="26"/>
       <c r="E583" s="28" t="s">
@@ -25454,7 +25453,7 @@
         <v>1143</v>
       </c>
       <c r="C586" s="27" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="D586" s="26"/>
       <c r="E586" s="28" t="s">
@@ -25470,7 +25469,7 @@
         <v>17</v>
       </c>
       <c r="I586" s="51" t="s">
-        <v>1589</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="587" spans="1:9" customFormat="1">
@@ -25481,7 +25480,7 @@
         <v>1143</v>
       </c>
       <c r="C587" s="30" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="D587" s="26"/>
       <c r="E587" s="28" t="s">
@@ -25556,7 +25555,7 @@
         <v>1143</v>
       </c>
       <c r="C590" s="27" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="D590" s="26"/>
       <c r="E590" s="28" t="s">
@@ -27082,7 +27081,7 @@
         <v>1283</v>
       </c>
       <c r="C651" s="30" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="D651" s="26"/>
       <c r="E651" s="28" t="s">
@@ -27532,7 +27531,7 @@
         <v>1319</v>
       </c>
       <c r="C669" s="30" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="D669" s="26"/>
       <c r="E669" s="28" t="s">
@@ -27557,7 +27556,7 @@
         <v>1319</v>
       </c>
       <c r="C670" s="30" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="D670" s="26"/>
       <c r="E670" s="28" t="s">
@@ -27839,7 +27838,7 @@
         <v>1370</v>
       </c>
       <c r="D681" s="41" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="E681" s="42" t="s">
         <v>22</v>
@@ -28013,7 +28012,7 @@
         <v>1379</v>
       </c>
       <c r="D687" s="41" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="E687" s="28" t="s">
         <v>22</v>
@@ -28040,7 +28039,7 @@
         <v>1375</v>
       </c>
       <c r="D688" s="41" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="E688" s="28" t="s">
         <v>22</v>
@@ -28067,7 +28066,7 @@
         <v>1374</v>
       </c>
       <c r="D689" s="41" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="E689" s="28" t="s">
         <v>22</v>
@@ -28091,10 +28090,10 @@
         <v>1339</v>
       </c>
       <c r="C690" s="45" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="D690" s="41" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="E690" s="42" t="s">
         <v>22</v>
@@ -28120,7 +28119,7 @@
         <v>1345</v>
       </c>
       <c r="C691" s="45" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="D691" s="41"/>
       <c r="E691" s="28" t="s">
@@ -28145,7 +28144,7 @@
         <v>1339</v>
       </c>
       <c r="C692" s="47" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="D692" s="36" t="s">
         <v>1376</v>
@@ -28174,7 +28173,7 @@
         <v>1339</v>
       </c>
       <c r="C693" s="48" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="D693" s="36" t="s">
         <v>1376</v>
@@ -28203,7 +28202,7 @@
         <v>1339</v>
       </c>
       <c r="C694" s="48" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="D694" s="36" t="s">
         <v>1376</v>
@@ -28232,10 +28231,10 @@
         <v>1345</v>
       </c>
       <c r="C695" s="45" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="D695" s="36" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="E695" s="28" t="s">
         <v>22</v>
@@ -28255,16 +28254,16 @@
     </row>
     <row r="696" spans="1:9" s="39" customFormat="1" ht="30">
       <c r="A696" s="59" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="B696" s="36" t="s">
         <v>1339</v>
       </c>
       <c r="C696" s="45" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="D696" s="36" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="E696" s="42" t="s">
         <v>22</v>
@@ -28288,10 +28287,10 @@
         <v>1339</v>
       </c>
       <c r="C697" s="45" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="D697" s="36" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="E697" s="42" t="s">
         <v>22</v>
@@ -28311,16 +28310,16 @@
     </row>
     <row r="698" spans="1:9" s="39" customFormat="1" ht="45">
       <c r="A698" s="61" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="B698" s="36" t="s">
         <v>1339</v>
       </c>
       <c r="C698" s="54" t="s">
+        <v>1560</v>
+      </c>
+      <c r="D698" s="36" t="s">
         <v>1561</v>
-      </c>
-      <c r="D698" s="36" t="s">
-        <v>1562</v>
       </c>
       <c r="E698" s="42" t="s">
         <v>22</v>
@@ -28338,16 +28337,16 @@
     </row>
     <row r="699" spans="1:9" s="39" customFormat="1" ht="45">
       <c r="A699" s="61" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="B699" s="36" t="s">
         <v>1339</v>
       </c>
       <c r="C699" s="54" t="s">
+        <v>1575</v>
+      </c>
+      <c r="D699" s="36" t="s">
         <v>1576</v>
-      </c>
-      <c r="D699" s="36" t="s">
-        <v>1577</v>
       </c>
       <c r="E699" s="42" t="s">
         <v>22</v>
@@ -28367,16 +28366,16 @@
     </row>
     <row r="700" spans="1:9" s="39" customFormat="1" ht="45">
       <c r="A700" s="61" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="B700" s="36" t="s">
         <v>1339</v>
       </c>
       <c r="C700" s="54" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="D700" s="36" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="E700" s="42" t="s">
         <v>22</v>
@@ -28396,13 +28395,13 @@
     </row>
     <row r="701" spans="1:9" customFormat="1">
       <c r="A701" s="25" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="B701" s="26" t="s">
         <v>1345</v>
       </c>
       <c r="C701" s="45" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="D701" s="26"/>
       <c r="E701" s="28" t="s">
@@ -28425,11 +28424,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B5:I5"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="D12:I15"/>
     <mergeCell ref="B16:I16"/>
@@ -28437,6 +28431,11 @@
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B17:I17"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A577:B577 I619:I622 I678:I679 A293:B293 A513:C513 A116:C128 A131:C141 A516:C521 D524 A115:G115 A227:D227 A689:B690 I199 A687:C688 A691:C691 A239:C292 I41:I63 A309:I341 B168:D169 I168:I169 D294:H294 D116:H141 D576:D577 D523:E523 A143:I149 A343:I352 A151:I154 A150:H150 A156:I157 A155:H155 A159:I161 A158:H158 A228:H238 A525:D525 A528:D528 A142:H142 A342:H342 E655:I662 E654:H654 E664:I672 E663:H663 E674:I675 E673:H673 E676:H679 D516:H522 A514:D515 A195:H195 A353:H353 D239:I293 A20:H114 A163:I163 A162:H162 E623:I653 A295:I307 A308:H308 A354:I460 A578:D679 A701:D701 A170:I193 A692:D694 A684:D684 A681:I683 A680:H680 B164:I164 E165:H169 A197:H226 A463:I486 I496:I514 A487:D512 E487:H514 I538:I544 A531:D575 E525:H622 A695:C700 E684:H701 I546:I561">
@@ -30930,12 +30929,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F2EA47BB262D974097182E2CA8AB13E1" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="74597e8d9e42e7e4fc8eda6d37675aa2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4aeb20c0e3442673af7ee10786458764">
     <xsd:element name="properties">
@@ -30984,6 +30977,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -30994,20 +30993,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDB2DE12-5EF6-4CF2-820D-5F9FE329E08E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -31022,6 +31007,20 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
   <ds:schemaRefs>

--- a/SharePoint/Docs/MS-DWSS/MS-DWSS_RequirementSpecification.xlsx
+++ b/SharePoint/Docs/MS-DWSS/MS-DWSS_RequirementSpecification.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{10EB5ADD-0767-466A-9B13-6AB9E76250CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{281575CF-E59A-4FFA-BC74-C8316E7388E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5299,9 +5299,6 @@
     </r>
   </si>
   <si>
-    <t>[In Appendix B: Product Behavior] Unless otherwise specified, any statement of optional behavior in this specification that is prescribed using the terms SHOULD or SHOULD NOT implies product behavior in accordance with the SHOULD or SHOULD NOT prescription.</t>
-  </si>
-  <si>
     <t>Open Specification Date:</t>
   </si>
   <si>
@@ -6014,6 +6011,10 @@
   </si>
   <si>
     <t>[In Appendix B: Product Behavior] Implementation does return NoAccess if the authenticated user is not permitted to access this information. (Microsoft SharePoint Server 2019 and above follow this behavior.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] Unless otherwise specified, any statement of optional behavior in this specification that is prescribed using the terms "SHOULD" or "SHOULD NOT" implies product behavior in accordance with the SHOULD or SHOULD NOT prescription.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6403,6 +6404,21 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -6426,21 +6442,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -10876,8 +10877,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L702"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C678" sqref="C678"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -10921,10 +10922,10 @@
         <v>25</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="F3" s="13">
         <v>43634</v>
@@ -10932,127 +10933,127 @@
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="21">
-      <c r="A4" s="70" t="s">
+      <c r="A4" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="70"/>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="73" t="s">
+      <c r="B5" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="74"/>
-      <c r="I5" s="74"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="72" t="s">
+      <c r="B6" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="71" t="s">
+      <c r="B7" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="71"/>
-      <c r="D7" s="71"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71"/>
-      <c r="G7" s="71"/>
-      <c r="H7" s="71"/>
-      <c r="I7" s="71"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="71" t="s">
+      <c r="B8" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="71"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="71"/>
-      <c r="G8" s="71"/>
-      <c r="H8" s="71"/>
-      <c r="I8" s="71"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="63"/>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" ht="78.75" customHeight="1">
       <c r="A9" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="66" t="s">
+      <c r="B9" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="67"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="67"/>
-      <c r="H9" s="67"/>
-      <c r="I9" s="67"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="72"/>
+      <c r="I9" s="72"/>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="33.75" customHeight="1">
       <c r="A10" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="66" t="s">
+      <c r="B10" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="67"/>
-      <c r="D10" s="67"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="67"/>
-      <c r="H10" s="67"/>
-      <c r="I10" s="67"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="72"/>
+      <c r="H10" s="72"/>
+      <c r="I10" s="72"/>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="62" t="s">
+      <c r="B11" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="62"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="62"/>
-      <c r="I11" s="62"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="67"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10">
@@ -11065,12 +11066,12 @@
       <c r="C12" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="63"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="63"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="63"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="68"/>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1">
@@ -11083,12 +11084,12 @@
       <c r="C13" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="64"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="64"/>
-      <c r="I13" s="64"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="69"/>
+      <c r="I13" s="69"/>
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10">
@@ -11101,12 +11102,12 @@
       <c r="C14" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="64"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="64"/>
-      <c r="G14" s="64"/>
-      <c r="H14" s="64"/>
-      <c r="I14" s="64"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="69"/>
+      <c r="H14" s="69"/>
+      <c r="I14" s="69"/>
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10">
@@ -11119,60 +11120,60 @@
       <c r="C15" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="65"/>
-      <c r="H15" s="65"/>
-      <c r="I15" s="65"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="70"/>
+      <c r="I15" s="70"/>
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" ht="30" customHeight="1">
       <c r="A16" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="62" t="s">
+      <c r="B16" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="62"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="62"/>
-      <c r="H16" s="62"/>
-      <c r="I16" s="62"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="67"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="67"/>
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:12" ht="81" customHeight="1">
       <c r="A17" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="68" t="s">
+      <c r="B17" s="73" t="s">
         <v>1455</v>
       </c>
-      <c r="C17" s="69"/>
-      <c r="D17" s="69"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="69"/>
-      <c r="G17" s="69"/>
-      <c r="H17" s="69"/>
-      <c r="I17" s="69"/>
+      <c r="C17" s="74"/>
+      <c r="D17" s="74"/>
+      <c r="E17" s="74"/>
+      <c r="F17" s="74"/>
+      <c r="G17" s="74"/>
+      <c r="H17" s="74"/>
+      <c r="I17" s="74"/>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1">
       <c r="A18" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="62" t="s">
+      <c r="B18" s="67" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="62"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="62"/>
-      <c r="H18" s="62"/>
-      <c r="I18" s="62"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="67"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="67"/>
+      <c r="H18" s="67"/>
+      <c r="I18" s="67"/>
       <c r="J18" s="5"/>
       <c r="L18" s="4"/>
     </row>
@@ -11214,7 +11215,7 @@
         <v>43</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="D20" s="26"/>
       <c r="E20" s="28" t="s">
@@ -11239,7 +11240,7 @@
         <v>43</v>
       </c>
       <c r="C21" s="27" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="D21" s="26"/>
       <c r="E21" s="28" t="s">
@@ -11289,7 +11290,7 @@
         <v>43</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="D23" s="26"/>
       <c r="E23" s="28" t="s">
@@ -11314,7 +11315,7 @@
         <v>49</v>
       </c>
       <c r="C24" s="27" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="D24" s="26"/>
       <c r="E24" s="28" t="s">
@@ -11364,7 +11365,7 @@
         <v>49</v>
       </c>
       <c r="C26" s="27" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="D26" s="26"/>
       <c r="E26" s="28" t="s">
@@ -11460,13 +11461,13 @@
     </row>
     <row r="30" spans="1:12" customFormat="1" ht="27">
       <c r="A30" s="25" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="B30" s="26" t="s">
         <v>56</v>
       </c>
       <c r="C30" s="30" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="D30" s="26"/>
       <c r="E30" s="28" t="s">
@@ -11485,13 +11486,13 @@
     </row>
     <row r="31" spans="1:12" customFormat="1" ht="54">
       <c r="A31" s="25" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="B31" s="26" t="s">
         <v>56</v>
       </c>
       <c r="C31" s="30" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="D31" s="26"/>
       <c r="E31" s="28" t="s">
@@ -11516,7 +11517,7 @@
         <v>63</v>
       </c>
       <c r="C32" s="30" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="D32" s="26"/>
       <c r="E32" s="28" t="s">
@@ -11816,7 +11817,7 @@
         <v>85</v>
       </c>
       <c r="C44" s="27" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="D44" s="26"/>
       <c r="E44" s="28" t="s">
@@ -11917,7 +11918,7 @@
         <v>85</v>
       </c>
       <c r="C48" s="27" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="D48" s="26"/>
       <c r="E48" s="28" t="s">
@@ -11967,7 +11968,7 @@
         <v>100</v>
       </c>
       <c r="C50" s="27" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="D50" s="26"/>
       <c r="E50" s="28" t="s">
@@ -12067,7 +12068,7 @@
         <v>108</v>
       </c>
       <c r="C54" s="30" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="D54" s="26"/>
       <c r="E54" s="28" t="s">
@@ -12084,7 +12085,7 @@
       </c>
       <c r="I54" s="45"/>
     </row>
-    <row r="55" spans="1:9" customFormat="1" ht="13.5">
+    <row r="55" spans="1:9" customFormat="1" ht="27">
       <c r="A55" s="25" t="s">
         <v>109</v>
       </c>
@@ -12529,7 +12530,7 @@
       </c>
       <c r="I71" s="45"/>
     </row>
-    <row r="72" spans="1:9" customFormat="1" ht="13.5">
+    <row r="72" spans="1:9" customFormat="1" ht="27">
       <c r="A72" s="25" t="s">
         <v>144</v>
       </c>
@@ -12554,7 +12555,7 @@
       </c>
       <c r="I72" s="45"/>
     </row>
-    <row r="73" spans="1:9" customFormat="1" ht="13.5">
+    <row r="73" spans="1:9" customFormat="1" ht="27">
       <c r="A73" s="25" t="s">
         <v>146</v>
       </c>
@@ -12654,7 +12655,7 @@
       </c>
       <c r="I76" s="45"/>
     </row>
-    <row r="77" spans="1:9" customFormat="1" ht="13.5">
+    <row r="77" spans="1:9" customFormat="1" ht="27">
       <c r="A77" s="25" t="s">
         <v>154</v>
       </c>
@@ -12679,7 +12680,7 @@
       </c>
       <c r="I77" s="45"/>
     </row>
-    <row r="78" spans="1:9" customFormat="1" ht="13.5">
+    <row r="78" spans="1:9" customFormat="1" ht="27">
       <c r="A78" s="25" t="s">
         <v>156</v>
       </c>
@@ -12704,7 +12705,7 @@
       </c>
       <c r="I78" s="45"/>
     </row>
-    <row r="79" spans="1:9" customFormat="1" ht="13.5">
+    <row r="79" spans="1:9" customFormat="1" ht="27">
       <c r="A79" s="25" t="s">
         <v>158</v>
       </c>
@@ -12729,7 +12730,7 @@
       </c>
       <c r="I79" s="45"/>
     </row>
-    <row r="80" spans="1:9" customFormat="1" ht="13.5">
+    <row r="80" spans="1:9" customFormat="1" ht="27">
       <c r="A80" s="25" t="s">
         <v>160</v>
       </c>
@@ -12754,7 +12755,7 @@
       </c>
       <c r="I80" s="45"/>
     </row>
-    <row r="81" spans="1:10" customFormat="1">
+    <row r="81" spans="1:10" customFormat="1" ht="27">
       <c r="A81" s="25" t="s">
         <v>162</v>
       </c>
@@ -12779,7 +12780,7 @@
       </c>
       <c r="I81" s="46"/>
     </row>
-    <row r="82" spans="1:10" customFormat="1" ht="13.5">
+    <row r="82" spans="1:10" customFormat="1" ht="27">
       <c r="A82" s="25" t="s">
         <v>164</v>
       </c>
@@ -12804,7 +12805,7 @@
       </c>
       <c r="I82" s="45"/>
     </row>
-    <row r="83" spans="1:10" customFormat="1" ht="13.5">
+    <row r="83" spans="1:10" customFormat="1" ht="27">
       <c r="A83" s="25" t="s">
         <v>166</v>
       </c>
@@ -12829,7 +12830,7 @@
       </c>
       <c r="I83" s="45"/>
     </row>
-    <row r="84" spans="1:10" customFormat="1" ht="13.5">
+    <row r="84" spans="1:10" customFormat="1" ht="27">
       <c r="A84" s="25" t="s">
         <v>168</v>
       </c>
@@ -12854,7 +12855,7 @@
       </c>
       <c r="I84" s="45"/>
     </row>
-    <row r="85" spans="1:10" customFormat="1" ht="13.5">
+    <row r="85" spans="1:10" customFormat="1" ht="27">
       <c r="A85" s="25" t="s">
         <v>170</v>
       </c>
@@ -12879,7 +12880,7 @@
       </c>
       <c r="I85" s="45"/>
     </row>
-    <row r="86" spans="1:10" customFormat="1" ht="13.5">
+    <row r="86" spans="1:10" customFormat="1" ht="27">
       <c r="A86" s="25" t="s">
         <v>172</v>
       </c>
@@ -12904,7 +12905,7 @@
       </c>
       <c r="I86" s="45"/>
     </row>
-    <row r="87" spans="1:10" customFormat="1" ht="13.5">
+    <row r="87" spans="1:10" customFormat="1" ht="27">
       <c r="A87" s="25" t="s">
         <v>174</v>
       </c>
@@ -12929,7 +12930,7 @@
       </c>
       <c r="I87" s="45"/>
     </row>
-    <row r="88" spans="1:10" customFormat="1" ht="13.5">
+    <row r="88" spans="1:10" customFormat="1" ht="27">
       <c r="A88" s="25" t="s">
         <v>176</v>
       </c>
@@ -12955,7 +12956,7 @@
       <c r="I88" s="45"/>
       <c r="J88" s="31"/>
     </row>
-    <row r="89" spans="1:10" customFormat="1" ht="13.5">
+    <row r="89" spans="1:10" customFormat="1" ht="27">
       <c r="A89" s="25" t="s">
         <v>178</v>
       </c>
@@ -12980,7 +12981,7 @@
       </c>
       <c r="I89" s="45"/>
     </row>
-    <row r="90" spans="1:10" customFormat="1" ht="13.5">
+    <row r="90" spans="1:10" customFormat="1" ht="27">
       <c r="A90" s="25" t="s">
         <v>180</v>
       </c>
@@ -13005,7 +13006,7 @@
       </c>
       <c r="I90" s="45"/>
     </row>
-    <row r="91" spans="1:10" customFormat="1" ht="13.5">
+    <row r="91" spans="1:10" customFormat="1" ht="27">
       <c r="A91" s="25" t="s">
         <v>182</v>
       </c>
@@ -13105,7 +13106,7 @@
       </c>
       <c r="I94" s="45"/>
     </row>
-    <row r="95" spans="1:10" customFormat="1" ht="13.5">
+    <row r="95" spans="1:10" customFormat="1" ht="27">
       <c r="A95" s="25" t="s">
         <v>191</v>
       </c>
@@ -13113,7 +13114,7 @@
         <v>192</v>
       </c>
       <c r="C95" s="27" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="D95" s="26"/>
       <c r="E95" s="28" t="s">
@@ -13138,7 +13139,7 @@
         <v>192</v>
       </c>
       <c r="C96" s="30" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="D96" s="26"/>
       <c r="E96" s="28" t="s">
@@ -13180,7 +13181,7 @@
       </c>
       <c r="I97" s="45"/>
     </row>
-    <row r="98" spans="1:10" customFormat="1" ht="13.5">
+    <row r="98" spans="1:10" customFormat="1" ht="27">
       <c r="A98" s="25" t="s">
         <v>196</v>
       </c>
@@ -13205,7 +13206,7 @@
       </c>
       <c r="I98" s="45"/>
     </row>
-    <row r="99" spans="1:10" customFormat="1" ht="13.5">
+    <row r="99" spans="1:10" customFormat="1" ht="27">
       <c r="A99" s="25" t="s">
         <v>198</v>
       </c>
@@ -13230,7 +13231,7 @@
       </c>
       <c r="I99" s="45"/>
     </row>
-    <row r="100" spans="1:10" customFormat="1" ht="13.5">
+    <row r="100" spans="1:10" customFormat="1" ht="27">
       <c r="A100" s="25" t="s">
         <v>200</v>
       </c>
@@ -13238,7 +13239,7 @@
         <v>192</v>
       </c>
       <c r="C100" s="27" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="D100" s="26"/>
       <c r="E100" s="28" t="s">
@@ -13256,7 +13257,7 @@
       <c r="I100" s="45"/>
       <c r="J100" s="31"/>
     </row>
-    <row r="101" spans="1:10" customFormat="1" ht="13.5">
+    <row r="101" spans="1:10" customFormat="1" ht="27">
       <c r="A101" s="25" t="s">
         <v>201</v>
       </c>
@@ -13306,7 +13307,7 @@
       </c>
       <c r="I102" s="45"/>
     </row>
-    <row r="103" spans="1:10" customFormat="1" ht="13.5">
+    <row r="103" spans="1:10" customFormat="1" ht="27">
       <c r="A103" s="25" t="s">
         <v>205</v>
       </c>
@@ -13314,7 +13315,7 @@
         <v>192</v>
       </c>
       <c r="C103" s="27" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="D103" s="26"/>
       <c r="E103" s="28" t="s">
@@ -13356,7 +13357,7 @@
       </c>
       <c r="I104" s="45"/>
     </row>
-    <row r="105" spans="1:10" customFormat="1" ht="13.5">
+    <row r="105" spans="1:10" customFormat="1" ht="27">
       <c r="A105" s="25" t="s">
         <v>208</v>
       </c>
@@ -13406,7 +13407,7 @@
       </c>
       <c r="I106" s="45"/>
     </row>
-    <row r="107" spans="1:10" customFormat="1" ht="13.5">
+    <row r="107" spans="1:10" customFormat="1" ht="27">
       <c r="A107" s="25" t="s">
         <v>212</v>
       </c>
@@ -13456,7 +13457,7 @@
       </c>
       <c r="I108" s="45"/>
     </row>
-    <row r="109" spans="1:10" customFormat="1" ht="13.5">
+    <row r="109" spans="1:10" customFormat="1" ht="27">
       <c r="A109" s="25" t="s">
         <v>216</v>
       </c>
@@ -13506,7 +13507,7 @@
       </c>
       <c r="I110" s="45"/>
     </row>
-    <row r="111" spans="1:10" customFormat="1" ht="13.5">
+    <row r="111" spans="1:10" customFormat="1" ht="27">
       <c r="A111" s="25" t="s">
         <v>220</v>
       </c>
@@ -13589,7 +13590,7 @@
         <v>192</v>
       </c>
       <c r="C114" s="27" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="D114" s="26"/>
       <c r="E114" s="28" t="s">
@@ -13658,7 +13659,7 @@
       </c>
       <c r="I116" s="45"/>
     </row>
-    <row r="117" spans="1:9" customFormat="1" ht="13.5">
+    <row r="117" spans="1:9" customFormat="1" ht="27">
       <c r="A117" s="25" t="s">
         <v>231</v>
       </c>
@@ -13716,7 +13717,7 @@
         <v>236</v>
       </c>
       <c r="C119" s="27" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="D119" s="26"/>
       <c r="E119" s="28" t="s">
@@ -13758,7 +13759,7 @@
       </c>
       <c r="I120" s="45"/>
     </row>
-    <row r="121" spans="1:9" customFormat="1" ht="13.5">
+    <row r="121" spans="1:9" customFormat="1" ht="27">
       <c r="A121" s="25" t="s">
         <v>239</v>
       </c>
@@ -13783,7 +13784,7 @@
       </c>
       <c r="I121" s="45"/>
     </row>
-    <row r="122" spans="1:9" customFormat="1" ht="13.5">
+    <row r="122" spans="1:9" customFormat="1" ht="27">
       <c r="A122" s="25" t="s">
         <v>241</v>
       </c>
@@ -13791,7 +13792,7 @@
         <v>236</v>
       </c>
       <c r="C122" s="27" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="D122" s="26"/>
       <c r="E122" s="28" t="s">
@@ -13808,7 +13809,7 @@
       </c>
       <c r="I122" s="45"/>
     </row>
-    <row r="123" spans="1:9" customFormat="1" ht="13.5">
+    <row r="123" spans="1:9" customFormat="1" ht="27">
       <c r="A123" s="25" t="s">
         <v>242</v>
       </c>
@@ -13833,7 +13834,7 @@
       </c>
       <c r="I123" s="45"/>
     </row>
-    <row r="124" spans="1:9" customFormat="1" ht="13.5">
+    <row r="124" spans="1:9" customFormat="1" ht="27">
       <c r="A124" s="25" t="s">
         <v>244</v>
       </c>
@@ -13858,7 +13859,7 @@
       </c>
       <c r="I124" s="45"/>
     </row>
-    <row r="125" spans="1:9" customFormat="1" ht="13.5">
+    <row r="125" spans="1:9" customFormat="1" ht="27">
       <c r="A125" s="25" t="s">
         <v>246</v>
       </c>
@@ -13883,7 +13884,7 @@
       </c>
       <c r="I125" s="45"/>
     </row>
-    <row r="126" spans="1:9" customFormat="1" ht="13.5">
+    <row r="126" spans="1:9" customFormat="1" ht="27">
       <c r="A126" s="25" t="s">
         <v>248</v>
       </c>
@@ -13908,7 +13909,7 @@
       </c>
       <c r="I126" s="45"/>
     </row>
-    <row r="127" spans="1:9" customFormat="1" ht="13.5">
+    <row r="127" spans="1:9" customFormat="1" ht="27">
       <c r="A127" s="25" t="s">
         <v>250</v>
       </c>
@@ -13941,7 +13942,7 @@
         <v>236</v>
       </c>
       <c r="C128" s="27" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="D128" s="26"/>
       <c r="E128" s="28" t="s">
@@ -13958,7 +13959,7 @@
       </c>
       <c r="I128" s="45"/>
     </row>
-    <row r="129" spans="1:9" customFormat="1" ht="13.5">
+    <row r="129" spans="1:9" customFormat="1" ht="27">
       <c r="A129" s="25" t="s">
         <v>253</v>
       </c>
@@ -13983,7 +13984,7 @@
       </c>
       <c r="I129" s="45"/>
     </row>
-    <row r="130" spans="1:9" customFormat="1" ht="13.5">
+    <row r="130" spans="1:9" customFormat="1" ht="27">
       <c r="A130" s="25" t="s">
         <v>255</v>
       </c>
@@ -14133,7 +14134,7 @@
       </c>
       <c r="I135" s="45"/>
     </row>
-    <row r="136" spans="1:9" customFormat="1" ht="13.5">
+    <row r="136" spans="1:9" customFormat="1" ht="27">
       <c r="A136" s="25" t="s">
         <v>268</v>
       </c>
@@ -14158,7 +14159,7 @@
       </c>
       <c r="I136" s="45"/>
     </row>
-    <row r="137" spans="1:9" customFormat="1" ht="13.5">
+    <row r="137" spans="1:9" customFormat="1" ht="27">
       <c r="A137" s="25" t="s">
         <v>270</v>
       </c>
@@ -14183,7 +14184,7 @@
       </c>
       <c r="I137" s="45"/>
     </row>
-    <row r="138" spans="1:9" customFormat="1" ht="13.5">
+    <row r="138" spans="1:9" customFormat="1" ht="27">
       <c r="A138" s="25" t="s">
         <v>272</v>
       </c>
@@ -14208,7 +14209,7 @@
       </c>
       <c r="I138" s="45"/>
     </row>
-    <row r="139" spans="1:9" customFormat="1" ht="13.5">
+    <row r="139" spans="1:9" customFormat="1" ht="27">
       <c r="A139" s="25" t="s">
         <v>274</v>
       </c>
@@ -14233,7 +14234,7 @@
       </c>
       <c r="I139" s="45"/>
     </row>
-    <row r="140" spans="1:9" customFormat="1" ht="13.5">
+    <row r="140" spans="1:9" customFormat="1" ht="27">
       <c r="A140" s="25" t="s">
         <v>276</v>
       </c>
@@ -14316,7 +14317,7 @@
         <v>279</v>
       </c>
       <c r="C143" s="30" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="D143" s="26"/>
       <c r="E143" s="28" t="s">
@@ -14341,7 +14342,7 @@
         <v>31</v>
       </c>
       <c r="C144" s="27" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="D144" s="26"/>
       <c r="E144" s="28" t="s">
@@ -14358,7 +14359,7 @@
       </c>
       <c r="I144" s="45"/>
     </row>
-    <row r="145" spans="1:9" customFormat="1" ht="13.5">
+    <row r="145" spans="1:9" customFormat="1" ht="27">
       <c r="A145" s="25" t="s">
         <v>285</v>
       </c>
@@ -14408,7 +14409,7 @@
       </c>
       <c r="I146" s="45"/>
     </row>
-    <row r="147" spans="1:9" customFormat="1" ht="13.5">
+    <row r="147" spans="1:9" customFormat="1" ht="27">
       <c r="A147" s="25" t="s">
         <v>289</v>
       </c>
@@ -14435,7 +14436,7 @@
       </c>
       <c r="I147" s="45"/>
     </row>
-    <row r="148" spans="1:9" customFormat="1" ht="13.5">
+    <row r="148" spans="1:9" customFormat="1" ht="27">
       <c r="A148" s="25" t="s">
         <v>292</v>
       </c>
@@ -14462,7 +14463,7 @@
       </c>
       <c r="I148" s="45"/>
     </row>
-    <row r="149" spans="1:9" customFormat="1" ht="13.5">
+    <row r="149" spans="1:9" customFormat="1" ht="27">
       <c r="A149" s="25" t="s">
         <v>294</v>
       </c>
@@ -14514,7 +14515,7 @@
       </c>
       <c r="I150" s="45"/>
     </row>
-    <row r="151" spans="1:9" customFormat="1" ht="13.5">
+    <row r="151" spans="1:9" customFormat="1" ht="27">
       <c r="A151" s="25" t="s">
         <v>298</v>
       </c>
@@ -14564,7 +14565,7 @@
       </c>
       <c r="I152" s="45"/>
     </row>
-    <row r="153" spans="1:9" customFormat="1" ht="13.5">
+    <row r="153" spans="1:9" customFormat="1" ht="27">
       <c r="A153" s="25" t="s">
         <v>302</v>
       </c>
@@ -14664,7 +14665,7 @@
       </c>
       <c r="I156" s="45"/>
     </row>
-    <row r="157" spans="1:9" customFormat="1" ht="13.5">
+    <row r="157" spans="1:9" customFormat="1" ht="27">
       <c r="A157" s="25" t="s">
         <v>311</v>
       </c>
@@ -14797,7 +14798,7 @@
         <v>31</v>
       </c>
       <c r="C162" s="27" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="D162" s="26"/>
       <c r="E162" s="28" t="s">
@@ -14866,7 +14867,7 @@
       </c>
       <c r="I164" s="45"/>
     </row>
-    <row r="165" spans="1:9" s="39" customFormat="1">
+    <row r="165" spans="1:9" s="39" customFormat="1" ht="27">
       <c r="A165" s="42" t="s">
         <v>1441</v>
       </c>
@@ -14891,7 +14892,7 @@
       </c>
       <c r="I165" s="46"/>
     </row>
-    <row r="166" spans="1:9" s="39" customFormat="1">
+    <row r="166" spans="1:9" s="39" customFormat="1" ht="27">
       <c r="A166" s="42" t="s">
         <v>1442</v>
       </c>
@@ -14916,7 +14917,7 @@
       </c>
       <c r="I166" s="46"/>
     </row>
-    <row r="167" spans="1:9" s="39" customFormat="1">
+    <row r="167" spans="1:9" s="39" customFormat="1" ht="27">
       <c r="A167" s="42" t="s">
         <v>1443</v>
       </c>
@@ -15049,7 +15050,7 @@
         <v>325</v>
       </c>
       <c r="C172" s="27" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="D172" s="26"/>
       <c r="E172" s="28" t="s">
@@ -15174,7 +15175,7 @@
         <v>338</v>
       </c>
       <c r="C177" s="30" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="D177" s="26"/>
       <c r="E177" s="28" t="s">
@@ -15274,7 +15275,7 @@
         <v>338</v>
       </c>
       <c r="C181" s="27" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="D181" s="26"/>
       <c r="E181" s="28" t="s">
@@ -15291,7 +15292,7 @@
       </c>
       <c r="I181" s="45"/>
     </row>
-    <row r="182" spans="1:10" customFormat="1" ht="13.5">
+    <row r="182" spans="1:10" customFormat="1" ht="27">
       <c r="A182" s="25" t="s">
         <v>348</v>
       </c>
@@ -15324,7 +15325,7 @@
         <v>338</v>
       </c>
       <c r="C183" s="27" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="D183" s="26"/>
       <c r="E183" s="28" t="s">
@@ -15341,7 +15342,7 @@
       </c>
       <c r="I183" s="45"/>
     </row>
-    <row r="184" spans="1:10" customFormat="1" ht="13.5">
+    <row r="184" spans="1:10" customFormat="1" ht="27">
       <c r="A184" s="25" t="s">
         <v>351</v>
       </c>
@@ -15349,7 +15350,7 @@
         <v>338</v>
       </c>
       <c r="C184" s="27" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="D184" s="26"/>
       <c r="E184" s="28" t="s">
@@ -15366,7 +15367,7 @@
       </c>
       <c r="I184" s="45"/>
     </row>
-    <row r="185" spans="1:10" customFormat="1" ht="13.5">
+    <row r="185" spans="1:10" customFormat="1" ht="27">
       <c r="A185" s="25" t="s">
         <v>352</v>
       </c>
@@ -15442,7 +15443,7 @@
       <c r="I187" s="45"/>
       <c r="J187" s="31"/>
     </row>
-    <row r="188" spans="1:10" customFormat="1" ht="13.5">
+    <row r="188" spans="1:10" customFormat="1" ht="27">
       <c r="A188" s="25" t="s">
         <v>358</v>
       </c>
@@ -15518,7 +15519,7 @@
       <c r="I190" s="45"/>
       <c r="J190" s="31"/>
     </row>
-    <row r="191" spans="1:10" customFormat="1" ht="13.5">
+    <row r="191" spans="1:10" customFormat="1" ht="27">
       <c r="A191" s="25" t="s">
         <v>364</v>
       </c>
@@ -15618,15 +15619,15 @@
       </c>
       <c r="I194" s="45"/>
     </row>
-    <row r="195" spans="1:9" customFormat="1" ht="13.5">
+    <row r="195" spans="1:9" customFormat="1" ht="27">
       <c r="A195" s="25" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="B195" s="26" t="s">
         <v>338</v>
       </c>
       <c r="C195" s="27" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="D195" s="26"/>
       <c r="E195" s="28" t="s">
@@ -15643,15 +15644,15 @@
       </c>
       <c r="I195" s="45"/>
     </row>
-    <row r="196" spans="1:9" s="39" customFormat="1" ht="13.5">
+    <row r="196" spans="1:9" s="39" customFormat="1" ht="27">
       <c r="A196" s="40" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="B196" s="41" t="s">
         <v>338</v>
       </c>
       <c r="C196" s="27" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="D196" s="41"/>
       <c r="E196" s="42" t="s">
@@ -15751,7 +15752,7 @@
         <v>382</v>
       </c>
       <c r="C200" s="27" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="D200" s="26"/>
       <c r="E200" s="28" t="s">
@@ -15801,7 +15802,7 @@
         <v>382</v>
       </c>
       <c r="C202" s="27" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="D202" s="26"/>
       <c r="E202" s="28" t="s">
@@ -15826,7 +15827,7 @@
         <v>382</v>
       </c>
       <c r="C203" s="27" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="D203" s="26"/>
       <c r="E203" s="28" t="s">
@@ -15976,7 +15977,7 @@
         <v>392</v>
       </c>
       <c r="C209" s="27" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="D209" s="26"/>
       <c r="E209" s="28" t="s">
@@ -16026,7 +16027,7 @@
         <v>392</v>
       </c>
       <c r="C211" s="27" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="D211" s="26"/>
       <c r="E211" s="28" t="s">
@@ -16126,7 +16127,7 @@
         <v>408</v>
       </c>
       <c r="C215" s="27" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="D215" s="26"/>
       <c r="E215" s="28" t="s">
@@ -16326,7 +16327,7 @@
         <v>408</v>
       </c>
       <c r="C223" s="27" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="D223" s="26"/>
       <c r="E223" s="28" t="s">
@@ -16502,7 +16503,7 @@
         <v>32</v>
       </c>
       <c r="C230" s="30" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="D230" s="26"/>
       <c r="E230" s="28" t="s">
@@ -16569,7 +16570,7 @@
       </c>
       <c r="I232" s="45"/>
     </row>
-    <row r="233" spans="1:10" customFormat="1" ht="13.5">
+    <row r="233" spans="1:10" customFormat="1" ht="27">
       <c r="A233" s="25" t="s">
         <v>444</v>
       </c>
@@ -16594,7 +16595,7 @@
       </c>
       <c r="I233" s="45"/>
     </row>
-    <row r="234" spans="1:10" customFormat="1" ht="13.5">
+    <row r="234" spans="1:10" customFormat="1" ht="40.5">
       <c r="A234" s="25" t="s">
         <v>446</v>
       </c>
@@ -16644,7 +16645,7 @@
       </c>
       <c r="I235" s="45"/>
     </row>
-    <row r="236" spans="1:10" customFormat="1" ht="13.5">
+    <row r="236" spans="1:10" customFormat="1" ht="40.5">
       <c r="A236" s="25" t="s">
         <v>451</v>
       </c>
@@ -16669,7 +16670,7 @@
       </c>
       <c r="I236" s="45"/>
     </row>
-    <row r="237" spans="1:10" customFormat="1" ht="27">
+    <row r="237" spans="1:10" customFormat="1" ht="40.5">
       <c r="A237" s="25" t="s">
         <v>453</v>
       </c>
@@ -16719,7 +16720,7 @@
       </c>
       <c r="I238" s="45"/>
     </row>
-    <row r="239" spans="1:10" customFormat="1" ht="27">
+    <row r="239" spans="1:10" customFormat="1" ht="40.5">
       <c r="A239" s="25" t="s">
         <v>458</v>
       </c>
@@ -16819,7 +16820,7 @@
       </c>
       <c r="I242" s="45"/>
     </row>
-    <row r="243" spans="1:9" customFormat="1" ht="27">
+    <row r="243" spans="1:9" customFormat="1" ht="40.5">
       <c r="A243" s="25" t="s">
         <v>468</v>
       </c>
@@ -16869,7 +16870,7 @@
       </c>
       <c r="I244" s="45"/>
     </row>
-    <row r="245" spans="1:9" customFormat="1" ht="27">
+    <row r="245" spans="1:9" customFormat="1" ht="40.5">
       <c r="A245" s="25" t="s">
         <v>473</v>
       </c>
@@ -16894,7 +16895,7 @@
       </c>
       <c r="I245" s="45"/>
     </row>
-    <row r="246" spans="1:9" customFormat="1" ht="13.5">
+    <row r="246" spans="1:9" customFormat="1" ht="40.5">
       <c r="A246" s="25" t="s">
         <v>474</v>
       </c>
@@ -16919,7 +16920,7 @@
       </c>
       <c r="I246" s="45"/>
     </row>
-    <row r="247" spans="1:9" customFormat="1" ht="13.5">
+    <row r="247" spans="1:9" customFormat="1" ht="40.5">
       <c r="A247" s="25" t="s">
         <v>475</v>
       </c>
@@ -16927,7 +16928,7 @@
         <v>469</v>
       </c>
       <c r="C247" s="27" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="D247" s="26"/>
       <c r="E247" s="28" t="s">
@@ -16944,7 +16945,7 @@
       </c>
       <c r="I247" s="45"/>
     </row>
-    <row r="248" spans="1:9" customFormat="1" ht="27">
+    <row r="248" spans="1:9" customFormat="1" ht="40.5">
       <c r="A248" s="25" t="s">
         <v>476</v>
       </c>
@@ -16969,7 +16970,7 @@
       </c>
       <c r="I248" s="45"/>
     </row>
-    <row r="249" spans="1:9" customFormat="1" ht="27">
+    <row r="249" spans="1:9" customFormat="1" ht="40.5">
       <c r="A249" s="28" t="s">
         <v>477</v>
       </c>
@@ -16996,7 +16997,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="250" spans="1:9" customFormat="1" ht="27">
+    <row r="250" spans="1:9" customFormat="1" ht="40.5">
       <c r="A250" s="25" t="s">
         <v>481</v>
       </c>
@@ -17046,7 +17047,7 @@
       </c>
       <c r="I251" s="45"/>
     </row>
-    <row r="252" spans="1:9" customFormat="1" ht="27">
+    <row r="252" spans="1:9" customFormat="1" ht="40.5">
       <c r="A252" s="25" t="s">
         <v>486</v>
       </c>
@@ -17096,7 +17097,7 @@
       </c>
       <c r="I253" s="45"/>
     </row>
-    <row r="254" spans="1:9" customFormat="1" ht="13.5">
+    <row r="254" spans="1:9" customFormat="1" ht="40.5">
       <c r="A254" s="25" t="s">
         <v>490</v>
       </c>
@@ -17121,7 +17122,7 @@
       </c>
       <c r="I254" s="45"/>
     </row>
-    <row r="255" spans="1:9" customFormat="1" ht="27">
+    <row r="255" spans="1:9" customFormat="1" ht="40.5">
       <c r="A255" s="25" t="s">
         <v>492</v>
       </c>
@@ -17146,7 +17147,7 @@
       </c>
       <c r="I255" s="45"/>
     </row>
-    <row r="256" spans="1:9" customFormat="1" ht="13.5">
+    <row r="256" spans="1:9" customFormat="1" ht="27">
       <c r="A256" s="25" t="s">
         <v>494</v>
       </c>
@@ -17221,7 +17222,7 @@
       </c>
       <c r="I258" s="45"/>
     </row>
-    <row r="259" spans="1:9" customFormat="1" ht="13.5">
+    <row r="259" spans="1:9" customFormat="1" ht="27">
       <c r="A259" s="25" t="s">
         <v>500</v>
       </c>
@@ -17371,7 +17372,7 @@
       </c>
       <c r="I264" s="45"/>
     </row>
-    <row r="265" spans="1:9" customFormat="1" ht="13.5">
+    <row r="265" spans="1:9" customFormat="1" ht="27">
       <c r="A265" s="25" t="s">
         <v>512</v>
       </c>
@@ -17471,7 +17472,7 @@
       </c>
       <c r="I268" s="45"/>
     </row>
-    <row r="269" spans="1:9" customFormat="1" ht="27">
+    <row r="269" spans="1:9" customFormat="1" ht="40.5">
       <c r="A269" s="25" t="s">
         <v>521</v>
       </c>
@@ -17496,7 +17497,7 @@
       </c>
       <c r="I269" s="45"/>
     </row>
-    <row r="270" spans="1:9" customFormat="1" ht="13.5">
+    <row r="270" spans="1:9" customFormat="1" ht="40.5">
       <c r="A270" s="25" t="s">
         <v>524</v>
       </c>
@@ -17521,7 +17522,7 @@
       </c>
       <c r="I270" s="45"/>
     </row>
-    <row r="271" spans="1:9" customFormat="1" ht="27">
+    <row r="271" spans="1:9" customFormat="1" ht="40.5">
       <c r="A271" s="25" t="s">
         <v>526</v>
       </c>
@@ -17546,7 +17547,7 @@
       </c>
       <c r="I271" s="45"/>
     </row>
-    <row r="272" spans="1:9" customFormat="1" ht="13.5">
+    <row r="272" spans="1:9" customFormat="1" ht="40.5">
       <c r="A272" s="25" t="s">
         <v>528</v>
       </c>
@@ -17571,7 +17572,7 @@
       </c>
       <c r="I272" s="45"/>
     </row>
-    <row r="273" spans="1:9" customFormat="1" ht="27">
+    <row r="273" spans="1:9" customFormat="1" ht="40.5">
       <c r="A273" s="25" t="s">
         <v>530</v>
       </c>
@@ -17596,7 +17597,7 @@
       </c>
       <c r="I273" s="45"/>
     </row>
-    <row r="274" spans="1:9" customFormat="1" ht="27">
+    <row r="274" spans="1:9" customFormat="1" ht="40.5">
       <c r="A274" s="25" t="s">
         <v>533</v>
       </c>
@@ -17621,7 +17622,7 @@
       </c>
       <c r="I274" s="45"/>
     </row>
-    <row r="275" spans="1:9" customFormat="1" ht="13.5">
+    <row r="275" spans="1:9" customFormat="1" ht="40.5">
       <c r="A275" s="25" t="s">
         <v>535</v>
       </c>
@@ -17721,7 +17722,7 @@
       </c>
       <c r="I278" s="45"/>
     </row>
-    <row r="279" spans="1:9" customFormat="1" ht="27">
+    <row r="279" spans="1:9" customFormat="1" ht="40.5">
       <c r="A279" s="25" t="s">
         <v>543</v>
       </c>
@@ -17771,7 +17772,7 @@
       </c>
       <c r="I280" s="45"/>
     </row>
-    <row r="281" spans="1:9" customFormat="1" ht="13.5">
+    <row r="281" spans="1:9" customFormat="1" ht="40.5">
       <c r="A281" s="25" t="s">
         <v>549</v>
       </c>
@@ -17796,7 +17797,7 @@
       </c>
       <c r="I281" s="45"/>
     </row>
-    <row r="282" spans="1:9" customFormat="1" ht="13.5">
+    <row r="282" spans="1:9" customFormat="1" ht="40.5">
       <c r="A282" s="25" t="s">
         <v>551</v>
       </c>
@@ -17829,7 +17830,7 @@
         <v>547</v>
       </c>
       <c r="C283" s="27" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="D283" s="26"/>
       <c r="E283" s="28" t="s">
@@ -17846,7 +17847,7 @@
       </c>
       <c r="I283" s="45"/>
     </row>
-    <row r="284" spans="1:9" customFormat="1" ht="27">
+    <row r="284" spans="1:9" customFormat="1" ht="40.5">
       <c r="A284" s="25" t="s">
         <v>554</v>
       </c>
@@ -17871,7 +17872,7 @@
       </c>
       <c r="I284" s="45"/>
     </row>
-    <row r="285" spans="1:9" customFormat="1" ht="27">
+    <row r="285" spans="1:9" customFormat="1" ht="40.5">
       <c r="A285" s="25" t="s">
         <v>556</v>
       </c>
@@ -17896,7 +17897,7 @@
       </c>
       <c r="I285" s="45"/>
     </row>
-    <row r="286" spans="1:9" customFormat="1" ht="13.5">
+    <row r="286" spans="1:9" customFormat="1" ht="40.5">
       <c r="A286" s="25" t="s">
         <v>558</v>
       </c>
@@ -17929,7 +17930,7 @@
         <v>547</v>
       </c>
       <c r="C287" s="30" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="D287" s="26"/>
       <c r="E287" s="28" t="s">
@@ -17946,7 +17947,7 @@
       </c>
       <c r="I287" s="45"/>
     </row>
-    <row r="288" spans="1:9" customFormat="1" ht="13.5">
+    <row r="288" spans="1:9" customFormat="1" ht="40.5">
       <c r="A288" s="25" t="s">
         <v>561</v>
       </c>
@@ -17971,7 +17972,7 @@
       </c>
       <c r="I288" s="45"/>
     </row>
-    <row r="289" spans="1:9" customFormat="1" ht="13.5">
+    <row r="289" spans="1:9" customFormat="1" ht="40.5">
       <c r="A289" s="25" t="s">
         <v>563</v>
       </c>
@@ -17996,7 +17997,7 @@
       </c>
       <c r="I289" s="45"/>
     </row>
-    <row r="290" spans="1:9" customFormat="1" ht="13.5">
+    <row r="290" spans="1:9" customFormat="1" ht="40.5">
       <c r="A290" s="25" t="s">
         <v>565</v>
       </c>
@@ -18021,7 +18022,7 @@
       </c>
       <c r="I290" s="45"/>
     </row>
-    <row r="291" spans="1:9" customFormat="1" ht="13.5">
+    <row r="291" spans="1:9" customFormat="1" ht="40.5">
       <c r="A291" s="25" t="s">
         <v>567</v>
       </c>
@@ -18125,7 +18126,7 @@
       </c>
       <c r="I294" s="45"/>
     </row>
-    <row r="295" spans="1:9" customFormat="1" ht="27">
+    <row r="295" spans="1:9" customFormat="1" ht="40.5">
       <c r="A295" s="25" t="s">
         <v>576</v>
       </c>
@@ -18150,7 +18151,7 @@
       </c>
       <c r="I295" s="45"/>
     </row>
-    <row r="296" spans="1:9" customFormat="1" ht="27">
+    <row r="296" spans="1:9" customFormat="1" ht="40.5">
       <c r="A296" s="25" t="s">
         <v>578</v>
       </c>
@@ -18158,7 +18159,7 @@
         <v>547</v>
       </c>
       <c r="C296" s="27" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="D296" s="26"/>
       <c r="E296" s="28" t="s">
@@ -18175,7 +18176,7 @@
       </c>
       <c r="I296" s="45"/>
     </row>
-    <row r="297" spans="1:9" customFormat="1" ht="13.5">
+    <row r="297" spans="1:9" customFormat="1" ht="40.5">
       <c r="A297" s="25" t="s">
         <v>579</v>
       </c>
@@ -18208,7 +18209,7 @@
         <v>547</v>
       </c>
       <c r="C298" s="30" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="D298" s="26"/>
       <c r="E298" s="28" t="s">
@@ -18225,7 +18226,7 @@
       </c>
       <c r="I298" s="45"/>
     </row>
-    <row r="299" spans="1:9" customFormat="1" ht="27">
+    <row r="299" spans="1:9" customFormat="1" ht="40.5">
       <c r="A299" s="25" t="s">
         <v>582</v>
       </c>
@@ -18250,7 +18251,7 @@
       </c>
       <c r="I299" s="45"/>
     </row>
-    <row r="300" spans="1:9" customFormat="1" ht="13.5">
+    <row r="300" spans="1:9" customFormat="1" ht="40.5">
       <c r="A300" s="25" t="s">
         <v>584</v>
       </c>
@@ -18275,7 +18276,7 @@
       </c>
       <c r="I300" s="45"/>
     </row>
-    <row r="301" spans="1:9" customFormat="1" ht="27">
+    <row r="301" spans="1:9" customFormat="1" ht="40.5">
       <c r="A301" s="25" t="s">
         <v>585</v>
       </c>
@@ -18325,7 +18326,7 @@
       </c>
       <c r="I302" s="45"/>
     </row>
-    <row r="303" spans="1:9" customFormat="1" ht="13.5">
+    <row r="303" spans="1:9" customFormat="1" ht="40.5">
       <c r="A303" s="25" t="s">
         <v>590</v>
       </c>
@@ -18358,7 +18359,7 @@
         <v>586</v>
       </c>
       <c r="C304" s="37" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="D304" s="26"/>
       <c r="E304" s="28" t="s">
@@ -18375,7 +18376,7 @@
       </c>
       <c r="I304" s="45"/>
     </row>
-    <row r="305" spans="1:10" customFormat="1" ht="13.5">
+    <row r="305" spans="1:10" customFormat="1" ht="40.5">
       <c r="A305" s="25" t="s">
         <v>593</v>
       </c>
@@ -18400,7 +18401,7 @@
       </c>
       <c r="I305" s="45"/>
     </row>
-    <row r="306" spans="1:10" customFormat="1" ht="27">
+    <row r="306" spans="1:10" customFormat="1" ht="40.5">
       <c r="A306" s="25" t="s">
         <v>595</v>
       </c>
@@ -18425,7 +18426,7 @@
       </c>
       <c r="I306" s="45"/>
     </row>
-    <row r="307" spans="1:10" customFormat="1" ht="27">
+    <row r="307" spans="1:10" customFormat="1" ht="40.5">
       <c r="A307" s="25" t="s">
         <v>597</v>
       </c>
@@ -18450,7 +18451,7 @@
       </c>
       <c r="I307" s="45"/>
     </row>
-    <row r="308" spans="1:10" customFormat="1" ht="28.5">
+    <row r="308" spans="1:10" customFormat="1" ht="42">
       <c r="A308" s="25" t="s">
         <v>599</v>
       </c>
@@ -18475,7 +18476,7 @@
       </c>
       <c r="I308" s="52"/>
     </row>
-    <row r="309" spans="1:10" customFormat="1" ht="27">
+    <row r="309" spans="1:10" customFormat="1" ht="40.5">
       <c r="A309" s="25" t="s">
         <v>601</v>
       </c>
@@ -18483,7 +18484,7 @@
         <v>602</v>
       </c>
       <c r="C309" s="44" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="D309" s="26"/>
       <c r="E309" s="28" t="s">
@@ -18502,7 +18503,7 @@
         <v>1376</v>
       </c>
     </row>
-    <row r="310" spans="1:10" customFormat="1" ht="13.5">
+    <row r="310" spans="1:10" customFormat="1" ht="40.5">
       <c r="A310" s="25" t="s">
         <v>603</v>
       </c>
@@ -18527,7 +18528,7 @@
       </c>
       <c r="I310" s="45"/>
     </row>
-    <row r="311" spans="1:10" customFormat="1" ht="13.5">
+    <row r="311" spans="1:10" customFormat="1" ht="40.5">
       <c r="A311" s="25" t="s">
         <v>605</v>
       </c>
@@ -18552,7 +18553,7 @@
       </c>
       <c r="I311" s="45"/>
     </row>
-    <row r="312" spans="1:10" customFormat="1" ht="27">
+    <row r="312" spans="1:10" customFormat="1" ht="40.5">
       <c r="A312" s="25" t="s">
         <v>607</v>
       </c>
@@ -18560,7 +18561,7 @@
         <v>586</v>
       </c>
       <c r="C312" s="27" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="D312" s="26"/>
       <c r="E312" s="28" t="s">
@@ -18578,7 +18579,7 @@
       <c r="I312" s="45"/>
       <c r="J312" s="31"/>
     </row>
-    <row r="313" spans="1:10" customFormat="1" ht="27">
+    <row r="313" spans="1:10" customFormat="1" ht="40.5">
       <c r="A313" s="25" t="s">
         <v>608</v>
       </c>
@@ -18603,7 +18604,7 @@
       </c>
       <c r="I313" s="45"/>
     </row>
-    <row r="314" spans="1:10" customFormat="1" ht="27">
+    <row r="314" spans="1:10" customFormat="1" ht="40.5">
       <c r="A314" s="25" t="s">
         <v>610</v>
       </c>
@@ -18636,7 +18637,7 @@
         <v>586</v>
       </c>
       <c r="C315" s="27" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="D315" s="26"/>
       <c r="E315" s="28" t="s">
@@ -18678,7 +18679,7 @@
       </c>
       <c r="I316" s="45"/>
     </row>
-    <row r="317" spans="1:10" customFormat="1" ht="27">
+    <row r="317" spans="1:10" customFormat="1" ht="40.5">
       <c r="A317" s="25" t="s">
         <v>615</v>
       </c>
@@ -18703,7 +18704,7 @@
       </c>
       <c r="I317" s="45"/>
     </row>
-    <row r="318" spans="1:10" customFormat="1" ht="13.5">
+    <row r="318" spans="1:10" customFormat="1" ht="40.5">
       <c r="A318" s="25" t="s">
         <v>617</v>
       </c>
@@ -19028,7 +19029,7 @@
       </c>
       <c r="I330" s="45"/>
     </row>
-    <row r="331" spans="1:9" customFormat="1" ht="27">
+    <row r="331" spans="1:9" customFormat="1" ht="40.5">
       <c r="A331" s="25" t="s">
         <v>643</v>
       </c>
@@ -19053,7 +19054,7 @@
       </c>
       <c r="I331" s="45"/>
     </row>
-    <row r="332" spans="1:9" customFormat="1" ht="27">
+    <row r="332" spans="1:9" customFormat="1" ht="40.5">
       <c r="A332" s="25" t="s">
         <v>646</v>
       </c>
@@ -19078,7 +19079,7 @@
       </c>
       <c r="I332" s="45"/>
     </row>
-    <row r="333" spans="1:9" customFormat="1" ht="13.5">
+    <row r="333" spans="1:9" customFormat="1" ht="40.5">
       <c r="A333" s="25" t="s">
         <v>649</v>
       </c>
@@ -19103,7 +19104,7 @@
       </c>
       <c r="I333" s="45"/>
     </row>
-    <row r="334" spans="1:9" customFormat="1" ht="13.5">
+    <row r="334" spans="1:9" customFormat="1" ht="40.5">
       <c r="A334" s="25" t="s">
         <v>651</v>
       </c>
@@ -19128,7 +19129,7 @@
       </c>
       <c r="I334" s="45"/>
     </row>
-    <row r="335" spans="1:9" customFormat="1" ht="27">
+    <row r="335" spans="1:9" customFormat="1" ht="40.5">
       <c r="A335" s="25" t="s">
         <v>654</v>
       </c>
@@ -19153,7 +19154,7 @@
       </c>
       <c r="I335" s="45"/>
     </row>
-    <row r="336" spans="1:9" customFormat="1" ht="13.5">
+    <row r="336" spans="1:9" customFormat="1" ht="40.5">
       <c r="A336" s="25" t="s">
         <v>656</v>
       </c>
@@ -19253,7 +19254,7 @@
       </c>
       <c r="I339" s="45"/>
     </row>
-    <row r="340" spans="1:10" customFormat="1" ht="27">
+    <row r="340" spans="1:10" customFormat="1" ht="40.5">
       <c r="A340" s="25" t="s">
         <v>662</v>
       </c>
@@ -19303,7 +19304,7 @@
       </c>
       <c r="I341" s="45"/>
     </row>
-    <row r="342" spans="1:10" customFormat="1" ht="27">
+    <row r="342" spans="1:10" customFormat="1" ht="40.5">
       <c r="A342" s="25" t="s">
         <v>668</v>
       </c>
@@ -19311,7 +19312,7 @@
         <v>666</v>
       </c>
       <c r="C342" s="27" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="D342" s="26"/>
       <c r="E342" s="28" t="s">
@@ -19328,7 +19329,7 @@
       </c>
       <c r="I342" s="45"/>
     </row>
-    <row r="343" spans="1:10" customFormat="1" ht="27">
+    <row r="343" spans="1:10" customFormat="1" ht="40.5">
       <c r="A343" s="25" t="s">
         <v>669</v>
       </c>
@@ -19378,7 +19379,7 @@
       </c>
       <c r="I344" s="45"/>
     </row>
-    <row r="345" spans="1:10" customFormat="1" ht="27">
+    <row r="345" spans="1:10" customFormat="1" ht="40.5">
       <c r="A345" s="25" t="s">
         <v>673</v>
       </c>
@@ -19428,7 +19429,7 @@
       </c>
       <c r="I346" s="45"/>
     </row>
-    <row r="347" spans="1:10" customFormat="1" ht="13.5">
+    <row r="347" spans="1:10" customFormat="1" ht="40.5">
       <c r="A347" s="25" t="s">
         <v>677</v>
       </c>
@@ -19453,7 +19454,7 @@
       </c>
       <c r="I347" s="45"/>
     </row>
-    <row r="348" spans="1:10" customFormat="1" ht="27">
+    <row r="348" spans="1:10" customFormat="1" ht="40.5">
       <c r="A348" s="25" t="s">
         <v>679</v>
       </c>
@@ -19587,7 +19588,7 @@
         <v>682</v>
       </c>
       <c r="C353" s="30" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="D353" s="26"/>
       <c r="E353" s="28" t="s">
@@ -19731,7 +19732,7 @@
       </c>
       <c r="I358" s="45"/>
     </row>
-    <row r="359" spans="1:9" customFormat="1" ht="27">
+    <row r="359" spans="1:9" customFormat="1" ht="40.5">
       <c r="A359" s="25" t="s">
         <v>699</v>
       </c>
@@ -19756,7 +19757,7 @@
       </c>
       <c r="I359" s="45"/>
     </row>
-    <row r="360" spans="1:9" customFormat="1" ht="27">
+    <row r="360" spans="1:9" customFormat="1" ht="40.5">
       <c r="A360" s="25" t="s">
         <v>702</v>
       </c>
@@ -19781,7 +19782,7 @@
       </c>
       <c r="I360" s="45"/>
     </row>
-    <row r="361" spans="1:9" customFormat="1" ht="13.5">
+    <row r="361" spans="1:9" customFormat="1" ht="40.5">
       <c r="A361" s="25" t="s">
         <v>705</v>
       </c>
@@ -19806,7 +19807,7 @@
       </c>
       <c r="I361" s="45"/>
     </row>
-    <row r="362" spans="1:9" customFormat="1" ht="13.5">
+    <row r="362" spans="1:9" customFormat="1" ht="40.5">
       <c r="A362" s="25" t="s">
         <v>707</v>
       </c>
@@ -19831,7 +19832,7 @@
       </c>
       <c r="I362" s="45"/>
     </row>
-    <row r="363" spans="1:9" customFormat="1" ht="27">
+    <row r="363" spans="1:9" customFormat="1" ht="40.5">
       <c r="A363" s="25" t="s">
         <v>710</v>
       </c>
@@ -19856,7 +19857,7 @@
       </c>
       <c r="I363" s="45"/>
     </row>
-    <row r="364" spans="1:9" customFormat="1" ht="13.5">
+    <row r="364" spans="1:9" customFormat="1" ht="40.5">
       <c r="A364" s="25" t="s">
         <v>712</v>
       </c>
@@ -19956,7 +19957,7 @@
       </c>
       <c r="I367" s="45"/>
     </row>
-    <row r="368" spans="1:9" customFormat="1" ht="13.5">
+    <row r="368" spans="1:9" customFormat="1" ht="40.5">
       <c r="A368" s="25" t="s">
         <v>718</v>
       </c>
@@ -20006,7 +20007,7 @@
       </c>
       <c r="I369" s="45"/>
     </row>
-    <row r="370" spans="1:9" customFormat="1" ht="27">
+    <row r="370" spans="1:9" customFormat="1" ht="40.5">
       <c r="A370" s="25" t="s">
         <v>724</v>
       </c>
@@ -20056,7 +20057,7 @@
       </c>
       <c r="I371" s="45"/>
     </row>
-    <row r="372" spans="1:9" customFormat="1" ht="27">
+    <row r="372" spans="1:9" customFormat="1" ht="40.5">
       <c r="A372" s="25" t="s">
         <v>729</v>
       </c>
@@ -20081,7 +20082,7 @@
       </c>
       <c r="I372" s="45"/>
     </row>
-    <row r="373" spans="1:9" customFormat="1" ht="27">
+    <row r="373" spans="1:9" customFormat="1" ht="40.5">
       <c r="A373" s="25" t="s">
         <v>731</v>
       </c>
@@ -20131,7 +20132,7 @@
       </c>
       <c r="I374" s="45"/>
     </row>
-    <row r="375" spans="1:9" customFormat="1" ht="13.5">
+    <row r="375" spans="1:9" customFormat="1" ht="40.5">
       <c r="A375" s="25" t="s">
         <v>736</v>
       </c>
@@ -20156,7 +20157,7 @@
       </c>
       <c r="I375" s="45"/>
     </row>
-    <row r="376" spans="1:9" customFormat="1" ht="27">
+    <row r="376" spans="1:9" customFormat="1" ht="40.5">
       <c r="A376" s="25" t="s">
         <v>738</v>
       </c>
@@ -20189,7 +20190,7 @@
         <v>741</v>
       </c>
       <c r="C377" s="30" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="D377" s="26"/>
       <c r="E377" s="28" t="s">
@@ -20339,7 +20340,7 @@
         <v>741</v>
       </c>
       <c r="C383" s="27" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="D383" s="26"/>
       <c r="E383" s="28" t="s">
@@ -20431,7 +20432,7 @@
       </c>
       <c r="I386" s="45"/>
     </row>
-    <row r="387" spans="1:9" customFormat="1" ht="27">
+    <row r="387" spans="1:9" customFormat="1" ht="40.5">
       <c r="A387" s="25" t="s">
         <v>757</v>
       </c>
@@ -20456,7 +20457,7 @@
       </c>
       <c r="I387" s="45"/>
     </row>
-    <row r="388" spans="1:9" customFormat="1" ht="27">
+    <row r="388" spans="1:9" customFormat="1" ht="40.5">
       <c r="A388" s="25" t="s">
         <v>760</v>
       </c>
@@ -20481,7 +20482,7 @@
       </c>
       <c r="I388" s="45"/>
     </row>
-    <row r="389" spans="1:9" customFormat="1" ht="13.5">
+    <row r="389" spans="1:9" customFormat="1" ht="40.5">
       <c r="A389" s="25" t="s">
         <v>763</v>
       </c>
@@ -20506,7 +20507,7 @@
       </c>
       <c r="I389" s="45"/>
     </row>
-    <row r="390" spans="1:9" customFormat="1" ht="27">
+    <row r="390" spans="1:9" customFormat="1" ht="40.5">
       <c r="A390" s="25" t="s">
         <v>765</v>
       </c>
@@ -20531,7 +20532,7 @@
       </c>
       <c r="I390" s="45"/>
     </row>
-    <row r="391" spans="1:9" customFormat="1" ht="27">
+    <row r="391" spans="1:9" customFormat="1" ht="40.5">
       <c r="A391" s="25" t="s">
         <v>768</v>
       </c>
@@ -20556,7 +20557,7 @@
       </c>
       <c r="I391" s="45"/>
     </row>
-    <row r="392" spans="1:9" customFormat="1" ht="13.5">
+    <row r="392" spans="1:9" customFormat="1" ht="40.5">
       <c r="A392" s="25" t="s">
         <v>770</v>
       </c>
@@ -20656,7 +20657,7 @@
       </c>
       <c r="I395" s="45"/>
     </row>
-    <row r="396" spans="1:9" customFormat="1" ht="27">
+    <row r="396" spans="1:9" customFormat="1" ht="40.5">
       <c r="A396" s="25" t="s">
         <v>776</v>
       </c>
@@ -20706,7 +20707,7 @@
       </c>
       <c r="I397" s="45"/>
     </row>
-    <row r="398" spans="1:9" customFormat="1" ht="13.5">
+    <row r="398" spans="1:9" customFormat="1" ht="40.5">
       <c r="A398" s="25" t="s">
         <v>782</v>
       </c>
@@ -20731,7 +20732,7 @@
       </c>
       <c r="I398" s="45"/>
     </row>
-    <row r="399" spans="1:9" customFormat="1" ht="27">
+    <row r="399" spans="1:9" customFormat="1" ht="40.5">
       <c r="A399" s="25" t="s">
         <v>784</v>
       </c>
@@ -20781,7 +20782,7 @@
       </c>
       <c r="I400" s="45"/>
     </row>
-    <row r="401" spans="1:9" customFormat="1" ht="27">
+    <row r="401" spans="1:9" customFormat="1" ht="40.5">
       <c r="A401" s="25" t="s">
         <v>789</v>
       </c>
@@ -20831,7 +20832,7 @@
       </c>
       <c r="I402" s="45"/>
     </row>
-    <row r="403" spans="1:9" customFormat="1" ht="13.5">
+    <row r="403" spans="1:9" customFormat="1" ht="40.5">
       <c r="A403" s="25" t="s">
         <v>794</v>
       </c>
@@ -20856,7 +20857,7 @@
       </c>
       <c r="I403" s="45"/>
     </row>
-    <row r="404" spans="1:9" customFormat="1" ht="27">
+    <row r="404" spans="1:9" customFormat="1" ht="40.5">
       <c r="A404" s="25" t="s">
         <v>796</v>
       </c>
@@ -21083,7 +21084,7 @@
       </c>
       <c r="I412" s="45"/>
     </row>
-    <row r="413" spans="1:9" customFormat="1" ht="27">
+    <row r="413" spans="1:9" customFormat="1" ht="40.5">
       <c r="A413" s="25" t="s">
         <v>815</v>
       </c>
@@ -21108,7 +21109,7 @@
       </c>
       <c r="I413" s="45"/>
     </row>
-    <row r="414" spans="1:9" customFormat="1" ht="27">
+    <row r="414" spans="1:9" customFormat="1" ht="40.5">
       <c r="A414" s="25" t="s">
         <v>818</v>
       </c>
@@ -21133,7 +21134,7 @@
       </c>
       <c r="I414" s="45"/>
     </row>
-    <row r="415" spans="1:9" customFormat="1" ht="13.5">
+    <row r="415" spans="1:9" customFormat="1" ht="40.5">
       <c r="A415" s="25" t="s">
         <v>821</v>
       </c>
@@ -21158,7 +21159,7 @@
       </c>
       <c r="I415" s="45"/>
     </row>
-    <row r="416" spans="1:9" customFormat="1" ht="13.5">
+    <row r="416" spans="1:9" customFormat="1" ht="40.5">
       <c r="A416" s="25" t="s">
         <v>823</v>
       </c>
@@ -21183,7 +21184,7 @@
       </c>
       <c r="I416" s="45"/>
     </row>
-    <row r="417" spans="1:9" customFormat="1" ht="27">
+    <row r="417" spans="1:9" customFormat="1" ht="40.5">
       <c r="A417" s="25" t="s">
         <v>826</v>
       </c>
@@ -21208,7 +21209,7 @@
       </c>
       <c r="I417" s="45"/>
     </row>
-    <row r="418" spans="1:9" customFormat="1" ht="13.5">
+    <row r="418" spans="1:9" customFormat="1" ht="40.5">
       <c r="A418" s="25" t="s">
         <v>828</v>
       </c>
@@ -21308,7 +21309,7 @@
       </c>
       <c r="I421" s="45"/>
     </row>
-    <row r="422" spans="1:9" customFormat="1" ht="27">
+    <row r="422" spans="1:9" customFormat="1" ht="40.5">
       <c r="A422" s="25" t="s">
         <v>834</v>
       </c>
@@ -21358,7 +21359,7 @@
       </c>
       <c r="I423" s="45"/>
     </row>
-    <row r="424" spans="1:9" customFormat="1" ht="27">
+    <row r="424" spans="1:9" customFormat="1" ht="40.5">
       <c r="A424" s="25" t="s">
         <v>840</v>
       </c>
@@ -21366,7 +21367,7 @@
         <v>838</v>
       </c>
       <c r="C424" s="27" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="D424" s="26"/>
       <c r="E424" s="28" t="s">
@@ -21383,7 +21384,7 @@
       </c>
       <c r="I424" s="45"/>
     </row>
-    <row r="425" spans="1:9" customFormat="1" ht="27">
+    <row r="425" spans="1:9" customFormat="1" ht="40.5">
       <c r="A425" s="25" t="s">
         <v>841</v>
       </c>
@@ -21458,7 +21459,7 @@
       </c>
       <c r="I427" s="45"/>
     </row>
-    <row r="428" spans="1:9" customFormat="1" ht="13.5">
+    <row r="428" spans="1:9" customFormat="1" ht="40.5">
       <c r="A428" s="25" t="s">
         <v>848</v>
       </c>
@@ -21483,7 +21484,7 @@
       </c>
       <c r="I428" s="45"/>
     </row>
-    <row r="429" spans="1:9" customFormat="1" ht="27">
+    <row r="429" spans="1:9" customFormat="1" ht="40.5">
       <c r="A429" s="25" t="s">
         <v>850</v>
       </c>
@@ -21516,7 +21517,7 @@
         <v>853</v>
       </c>
       <c r="C430" s="30" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="D430" s="26"/>
       <c r="E430" s="28" t="s">
@@ -21735,7 +21736,7 @@
       </c>
       <c r="I438" s="45"/>
     </row>
-    <row r="439" spans="1:9" customFormat="1" ht="27">
+    <row r="439" spans="1:9" customFormat="1" ht="40.5">
       <c r="A439" s="25" t="s">
         <v>871</v>
       </c>
@@ -21760,7 +21761,7 @@
       </c>
       <c r="I439" s="45"/>
     </row>
-    <row r="440" spans="1:9" customFormat="1" ht="27">
+    <row r="440" spans="1:9" customFormat="1" ht="40.5">
       <c r="A440" s="25" t="s">
         <v>874</v>
       </c>
@@ -21785,7 +21786,7 @@
       </c>
       <c r="I440" s="45"/>
     </row>
-    <row r="441" spans="1:9" customFormat="1" ht="13.5">
+    <row r="441" spans="1:9" customFormat="1" ht="40.5">
       <c r="A441" s="25" t="s">
         <v>877</v>
       </c>
@@ -21810,7 +21811,7 @@
       </c>
       <c r="I441" s="45"/>
     </row>
-    <row r="442" spans="1:9" customFormat="1" ht="27">
+    <row r="442" spans="1:9" customFormat="1" ht="40.5">
       <c r="A442" s="25" t="s">
         <v>879</v>
       </c>
@@ -21835,7 +21836,7 @@
       </c>
       <c r="I442" s="45"/>
     </row>
-    <row r="443" spans="1:9" customFormat="1" ht="27">
+    <row r="443" spans="1:9" customFormat="1" ht="40.5">
       <c r="A443" s="25" t="s">
         <v>882</v>
       </c>
@@ -21860,7 +21861,7 @@
       </c>
       <c r="I443" s="45"/>
     </row>
-    <row r="444" spans="1:9" customFormat="1" ht="13.5">
+    <row r="444" spans="1:9" customFormat="1" ht="40.5">
       <c r="A444" s="25" t="s">
         <v>884</v>
       </c>
@@ -21960,7 +21961,7 @@
       </c>
       <c r="I447" s="45"/>
     </row>
-    <row r="448" spans="1:9" customFormat="1" ht="27">
+    <row r="448" spans="1:9" customFormat="1" ht="40.5">
       <c r="A448" s="25" t="s">
         <v>890</v>
       </c>
@@ -22010,7 +22011,7 @@
       </c>
       <c r="I449" s="45"/>
     </row>
-    <row r="450" spans="1:9" customFormat="1" ht="27">
+    <row r="450" spans="1:9" customFormat="1" ht="40.5">
       <c r="A450" s="25" t="s">
         <v>896</v>
       </c>
@@ -22018,7 +22019,7 @@
         <v>894</v>
       </c>
       <c r="C450" s="27" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="D450" s="26"/>
       <c r="E450" s="28" t="s">
@@ -22035,7 +22036,7 @@
       </c>
       <c r="I450" s="45"/>
     </row>
-    <row r="451" spans="1:9" customFormat="1" ht="27">
+    <row r="451" spans="1:9" customFormat="1" ht="40.5">
       <c r="A451" s="25" t="s">
         <v>897</v>
       </c>
@@ -22043,7 +22044,7 @@
         <v>894</v>
       </c>
       <c r="C451" s="27" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="D451" s="26"/>
       <c r="E451" s="28" t="s">
@@ -22060,7 +22061,7 @@
       </c>
       <c r="I451" s="45"/>
     </row>
-    <row r="452" spans="1:9" customFormat="1" ht="27">
+    <row r="452" spans="1:9" customFormat="1" ht="40.5">
       <c r="A452" s="25" t="s">
         <v>898</v>
       </c>
@@ -22137,7 +22138,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="455" spans="1:9" customFormat="1" ht="27">
+    <row r="455" spans="1:9" customFormat="1" ht="40.5">
       <c r="A455" s="25" t="s">
         <v>904</v>
       </c>
@@ -22164,7 +22165,7 @@
       </c>
       <c r="I455" s="45"/>
     </row>
-    <row r="456" spans="1:9" customFormat="1" ht="27">
+    <row r="456" spans="1:9" customFormat="1" ht="40.5">
       <c r="A456" s="25" t="s">
         <v>907</v>
       </c>
@@ -22214,7 +22215,7 @@
       </c>
       <c r="I457" s="45"/>
     </row>
-    <row r="458" spans="1:9" customFormat="1" ht="27">
+    <row r="458" spans="1:9" customFormat="1" ht="40.5">
       <c r="A458" s="25" t="s">
         <v>912</v>
       </c>
@@ -22247,7 +22248,7 @@
         <v>908</v>
       </c>
       <c r="C459" s="30" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="D459" s="26"/>
       <c r="E459" s="28" t="s">
@@ -22264,7 +22265,7 @@
       </c>
       <c r="I459" s="45"/>
     </row>
-    <row r="460" spans="1:9" customFormat="1" ht="13.5">
+    <row r="460" spans="1:9" customFormat="1" ht="40.5">
       <c r="A460" s="25" t="s">
         <v>915</v>
       </c>
@@ -22289,15 +22290,15 @@
       </c>
       <c r="I460" s="45"/>
     </row>
-    <row r="461" spans="1:9" s="39" customFormat="1" ht="27">
+    <row r="461" spans="1:9" s="39" customFormat="1" ht="40.5">
       <c r="A461" s="40" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="B461" s="41" t="s">
         <v>916</v>
       </c>
       <c r="C461" s="44" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="D461" s="41"/>
       <c r="E461" s="42" t="s">
@@ -22316,13 +22317,13 @@
     </row>
     <row r="462" spans="1:9" s="39" customFormat="1" ht="409.5">
       <c r="A462" s="40" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="B462" s="41" t="s">
         <v>916</v>
       </c>
       <c r="C462" s="44" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="D462" s="41"/>
       <c r="E462" s="42" t="s">
@@ -22339,7 +22340,7 @@
       </c>
       <c r="I462" s="45"/>
     </row>
-    <row r="463" spans="1:9" customFormat="1" ht="13.5">
+    <row r="463" spans="1:9" customFormat="1" ht="40.5">
       <c r="A463" s="25" t="s">
         <v>918</v>
       </c>
@@ -22364,7 +22365,7 @@
       </c>
       <c r="I463" s="45"/>
     </row>
-    <row r="464" spans="1:9" customFormat="1" ht="27">
+    <row r="464" spans="1:9" customFormat="1" ht="40.5">
       <c r="A464" s="25" t="s">
         <v>920</v>
       </c>
@@ -22389,7 +22390,7 @@
       </c>
       <c r="I464" s="45"/>
     </row>
-    <row r="465" spans="1:9" customFormat="1" ht="27">
+    <row r="465" spans="1:9" customFormat="1" ht="40.5">
       <c r="A465" s="25" t="s">
         <v>922</v>
       </c>
@@ -22414,7 +22415,7 @@
       </c>
       <c r="I465" s="45"/>
     </row>
-    <row r="466" spans="1:9" customFormat="1" ht="27">
+    <row r="466" spans="1:9" customFormat="1" ht="40.5">
       <c r="A466" s="25" t="s">
         <v>924</v>
       </c>
@@ -22439,7 +22440,7 @@
       </c>
       <c r="I466" s="45"/>
     </row>
-    <row r="467" spans="1:9" customFormat="1" ht="27">
+    <row r="467" spans="1:9" customFormat="1" ht="40.5">
       <c r="A467" s="25" t="s">
         <v>926</v>
       </c>
@@ -22447,7 +22448,7 @@
         <v>908</v>
       </c>
       <c r="C467" s="27" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="D467" s="26"/>
       <c r="E467" s="28" t="s">
@@ -22489,7 +22490,7 @@
       </c>
       <c r="I468" s="45"/>
     </row>
-    <row r="469" spans="1:9" customFormat="1" ht="13.5">
+    <row r="469" spans="1:9" customFormat="1" ht="40.5">
       <c r="A469" s="25" t="s">
         <v>929</v>
       </c>
@@ -22514,7 +22515,7 @@
       </c>
       <c r="I469" s="45"/>
     </row>
-    <row r="470" spans="1:9" customFormat="1" ht="27">
+    <row r="470" spans="1:9" customFormat="1" ht="40.5">
       <c r="A470" s="25" t="s">
         <v>931</v>
       </c>
@@ -22539,7 +22540,7 @@
       </c>
       <c r="I470" s="45"/>
     </row>
-    <row r="471" spans="1:9" customFormat="1" ht="27">
+    <row r="471" spans="1:9" customFormat="1" ht="40.5">
       <c r="A471" s="25" t="s">
         <v>933</v>
       </c>
@@ -22564,7 +22565,7 @@
       </c>
       <c r="I471" s="45"/>
     </row>
-    <row r="472" spans="1:9" customFormat="1" ht="27">
+    <row r="472" spans="1:9" customFormat="1" ht="40.5">
       <c r="A472" s="25" t="s">
         <v>935</v>
       </c>
@@ -22614,7 +22615,7 @@
       </c>
       <c r="I473" s="45"/>
     </row>
-    <row r="474" spans="1:9" customFormat="1" ht="27">
+    <row r="474" spans="1:9" customFormat="1" ht="40.5">
       <c r="A474" s="25" t="s">
         <v>939</v>
       </c>
@@ -22639,7 +22640,7 @@
       </c>
       <c r="I474" s="45"/>
     </row>
-    <row r="475" spans="1:9" customFormat="1" ht="27">
+    <row r="475" spans="1:9" customFormat="1" ht="40.5">
       <c r="A475" s="25" t="s">
         <v>941</v>
       </c>
@@ -22664,7 +22665,7 @@
       </c>
       <c r="I475" s="45"/>
     </row>
-    <row r="476" spans="1:9" customFormat="1" ht="27">
+    <row r="476" spans="1:9" customFormat="1" ht="40.5">
       <c r="A476" s="25" t="s">
         <v>943</v>
       </c>
@@ -22689,7 +22690,7 @@
       </c>
       <c r="I476" s="45"/>
     </row>
-    <row r="477" spans="1:9" customFormat="1" ht="13.5">
+    <row r="477" spans="1:9" customFormat="1" ht="40.5">
       <c r="A477" s="25" t="s">
         <v>945</v>
       </c>
@@ -22714,7 +22715,7 @@
       </c>
       <c r="I477" s="45"/>
     </row>
-    <row r="478" spans="1:9" customFormat="1" ht="13.5">
+    <row r="478" spans="1:9" customFormat="1" ht="40.5">
       <c r="A478" s="25" t="s">
         <v>947</v>
       </c>
@@ -22739,7 +22740,7 @@
       </c>
       <c r="I478" s="45"/>
     </row>
-    <row r="479" spans="1:9" customFormat="1" ht="27">
+    <row r="479" spans="1:9" customFormat="1" ht="40.5">
       <c r="A479" s="25" t="s">
         <v>949</v>
       </c>
@@ -22764,7 +22765,7 @@
       </c>
       <c r="I479" s="45"/>
     </row>
-    <row r="480" spans="1:9" customFormat="1" ht="13.5">
+    <row r="480" spans="1:9" customFormat="1" ht="40.5">
       <c r="A480" s="25" t="s">
         <v>951</v>
       </c>
@@ -22789,7 +22790,7 @@
       </c>
       <c r="I480" s="45"/>
     </row>
-    <row r="481" spans="1:9" customFormat="1" ht="13.5">
+    <row r="481" spans="1:9" customFormat="1" ht="40.5">
       <c r="A481" s="25" t="s">
         <v>953</v>
       </c>
@@ -22814,7 +22815,7 @@
       </c>
       <c r="I481" s="45"/>
     </row>
-    <row r="482" spans="1:9" customFormat="1" ht="27">
+    <row r="482" spans="1:9" customFormat="1" ht="40.5">
       <c r="A482" s="25" t="s">
         <v>954</v>
       </c>
@@ -22839,7 +22840,7 @@
       </c>
       <c r="I482" s="45"/>
     </row>
-    <row r="483" spans="1:9" customFormat="1" ht="27">
+    <row r="483" spans="1:9" customFormat="1" ht="40.5">
       <c r="A483" s="25" t="s">
         <v>956</v>
       </c>
@@ -22864,7 +22865,7 @@
       </c>
       <c r="I483" s="45"/>
     </row>
-    <row r="484" spans="1:9" customFormat="1" ht="13.5">
+    <row r="484" spans="1:9" customFormat="1" ht="40.5">
       <c r="A484" s="25" t="s">
         <v>958</v>
       </c>
@@ -22889,7 +22890,7 @@
       </c>
       <c r="I484" s="45"/>
     </row>
-    <row r="485" spans="1:9" customFormat="1" ht="13.5">
+    <row r="485" spans="1:9" customFormat="1" ht="40.5">
       <c r="A485" s="25" t="s">
         <v>960</v>
       </c>
@@ -23039,7 +23040,7 @@
       </c>
       <c r="I490" s="45"/>
     </row>
-    <row r="491" spans="1:9" customFormat="1" ht="13.5">
+    <row r="491" spans="1:9" customFormat="1" ht="27">
       <c r="A491" s="25" t="s">
         <v>972</v>
       </c>
@@ -23164,7 +23165,7 @@
       </c>
       <c r="I495" s="45"/>
     </row>
-    <row r="496" spans="1:9" customFormat="1" ht="27">
+    <row r="496" spans="1:9" customFormat="1" ht="40.5">
       <c r="A496" s="25" t="s">
         <v>981</v>
       </c>
@@ -23214,7 +23215,7 @@
       </c>
       <c r="I497" s="45"/>
     </row>
-    <row r="498" spans="1:10" customFormat="1" ht="13.5">
+    <row r="498" spans="1:10" customFormat="1" ht="40.5">
       <c r="A498" s="25" t="s">
         <v>987</v>
       </c>
@@ -23239,7 +23240,7 @@
       </c>
       <c r="I498" s="45"/>
     </row>
-    <row r="499" spans="1:10" customFormat="1" ht="27">
+    <row r="499" spans="1:10" customFormat="1" ht="40.5">
       <c r="A499" s="25" t="s">
         <v>989</v>
       </c>
@@ -23289,7 +23290,7 @@
       </c>
       <c r="I500" s="45"/>
     </row>
-    <row r="501" spans="1:10" customFormat="1" ht="13.5">
+    <row r="501" spans="1:10" customFormat="1" ht="40.5">
       <c r="A501" s="25" t="s">
         <v>994</v>
       </c>
@@ -23398,7 +23399,7 @@
         <v>1000</v>
       </c>
       <c r="C505" s="30" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="D505" s="26"/>
       <c r="E505" s="28" t="s">
@@ -23415,7 +23416,7 @@
       </c>
       <c r="I505" s="45"/>
     </row>
-    <row r="506" spans="1:10" customFormat="1" ht="27">
+    <row r="506" spans="1:10" customFormat="1" ht="40.5">
       <c r="A506" s="25" t="s">
         <v>1004</v>
       </c>
@@ -23465,7 +23466,7 @@
       </c>
       <c r="I507" s="45"/>
     </row>
-    <row r="508" spans="1:10" customFormat="1" ht="27">
+    <row r="508" spans="1:10" customFormat="1" ht="40.5">
       <c r="A508" s="25" t="s">
         <v>1009</v>
       </c>
@@ -23473,7 +23474,7 @@
         <v>1005</v>
       </c>
       <c r="C508" s="27" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="D508" s="26"/>
       <c r="E508" s="28" t="s">
@@ -23490,7 +23491,7 @@
       </c>
       <c r="I508" s="45"/>
     </row>
-    <row r="509" spans="1:10" customFormat="1" ht="27">
+    <row r="509" spans="1:10" customFormat="1" ht="40.5">
       <c r="A509" s="25" t="s">
         <v>1010</v>
       </c>
@@ -23498,7 +23499,7 @@
         <v>1011</v>
       </c>
       <c r="C509" s="30" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="D509" s="26"/>
       <c r="E509" s="28" t="s">
@@ -23523,7 +23524,7 @@
         <v>1011</v>
       </c>
       <c r="C510" s="30" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="D510" s="26"/>
       <c r="E510" s="28" t="s">
@@ -23540,7 +23541,7 @@
       </c>
       <c r="I510" s="45"/>
     </row>
-    <row r="511" spans="1:10" customFormat="1" ht="27">
+    <row r="511" spans="1:10" customFormat="1" ht="40.5">
       <c r="A511" s="25" t="s">
         <v>1013</v>
       </c>
@@ -23573,7 +23574,7 @@
         <v>1005</v>
       </c>
       <c r="C512" s="30" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="D512" s="26"/>
       <c r="E512" s="28" t="s">
@@ -23850,7 +23851,7 @@
       </c>
       <c r="I522" s="45"/>
     </row>
-    <row r="523" spans="1:9" customFormat="1">
+    <row r="523" spans="1:9" customFormat="1" ht="42">
       <c r="A523" s="25" t="s">
         <v>1036</v>
       </c>
@@ -23877,7 +23878,7 @@
       </c>
       <c r="I523" s="35"/>
     </row>
-    <row r="524" spans="1:9" customFormat="1" ht="30">
+    <row r="524" spans="1:9" customFormat="1" ht="42">
       <c r="A524" s="25" t="s">
         <v>1039</v>
       </c>
@@ -23929,7 +23930,7 @@
       </c>
       <c r="I525" s="45"/>
     </row>
-    <row r="526" spans="1:9" customFormat="1" ht="27">
+    <row r="526" spans="1:9" customFormat="1" ht="40.5">
       <c r="A526" s="25" t="s">
         <v>1043</v>
       </c>
@@ -24008,7 +24009,7 @@
       </c>
       <c r="I528" s="45"/>
     </row>
-    <row r="529" spans="1:9" customFormat="1" ht="27">
+    <row r="529" spans="1:9" customFormat="1" ht="40.5">
       <c r="A529" s="25" t="s">
         <v>1050</v>
       </c>
@@ -24143,7 +24144,7 @@
       </c>
       <c r="I533" s="45"/>
     </row>
-    <row r="534" spans="1:9" customFormat="1" ht="27">
+    <row r="534" spans="1:9" customFormat="1" ht="40.5">
       <c r="A534" s="25" t="s">
         <v>1061</v>
       </c>
@@ -24176,7 +24177,7 @@
         <v>1062</v>
       </c>
       <c r="C535" s="30" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="D535" s="26"/>
       <c r="E535" s="28" t="s">
@@ -24201,7 +24202,7 @@
         <v>1062</v>
       </c>
       <c r="C536" s="30" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="D536" s="26"/>
       <c r="E536" s="28" t="s">
@@ -24218,7 +24219,7 @@
       </c>
       <c r="I536" s="45"/>
     </row>
-    <row r="537" spans="1:9" customFormat="1" ht="27">
+    <row r="537" spans="1:9" customFormat="1" ht="40.5">
       <c r="A537" s="25" t="s">
         <v>1066</v>
       </c>
@@ -24243,7 +24244,7 @@
       </c>
       <c r="I537" s="45"/>
     </row>
-    <row r="538" spans="1:9" customFormat="1" ht="27">
+    <row r="538" spans="1:9" customFormat="1" ht="40.5">
       <c r="A538" s="25" t="s">
         <v>1068</v>
       </c>
@@ -24268,7 +24269,7 @@
       </c>
       <c r="I538" s="45"/>
     </row>
-    <row r="539" spans="1:9" customFormat="1" ht="27">
+    <row r="539" spans="1:9" customFormat="1" ht="40.5">
       <c r="A539" s="25" t="s">
         <v>1070</v>
       </c>
@@ -24276,7 +24277,7 @@
         <v>1062</v>
       </c>
       <c r="C539" s="27" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="D539" s="26"/>
       <c r="E539" s="28" t="s">
@@ -24317,10 +24318,10 @@
         <v>17</v>
       </c>
       <c r="I540" s="45" t="s">
-        <v>1584</v>
-      </c>
-    </row>
-    <row r="541" spans="1:9" customFormat="1" ht="27">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="541" spans="1:9" customFormat="1" ht="40.5">
       <c r="A541" s="25" t="s">
         <v>1072</v>
       </c>
@@ -24345,7 +24346,7 @@
       </c>
       <c r="I541" s="45"/>
     </row>
-    <row r="542" spans="1:9" customFormat="1" ht="27">
+    <row r="542" spans="1:9" customFormat="1" ht="40.5">
       <c r="A542" s="25" t="s">
         <v>1073</v>
       </c>
@@ -24370,7 +24371,7 @@
       </c>
       <c r="I542" s="45"/>
     </row>
-    <row r="543" spans="1:9" customFormat="1" ht="27">
+    <row r="543" spans="1:9" customFormat="1" ht="40.5">
       <c r="A543" s="25" t="s">
         <v>1075</v>
       </c>
@@ -24395,7 +24396,7 @@
       </c>
       <c r="I543" s="45"/>
     </row>
-    <row r="544" spans="1:9" customFormat="1" ht="27">
+    <row r="544" spans="1:9" customFormat="1" ht="40.5">
       <c r="A544" s="25" t="s">
         <v>1077</v>
       </c>
@@ -24403,7 +24404,7 @@
         <v>1062</v>
       </c>
       <c r="C544" s="27" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="D544" s="26"/>
       <c r="E544" s="28" t="s">
@@ -24428,7 +24429,7 @@
         <v>1062</v>
       </c>
       <c r="C545" s="27" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="D545" s="26"/>
       <c r="E545" s="28" t="s">
@@ -24445,7 +24446,7 @@
       </c>
       <c r="I545" s="45"/>
     </row>
-    <row r="546" spans="1:9" customFormat="1" ht="27">
+    <row r="546" spans="1:9" customFormat="1" ht="40.5">
       <c r="A546" s="25" t="s">
         <v>1079</v>
       </c>
@@ -24453,7 +24454,7 @@
         <v>1062</v>
       </c>
       <c r="C546" s="30" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="D546" s="26"/>
       <c r="E546" s="28" t="s">
@@ -24472,7 +24473,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="547" spans="1:9" customFormat="1" ht="27">
+    <row r="547" spans="1:9" customFormat="1" ht="40.5">
       <c r="A547" s="25" t="s">
         <v>1082</v>
       </c>
@@ -24497,7 +24498,7 @@
       </c>
       <c r="I547" s="45"/>
     </row>
-    <row r="548" spans="1:9" customFormat="1" ht="27">
+    <row r="548" spans="1:9" customFormat="1" ht="40.5">
       <c r="A548" s="25" t="s">
         <v>1084</v>
       </c>
@@ -24522,7 +24523,7 @@
       </c>
       <c r="I548" s="45"/>
     </row>
-    <row r="549" spans="1:9" customFormat="1" ht="27">
+    <row r="549" spans="1:9" customFormat="1" ht="40.5">
       <c r="A549" s="25" t="s">
         <v>1086</v>
       </c>
@@ -24530,7 +24531,7 @@
         <v>1062</v>
       </c>
       <c r="C549" s="27" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="D549" s="26"/>
       <c r="E549" s="28" t="s">
@@ -24547,7 +24548,7 @@
       </c>
       <c r="I549" s="45"/>
     </row>
-    <row r="550" spans="1:9" customFormat="1" ht="13.5">
+    <row r="550" spans="1:9" customFormat="1" ht="40.5">
       <c r="A550" s="25" t="s">
         <v>1087</v>
       </c>
@@ -24572,7 +24573,7 @@
       </c>
       <c r="I550" s="45"/>
     </row>
-    <row r="551" spans="1:9" customFormat="1" ht="27">
+    <row r="551" spans="1:9" customFormat="1" ht="40.5">
       <c r="A551" s="25" t="s">
         <v>1089</v>
       </c>
@@ -24597,7 +24598,7 @@
       </c>
       <c r="I551" s="45"/>
     </row>
-    <row r="552" spans="1:9" customFormat="1" ht="27">
+    <row r="552" spans="1:9" customFormat="1" ht="40.5">
       <c r="A552" s="25" t="s">
         <v>1091</v>
       </c>
@@ -24605,7 +24606,7 @@
         <v>1062</v>
       </c>
       <c r="C552" s="27" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="D552" s="26"/>
       <c r="E552" s="28" t="s">
@@ -24630,7 +24631,7 @@
         <v>1062</v>
       </c>
       <c r="C553" s="30" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="D553" s="26"/>
       <c r="E553" s="28" t="s">
@@ -24646,7 +24647,7 @@
         <v>17</v>
       </c>
       <c r="I553" s="45" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="554" spans="1:9" customFormat="1" ht="40.5">
@@ -24657,7 +24658,7 @@
         <v>1062</v>
       </c>
       <c r="C554" s="30" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="D554" s="26"/>
       <c r="E554" s="28" t="s">
@@ -24673,10 +24674,10 @@
         <v>17</v>
       </c>
       <c r="I554" s="45" t="s">
-        <v>1570</v>
-      </c>
-    </row>
-    <row r="555" spans="1:9" customFormat="1" ht="27">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="555" spans="1:9" customFormat="1" ht="40.5">
       <c r="A555" s="25" t="s">
         <v>1094</v>
       </c>
@@ -24684,7 +24685,7 @@
         <v>1062</v>
       </c>
       <c r="C555" s="27" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="D555" s="26"/>
       <c r="E555" s="28" t="s">
@@ -24701,7 +24702,7 @@
       </c>
       <c r="I555" s="45"/>
     </row>
-    <row r="556" spans="1:9" customFormat="1" ht="27">
+    <row r="556" spans="1:9" customFormat="1" ht="40.5">
       <c r="A556" s="25" t="s">
         <v>1095</v>
       </c>
@@ -24709,7 +24710,7 @@
         <v>1062</v>
       </c>
       <c r="C556" s="30" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="D556" s="26"/>
       <c r="E556" s="28" t="s">
@@ -24726,7 +24727,7 @@
       </c>
       <c r="I556" s="45"/>
     </row>
-    <row r="557" spans="1:9" customFormat="1" ht="27">
+    <row r="557" spans="1:9" customFormat="1" ht="40.5">
       <c r="A557" s="25" t="s">
         <v>1096</v>
       </c>
@@ -24734,7 +24735,7 @@
         <v>1062</v>
       </c>
       <c r="C557" s="27" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="D557" s="26"/>
       <c r="E557" s="28" t="s">
@@ -24759,7 +24760,7 @@
         <v>1062</v>
       </c>
       <c r="C558" s="27" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="D558" s="26"/>
       <c r="E558" s="28" t="s">
@@ -24775,10 +24776,10 @@
         <v>17</v>
       </c>
       <c r="I558" s="45" t="s">
-        <v>1578</v>
-      </c>
-    </row>
-    <row r="559" spans="1:9" customFormat="1" ht="27">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="559" spans="1:9" customFormat="1" ht="40.5">
       <c r="A559" s="25" t="s">
         <v>1099</v>
       </c>
@@ -24786,7 +24787,7 @@
         <v>1062</v>
       </c>
       <c r="C559" s="27" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="D559" s="26"/>
       <c r="E559" s="28" t="s">
@@ -24803,7 +24804,7 @@
       </c>
       <c r="I559" s="45"/>
     </row>
-    <row r="560" spans="1:9" customFormat="1" ht="27">
+    <row r="560" spans="1:9" customFormat="1" ht="40.5">
       <c r="A560" s="25" t="s">
         <v>1100</v>
       </c>
@@ -24811,7 +24812,7 @@
         <v>1062</v>
       </c>
       <c r="C560" s="27" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="D560" s="26"/>
       <c r="E560" s="28" t="s">
@@ -24828,7 +24829,7 @@
       </c>
       <c r="I560" s="45"/>
     </row>
-    <row r="561" spans="1:9" customFormat="1" ht="27">
+    <row r="561" spans="1:9" customFormat="1" ht="40.5">
       <c r="A561" s="25" t="s">
         <v>1101</v>
       </c>
@@ -24836,7 +24837,7 @@
         <v>1062</v>
       </c>
       <c r="C561" s="27" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="D561" s="26"/>
       <c r="E561" s="28" t="s">
@@ -24853,7 +24854,7 @@
       </c>
       <c r="I561" s="45"/>
     </row>
-    <row r="562" spans="1:9" customFormat="1" ht="27">
+    <row r="562" spans="1:9" customFormat="1" ht="40.5">
       <c r="A562" s="25" t="s">
         <v>1102</v>
       </c>
@@ -24878,7 +24879,7 @@
       </c>
       <c r="I562" s="46"/>
     </row>
-    <row r="563" spans="1:9" customFormat="1" ht="27">
+    <row r="563" spans="1:9" customFormat="1" ht="40.5">
       <c r="A563" s="25" t="s">
         <v>1103</v>
       </c>
@@ -24903,7 +24904,7 @@
       </c>
       <c r="I563" s="45"/>
     </row>
-    <row r="564" spans="1:9" customFormat="1" ht="27">
+    <row r="564" spans="1:9" customFormat="1" ht="40.5">
       <c r="A564" s="25" t="s">
         <v>1105</v>
       </c>
@@ -24928,7 +24929,7 @@
       </c>
       <c r="I564" s="45"/>
     </row>
-    <row r="565" spans="1:9" customFormat="1" ht="27">
+    <row r="565" spans="1:9" customFormat="1" ht="40.5">
       <c r="A565" s="25" t="s">
         <v>1107</v>
       </c>
@@ -24953,7 +24954,7 @@
       </c>
       <c r="I565" s="45"/>
     </row>
-    <row r="566" spans="1:9" customFormat="1" ht="27">
+    <row r="566" spans="1:9" customFormat="1" ht="40.5">
       <c r="A566" s="25" t="s">
         <v>1108</v>
       </c>
@@ -24978,7 +24979,7 @@
       </c>
       <c r="I566" s="45"/>
     </row>
-    <row r="567" spans="1:9" customFormat="1" ht="27">
+    <row r="567" spans="1:9" customFormat="1" ht="40.5">
       <c r="A567" s="25" t="s">
         <v>1110</v>
       </c>
@@ -25003,7 +25004,7 @@
       </c>
       <c r="I567" s="45"/>
     </row>
-    <row r="568" spans="1:9" customFormat="1" ht="27">
+    <row r="568" spans="1:9" customFormat="1" ht="40.5">
       <c r="A568" s="25" t="s">
         <v>1112</v>
       </c>
@@ -25028,7 +25029,7 @@
       </c>
       <c r="I568" s="45"/>
     </row>
-    <row r="569" spans="1:9" customFormat="1" ht="27">
+    <row r="569" spans="1:9" customFormat="1" ht="40.5">
       <c r="A569" s="25" t="s">
         <v>1114</v>
       </c>
@@ -25053,7 +25054,7 @@
       </c>
       <c r="I569" s="45"/>
     </row>
-    <row r="570" spans="1:9" customFormat="1" ht="27">
+    <row r="570" spans="1:9" customFormat="1" ht="40.5">
       <c r="A570" s="25" t="s">
         <v>1116</v>
       </c>
@@ -25078,7 +25079,7 @@
       </c>
       <c r="I570" s="45"/>
     </row>
-    <row r="571" spans="1:9" customFormat="1" ht="27">
+    <row r="571" spans="1:9" customFormat="1" ht="40.5">
       <c r="A571" s="25" t="s">
         <v>1118</v>
       </c>
@@ -25103,7 +25104,7 @@
       </c>
       <c r="I571" s="45"/>
     </row>
-    <row r="572" spans="1:9" customFormat="1" ht="27">
+    <row r="572" spans="1:9" customFormat="1" ht="40.5">
       <c r="A572" s="25" t="s">
         <v>1121</v>
       </c>
@@ -25128,7 +25129,7 @@
       </c>
       <c r="I572" s="45"/>
     </row>
-    <row r="573" spans="1:9" customFormat="1" ht="27">
+    <row r="573" spans="1:9" customFormat="1" ht="40.5">
       <c r="A573" s="25" t="s">
         <v>1122</v>
       </c>
@@ -25136,7 +25137,7 @@
         <v>1062</v>
       </c>
       <c r="C573" s="30" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="D573" s="26"/>
       <c r="E573" s="28" t="s">
@@ -25161,7 +25162,7 @@
         <v>1062</v>
       </c>
       <c r="C574" s="30" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="D574" s="26"/>
       <c r="E574" s="28" t="s">
@@ -25186,7 +25187,7 @@
         <v>1062</v>
       </c>
       <c r="C575" s="30" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="D575" s="26"/>
       <c r="E575" s="28" t="s">
@@ -25203,7 +25204,7 @@
       </c>
       <c r="I575" s="45"/>
     </row>
-    <row r="576" spans="1:9" customFormat="1" ht="27">
+    <row r="576" spans="1:9" customFormat="1" ht="40.5">
       <c r="A576" s="25" t="s">
         <v>1125</v>
       </c>
@@ -25230,7 +25231,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="577" spans="1:9" customFormat="1" ht="27">
+    <row r="577" spans="1:9" customFormat="1" ht="40.5">
       <c r="A577" s="25" t="s">
         <v>1126</v>
       </c>
@@ -25257,7 +25258,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="578" spans="1:9" customFormat="1" ht="27">
+    <row r="578" spans="1:9" customFormat="1" ht="40.5">
       <c r="A578" s="25" t="s">
         <v>1130</v>
       </c>
@@ -25282,7 +25283,7 @@
       </c>
       <c r="I578" s="45"/>
     </row>
-    <row r="579" spans="1:9" customFormat="1" ht="27">
+    <row r="579" spans="1:9" customFormat="1" ht="40.5">
       <c r="A579" s="25" t="s">
         <v>1132</v>
       </c>
@@ -25307,7 +25308,7 @@
       </c>
       <c r="I579" s="45"/>
     </row>
-    <row r="580" spans="1:9" customFormat="1" ht="27">
+    <row r="580" spans="1:9" customFormat="1" ht="40.5">
       <c r="A580" s="25" t="s">
         <v>1134</v>
       </c>
@@ -25315,7 +25316,7 @@
         <v>1062</v>
       </c>
       <c r="C580" s="27" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="D580" s="26"/>
       <c r="E580" s="28" t="s">
@@ -25332,7 +25333,7 @@
       </c>
       <c r="I580" s="45"/>
     </row>
-    <row r="581" spans="1:9" customFormat="1" ht="27">
+    <row r="581" spans="1:9" customFormat="1" ht="40.5">
       <c r="A581" s="25" t="s">
         <v>1135</v>
       </c>
@@ -25357,7 +25358,7 @@
       </c>
       <c r="I581" s="45"/>
     </row>
-    <row r="582" spans="1:9" customFormat="1" ht="27">
+    <row r="582" spans="1:9" customFormat="1" ht="40.5">
       <c r="A582" s="25" t="s">
         <v>1137</v>
       </c>
@@ -25365,7 +25366,7 @@
         <v>1138</v>
       </c>
       <c r="C582" s="27" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="D582" s="26"/>
       <c r="E582" s="28" t="s">
@@ -25390,7 +25391,7 @@
         <v>1138</v>
       </c>
       <c r="C583" s="30" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="D583" s="26"/>
       <c r="E583" s="28" t="s">
@@ -25407,7 +25408,7 @@
       </c>
       <c r="I583" s="45"/>
     </row>
-    <row r="584" spans="1:9" customFormat="1" ht="27">
+    <row r="584" spans="1:9" customFormat="1" ht="40.5">
       <c r="A584" s="25" t="s">
         <v>1140</v>
       </c>
@@ -25432,7 +25433,7 @@
       </c>
       <c r="I584" s="45"/>
     </row>
-    <row r="585" spans="1:9" customFormat="1" ht="27">
+    <row r="585" spans="1:9" customFormat="1" ht="40.5">
       <c r="A585" s="25" t="s">
         <v>1142</v>
       </c>
@@ -25457,7 +25458,7 @@
       </c>
       <c r="I585" s="45"/>
     </row>
-    <row r="586" spans="1:9" customFormat="1" ht="27">
+    <row r="586" spans="1:9" customFormat="1" ht="40.5">
       <c r="A586" s="25" t="s">
         <v>1144</v>
       </c>
@@ -25465,7 +25466,7 @@
         <v>1138</v>
       </c>
       <c r="C586" s="27" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="D586" s="26"/>
       <c r="E586" s="28" t="s">
@@ -25481,10 +25482,10 @@
         <v>17</v>
       </c>
       <c r="I586" s="51" t="s">
-        <v>1576</v>
-      </c>
-    </row>
-    <row r="587" spans="1:9" customFormat="1" ht="27">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="587" spans="1:9" customFormat="1" ht="40.5">
       <c r="A587" s="25" t="s">
         <v>1145</v>
       </c>
@@ -25492,7 +25493,7 @@
         <v>1138</v>
       </c>
       <c r="C587" s="30" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="D587" s="26"/>
       <c r="E587" s="28" t="s">
@@ -25509,7 +25510,7 @@
       </c>
       <c r="I587" s="45"/>
     </row>
-    <row r="588" spans="1:9" customFormat="1" ht="27">
+    <row r="588" spans="1:9" customFormat="1" ht="40.5">
       <c r="A588" s="25" t="s">
         <v>1146</v>
       </c>
@@ -25534,7 +25535,7 @@
       </c>
       <c r="I588" s="45"/>
     </row>
-    <row r="589" spans="1:9" customFormat="1" ht="27">
+    <row r="589" spans="1:9" customFormat="1" ht="40.5">
       <c r="A589" s="25" t="s">
         <v>1148</v>
       </c>
@@ -25559,7 +25560,7 @@
       </c>
       <c r="I589" s="45"/>
     </row>
-    <row r="590" spans="1:9" customFormat="1" ht="27">
+    <row r="590" spans="1:9" customFormat="1" ht="40.5">
       <c r="A590" s="25" t="s">
         <v>1150</v>
       </c>
@@ -25567,7 +25568,7 @@
         <v>1138</v>
       </c>
       <c r="C590" s="27" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="D590" s="26"/>
       <c r="E590" s="28" t="s">
@@ -25584,7 +25585,7 @@
       </c>
       <c r="I590" s="45"/>
     </row>
-    <row r="591" spans="1:9" customFormat="1" ht="27">
+    <row r="591" spans="1:9" customFormat="1" ht="40.5">
       <c r="A591" s="25" t="s">
         <v>1151</v>
       </c>
@@ -25609,7 +25610,7 @@
       </c>
       <c r="I591" s="45"/>
     </row>
-    <row r="592" spans="1:9" customFormat="1" ht="27">
+    <row r="592" spans="1:9" customFormat="1" ht="40.5">
       <c r="A592" s="25" t="s">
         <v>1153</v>
       </c>
@@ -25634,7 +25635,7 @@
       </c>
       <c r="I592" s="45"/>
     </row>
-    <row r="593" spans="1:9" customFormat="1" ht="13.5">
+    <row r="593" spans="1:9" customFormat="1" ht="40.5">
       <c r="A593" s="25" t="s">
         <v>1155</v>
       </c>
@@ -25659,7 +25660,7 @@
       </c>
       <c r="I593" s="45"/>
     </row>
-    <row r="594" spans="1:9" customFormat="1" ht="27">
+    <row r="594" spans="1:9" customFormat="1" ht="40.5">
       <c r="A594" s="25" t="s">
         <v>1157</v>
       </c>
@@ -25684,7 +25685,7 @@
       </c>
       <c r="I594" s="45"/>
     </row>
-    <row r="595" spans="1:9" customFormat="1" ht="13.5">
+    <row r="595" spans="1:9" customFormat="1" ht="40.5">
       <c r="A595" s="25" t="s">
         <v>1159</v>
       </c>
@@ -25709,7 +25710,7 @@
       </c>
       <c r="I595" s="45"/>
     </row>
-    <row r="596" spans="1:9" customFormat="1" ht="27">
+    <row r="596" spans="1:9" customFormat="1" ht="40.5">
       <c r="A596" s="25" t="s">
         <v>1161</v>
       </c>
@@ -25734,7 +25735,7 @@
       </c>
       <c r="I596" s="45"/>
     </row>
-    <row r="597" spans="1:9" customFormat="1" ht="13.5">
+    <row r="597" spans="1:9" customFormat="1" ht="40.5">
       <c r="A597" s="25" t="s">
         <v>1163</v>
       </c>
@@ -25934,7 +25935,7 @@
       </c>
       <c r="I604" s="45"/>
     </row>
-    <row r="605" spans="1:9" customFormat="1" ht="27">
+    <row r="605" spans="1:9" customFormat="1" ht="40.5">
       <c r="A605" s="25" t="s">
         <v>1178</v>
       </c>
@@ -25959,7 +25960,7 @@
       </c>
       <c r="I605" s="45"/>
     </row>
-    <row r="606" spans="1:9" customFormat="1" ht="27">
+    <row r="606" spans="1:9" customFormat="1" ht="40.5">
       <c r="A606" s="25" t="s">
         <v>1181</v>
       </c>
@@ -25984,7 +25985,7 @@
       </c>
       <c r="I606" s="45"/>
     </row>
-    <row r="607" spans="1:9" customFormat="1" ht="13.5">
+    <row r="607" spans="1:9" customFormat="1" ht="40.5">
       <c r="A607" s="25" t="s">
         <v>1184</v>
       </c>
@@ -26009,7 +26010,7 @@
       </c>
       <c r="I607" s="45"/>
     </row>
-    <row r="608" spans="1:9" customFormat="1" ht="27">
+    <row r="608" spans="1:9" customFormat="1" ht="40.5">
       <c r="A608" s="25" t="s">
         <v>1186</v>
       </c>
@@ -26059,7 +26060,7 @@
       </c>
       <c r="I609" s="45"/>
     </row>
-    <row r="610" spans="1:9" customFormat="1" ht="13.5">
+    <row r="610" spans="1:9" customFormat="1" ht="40.5">
       <c r="A610" s="25" t="s">
         <v>1191</v>
       </c>
@@ -26159,7 +26160,7 @@
       </c>
       <c r="I613" s="45"/>
     </row>
-    <row r="614" spans="1:9" customFormat="1" ht="27">
+    <row r="614" spans="1:9" customFormat="1" ht="40.5">
       <c r="A614" s="25" t="s">
         <v>1198</v>
       </c>
@@ -26209,7 +26210,7 @@
       </c>
       <c r="I615" s="45"/>
     </row>
-    <row r="616" spans="1:9" customFormat="1" ht="13.5">
+    <row r="616" spans="1:9" customFormat="1" ht="40.5">
       <c r="A616" s="25" t="s">
         <v>1204</v>
       </c>
@@ -26234,7 +26235,7 @@
       </c>
       <c r="I616" s="45"/>
     </row>
-    <row r="617" spans="1:9" customFormat="1" ht="27">
+    <row r="617" spans="1:9" customFormat="1" ht="40.5">
       <c r="A617" s="25" t="s">
         <v>1206</v>
       </c>
@@ -26259,7 +26260,7 @@
       </c>
       <c r="I617" s="45"/>
     </row>
-    <row r="618" spans="1:9" customFormat="1" ht="27">
+    <row r="618" spans="1:9" customFormat="1" ht="40.5">
       <c r="A618" s="25" t="s">
         <v>1208</v>
       </c>
@@ -26334,7 +26335,7 @@
       </c>
       <c r="I620" s="45"/>
     </row>
-    <row r="621" spans="1:9" customFormat="1" ht="13.5">
+    <row r="621" spans="1:9" customFormat="1" ht="40.5">
       <c r="A621" s="25" t="s">
         <v>1215</v>
       </c>
@@ -26359,7 +26360,7 @@
       </c>
       <c r="I621" s="45"/>
     </row>
-    <row r="622" spans="1:9" customFormat="1" ht="13.5">
+    <row r="622" spans="1:9" customFormat="1" ht="40.5">
       <c r="A622" s="25" t="s">
         <v>1217</v>
       </c>
@@ -26384,7 +26385,7 @@
       </c>
       <c r="I622" s="45"/>
     </row>
-    <row r="623" spans="1:9" customFormat="1" ht="13.5">
+    <row r="623" spans="1:9" customFormat="1" ht="27">
       <c r="A623" s="25" t="s">
         <v>1219</v>
       </c>
@@ -26484,7 +26485,7 @@
       </c>
       <c r="I626" s="45"/>
     </row>
-    <row r="627" spans="1:10" customFormat="1" ht="13.5">
+    <row r="627" spans="1:10" customFormat="1" ht="27">
       <c r="A627" s="25" t="s">
         <v>1228</v>
       </c>
@@ -26635,7 +26636,7 @@
       </c>
       <c r="I632" s="45"/>
     </row>
-    <row r="633" spans="1:10" customFormat="1" ht="13.5">
+    <row r="633" spans="1:10" customFormat="1" ht="40.5">
       <c r="A633" s="25" t="s">
         <v>1239</v>
       </c>
@@ -26660,7 +26661,7 @@
       </c>
       <c r="I633" s="45"/>
     </row>
-    <row r="634" spans="1:10" customFormat="1" ht="27">
+    <row r="634" spans="1:10" customFormat="1" ht="40.5">
       <c r="A634" s="25" t="s">
         <v>1242</v>
       </c>
@@ -26685,7 +26686,7 @@
       </c>
       <c r="I634" s="45"/>
     </row>
-    <row r="635" spans="1:10" customFormat="1" ht="13.5">
+    <row r="635" spans="1:10" customFormat="1" ht="40.5">
       <c r="A635" s="25" t="s">
         <v>1245</v>
       </c>
@@ -26710,7 +26711,7 @@
       </c>
       <c r="I635" s="45"/>
     </row>
-    <row r="636" spans="1:10" customFormat="1" ht="27">
+    <row r="636" spans="1:10" customFormat="1" ht="40.5">
       <c r="A636" s="25" t="s">
         <v>1247</v>
       </c>
@@ -26735,7 +26736,7 @@
       </c>
       <c r="I636" s="45"/>
     </row>
-    <row r="637" spans="1:10" customFormat="1" ht="27">
+    <row r="637" spans="1:10" customFormat="1" ht="40.5">
       <c r="A637" s="25" t="s">
         <v>1250</v>
       </c>
@@ -26760,7 +26761,7 @@
       </c>
       <c r="I637" s="45"/>
     </row>
-    <row r="638" spans="1:10" customFormat="1" ht="13.5">
+    <row r="638" spans="1:10" customFormat="1" ht="40.5">
       <c r="A638" s="25" t="s">
         <v>1252</v>
       </c>
@@ -26860,7 +26861,7 @@
       </c>
       <c r="I641" s="45"/>
     </row>
-    <row r="642" spans="1:9" customFormat="1" ht="27">
+    <row r="642" spans="1:9" customFormat="1" ht="40.5">
       <c r="A642" s="25" t="s">
         <v>1258</v>
       </c>
@@ -26910,7 +26911,7 @@
       </c>
       <c r="I643" s="45"/>
     </row>
-    <row r="644" spans="1:9" customFormat="1" ht="13.5">
+    <row r="644" spans="1:9" customFormat="1" ht="40.5">
       <c r="A644" s="25" t="s">
         <v>1264</v>
       </c>
@@ -26935,7 +26936,7 @@
       </c>
       <c r="I644" s="45"/>
     </row>
-    <row r="645" spans="1:9" customFormat="1" ht="27">
+    <row r="645" spans="1:9" customFormat="1" ht="40.5">
       <c r="A645" s="25" t="s">
         <v>1266</v>
       </c>
@@ -27010,7 +27011,7 @@
       </c>
       <c r="I647" s="45"/>
     </row>
-    <row r="648" spans="1:9" customFormat="1" ht="27">
+    <row r="648" spans="1:9" customFormat="1" ht="40.5">
       <c r="A648" s="25" t="s">
         <v>1273</v>
       </c>
@@ -27035,7 +27036,7 @@
       </c>
       <c r="I648" s="45"/>
     </row>
-    <row r="649" spans="1:9" customFormat="1" ht="13.5">
+    <row r="649" spans="1:9" customFormat="1" ht="40.5">
       <c r="A649" s="25" t="s">
         <v>1275</v>
       </c>
@@ -27093,7 +27094,7 @@
         <v>1278</v>
       </c>
       <c r="C651" s="30" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="D651" s="26"/>
       <c r="E651" s="28" t="s">
@@ -27260,7 +27261,7 @@
       </c>
       <c r="I657" s="45"/>
     </row>
-    <row r="658" spans="1:9" customFormat="1" ht="27">
+    <row r="658" spans="1:9" customFormat="1" ht="40.5">
       <c r="A658" s="25" t="s">
         <v>1291</v>
       </c>
@@ -27285,7 +27286,7 @@
       </c>
       <c r="I658" s="45"/>
     </row>
-    <row r="659" spans="1:9" customFormat="1" ht="27">
+    <row r="659" spans="1:9" customFormat="1" ht="40.5">
       <c r="A659" s="25" t="s">
         <v>1294</v>
       </c>
@@ -27310,7 +27311,7 @@
       </c>
       <c r="I659" s="45"/>
     </row>
-    <row r="660" spans="1:9" customFormat="1" ht="13.5">
+    <row r="660" spans="1:9" customFormat="1" ht="40.5">
       <c r="A660" s="25" t="s">
         <v>1297</v>
       </c>
@@ -27335,7 +27336,7 @@
       </c>
       <c r="I660" s="45"/>
     </row>
-    <row r="661" spans="1:9" customFormat="1" ht="27">
+    <row r="661" spans="1:9" customFormat="1" ht="40.5">
       <c r="A661" s="25" t="s">
         <v>1299</v>
       </c>
@@ -27385,7 +27386,7 @@
       </c>
       <c r="I662" s="45"/>
     </row>
-    <row r="663" spans="1:9" customFormat="1" ht="13.5">
+    <row r="663" spans="1:9" customFormat="1" ht="40.5">
       <c r="A663" s="25" t="s">
         <v>1304</v>
       </c>
@@ -27485,7 +27486,7 @@
       </c>
       <c r="I666" s="45"/>
     </row>
-    <row r="667" spans="1:9" customFormat="1" ht="27">
+    <row r="667" spans="1:9" customFormat="1" ht="40.5">
       <c r="A667" s="25" t="s">
         <v>1310</v>
       </c>
@@ -27543,7 +27544,7 @@
         <v>1314</v>
       </c>
       <c r="C669" s="30" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="D669" s="26"/>
       <c r="E669" s="28" t="s">
@@ -27568,7 +27569,7 @@
         <v>1314</v>
       </c>
       <c r="C670" s="30" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="D670" s="26"/>
       <c r="E670" s="28" t="s">
@@ -27585,7 +27586,7 @@
       </c>
       <c r="I670" s="45"/>
     </row>
-    <row r="671" spans="1:9" customFormat="1" ht="27">
+    <row r="671" spans="1:9" customFormat="1" ht="40.5">
       <c r="A671" s="25" t="s">
         <v>1318</v>
       </c>
@@ -27610,7 +27611,7 @@
       </c>
       <c r="I671" s="45"/>
     </row>
-    <row r="672" spans="1:9" customFormat="1" ht="27">
+    <row r="672" spans="1:9" customFormat="1" ht="40.5">
       <c r="A672" s="25" t="s">
         <v>1320</v>
       </c>
@@ -27660,7 +27661,7 @@
       </c>
       <c r="I673" s="45"/>
     </row>
-    <row r="674" spans="1:9" customFormat="1" ht="27">
+    <row r="674" spans="1:9" customFormat="1" ht="40.5">
       <c r="A674" s="25" t="s">
         <v>1325</v>
       </c>
@@ -27685,7 +27686,7 @@
       </c>
       <c r="I674" s="45"/>
     </row>
-    <row r="675" spans="1:9" customFormat="1" ht="27">
+    <row r="675" spans="1:9" customFormat="1" ht="40.5">
       <c r="A675" s="25" t="s">
         <v>1327</v>
       </c>
@@ -27768,7 +27769,7 @@
         <v>1334</v>
       </c>
       <c r="C678" s="30" t="s">
-        <v>1456</v>
+        <v>1589</v>
       </c>
       <c r="D678" s="26"/>
       <c r="E678" s="28" t="s">
@@ -27793,7 +27794,7 @@
         <v>1334</v>
       </c>
       <c r="C679" s="30" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="D679" s="26"/>
       <c r="E679" s="28" t="s">
@@ -27839,7 +27840,7 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="681" spans="1:9" s="39" customFormat="1" ht="40.5">
+    <row r="681" spans="1:9" s="39" customFormat="1" ht="54">
       <c r="A681" s="42" t="s">
         <v>480</v>
       </c>
@@ -27850,7 +27851,7 @@
         <v>1364</v>
       </c>
       <c r="D681" s="41" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="E681" s="42" t="s">
         <v>22</v>
@@ -27897,7 +27898,7 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="683" spans="1:9" s="39" customFormat="1" ht="40.5">
+    <row r="683" spans="1:9" s="39" customFormat="1" ht="54">
       <c r="A683" s="40" t="s">
         <v>858</v>
       </c>
@@ -27926,7 +27927,7 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="684" spans="1:9" s="39" customFormat="1" ht="40.5">
+    <row r="684" spans="1:9" s="39" customFormat="1" ht="54">
       <c r="A684" s="40" t="s">
         <v>1080</v>
       </c>
@@ -27955,7 +27956,7 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="685" spans="1:9" s="39" customFormat="1" ht="40.5">
+    <row r="685" spans="1:9" s="39" customFormat="1" ht="54">
       <c r="A685" s="40" t="s">
         <v>1128</v>
       </c>
@@ -27984,7 +27985,7 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="686" spans="1:9" s="39" customFormat="1" ht="40.5">
+    <row r="686" spans="1:9" s="39" customFormat="1" ht="54">
       <c r="A686" s="40" t="s">
         <v>1129</v>
       </c>
@@ -28024,7 +28025,7 @@
         <v>1373</v>
       </c>
       <c r="D687" s="41" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="E687" s="28" t="s">
         <v>22</v>
@@ -28051,7 +28052,7 @@
         <v>1369</v>
       </c>
       <c r="D688" s="41" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="E688" s="28" t="s">
         <v>22</v>
@@ -28078,7 +28079,7 @@
         <v>1368</v>
       </c>
       <c r="D689" s="41" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="E689" s="28" t="s">
         <v>22</v>
@@ -28102,10 +28103,10 @@
         <v>1334</v>
       </c>
       <c r="C690" s="45" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D690" s="41" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="E690" s="42" t="s">
         <v>22</v>
@@ -28131,7 +28132,7 @@
         <v>1340</v>
       </c>
       <c r="C691" s="45" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="D691" s="41"/>
       <c r="E691" s="28" t="s">
@@ -28156,7 +28157,7 @@
         <v>1334</v>
       </c>
       <c r="C692" s="47" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="D692" s="36" t="s">
         <v>1370</v>
@@ -28185,7 +28186,7 @@
         <v>1334</v>
       </c>
       <c r="C693" s="48" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="D693" s="36" t="s">
         <v>1370</v>
@@ -28214,7 +28215,7 @@
         <v>1334</v>
       </c>
       <c r="C694" s="48" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="D694" s="36" t="s">
         <v>1370</v>
@@ -28237,16 +28238,16 @@
     </row>
     <row r="695" spans="1:9" customFormat="1" ht="96">
       <c r="A695" s="25" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="B695" s="26" t="s">
         <v>1340</v>
       </c>
       <c r="C695" s="45" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="D695" s="36" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="E695" s="28" t="s">
         <v>22</v>
@@ -28266,16 +28267,16 @@
     </row>
     <row r="696" spans="1:9" s="39" customFormat="1" ht="42">
       <c r="A696" s="59" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="B696" s="36" t="s">
         <v>1334</v>
       </c>
       <c r="C696" s="45" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="D696" s="36" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="E696" s="42" t="s">
         <v>22</v>
@@ -28299,10 +28300,10 @@
         <v>1334</v>
       </c>
       <c r="C697" s="45" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="D697" s="36" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="E697" s="42" t="s">
         <v>22</v>
@@ -28322,16 +28323,16 @@
     </row>
     <row r="698" spans="1:9" s="39" customFormat="1" ht="45">
       <c r="A698" s="61" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="B698" s="36" t="s">
         <v>1334</v>
       </c>
       <c r="C698" s="54" t="s">
+        <v>1549</v>
+      </c>
+      <c r="D698" s="36" t="s">
         <v>1550</v>
-      </c>
-      <c r="D698" s="36" t="s">
-        <v>1551</v>
       </c>
       <c r="E698" s="42" t="s">
         <v>22</v>
@@ -28349,16 +28350,16 @@
     </row>
     <row r="699" spans="1:9" s="39" customFormat="1" ht="45">
       <c r="A699" s="61" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="B699" s="36" t="s">
         <v>1334</v>
       </c>
       <c r="C699" s="54" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D699" s="36" t="s">
         <v>1565</v>
-      </c>
-      <c r="D699" s="36" t="s">
-        <v>1566</v>
       </c>
       <c r="E699" s="42" t="s">
         <v>22</v>
@@ -28378,16 +28379,16 @@
     </row>
     <row r="700" spans="1:9" s="39" customFormat="1" ht="45">
       <c r="A700" s="61" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="B700" s="36" t="s">
         <v>1334</v>
       </c>
       <c r="C700" s="54" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="D700" s="36" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="E700" s="42" t="s">
         <v>22</v>
@@ -28407,13 +28408,13 @@
     </row>
     <row r="701" spans="1:9" customFormat="1" ht="27">
       <c r="A701" s="25" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="B701" s="26" t="s">
         <v>1340</v>
       </c>
       <c r="C701" s="45" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="D701" s="26"/>
       <c r="E701" s="28" t="s">
@@ -28436,11 +28437,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B5:I5"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="D12:I15"/>
     <mergeCell ref="B16:I16"/>
@@ -28448,6 +28444,11 @@
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B17:I17"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A577:B577 I619:I622 I678:I679 A293:B293 A513:C513 A116:C128 A131:C141 A516:C521 D524 A115:G115 A227:D227 A689:B690 I199 A687:C688 A691:C691 A239:C292 I41:I63 A309:I341 B168:D169 I168:I169 D294:H294 D116:H141 D576:D577 D523:E523 A143:I149 A343:I352 A151:I154 A150:H150 A156:I157 A155:H155 A159:I161 A158:H158 A228:H238 A525:D525 A528:D528 A142:H142 A342:H342 E655:I662 E654:H654 E664:I672 E663:H663 E674:I675 E673:H673 E676:H679 D516:H522 A514:D515 A195:H195 A353:H353 D239:I293 A20:H114 A163:I163 A162:H162 E623:I653 A295:I307 A308:H308 A354:I460 A578:D679 A701:D701 A170:I193 A692:D694 A684:D684 A681:I683 A680:H680 B164:I164 E165:H169 A197:H226 A463:I486 I496:I514 A487:D512 E487:H514 I538:I544 A531:D575 E525:H622 A695:C700 E684:H701 I546:I561">
@@ -30950,12 +30951,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F2EA47BB262D974097182E2CA8AB13E1" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="74597e8d9e42e7e4fc8eda6d37675aa2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4aeb20c0e3442673af7ee10786458764">
     <xsd:element name="properties">
@@ -31004,6 +30999,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
   <ds:schemaRefs>
@@ -31013,20 +31014,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDB2DE12-5EF6-4CF2-820D-5F9FE329E08E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -31039,4 +31026,18 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/SharePoint/Docs/MS-DWSS/MS-DWSS_RequirementSpecification.xlsx
+++ b/SharePoint/Docs/MS-DWSS/MS-DWSS_RequirementSpecification.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{281575CF-E59A-4FFA-BC74-C8316E7388E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8D86CE3-7FC9-482C-9CFD-01B488614575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="2" r:id="rId1"/>
@@ -5861,10 +5861,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>9.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[In ListInfo] ListPermissions: This element displays the current user permissions that are associated with the list.</t>
   </si>
   <si>
@@ -5994,10 +5990,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[In Appendix B: Product Behavior] Implementation does return HTTP status code 401 with response body which contains text "401 Unauthorized" instead of the "NoAccess" error if the authenticated user is not permitted to access this information. (Windows SharePoint Services 3.0, SharePoint Foundation 2010, SharePoint Foundation 2013, and SharePoint Server 2016 will never return the "NoAccess" error code; instead, these product versions will return HTTP status code 401 with a response body containing the text "401 Unauthorized".)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MS-DWSS_R4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -6016,6 +6008,12 @@
   <si>
     <t>[In Appendix B: Product Behavior] Unless otherwise specified, any statement of optional behavior in this specification that is prescribed using the terms "SHOULD" or "SHOULD NOT" implies product behavior in accordance with the SHOULD or SHOULD NOT prescription.</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] Implementation does return HTTP status code 401 with response body which contains text "401 Unauthorized" instead of the "NoAccess" error if the authenticated user is not permitted to access this information. (Windows SharePoint Services 3.0, SharePoint Foundation 2010, SharePoint Foundation 2013, SharePoint Server 2016 and SharePoint Server 2019 will never return the "NoAccess" error code; instead, these product versions will return HTTP status code 401 with a response body containing the text "401 Unauthorized".)</t>
+  </si>
+  <si>
+    <t>12.0</t>
   </si>
 </sst>
 </file>
@@ -6023,14 +6021,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="177" formatCode="0.0.0"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="165" formatCode="0.0.0"/>
   </numFmts>
   <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -6068,7 +6066,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -6086,7 +6084,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -6272,7 +6270,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -6281,7 +6279,7 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -6299,7 +6297,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6445,7 +6443,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="673">
     <dxf>
@@ -10554,7 +10552,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -10877,21 +10875,21 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L702"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C678" sqref="C678"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.125" style="11" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" style="11" customWidth="1"/>
     <col min="2" max="2" width="6" style="3" customWidth="1"/>
     <col min="3" max="3" width="85" style="3" customWidth="1"/>
-    <col min="4" max="4" width="13.25" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="12.125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="14.75" style="3" customWidth="1"/>
-    <col min="9" max="9" width="28.75" style="3" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="28.7109375" style="3" customWidth="1"/>
     <col min="10" max="11" width="9" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
@@ -10922,13 +10920,13 @@
         <v>25</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>1542</v>
+        <v>1589</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>1456</v>
       </c>
       <c r="F3" s="13">
-        <v>43634</v>
+        <v>44308</v>
       </c>
       <c r="J3" s="5"/>
     </row>
@@ -10992,7 +10990,7 @@
       <c r="I7" s="63"/>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" ht="30">
       <c r="A8" s="15" t="s">
         <v>1</v>
       </c>
@@ -11207,7 +11205,7 @@
       </c>
       <c r="J19" s="4"/>
     </row>
-    <row r="20" spans="1:12" customFormat="1" ht="27">
+    <row r="20" spans="1:12" customFormat="1" ht="30">
       <c r="A20" s="25" t="s">
         <v>42</v>
       </c>
@@ -11232,7 +11230,7 @@
       </c>
       <c r="I20" s="45"/>
     </row>
-    <row r="21" spans="1:12" customFormat="1" ht="40.5">
+    <row r="21" spans="1:12" customFormat="1" ht="45">
       <c r="A21" s="25" t="s">
         <v>44</v>
       </c>
@@ -11257,7 +11255,7 @@
       </c>
       <c r="I21" s="45"/>
     </row>
-    <row r="22" spans="1:12" customFormat="1" ht="27">
+    <row r="22" spans="1:12" customFormat="1" ht="30">
       <c r="A22" s="25" t="s">
         <v>45</v>
       </c>
@@ -11282,7 +11280,7 @@
       </c>
       <c r="I22" s="45"/>
     </row>
-    <row r="23" spans="1:12" customFormat="1" ht="40.5">
+    <row r="23" spans="1:12" customFormat="1" ht="45">
       <c r="A23" s="25" t="s">
         <v>47</v>
       </c>
@@ -11307,7 +11305,7 @@
       </c>
       <c r="I23" s="45"/>
     </row>
-    <row r="24" spans="1:12" customFormat="1" ht="27">
+    <row r="24" spans="1:12" customFormat="1" ht="30">
       <c r="A24" s="25" t="s">
         <v>48</v>
       </c>
@@ -11332,7 +11330,7 @@
       </c>
       <c r="I24" s="45"/>
     </row>
-    <row r="25" spans="1:12" customFormat="1" ht="27">
+    <row r="25" spans="1:12" customFormat="1" ht="30">
       <c r="A25" s="25" t="s">
         <v>50</v>
       </c>
@@ -11357,7 +11355,7 @@
       </c>
       <c r="I25" s="45"/>
     </row>
-    <row r="26" spans="1:12" customFormat="1" ht="27">
+    <row r="26" spans="1:12" customFormat="1" ht="30">
       <c r="A26" s="25" t="s">
         <v>52</v>
       </c>
@@ -11382,7 +11380,7 @@
       </c>
       <c r="I26" s="45"/>
     </row>
-    <row r="27" spans="1:12" customFormat="1" ht="40.5">
+    <row r="27" spans="1:12" customFormat="1" ht="45">
       <c r="A27" s="25" t="s">
         <v>53</v>
       </c>
@@ -11407,7 +11405,7 @@
       </c>
       <c r="I27" s="45"/>
     </row>
-    <row r="28" spans="1:12" customFormat="1" ht="13.5">
+    <row r="28" spans="1:12" customFormat="1">
       <c r="A28" s="25" t="s">
         <v>55</v>
       </c>
@@ -11432,7 +11430,7 @@
       </c>
       <c r="I28" s="45"/>
     </row>
-    <row r="29" spans="1:12" customFormat="1" ht="27">
+    <row r="29" spans="1:12" customFormat="1" ht="30">
       <c r="A29" s="25" t="s">
         <v>58</v>
       </c>
@@ -11459,15 +11457,15 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="30" spans="1:12" customFormat="1" ht="27">
+    <row r="30" spans="1:12" customFormat="1" ht="30">
       <c r="A30" s="25" t="s">
-        <v>1585</v>
+        <v>1583</v>
       </c>
       <c r="B30" s="26" t="s">
         <v>56</v>
       </c>
       <c r="C30" s="30" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="D30" s="26"/>
       <c r="E30" s="28" t="s">
@@ -11484,15 +11482,15 @@
       </c>
       <c r="I30" s="45"/>
     </row>
-    <row r="31" spans="1:12" customFormat="1" ht="54">
+    <row r="31" spans="1:12" customFormat="1" ht="45">
       <c r="A31" s="25" t="s">
-        <v>1586</v>
+        <v>1584</v>
       </c>
       <c r="B31" s="26" t="s">
         <v>56</v>
       </c>
       <c r="C31" s="30" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="D31" s="26"/>
       <c r="E31" s="28" t="s">
@@ -11509,7 +11507,7 @@
       </c>
       <c r="I31" s="45"/>
     </row>
-    <row r="32" spans="1:12" customFormat="1" ht="40.5">
+    <row r="32" spans="1:12" customFormat="1" ht="45">
       <c r="A32" s="25" t="s">
         <v>62</v>
       </c>
@@ -11517,7 +11515,7 @@
         <v>63</v>
       </c>
       <c r="C32" s="30" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="D32" s="26"/>
       <c r="E32" s="28" t="s">
@@ -11534,7 +11532,7 @@
       </c>
       <c r="I32" s="45"/>
     </row>
-    <row r="33" spans="1:10" customFormat="1" ht="27">
+    <row r="33" spans="1:10" customFormat="1" ht="30">
       <c r="A33" s="25" t="s">
         <v>64</v>
       </c>
@@ -11559,7 +11557,7 @@
       </c>
       <c r="I33" s="45"/>
     </row>
-    <row r="34" spans="1:10" customFormat="1" ht="40.5">
+    <row r="34" spans="1:10" customFormat="1" ht="45">
       <c r="A34" s="25" t="s">
         <v>67</v>
       </c>
@@ -11584,7 +11582,7 @@
       </c>
       <c r="I34" s="45"/>
     </row>
-    <row r="35" spans="1:10" customFormat="1" ht="27">
+    <row r="35" spans="1:10" customFormat="1" ht="30">
       <c r="A35" s="25" t="s">
         <v>69</v>
       </c>
@@ -11609,7 +11607,7 @@
       </c>
       <c r="I35" s="45"/>
     </row>
-    <row r="36" spans="1:10" customFormat="1" ht="27">
+    <row r="36" spans="1:10" customFormat="1" ht="30">
       <c r="A36" s="25" t="s">
         <v>71</v>
       </c>
@@ -11634,7 +11632,7 @@
       </c>
       <c r="I36" s="45"/>
     </row>
-    <row r="37" spans="1:10" customFormat="1" ht="27">
+    <row r="37" spans="1:10" customFormat="1" ht="30">
       <c r="A37" s="25" t="s">
         <v>73</v>
       </c>
@@ -11659,7 +11657,7 @@
       </c>
       <c r="I37" s="45"/>
     </row>
-    <row r="38" spans="1:10" customFormat="1" ht="27">
+    <row r="38" spans="1:10" customFormat="1" ht="30">
       <c r="A38" s="25" t="s">
         <v>75</v>
       </c>
@@ -11684,7 +11682,7 @@
       </c>
       <c r="I38" s="45"/>
     </row>
-    <row r="39" spans="1:10" customFormat="1" ht="27">
+    <row r="39" spans="1:10" customFormat="1" ht="30">
       <c r="A39" s="25" t="s">
         <v>77</v>
       </c>
@@ -11709,7 +11707,7 @@
       </c>
       <c r="I39" s="45"/>
     </row>
-    <row r="40" spans="1:10" customFormat="1" ht="27">
+    <row r="40" spans="1:10" customFormat="1" ht="30">
       <c r="A40" s="25" t="s">
         <v>79</v>
       </c>
@@ -11734,7 +11732,7 @@
       </c>
       <c r="I40" s="45"/>
     </row>
-    <row r="41" spans="1:10" customFormat="1" ht="27">
+    <row r="41" spans="1:10" customFormat="1">
       <c r="A41" s="25" t="s">
         <v>81</v>
       </c>
@@ -11759,7 +11757,7 @@
       </c>
       <c r="I41" s="45"/>
     </row>
-    <row r="42" spans="1:10" customFormat="1" ht="27">
+    <row r="42" spans="1:10" customFormat="1" ht="30">
       <c r="A42" s="25" t="s">
         <v>84</v>
       </c>
@@ -11784,7 +11782,7 @@
       </c>
       <c r="I42" s="45"/>
     </row>
-    <row r="43" spans="1:10" customFormat="1" ht="27">
+    <row r="43" spans="1:10" customFormat="1" ht="30">
       <c r="A43" s="25" t="s">
         <v>87</v>
       </c>
@@ -11809,7 +11807,7 @@
       </c>
       <c r="I43" s="45"/>
     </row>
-    <row r="44" spans="1:10" customFormat="1" ht="27">
+    <row r="44" spans="1:10" customFormat="1" ht="30">
       <c r="A44" s="25" t="s">
         <v>89</v>
       </c>
@@ -11834,7 +11832,7 @@
       </c>
       <c r="I44" s="45"/>
     </row>
-    <row r="45" spans="1:10" customFormat="1" ht="13.5">
+    <row r="45" spans="1:10" customFormat="1">
       <c r="A45" s="25" t="s">
         <v>90</v>
       </c>
@@ -11859,7 +11857,7 @@
       </c>
       <c r="I45" s="45"/>
     </row>
-    <row r="46" spans="1:10" customFormat="1" ht="13.5">
+    <row r="46" spans="1:10" customFormat="1">
       <c r="A46" s="25" t="s">
         <v>92</v>
       </c>
@@ -11885,7 +11883,7 @@
       <c r="I46" s="45"/>
       <c r="J46" s="31"/>
     </row>
-    <row r="47" spans="1:10" customFormat="1" ht="13.5">
+    <row r="47" spans="1:10" customFormat="1">
       <c r="A47" s="25" t="s">
         <v>94</v>
       </c>
@@ -11910,7 +11908,7 @@
       </c>
       <c r="I47" s="45"/>
     </row>
-    <row r="48" spans="1:10" customFormat="1" ht="13.5">
+    <row r="48" spans="1:10" customFormat="1">
       <c r="A48" s="25" t="s">
         <v>96</v>
       </c>
@@ -11935,7 +11933,7 @@
       </c>
       <c r="I48" s="45"/>
     </row>
-    <row r="49" spans="1:9" customFormat="1" ht="13.5">
+    <row r="49" spans="1:9" customFormat="1">
       <c r="A49" s="25" t="s">
         <v>97</v>
       </c>
@@ -11960,7 +11958,7 @@
       </c>
       <c r="I49" s="45"/>
     </row>
-    <row r="50" spans="1:9" customFormat="1" ht="27">
+    <row r="50" spans="1:9" customFormat="1" ht="30">
       <c r="A50" s="25" t="s">
         <v>99</v>
       </c>
@@ -11985,7 +11983,7 @@
       </c>
       <c r="I50" s="45"/>
     </row>
-    <row r="51" spans="1:9" customFormat="1" ht="27">
+    <row r="51" spans="1:9" customFormat="1" ht="30">
       <c r="A51" s="25" t="s">
         <v>101</v>
       </c>
@@ -12010,7 +12008,7 @@
       </c>
       <c r="I51" s="45"/>
     </row>
-    <row r="52" spans="1:9" customFormat="1" ht="27">
+    <row r="52" spans="1:9" customFormat="1" ht="30">
       <c r="A52" s="25" t="s">
         <v>103</v>
       </c>
@@ -12035,7 +12033,7 @@
       </c>
       <c r="I52" s="45"/>
     </row>
-    <row r="53" spans="1:9" customFormat="1" ht="27">
+    <row r="53" spans="1:9" customFormat="1" ht="30">
       <c r="A53" s="25" t="s">
         <v>105</v>
       </c>
@@ -12060,7 +12058,7 @@
       </c>
       <c r="I53" s="45"/>
     </row>
-    <row r="54" spans="1:9" customFormat="1" ht="108">
+    <row r="54" spans="1:9" customFormat="1" ht="120">
       <c r="A54" s="25" t="s">
         <v>107</v>
       </c>
@@ -12085,7 +12083,7 @@
       </c>
       <c r="I54" s="45"/>
     </row>
-    <row r="55" spans="1:9" customFormat="1" ht="27">
+    <row r="55" spans="1:9" customFormat="1" ht="30">
       <c r="A55" s="25" t="s">
         <v>109</v>
       </c>
@@ -12110,7 +12108,7 @@
       </c>
       <c r="I55" s="45"/>
     </row>
-    <row r="56" spans="1:9" customFormat="1" ht="27">
+    <row r="56" spans="1:9" customFormat="1" ht="30">
       <c r="A56" s="25" t="s">
         <v>112</v>
       </c>
@@ -12135,7 +12133,7 @@
       </c>
       <c r="I56" s="45"/>
     </row>
-    <row r="57" spans="1:9" customFormat="1" ht="27">
+    <row r="57" spans="1:9" customFormat="1" ht="30">
       <c r="A57" s="25" t="s">
         <v>114</v>
       </c>
@@ -12185,7 +12183,7 @@
       </c>
       <c r="I58" s="45"/>
     </row>
-    <row r="59" spans="1:9" customFormat="1" ht="27">
+    <row r="59" spans="1:9" customFormat="1" ht="30">
       <c r="A59" s="25" t="s">
         <v>118</v>
       </c>
@@ -12210,7 +12208,7 @@
       </c>
       <c r="I59" s="45"/>
     </row>
-    <row r="60" spans="1:9" customFormat="1" ht="27">
+    <row r="60" spans="1:9" customFormat="1" ht="30">
       <c r="A60" s="25" t="s">
         <v>120</v>
       </c>
@@ -12235,7 +12233,7 @@
       </c>
       <c r="I60" s="45"/>
     </row>
-    <row r="61" spans="1:9" customFormat="1" ht="27">
+    <row r="61" spans="1:9" customFormat="1" ht="30">
       <c r="A61" s="25" t="s">
         <v>121</v>
       </c>
@@ -12260,7 +12258,7 @@
       </c>
       <c r="I61" s="45"/>
     </row>
-    <row r="62" spans="1:9" customFormat="1" ht="27">
+    <row r="62" spans="1:9" customFormat="1" ht="30">
       <c r="A62" s="25" t="s">
         <v>123</v>
       </c>
@@ -12287,7 +12285,7 @@
       </c>
       <c r="I62" s="45"/>
     </row>
-    <row r="63" spans="1:9" customFormat="1" ht="27">
+    <row r="63" spans="1:9" customFormat="1" ht="30">
       <c r="A63" s="25" t="s">
         <v>126</v>
       </c>
@@ -12314,7 +12312,7 @@
       </c>
       <c r="I63" s="45"/>
     </row>
-    <row r="64" spans="1:9" customFormat="1" ht="27">
+    <row r="64" spans="1:9" customFormat="1" ht="30">
       <c r="A64" s="25" t="s">
         <v>128</v>
       </c>
@@ -12341,7 +12339,7 @@
       </c>
       <c r="I64" s="45"/>
     </row>
-    <row r="65" spans="1:9" customFormat="1" ht="27">
+    <row r="65" spans="1:9" customFormat="1" ht="30">
       <c r="A65" s="25" t="s">
         <v>130</v>
       </c>
@@ -12368,7 +12366,7 @@
       </c>
       <c r="I65" s="45"/>
     </row>
-    <row r="66" spans="1:9" customFormat="1" ht="27">
+    <row r="66" spans="1:9" customFormat="1" ht="30">
       <c r="A66" s="25" t="s">
         <v>132</v>
       </c>
@@ -12395,7 +12393,7 @@
       </c>
       <c r="I66" s="45"/>
     </row>
-    <row r="67" spans="1:9" customFormat="1" ht="27">
+    <row r="67" spans="1:9" customFormat="1" ht="30">
       <c r="A67" s="25" t="s">
         <v>134</v>
       </c>
@@ -12422,7 +12420,7 @@
       </c>
       <c r="I67" s="45"/>
     </row>
-    <row r="68" spans="1:9" customFormat="1" ht="27">
+    <row r="68" spans="1:9" customFormat="1" ht="30">
       <c r="A68" s="25" t="s">
         <v>136</v>
       </c>
@@ -12449,7 +12447,7 @@
       </c>
       <c r="I68" s="45"/>
     </row>
-    <row r="69" spans="1:9" customFormat="1" ht="27">
+    <row r="69" spans="1:9" customFormat="1" ht="30">
       <c r="A69" s="25" t="s">
         <v>138</v>
       </c>
@@ -12476,7 +12474,7 @@
       </c>
       <c r="I69" s="45"/>
     </row>
-    <row r="70" spans="1:9" customFormat="1" ht="27">
+    <row r="70" spans="1:9" customFormat="1" ht="30">
       <c r="A70" s="25" t="s">
         <v>140</v>
       </c>
@@ -12503,7 +12501,7 @@
       </c>
       <c r="I70" s="45"/>
     </row>
-    <row r="71" spans="1:9" customFormat="1" ht="27">
+    <row r="71" spans="1:9" customFormat="1" ht="30">
       <c r="A71" s="25" t="s">
         <v>142</v>
       </c>
@@ -12530,7 +12528,7 @@
       </c>
       <c r="I71" s="45"/>
     </row>
-    <row r="72" spans="1:9" customFormat="1" ht="27">
+    <row r="72" spans="1:9" customFormat="1" ht="30">
       <c r="A72" s="25" t="s">
         <v>144</v>
       </c>
@@ -12555,7 +12553,7 @@
       </c>
       <c r="I72" s="45"/>
     </row>
-    <row r="73" spans="1:9" customFormat="1" ht="27">
+    <row r="73" spans="1:9" customFormat="1" ht="30">
       <c r="A73" s="25" t="s">
         <v>146</v>
       </c>
@@ -12580,7 +12578,7 @@
       </c>
       <c r="I73" s="45"/>
     </row>
-    <row r="74" spans="1:9" customFormat="1" ht="54">
+    <row r="74" spans="1:9" customFormat="1" ht="60">
       <c r="A74" s="25" t="s">
         <v>148</v>
       </c>
@@ -12605,7 +12603,7 @@
       </c>
       <c r="I74" s="45"/>
     </row>
-    <row r="75" spans="1:9" customFormat="1" ht="54">
+    <row r="75" spans="1:9" customFormat="1" ht="60">
       <c r="A75" s="25" t="s">
         <v>150</v>
       </c>
@@ -12630,7 +12628,7 @@
       </c>
       <c r="I75" s="45"/>
     </row>
-    <row r="76" spans="1:9" customFormat="1" ht="67.5">
+    <row r="76" spans="1:9" customFormat="1" ht="60">
       <c r="A76" s="25" t="s">
         <v>152</v>
       </c>
@@ -12655,7 +12653,7 @@
       </c>
       <c r="I76" s="45"/>
     </row>
-    <row r="77" spans="1:9" customFormat="1" ht="27">
+    <row r="77" spans="1:9" customFormat="1" ht="30">
       <c r="A77" s="25" t="s">
         <v>154</v>
       </c>
@@ -12680,7 +12678,7 @@
       </c>
       <c r="I77" s="45"/>
     </row>
-    <row r="78" spans="1:9" customFormat="1" ht="27">
+    <row r="78" spans="1:9" customFormat="1" ht="30">
       <c r="A78" s="25" t="s">
         <v>156</v>
       </c>
@@ -12705,7 +12703,7 @@
       </c>
       <c r="I78" s="45"/>
     </row>
-    <row r="79" spans="1:9" customFormat="1" ht="27">
+    <row r="79" spans="1:9" customFormat="1" ht="30">
       <c r="A79" s="25" t="s">
         <v>158</v>
       </c>
@@ -12730,7 +12728,7 @@
       </c>
       <c r="I79" s="45"/>
     </row>
-    <row r="80" spans="1:9" customFormat="1" ht="27">
+    <row r="80" spans="1:9" customFormat="1" ht="30">
       <c r="A80" s="25" t="s">
         <v>160</v>
       </c>
@@ -12755,7 +12753,7 @@
       </c>
       <c r="I80" s="45"/>
     </row>
-    <row r="81" spans="1:10" customFormat="1" ht="27">
+    <row r="81" spans="1:10" customFormat="1" ht="30">
       <c r="A81" s="25" t="s">
         <v>162</v>
       </c>
@@ -12780,7 +12778,7 @@
       </c>
       <c r="I81" s="46"/>
     </row>
-    <row r="82" spans="1:10" customFormat="1" ht="27">
+    <row r="82" spans="1:10" customFormat="1" ht="30">
       <c r="A82" s="25" t="s">
         <v>164</v>
       </c>
@@ -12805,7 +12803,7 @@
       </c>
       <c r="I82" s="45"/>
     </row>
-    <row r="83" spans="1:10" customFormat="1" ht="27">
+    <row r="83" spans="1:10" customFormat="1" ht="30">
       <c r="A83" s="25" t="s">
         <v>166</v>
       </c>
@@ -12830,7 +12828,7 @@
       </c>
       <c r="I83" s="45"/>
     </row>
-    <row r="84" spans="1:10" customFormat="1" ht="27">
+    <row r="84" spans="1:10" customFormat="1" ht="30">
       <c r="A84" s="25" t="s">
         <v>168</v>
       </c>
@@ -12855,7 +12853,7 @@
       </c>
       <c r="I84" s="45"/>
     </row>
-    <row r="85" spans="1:10" customFormat="1" ht="27">
+    <row r="85" spans="1:10" customFormat="1" ht="30">
       <c r="A85" s="25" t="s">
         <v>170</v>
       </c>
@@ -12880,7 +12878,7 @@
       </c>
       <c r="I85" s="45"/>
     </row>
-    <row r="86" spans="1:10" customFormat="1" ht="27">
+    <row r="86" spans="1:10" customFormat="1" ht="30">
       <c r="A86" s="25" t="s">
         <v>172</v>
       </c>
@@ -12905,7 +12903,7 @@
       </c>
       <c r="I86" s="45"/>
     </row>
-    <row r="87" spans="1:10" customFormat="1" ht="27">
+    <row r="87" spans="1:10" customFormat="1" ht="30">
       <c r="A87" s="25" t="s">
         <v>174</v>
       </c>
@@ -12930,7 +12928,7 @@
       </c>
       <c r="I87" s="45"/>
     </row>
-    <row r="88" spans="1:10" customFormat="1" ht="27">
+    <row r="88" spans="1:10" customFormat="1" ht="30">
       <c r="A88" s="25" t="s">
         <v>176</v>
       </c>
@@ -12956,7 +12954,7 @@
       <c r="I88" s="45"/>
       <c r="J88" s="31"/>
     </row>
-    <row r="89" spans="1:10" customFormat="1" ht="27">
+    <row r="89" spans="1:10" customFormat="1" ht="30">
       <c r="A89" s="25" t="s">
         <v>178</v>
       </c>
@@ -12981,7 +12979,7 @@
       </c>
       <c r="I89" s="45"/>
     </row>
-    <row r="90" spans="1:10" customFormat="1" ht="27">
+    <row r="90" spans="1:10" customFormat="1" ht="30">
       <c r="A90" s="25" t="s">
         <v>180</v>
       </c>
@@ -13006,7 +13004,7 @@
       </c>
       <c r="I90" s="45"/>
     </row>
-    <row r="91" spans="1:10" customFormat="1" ht="27">
+    <row r="91" spans="1:10" customFormat="1" ht="30">
       <c r="A91" s="25" t="s">
         <v>182</v>
       </c>
@@ -13031,7 +13029,7 @@
       </c>
       <c r="I91" s="45"/>
     </row>
-    <row r="92" spans="1:10" customFormat="1" ht="27">
+    <row r="92" spans="1:10" customFormat="1" ht="30">
       <c r="A92" s="25" t="s">
         <v>184</v>
       </c>
@@ -13056,7 +13054,7 @@
       </c>
       <c r="I92" s="45"/>
     </row>
-    <row r="93" spans="1:10" customFormat="1" ht="27">
+    <row r="93" spans="1:10" customFormat="1" ht="30">
       <c r="A93" s="25" t="s">
         <v>187</v>
       </c>
@@ -13081,7 +13079,7 @@
       </c>
       <c r="I93" s="45"/>
     </row>
-    <row r="94" spans="1:10" customFormat="1" ht="135">
+    <row r="94" spans="1:10" customFormat="1" ht="150">
       <c r="A94" s="25" t="s">
         <v>189</v>
       </c>
@@ -13106,7 +13104,7 @@
       </c>
       <c r="I94" s="45"/>
     </row>
-    <row r="95" spans="1:10" customFormat="1" ht="27">
+    <row r="95" spans="1:10" customFormat="1" ht="30">
       <c r="A95" s="25" t="s">
         <v>191</v>
       </c>
@@ -13131,7 +13129,7 @@
       </c>
       <c r="I95" s="45"/>
     </row>
-    <row r="96" spans="1:10" customFormat="1" ht="324">
+    <row r="96" spans="1:10" customFormat="1" ht="360">
       <c r="A96" s="25" t="s">
         <v>193</v>
       </c>
@@ -13156,7 +13154,7 @@
       </c>
       <c r="I96" s="45"/>
     </row>
-    <row r="97" spans="1:10" customFormat="1" ht="40.5">
+    <row r="97" spans="1:10" customFormat="1" ht="45">
       <c r="A97" s="25" t="s">
         <v>194</v>
       </c>
@@ -13181,7 +13179,7 @@
       </c>
       <c r="I97" s="45"/>
     </row>
-    <row r="98" spans="1:10" customFormat="1" ht="27">
+    <row r="98" spans="1:10" customFormat="1" ht="30">
       <c r="A98" s="25" t="s">
         <v>196</v>
       </c>
@@ -13206,7 +13204,7 @@
       </c>
       <c r="I98" s="45"/>
     </row>
-    <row r="99" spans="1:10" customFormat="1" ht="27">
+    <row r="99" spans="1:10" customFormat="1" ht="30">
       <c r="A99" s="25" t="s">
         <v>198</v>
       </c>
@@ -13231,7 +13229,7 @@
       </c>
       <c r="I99" s="45"/>
     </row>
-    <row r="100" spans="1:10" customFormat="1" ht="27">
+    <row r="100" spans="1:10" customFormat="1" ht="30">
       <c r="A100" s="25" t="s">
         <v>200</v>
       </c>
@@ -13257,7 +13255,7 @@
       <c r="I100" s="45"/>
       <c r="J100" s="31"/>
     </row>
-    <row r="101" spans="1:10" customFormat="1" ht="27">
+    <row r="101" spans="1:10" customFormat="1" ht="30">
       <c r="A101" s="25" t="s">
         <v>201</v>
       </c>
@@ -13282,7 +13280,7 @@
       </c>
       <c r="I101" s="45"/>
     </row>
-    <row r="102" spans="1:10" customFormat="1" ht="27">
+    <row r="102" spans="1:10" customFormat="1" ht="30">
       <c r="A102" s="25" t="s">
         <v>203</v>
       </c>
@@ -13307,7 +13305,7 @@
       </c>
       <c r="I102" s="45"/>
     </row>
-    <row r="103" spans="1:10" customFormat="1" ht="27">
+    <row r="103" spans="1:10" customFormat="1" ht="30">
       <c r="A103" s="25" t="s">
         <v>205</v>
       </c>
@@ -13332,7 +13330,7 @@
       </c>
       <c r="I103" s="45"/>
     </row>
-    <row r="104" spans="1:10" customFormat="1" ht="27">
+    <row r="104" spans="1:10" customFormat="1" ht="30">
       <c r="A104" s="25" t="s">
         <v>206</v>
       </c>
@@ -13357,7 +13355,7 @@
       </c>
       <c r="I104" s="45"/>
     </row>
-    <row r="105" spans="1:10" customFormat="1" ht="27">
+    <row r="105" spans="1:10" customFormat="1" ht="30">
       <c r="A105" s="25" t="s">
         <v>208</v>
       </c>
@@ -13382,7 +13380,7 @@
       </c>
       <c r="I105" s="45"/>
     </row>
-    <row r="106" spans="1:10" customFormat="1" ht="27">
+    <row r="106" spans="1:10" customFormat="1" ht="30">
       <c r="A106" s="25" t="s">
         <v>210</v>
       </c>
@@ -13407,7 +13405,7 @@
       </c>
       <c r="I106" s="45"/>
     </row>
-    <row r="107" spans="1:10" customFormat="1" ht="27">
+    <row r="107" spans="1:10" customFormat="1" ht="30">
       <c r="A107" s="25" t="s">
         <v>212</v>
       </c>
@@ -13432,7 +13430,7 @@
       </c>
       <c r="I107" s="45"/>
     </row>
-    <row r="108" spans="1:10" customFormat="1" ht="27">
+    <row r="108" spans="1:10" customFormat="1" ht="30">
       <c r="A108" s="25" t="s">
         <v>214</v>
       </c>
@@ -13457,7 +13455,7 @@
       </c>
       <c r="I108" s="45"/>
     </row>
-    <row r="109" spans="1:10" customFormat="1" ht="27">
+    <row r="109" spans="1:10" customFormat="1" ht="30">
       <c r="A109" s="25" t="s">
         <v>216</v>
       </c>
@@ -13482,7 +13480,7 @@
       </c>
       <c r="I109" s="45"/>
     </row>
-    <row r="110" spans="1:10" customFormat="1" ht="27">
+    <row r="110" spans="1:10" customFormat="1" ht="30">
       <c r="A110" s="25" t="s">
         <v>218</v>
       </c>
@@ -13507,7 +13505,7 @@
       </c>
       <c r="I110" s="45"/>
     </row>
-    <row r="111" spans="1:10" customFormat="1" ht="27">
+    <row r="111" spans="1:10" customFormat="1" ht="30">
       <c r="A111" s="25" t="s">
         <v>220</v>
       </c>
@@ -13532,7 +13530,7 @@
       </c>
       <c r="I111" s="45"/>
     </row>
-    <row r="112" spans="1:10" customFormat="1" ht="27">
+    <row r="112" spans="1:10" customFormat="1" ht="30">
       <c r="A112" s="25" t="s">
         <v>222</v>
       </c>
@@ -13557,7 +13555,7 @@
       </c>
       <c r="I112" s="45"/>
     </row>
-    <row r="113" spans="1:9" customFormat="1" ht="27">
+    <row r="113" spans="1:9" customFormat="1" ht="30">
       <c r="A113" s="25" t="s">
         <v>224</v>
       </c>
@@ -13582,7 +13580,7 @@
       </c>
       <c r="I113" s="45"/>
     </row>
-    <row r="114" spans="1:9" customFormat="1" ht="27">
+    <row r="114" spans="1:9" customFormat="1" ht="30">
       <c r="A114" s="25" t="s">
         <v>226</v>
       </c>
@@ -13609,7 +13607,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="115" spans="1:9" customFormat="1" ht="27">
+    <row r="115" spans="1:9" customFormat="1" ht="30">
       <c r="A115" s="25" t="s">
         <v>227</v>
       </c>
@@ -13634,7 +13632,7 @@
       </c>
       <c r="I115" s="45"/>
     </row>
-    <row r="116" spans="1:9" customFormat="1" ht="27">
+    <row r="116" spans="1:9" customFormat="1" ht="30">
       <c r="A116" s="25" t="s">
         <v>229</v>
       </c>
@@ -13659,7 +13657,7 @@
       </c>
       <c r="I116" s="45"/>
     </row>
-    <row r="117" spans="1:9" customFormat="1" ht="27">
+    <row r="117" spans="1:9" customFormat="1" ht="30">
       <c r="A117" s="25" t="s">
         <v>231</v>
       </c>
@@ -13684,7 +13682,7 @@
       </c>
       <c r="I117" s="45"/>
     </row>
-    <row r="118" spans="1:9" customFormat="1" ht="27">
+    <row r="118" spans="1:9" customFormat="1" ht="30">
       <c r="A118" s="25" t="s">
         <v>233</v>
       </c>
@@ -13709,7 +13707,7 @@
       </c>
       <c r="I118" s="45"/>
     </row>
-    <row r="119" spans="1:9" customFormat="1" ht="27">
+    <row r="119" spans="1:9" customFormat="1" ht="30">
       <c r="A119" s="25" t="s">
         <v>235</v>
       </c>
@@ -13734,7 +13732,7 @@
       </c>
       <c r="I119" s="45"/>
     </row>
-    <row r="120" spans="1:9" customFormat="1" ht="256.5">
+    <row r="120" spans="1:9" customFormat="1" ht="285">
       <c r="A120" s="25" t="s">
         <v>237</v>
       </c>
@@ -13759,7 +13757,7 @@
       </c>
       <c r="I120" s="45"/>
     </row>
-    <row r="121" spans="1:9" customFormat="1" ht="27">
+    <row r="121" spans="1:9" customFormat="1" ht="30">
       <c r="A121" s="25" t="s">
         <v>239</v>
       </c>
@@ -13784,7 +13782,7 @@
       </c>
       <c r="I121" s="45"/>
     </row>
-    <row r="122" spans="1:9" customFormat="1" ht="27">
+    <row r="122" spans="1:9" customFormat="1" ht="30">
       <c r="A122" s="25" t="s">
         <v>241</v>
       </c>
@@ -13809,7 +13807,7 @@
       </c>
       <c r="I122" s="45"/>
     </row>
-    <row r="123" spans="1:9" customFormat="1" ht="27">
+    <row r="123" spans="1:9" customFormat="1" ht="30">
       <c r="A123" s="25" t="s">
         <v>242</v>
       </c>
@@ -13834,7 +13832,7 @@
       </c>
       <c r="I123" s="45"/>
     </row>
-    <row r="124" spans="1:9" customFormat="1" ht="27">
+    <row r="124" spans="1:9" customFormat="1" ht="30">
       <c r="A124" s="25" t="s">
         <v>244</v>
       </c>
@@ -13859,7 +13857,7 @@
       </c>
       <c r="I124" s="45"/>
     </row>
-    <row r="125" spans="1:9" customFormat="1" ht="27">
+    <row r="125" spans="1:9" customFormat="1" ht="30">
       <c r="A125" s="25" t="s">
         <v>246</v>
       </c>
@@ -13884,7 +13882,7 @@
       </c>
       <c r="I125" s="45"/>
     </row>
-    <row r="126" spans="1:9" customFormat="1" ht="27">
+    <row r="126" spans="1:9" customFormat="1" ht="30">
       <c r="A126" s="25" t="s">
         <v>248</v>
       </c>
@@ -13909,7 +13907,7 @@
       </c>
       <c r="I126" s="45"/>
     </row>
-    <row r="127" spans="1:9" customFormat="1" ht="27">
+    <row r="127" spans="1:9" customFormat="1" ht="30">
       <c r="A127" s="25" t="s">
         <v>250</v>
       </c>
@@ -13934,7 +13932,7 @@
       </c>
       <c r="I127" s="45"/>
     </row>
-    <row r="128" spans="1:9" customFormat="1" ht="27">
+    <row r="128" spans="1:9" customFormat="1" ht="30">
       <c r="A128" s="25" t="s">
         <v>252</v>
       </c>
@@ -13959,7 +13957,7 @@
       </c>
       <c r="I128" s="45"/>
     </row>
-    <row r="129" spans="1:9" customFormat="1" ht="27">
+    <row r="129" spans="1:9" customFormat="1" ht="30">
       <c r="A129" s="25" t="s">
         <v>253</v>
       </c>
@@ -13984,7 +13982,7 @@
       </c>
       <c r="I129" s="45"/>
     </row>
-    <row r="130" spans="1:9" customFormat="1" ht="27">
+    <row r="130" spans="1:9" customFormat="1" ht="30">
       <c r="A130" s="25" t="s">
         <v>255</v>
       </c>
@@ -14009,7 +14007,7 @@
       </c>
       <c r="I130" s="45"/>
     </row>
-    <row r="131" spans="1:9" customFormat="1" ht="27">
+    <row r="131" spans="1:9" customFormat="1" ht="30">
       <c r="A131" s="25" t="s">
         <v>257</v>
       </c>
@@ -14034,7 +14032,7 @@
       </c>
       <c r="I131" s="45"/>
     </row>
-    <row r="132" spans="1:9" customFormat="1" ht="297">
+    <row r="132" spans="1:9" customFormat="1" ht="330">
       <c r="A132" s="25" t="s">
         <v>260</v>
       </c>
@@ -14059,7 +14057,7 @@
       </c>
       <c r="I132" s="45"/>
     </row>
-    <row r="133" spans="1:9" customFormat="1" ht="27">
+    <row r="133" spans="1:9" customFormat="1" ht="30">
       <c r="A133" s="25" t="s">
         <v>262</v>
       </c>
@@ -14084,7 +14082,7 @@
       </c>
       <c r="I133" s="45"/>
     </row>
-    <row r="134" spans="1:9" customFormat="1" ht="27">
+    <row r="134" spans="1:9" customFormat="1" ht="30">
       <c r="A134" s="25" t="s">
         <v>264</v>
       </c>
@@ -14109,7 +14107,7 @@
       </c>
       <c r="I134" s="45"/>
     </row>
-    <row r="135" spans="1:9" customFormat="1" ht="27">
+    <row r="135" spans="1:9" customFormat="1" ht="30">
       <c r="A135" s="25" t="s">
         <v>266</v>
       </c>
@@ -14134,7 +14132,7 @@
       </c>
       <c r="I135" s="45"/>
     </row>
-    <row r="136" spans="1:9" customFormat="1" ht="27">
+    <row r="136" spans="1:9" customFormat="1" ht="30">
       <c r="A136" s="25" t="s">
         <v>268</v>
       </c>
@@ -14159,7 +14157,7 @@
       </c>
       <c r="I136" s="45"/>
     </row>
-    <row r="137" spans="1:9" customFormat="1" ht="27">
+    <row r="137" spans="1:9" customFormat="1" ht="30">
       <c r="A137" s="25" t="s">
         <v>270</v>
       </c>
@@ -14184,7 +14182,7 @@
       </c>
       <c r="I137" s="45"/>
     </row>
-    <row r="138" spans="1:9" customFormat="1" ht="27">
+    <row r="138" spans="1:9" customFormat="1" ht="30">
       <c r="A138" s="25" t="s">
         <v>272</v>
       </c>
@@ -14209,7 +14207,7 @@
       </c>
       <c r="I138" s="45"/>
     </row>
-    <row r="139" spans="1:9" customFormat="1" ht="27">
+    <row r="139" spans="1:9" customFormat="1" ht="30">
       <c r="A139" s="25" t="s">
         <v>274</v>
       </c>
@@ -14234,7 +14232,7 @@
       </c>
       <c r="I139" s="45"/>
     </row>
-    <row r="140" spans="1:9" customFormat="1" ht="27">
+    <row r="140" spans="1:9" customFormat="1" ht="30">
       <c r="A140" s="25" t="s">
         <v>276</v>
       </c>
@@ -14259,7 +14257,7 @@
       </c>
       <c r="I140" s="45"/>
     </row>
-    <row r="141" spans="1:9" customFormat="1" ht="27">
+    <row r="141" spans="1:9" customFormat="1" ht="30">
       <c r="A141" s="25" t="s">
         <v>278</v>
       </c>
@@ -14284,7 +14282,7 @@
       </c>
       <c r="I141" s="45"/>
     </row>
-    <row r="142" spans="1:9" customFormat="1" ht="27">
+    <row r="142" spans="1:9" customFormat="1" ht="30">
       <c r="A142" s="25" t="s">
         <v>281</v>
       </c>
@@ -14309,7 +14307,7 @@
       </c>
       <c r="I142" s="45"/>
     </row>
-    <row r="143" spans="1:9" customFormat="1" ht="27">
+    <row r="143" spans="1:9" customFormat="1" ht="30">
       <c r="A143" s="25" t="s">
         <v>283</v>
       </c>
@@ -14334,7 +14332,7 @@
       </c>
       <c r="I143" s="45"/>
     </row>
-    <row r="144" spans="1:9" customFormat="1" ht="27">
+    <row r="144" spans="1:9" customFormat="1" ht="30">
       <c r="A144" s="25" t="s">
         <v>284</v>
       </c>
@@ -14359,7 +14357,7 @@
       </c>
       <c r="I144" s="45"/>
     </row>
-    <row r="145" spans="1:9" customFormat="1" ht="27">
+    <row r="145" spans="1:9" customFormat="1" ht="30">
       <c r="A145" s="25" t="s">
         <v>285</v>
       </c>
@@ -14384,7 +14382,7 @@
       </c>
       <c r="I145" s="45"/>
     </row>
-    <row r="146" spans="1:9" customFormat="1" ht="27">
+    <row r="146" spans="1:9" customFormat="1" ht="30">
       <c r="A146" s="25" t="s">
         <v>287</v>
       </c>
@@ -14409,7 +14407,7 @@
       </c>
       <c r="I146" s="45"/>
     </row>
-    <row r="147" spans="1:9" customFormat="1" ht="27">
+    <row r="147" spans="1:9" customFormat="1" ht="30">
       <c r="A147" s="25" t="s">
         <v>289</v>
       </c>
@@ -14436,7 +14434,7 @@
       </c>
       <c r="I147" s="45"/>
     </row>
-    <row r="148" spans="1:9" customFormat="1" ht="27">
+    <row r="148" spans="1:9" customFormat="1" ht="30">
       <c r="A148" s="25" t="s">
         <v>292</v>
       </c>
@@ -14463,7 +14461,7 @@
       </c>
       <c r="I148" s="45"/>
     </row>
-    <row r="149" spans="1:9" customFormat="1" ht="27">
+    <row r="149" spans="1:9" customFormat="1" ht="30">
       <c r="A149" s="25" t="s">
         <v>294</v>
       </c>
@@ -14490,7 +14488,7 @@
       </c>
       <c r="I149" s="45"/>
     </row>
-    <row r="150" spans="1:9" customFormat="1" ht="27">
+    <row r="150" spans="1:9" customFormat="1" ht="30">
       <c r="A150" s="25" t="s">
         <v>296</v>
       </c>
@@ -14515,7 +14513,7 @@
       </c>
       <c r="I150" s="45"/>
     </row>
-    <row r="151" spans="1:9" customFormat="1" ht="27">
+    <row r="151" spans="1:9" customFormat="1" ht="30">
       <c r="A151" s="25" t="s">
         <v>298</v>
       </c>
@@ -14540,7 +14538,7 @@
       </c>
       <c r="I151" s="45"/>
     </row>
-    <row r="152" spans="1:9" customFormat="1" ht="189">
+    <row r="152" spans="1:9" customFormat="1" ht="210">
       <c r="A152" s="25" t="s">
         <v>300</v>
       </c>
@@ -14565,7 +14563,7 @@
       </c>
       <c r="I152" s="45"/>
     </row>
-    <row r="153" spans="1:9" customFormat="1" ht="27">
+    <row r="153" spans="1:9" customFormat="1" ht="30">
       <c r="A153" s="25" t="s">
         <v>302</v>
       </c>
@@ -14590,7 +14588,7 @@
       </c>
       <c r="I153" s="45"/>
     </row>
-    <row r="154" spans="1:9" customFormat="1" ht="27">
+    <row r="154" spans="1:9" customFormat="1" ht="30">
       <c r="A154" s="25" t="s">
         <v>304</v>
       </c>
@@ -14615,7 +14613,7 @@
       </c>
       <c r="I154" s="45"/>
     </row>
-    <row r="155" spans="1:9" customFormat="1" ht="27">
+    <row r="155" spans="1:9" customFormat="1" ht="30">
       <c r="A155" s="25" t="s">
         <v>307</v>
       </c>
@@ -14640,7 +14638,7 @@
       </c>
       <c r="I155" s="45"/>
     </row>
-    <row r="156" spans="1:9" customFormat="1" ht="27">
+    <row r="156" spans="1:9" customFormat="1" ht="30">
       <c r="A156" s="25" t="s">
         <v>309</v>
       </c>
@@ -14665,7 +14663,7 @@
       </c>
       <c r="I156" s="45"/>
     </row>
-    <row r="157" spans="1:9" customFormat="1" ht="27">
+    <row r="157" spans="1:9" customFormat="1" ht="30">
       <c r="A157" s="25" t="s">
         <v>311</v>
       </c>
@@ -14690,7 +14688,7 @@
       </c>
       <c r="I157" s="45"/>
     </row>
-    <row r="158" spans="1:9" customFormat="1" ht="27">
+    <row r="158" spans="1:9" customFormat="1" ht="30">
       <c r="A158" s="25" t="s">
         <v>313</v>
       </c>
@@ -14715,7 +14713,7 @@
       </c>
       <c r="I158" s="45"/>
     </row>
-    <row r="159" spans="1:9" customFormat="1" ht="27">
+    <row r="159" spans="1:9" customFormat="1" ht="30">
       <c r="A159" s="25" t="s">
         <v>315</v>
       </c>
@@ -14740,7 +14738,7 @@
       </c>
       <c r="I159" s="45"/>
     </row>
-    <row r="160" spans="1:9" customFormat="1" ht="27">
+    <row r="160" spans="1:9" customFormat="1" ht="30">
       <c r="A160" s="25" t="s">
         <v>317</v>
       </c>
@@ -14765,7 +14763,7 @@
       </c>
       <c r="I160" s="45"/>
     </row>
-    <row r="161" spans="1:9" customFormat="1" ht="27">
+    <row r="161" spans="1:9" customFormat="1" ht="30">
       <c r="A161" s="25" t="s">
         <v>319</v>
       </c>
@@ -14790,7 +14788,7 @@
       </c>
       <c r="I161" s="45"/>
     </row>
-    <row r="162" spans="1:9" customFormat="1" ht="27">
+    <row r="162" spans="1:9" customFormat="1" ht="30">
       <c r="A162" s="25" t="s">
         <v>321</v>
       </c>
@@ -14817,7 +14815,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="163" spans="1:9" customFormat="1" ht="27">
+    <row r="163" spans="1:9" customFormat="1" ht="30">
       <c r="A163" s="25" t="s">
         <v>322</v>
       </c>
@@ -14842,7 +14840,7 @@
       </c>
       <c r="I163" s="45"/>
     </row>
-    <row r="164" spans="1:9" s="39" customFormat="1" ht="216">
+    <row r="164" spans="1:9" s="39" customFormat="1" ht="240">
       <c r="A164" s="42" t="s">
         <v>1439</v>
       </c>
@@ -14867,7 +14865,7 @@
       </c>
       <c r="I164" s="45"/>
     </row>
-    <row r="165" spans="1:9" s="39" customFormat="1" ht="27">
+    <row r="165" spans="1:9" s="39" customFormat="1" ht="30">
       <c r="A165" s="42" t="s">
         <v>1441</v>
       </c>
@@ -14892,7 +14890,7 @@
       </c>
       <c r="I165" s="46"/>
     </row>
-    <row r="166" spans="1:9" s="39" customFormat="1" ht="27">
+    <row r="166" spans="1:9" s="39" customFormat="1" ht="30">
       <c r="A166" s="42" t="s">
         <v>1442</v>
       </c>
@@ -14917,7 +14915,7 @@
       </c>
       <c r="I166" s="46"/>
     </row>
-    <row r="167" spans="1:9" s="39" customFormat="1" ht="27">
+    <row r="167" spans="1:9" s="39" customFormat="1" ht="30">
       <c r="A167" s="42" t="s">
         <v>1443</v>
       </c>
@@ -14942,7 +14940,7 @@
       </c>
       <c r="I167" s="46"/>
     </row>
-    <row r="168" spans="1:9" s="39" customFormat="1">
+    <row r="168" spans="1:9" s="39" customFormat="1" ht="30">
       <c r="A168" s="42" t="s">
         <v>1444</v>
       </c>
@@ -14967,7 +14965,7 @@
       </c>
       <c r="I168" s="52"/>
     </row>
-    <row r="169" spans="1:9" s="39" customFormat="1">
+    <row r="169" spans="1:9" s="39" customFormat="1" ht="30">
       <c r="A169" s="42" t="s">
         <v>1445</v>
       </c>
@@ -14992,7 +14990,7 @@
       </c>
       <c r="I169" s="52"/>
     </row>
-    <row r="170" spans="1:9" customFormat="1" ht="27">
+    <row r="170" spans="1:9" customFormat="1" ht="30">
       <c r="A170" s="25" t="s">
         <v>324</v>
       </c>
@@ -15017,7 +15015,7 @@
       </c>
       <c r="I170" s="45"/>
     </row>
-    <row r="171" spans="1:9" customFormat="1" ht="27">
+    <row r="171" spans="1:9" customFormat="1" ht="30">
       <c r="A171" s="25" t="s">
         <v>327</v>
       </c>
@@ -15042,7 +15040,7 @@
       </c>
       <c r="I171" s="45"/>
     </row>
-    <row r="172" spans="1:9" customFormat="1" ht="27">
+    <row r="172" spans="1:9" customFormat="1">
       <c r="A172" s="25" t="s">
         <v>329</v>
       </c>
@@ -15067,7 +15065,7 @@
       </c>
       <c r="I172" s="45"/>
     </row>
-    <row r="173" spans="1:9" customFormat="1" ht="13.5">
+    <row r="173" spans="1:9" customFormat="1">
       <c r="A173" s="25" t="s">
         <v>330</v>
       </c>
@@ -15092,7 +15090,7 @@
       </c>
       <c r="I173" s="45"/>
     </row>
-    <row r="174" spans="1:9" customFormat="1" ht="27">
+    <row r="174" spans="1:9" customFormat="1" ht="30">
       <c r="A174" s="25" t="s">
         <v>332</v>
       </c>
@@ -15117,7 +15115,7 @@
       </c>
       <c r="I174" s="45"/>
     </row>
-    <row r="175" spans="1:9" customFormat="1" ht="108">
+    <row r="175" spans="1:9" customFormat="1" ht="120">
       <c r="A175" s="25" t="s">
         <v>335</v>
       </c>
@@ -15142,7 +15140,7 @@
       </c>
       <c r="I175" s="45"/>
     </row>
-    <row r="176" spans="1:9" customFormat="1" ht="27">
+    <row r="176" spans="1:9" customFormat="1" ht="30">
       <c r="A176" s="25" t="s">
         <v>337</v>
       </c>
@@ -15167,7 +15165,7 @@
       </c>
       <c r="I176" s="45"/>
     </row>
-    <row r="177" spans="1:10" customFormat="1" ht="148.5">
+    <row r="177" spans="1:10" customFormat="1" ht="165">
       <c r="A177" s="25" t="s">
         <v>340</v>
       </c>
@@ -15192,7 +15190,7 @@
       </c>
       <c r="I177" s="45"/>
     </row>
-    <row r="178" spans="1:10" customFormat="1" ht="27">
+    <row r="178" spans="1:10" customFormat="1" ht="30">
       <c r="A178" s="25" t="s">
         <v>341</v>
       </c>
@@ -15217,7 +15215,7 @@
       </c>
       <c r="I178" s="45"/>
     </row>
-    <row r="179" spans="1:10" customFormat="1" ht="27">
+    <row r="179" spans="1:10" customFormat="1" ht="30">
       <c r="A179" s="25" t="s">
         <v>343</v>
       </c>
@@ -15242,7 +15240,7 @@
       </c>
       <c r="I179" s="45"/>
     </row>
-    <row r="180" spans="1:10" customFormat="1" ht="27">
+    <row r="180" spans="1:10" customFormat="1" ht="30">
       <c r="A180" s="25" t="s">
         <v>345</v>
       </c>
@@ -15267,7 +15265,7 @@
       </c>
       <c r="I180" s="45"/>
     </row>
-    <row r="181" spans="1:10" customFormat="1" ht="40.5">
+    <row r="181" spans="1:10" customFormat="1" ht="30">
       <c r="A181" s="25" t="s">
         <v>347</v>
       </c>
@@ -15292,7 +15290,7 @@
       </c>
       <c r="I181" s="45"/>
     </row>
-    <row r="182" spans="1:10" customFormat="1" ht="27">
+    <row r="182" spans="1:10" customFormat="1" ht="30">
       <c r="A182" s="25" t="s">
         <v>348</v>
       </c>
@@ -15317,7 +15315,7 @@
       </c>
       <c r="I182" s="45"/>
     </row>
-    <row r="183" spans="1:10" customFormat="1" ht="40.5">
+    <row r="183" spans="1:10" customFormat="1" ht="45">
       <c r="A183" s="25" t="s">
         <v>350</v>
       </c>
@@ -15342,7 +15340,7 @@
       </c>
       <c r="I183" s="45"/>
     </row>
-    <row r="184" spans="1:10" customFormat="1" ht="27">
+    <row r="184" spans="1:10" customFormat="1" ht="30">
       <c r="A184" s="25" t="s">
         <v>351</v>
       </c>
@@ -15367,7 +15365,7 @@
       </c>
       <c r="I184" s="45"/>
     </row>
-    <row r="185" spans="1:10" customFormat="1" ht="27">
+    <row r="185" spans="1:10" customFormat="1" ht="30">
       <c r="A185" s="25" t="s">
         <v>352</v>
       </c>
@@ -15392,7 +15390,7 @@
       </c>
       <c r="I185" s="45"/>
     </row>
-    <row r="186" spans="1:10" customFormat="1" ht="40.5">
+    <row r="186" spans="1:10" customFormat="1" ht="45">
       <c r="A186" s="25" t="s">
         <v>354</v>
       </c>
@@ -15417,7 +15415,7 @@
       </c>
       <c r="I186" s="45"/>
     </row>
-    <row r="187" spans="1:10" customFormat="1" ht="27">
+    <row r="187" spans="1:10" customFormat="1" ht="30">
       <c r="A187" s="25" t="s">
         <v>356</v>
       </c>
@@ -15443,7 +15441,7 @@
       <c r="I187" s="45"/>
       <c r="J187" s="31"/>
     </row>
-    <row r="188" spans="1:10" customFormat="1" ht="27">
+    <row r="188" spans="1:10" customFormat="1" ht="30">
       <c r="A188" s="25" t="s">
         <v>358</v>
       </c>
@@ -15468,7 +15466,7 @@
       </c>
       <c r="I188" s="45"/>
     </row>
-    <row r="189" spans="1:10" customFormat="1" ht="40.5">
+    <row r="189" spans="1:10" customFormat="1" ht="45">
       <c r="A189" s="25" t="s">
         <v>360</v>
       </c>
@@ -15493,7 +15491,7 @@
       </c>
       <c r="I189" s="45"/>
     </row>
-    <row r="190" spans="1:10" customFormat="1" ht="27">
+    <row r="190" spans="1:10" customFormat="1" ht="30">
       <c r="A190" s="25" t="s">
         <v>362</v>
       </c>
@@ -15519,7 +15517,7 @@
       <c r="I190" s="45"/>
       <c r="J190" s="31"/>
     </row>
-    <row r="191" spans="1:10" customFormat="1" ht="27">
+    <row r="191" spans="1:10" customFormat="1" ht="30">
       <c r="A191" s="25" t="s">
         <v>364</v>
       </c>
@@ -15544,7 +15542,7 @@
       </c>
       <c r="I191" s="45"/>
     </row>
-    <row r="192" spans="1:10" customFormat="1" ht="27">
+    <row r="192" spans="1:10" customFormat="1" ht="30">
       <c r="A192" s="25" t="s">
         <v>366</v>
       </c>
@@ -15569,7 +15567,7 @@
       </c>
       <c r="I192" s="45"/>
     </row>
-    <row r="193" spans="1:9" customFormat="1" ht="27">
+    <row r="193" spans="1:9" customFormat="1" ht="30">
       <c r="A193" s="25" t="s">
         <v>368</v>
       </c>
@@ -15594,7 +15592,7 @@
       </c>
       <c r="I193" s="45"/>
     </row>
-    <row r="194" spans="1:9" s="39" customFormat="1" ht="27">
+    <row r="194" spans="1:9" s="39" customFormat="1" ht="30">
       <c r="A194" s="40" t="s">
         <v>370</v>
       </c>
@@ -15619,7 +15617,7 @@
       </c>
       <c r="I194" s="45"/>
     </row>
-    <row r="195" spans="1:9" customFormat="1" ht="27">
+    <row r="195" spans="1:9" customFormat="1" ht="30">
       <c r="A195" s="25" t="s">
         <v>1482</v>
       </c>
@@ -15644,7 +15642,7 @@
       </c>
       <c r="I195" s="45"/>
     </row>
-    <row r="196" spans="1:9" s="39" customFormat="1" ht="27">
+    <row r="196" spans="1:9" s="39" customFormat="1" ht="30">
       <c r="A196" s="40" t="s">
         <v>1484</v>
       </c>
@@ -15669,7 +15667,7 @@
       </c>
       <c r="I196" s="45"/>
     </row>
-    <row r="197" spans="1:9" customFormat="1" ht="27">
+    <row r="197" spans="1:9" customFormat="1" ht="30">
       <c r="A197" s="25" t="s">
         <v>372</v>
       </c>
@@ -15694,7 +15692,7 @@
       </c>
       <c r="I197" s="45"/>
     </row>
-    <row r="198" spans="1:9" customFormat="1" ht="27">
+    <row r="198" spans="1:9" customFormat="1">
       <c r="A198" s="25" t="s">
         <v>375</v>
       </c>
@@ -15719,7 +15717,7 @@
       </c>
       <c r="I198" s="45"/>
     </row>
-    <row r="199" spans="1:9" customFormat="1" ht="27">
+    <row r="199" spans="1:9" customFormat="1" ht="30">
       <c r="A199" s="25" t="s">
         <v>378</v>
       </c>
@@ -15744,7 +15742,7 @@
       </c>
       <c r="I199" s="45"/>
     </row>
-    <row r="200" spans="1:9" customFormat="1" ht="27">
+    <row r="200" spans="1:9" customFormat="1" ht="30">
       <c r="A200" s="25" t="s">
         <v>381</v>
       </c>
@@ -15769,7 +15767,7 @@
       </c>
       <c r="I200" s="45"/>
     </row>
-    <row r="201" spans="1:9" customFormat="1" ht="27">
+    <row r="201" spans="1:9" customFormat="1" ht="30">
       <c r="A201" s="25" t="s">
         <v>383</v>
       </c>
@@ -15794,7 +15792,7 @@
       </c>
       <c r="I201" s="45"/>
     </row>
-    <row r="202" spans="1:9" customFormat="1" ht="27">
+    <row r="202" spans="1:9" customFormat="1" ht="30">
       <c r="A202" s="25" t="s">
         <v>385</v>
       </c>
@@ -15819,7 +15817,7 @@
       </c>
       <c r="I202" s="45"/>
     </row>
-    <row r="203" spans="1:9" customFormat="1" ht="40.5">
+    <row r="203" spans="1:9" customFormat="1" ht="45">
       <c r="A203" s="25" t="s">
         <v>386</v>
       </c>
@@ -15844,7 +15842,7 @@
       </c>
       <c r="I203" s="45"/>
     </row>
-    <row r="204" spans="1:9" customFormat="1" ht="40.5">
+    <row r="204" spans="1:9" customFormat="1" ht="30">
       <c r="A204" s="25" t="s">
         <v>387</v>
       </c>
@@ -15869,7 +15867,7 @@
       </c>
       <c r="I204" s="45"/>
     </row>
-    <row r="205" spans="1:9" customFormat="1" ht="40.5">
+    <row r="205" spans="1:9" customFormat="1" ht="45">
       <c r="A205" s="25" t="s">
         <v>389</v>
       </c>
@@ -15894,7 +15892,7 @@
       </c>
       <c r="I205" s="45"/>
     </row>
-    <row r="206" spans="1:9" customFormat="1" ht="40.5">
+    <row r="206" spans="1:9" customFormat="1" ht="30">
       <c r="A206" s="25" t="s">
         <v>391</v>
       </c>
@@ -15919,7 +15917,7 @@
       </c>
       <c r="I206" s="45"/>
     </row>
-    <row r="207" spans="1:9" customFormat="1" ht="27">
+    <row r="207" spans="1:9" customFormat="1" ht="30">
       <c r="A207" s="25" t="s">
         <v>394</v>
       </c>
@@ -15944,7 +15942,7 @@
       </c>
       <c r="I207" s="45"/>
     </row>
-    <row r="208" spans="1:9" customFormat="1" ht="40.5">
+    <row r="208" spans="1:9" customFormat="1" ht="45">
       <c r="A208" s="25" t="s">
         <v>396</v>
       </c>
@@ -15969,7 +15967,7 @@
       </c>
       <c r="I208" s="45"/>
     </row>
-    <row r="209" spans="1:9" customFormat="1" ht="27">
+    <row r="209" spans="1:9" customFormat="1" ht="30">
       <c r="A209" s="25" t="s">
         <v>398</v>
       </c>
@@ -15994,7 +15992,7 @@
       </c>
       <c r="I209" s="45"/>
     </row>
-    <row r="210" spans="1:9" customFormat="1" ht="27">
+    <row r="210" spans="1:9" customFormat="1" ht="30">
       <c r="A210" s="25" t="s">
         <v>399</v>
       </c>
@@ -16019,7 +16017,7 @@
       </c>
       <c r="I210" s="45"/>
     </row>
-    <row r="211" spans="1:9" customFormat="1" ht="54">
+    <row r="211" spans="1:9" customFormat="1" ht="60">
       <c r="A211" s="25" t="s">
         <v>401</v>
       </c>
@@ -16044,7 +16042,7 @@
       </c>
       <c r="I211" s="45"/>
     </row>
-    <row r="212" spans="1:9" customFormat="1" ht="27">
+    <row r="212" spans="1:9" customFormat="1" ht="30">
       <c r="A212" s="25" t="s">
         <v>402</v>
       </c>
@@ -16069,7 +16067,7 @@
       </c>
       <c r="I212" s="45"/>
     </row>
-    <row r="213" spans="1:9" customFormat="1" ht="67.5">
+    <row r="213" spans="1:9" customFormat="1" ht="75">
       <c r="A213" s="25" t="s">
         <v>404</v>
       </c>
@@ -16094,7 +16092,7 @@
       </c>
       <c r="I213" s="45"/>
     </row>
-    <row r="214" spans="1:9" customFormat="1" ht="40.5">
+    <row r="214" spans="1:9" customFormat="1" ht="45">
       <c r="A214" s="25" t="s">
         <v>407</v>
       </c>
@@ -16119,7 +16117,7 @@
       </c>
       <c r="I214" s="45"/>
     </row>
-    <row r="215" spans="1:9" customFormat="1" ht="27">
+    <row r="215" spans="1:9" customFormat="1" ht="30">
       <c r="A215" s="25" t="s">
         <v>410</v>
       </c>
@@ -16144,7 +16142,7 @@
       </c>
       <c r="I215" s="45"/>
     </row>
-    <row r="216" spans="1:9" customFormat="1" ht="27">
+    <row r="216" spans="1:9" customFormat="1" ht="30">
       <c r="A216" s="25" t="s">
         <v>411</v>
       </c>
@@ -16169,7 +16167,7 @@
       </c>
       <c r="I216" s="45"/>
     </row>
-    <row r="217" spans="1:9" customFormat="1" ht="27">
+    <row r="217" spans="1:9" customFormat="1" ht="30">
       <c r="A217" s="25" t="s">
         <v>413</v>
       </c>
@@ -16194,7 +16192,7 @@
       </c>
       <c r="I217" s="45"/>
     </row>
-    <row r="218" spans="1:9" customFormat="1" ht="27">
+    <row r="218" spans="1:9" customFormat="1" ht="30">
       <c r="A218" s="25" t="s">
         <v>415</v>
       </c>
@@ -16219,7 +16217,7 @@
       </c>
       <c r="I218" s="45"/>
     </row>
-    <row r="219" spans="1:9" customFormat="1" ht="27">
+    <row r="219" spans="1:9" customFormat="1" ht="30">
       <c r="A219" s="25" t="s">
         <v>417</v>
       </c>
@@ -16244,7 +16242,7 @@
       </c>
       <c r="I219" s="45"/>
     </row>
-    <row r="220" spans="1:9" customFormat="1" ht="27">
+    <row r="220" spans="1:9" customFormat="1" ht="30">
       <c r="A220" s="25" t="s">
         <v>419</v>
       </c>
@@ -16269,7 +16267,7 @@
       </c>
       <c r="I220" s="45"/>
     </row>
-    <row r="221" spans="1:9" customFormat="1" ht="27">
+    <row r="221" spans="1:9" customFormat="1" ht="30">
       <c r="A221" s="25" t="s">
         <v>421</v>
       </c>
@@ -16294,7 +16292,7 @@
       </c>
       <c r="I221" s="45"/>
     </row>
-    <row r="222" spans="1:9" customFormat="1" ht="27">
+    <row r="222" spans="1:9" customFormat="1" ht="30">
       <c r="A222" s="25" t="s">
         <v>423</v>
       </c>
@@ -16319,7 +16317,7 @@
       </c>
       <c r="I222" s="45"/>
     </row>
-    <row r="223" spans="1:9" customFormat="1" ht="27">
+    <row r="223" spans="1:9" customFormat="1" ht="30">
       <c r="A223" s="25" t="s">
         <v>425</v>
       </c>
@@ -16344,7 +16342,7 @@
       </c>
       <c r="I223" s="45"/>
     </row>
-    <row r="224" spans="1:9" customFormat="1" ht="27">
+    <row r="224" spans="1:9" customFormat="1" ht="30">
       <c r="A224" s="25" t="s">
         <v>426</v>
       </c>
@@ -16369,7 +16367,7 @@
       </c>
       <c r="I224" s="45"/>
     </row>
-    <row r="225" spans="1:10" customFormat="1" ht="27">
+    <row r="225" spans="1:10" customFormat="1" ht="30">
       <c r="A225" s="25" t="s">
         <v>428</v>
       </c>
@@ -16395,7 +16393,7 @@
       <c r="I225" s="45"/>
       <c r="J225" s="31"/>
     </row>
-    <row r="226" spans="1:10" customFormat="1" ht="40.5">
+    <row r="226" spans="1:10" customFormat="1" ht="30">
       <c r="A226" s="25" t="s">
         <v>430</v>
       </c>
@@ -16420,7 +16418,7 @@
       </c>
       <c r="I226" s="45"/>
     </row>
-    <row r="227" spans="1:10" customFormat="1" ht="94.5">
+    <row r="227" spans="1:10" customFormat="1" ht="105">
       <c r="A227" s="25" t="s">
         <v>432</v>
       </c>
@@ -16445,7 +16443,7 @@
       </c>
       <c r="I227" s="45"/>
     </row>
-    <row r="228" spans="1:10" customFormat="1" ht="27">
+    <row r="228" spans="1:10" customFormat="1" ht="30">
       <c r="A228" s="25" t="s">
         <v>434</v>
       </c>
@@ -16470,7 +16468,7 @@
       </c>
       <c r="I228" s="45"/>
     </row>
-    <row r="229" spans="1:10" customFormat="1" ht="54">
+    <row r="229" spans="1:10" customFormat="1" ht="45">
       <c r="A229" s="25" t="s">
         <v>436</v>
       </c>
@@ -16495,7 +16493,7 @@
       </c>
       <c r="I229" s="45"/>
     </row>
-    <row r="230" spans="1:10" customFormat="1" ht="54">
+    <row r="230" spans="1:10" customFormat="1" ht="45">
       <c r="A230" s="25" t="s">
         <v>438</v>
       </c>
@@ -16520,7 +16518,7 @@
       </c>
       <c r="I230" s="45"/>
     </row>
-    <row r="231" spans="1:10" customFormat="1" ht="27">
+    <row r="231" spans="1:10" customFormat="1" ht="30">
       <c r="A231" s="25" t="s">
         <v>439</v>
       </c>
@@ -16545,7 +16543,7 @@
       </c>
       <c r="I231" s="45"/>
     </row>
-    <row r="232" spans="1:10" customFormat="1" ht="27">
+    <row r="232" spans="1:10" customFormat="1" ht="30">
       <c r="A232" s="25" t="s">
         <v>442</v>
       </c>
@@ -16570,7 +16568,7 @@
       </c>
       <c r="I232" s="45"/>
     </row>
-    <row r="233" spans="1:10" customFormat="1" ht="27">
+    <row r="233" spans="1:10" customFormat="1" ht="30">
       <c r="A233" s="25" t="s">
         <v>444</v>
       </c>
@@ -16595,7 +16593,7 @@
       </c>
       <c r="I233" s="45"/>
     </row>
-    <row r="234" spans="1:10" customFormat="1" ht="40.5">
+    <row r="234" spans="1:10" customFormat="1" ht="30">
       <c r="A234" s="25" t="s">
         <v>446</v>
       </c>
@@ -16620,7 +16618,7 @@
       </c>
       <c r="I234" s="45"/>
     </row>
-    <row r="235" spans="1:10" customFormat="1" ht="40.5">
+    <row r="235" spans="1:10" customFormat="1" ht="30">
       <c r="A235" s="25" t="s">
         <v>449</v>
       </c>
@@ -16645,7 +16643,7 @@
       </c>
       <c r="I235" s="45"/>
     </row>
-    <row r="236" spans="1:10" customFormat="1" ht="40.5">
+    <row r="236" spans="1:10" customFormat="1" ht="30">
       <c r="A236" s="25" t="s">
         <v>451</v>
       </c>
@@ -16670,7 +16668,7 @@
       </c>
       <c r="I236" s="45"/>
     </row>
-    <row r="237" spans="1:10" customFormat="1" ht="40.5">
+    <row r="237" spans="1:10" customFormat="1" ht="30">
       <c r="A237" s="25" t="s">
         <v>453</v>
       </c>
@@ -16695,7 +16693,7 @@
       </c>
       <c r="I237" s="45"/>
     </row>
-    <row r="238" spans="1:10" customFormat="1" ht="40.5">
+    <row r="238" spans="1:10" customFormat="1" ht="30">
       <c r="A238" s="25" t="s">
         <v>456</v>
       </c>
@@ -16720,7 +16718,7 @@
       </c>
       <c r="I238" s="45"/>
     </row>
-    <row r="239" spans="1:10" customFormat="1" ht="40.5">
+    <row r="239" spans="1:10" customFormat="1" ht="30">
       <c r="A239" s="25" t="s">
         <v>458</v>
       </c>
@@ -16745,7 +16743,7 @@
       </c>
       <c r="I239" s="45"/>
     </row>
-    <row r="240" spans="1:10" customFormat="1" ht="27">
+    <row r="240" spans="1:10" customFormat="1" ht="30">
       <c r="A240" s="25" t="s">
         <v>460</v>
       </c>
@@ -16770,7 +16768,7 @@
       </c>
       <c r="I240" s="45"/>
     </row>
-    <row r="241" spans="1:9" customFormat="1" ht="27">
+    <row r="241" spans="1:9" customFormat="1" ht="30">
       <c r="A241" s="25" t="s">
         <v>463</v>
       </c>
@@ -16795,7 +16793,7 @@
       </c>
       <c r="I241" s="45"/>
     </row>
-    <row r="242" spans="1:9" customFormat="1" ht="27">
+    <row r="242" spans="1:9" customFormat="1" ht="30">
       <c r="A242" s="28" t="s">
         <v>465</v>
       </c>
@@ -16820,7 +16818,7 @@
       </c>
       <c r="I242" s="45"/>
     </row>
-    <row r="243" spans="1:9" customFormat="1" ht="40.5">
+    <row r="243" spans="1:9" customFormat="1" ht="30">
       <c r="A243" s="25" t="s">
         <v>468</v>
       </c>
@@ -16845,7 +16843,7 @@
       </c>
       <c r="I243" s="45"/>
     </row>
-    <row r="244" spans="1:9" customFormat="1" ht="108">
+    <row r="244" spans="1:9" customFormat="1" ht="120">
       <c r="A244" s="25" t="s">
         <v>471</v>
       </c>
@@ -16870,7 +16868,7 @@
       </c>
       <c r="I244" s="45"/>
     </row>
-    <row r="245" spans="1:9" customFormat="1" ht="40.5">
+    <row r="245" spans="1:9" customFormat="1" ht="30">
       <c r="A245" s="25" t="s">
         <v>473</v>
       </c>
@@ -16895,7 +16893,7 @@
       </c>
       <c r="I245" s="45"/>
     </row>
-    <row r="246" spans="1:9" customFormat="1" ht="40.5">
+    <row r="246" spans="1:9" customFormat="1" ht="30">
       <c r="A246" s="25" t="s">
         <v>474</v>
       </c>
@@ -16920,7 +16918,7 @@
       </c>
       <c r="I246" s="45"/>
     </row>
-    <row r="247" spans="1:9" customFormat="1" ht="40.5">
+    <row r="247" spans="1:9" customFormat="1" ht="30">
       <c r="A247" s="25" t="s">
         <v>475</v>
       </c>
@@ -16945,7 +16943,7 @@
       </c>
       <c r="I247" s="45"/>
     </row>
-    <row r="248" spans="1:9" customFormat="1" ht="40.5">
+    <row r="248" spans="1:9" customFormat="1" ht="30">
       <c r="A248" s="25" t="s">
         <v>476</v>
       </c>
@@ -16970,7 +16968,7 @@
       </c>
       <c r="I248" s="45"/>
     </row>
-    <row r="249" spans="1:9" customFormat="1" ht="40.5">
+    <row r="249" spans="1:9" customFormat="1" ht="30">
       <c r="A249" s="28" t="s">
         <v>477</v>
       </c>
@@ -16997,7 +16995,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="250" spans="1:9" customFormat="1" ht="40.5">
+    <row r="250" spans="1:9" customFormat="1" ht="30">
       <c r="A250" s="25" t="s">
         <v>481</v>
       </c>
@@ -17022,7 +17020,7 @@
       </c>
       <c r="I250" s="45"/>
     </row>
-    <row r="251" spans="1:9" customFormat="1" ht="121.5">
+    <row r="251" spans="1:9" customFormat="1" ht="135">
       <c r="A251" s="25" t="s">
         <v>484</v>
       </c>
@@ -17047,7 +17045,7 @@
       </c>
       <c r="I251" s="45"/>
     </row>
-    <row r="252" spans="1:9" customFormat="1" ht="40.5">
+    <row r="252" spans="1:9" customFormat="1" ht="30">
       <c r="A252" s="25" t="s">
         <v>486</v>
       </c>
@@ -17072,7 +17070,7 @@
       </c>
       <c r="I252" s="45"/>
     </row>
-    <row r="253" spans="1:9" customFormat="1" ht="108">
+    <row r="253" spans="1:9" customFormat="1" ht="120">
       <c r="A253" s="25" t="s">
         <v>488</v>
       </c>
@@ -17097,7 +17095,7 @@
       </c>
       <c r="I253" s="45"/>
     </row>
-    <row r="254" spans="1:9" customFormat="1" ht="40.5">
+    <row r="254" spans="1:9" customFormat="1" ht="30">
       <c r="A254" s="25" t="s">
         <v>490</v>
       </c>
@@ -17122,7 +17120,7 @@
       </c>
       <c r="I254" s="45"/>
     </row>
-    <row r="255" spans="1:9" customFormat="1" ht="40.5">
+    <row r="255" spans="1:9" customFormat="1" ht="30">
       <c r="A255" s="25" t="s">
         <v>492</v>
       </c>
@@ -17147,7 +17145,7 @@
       </c>
       <c r="I255" s="45"/>
     </row>
-    <row r="256" spans="1:9" customFormat="1" ht="27">
+    <row r="256" spans="1:9" customFormat="1" ht="30">
       <c r="A256" s="25" t="s">
         <v>494</v>
       </c>
@@ -17172,7 +17170,7 @@
       </c>
       <c r="I256" s="45"/>
     </row>
-    <row r="257" spans="1:9" customFormat="1" ht="81">
+    <row r="257" spans="1:9" customFormat="1" ht="90">
       <c r="A257" s="25" t="s">
         <v>496</v>
       </c>
@@ -17197,7 +17195,7 @@
       </c>
       <c r="I257" s="45"/>
     </row>
-    <row r="258" spans="1:9" customFormat="1" ht="27">
+    <row r="258" spans="1:9" customFormat="1" ht="30">
       <c r="A258" s="25" t="s">
         <v>498</v>
       </c>
@@ -17222,7 +17220,7 @@
       </c>
       <c r="I258" s="45"/>
     </row>
-    <row r="259" spans="1:9" customFormat="1" ht="27">
+    <row r="259" spans="1:9" customFormat="1" ht="30">
       <c r="A259" s="25" t="s">
         <v>500</v>
       </c>
@@ -17247,7 +17245,7 @@
       </c>
       <c r="I259" s="45"/>
     </row>
-    <row r="260" spans="1:9" customFormat="1" ht="27">
+    <row r="260" spans="1:9" customFormat="1" ht="30">
       <c r="A260" s="25" t="s">
         <v>502</v>
       </c>
@@ -17272,7 +17270,7 @@
       </c>
       <c r="I260" s="45"/>
     </row>
-    <row r="261" spans="1:9" customFormat="1" ht="27">
+    <row r="261" spans="1:9" customFormat="1" ht="30">
       <c r="A261" s="25" t="s">
         <v>504</v>
       </c>
@@ -17297,7 +17295,7 @@
       </c>
       <c r="I261" s="45"/>
     </row>
-    <row r="262" spans="1:9" customFormat="1" ht="40.5">
+    <row r="262" spans="1:9" customFormat="1" ht="45">
       <c r="A262" s="25" t="s">
         <v>506</v>
       </c>
@@ -17322,7 +17320,7 @@
       </c>
       <c r="I262" s="45"/>
     </row>
-    <row r="263" spans="1:9" customFormat="1" ht="27">
+    <row r="263" spans="1:9" customFormat="1" ht="30">
       <c r="A263" s="25" t="s">
         <v>508</v>
       </c>
@@ -17347,7 +17345,7 @@
       </c>
       <c r="I263" s="45"/>
     </row>
-    <row r="264" spans="1:9" customFormat="1" ht="27">
+    <row r="264" spans="1:9" customFormat="1" ht="30">
       <c r="A264" s="25" t="s">
         <v>510</v>
       </c>
@@ -17372,7 +17370,7 @@
       </c>
       <c r="I264" s="45"/>
     </row>
-    <row r="265" spans="1:9" customFormat="1" ht="27">
+    <row r="265" spans="1:9" customFormat="1" ht="30">
       <c r="A265" s="25" t="s">
         <v>512</v>
       </c>
@@ -17397,7 +17395,7 @@
       </c>
       <c r="I265" s="45"/>
     </row>
-    <row r="266" spans="1:9" customFormat="1" ht="40.5">
+    <row r="266" spans="1:9" customFormat="1" ht="45">
       <c r="A266" s="25" t="s">
         <v>515</v>
       </c>
@@ -17422,7 +17420,7 @@
       </c>
       <c r="I266" s="45"/>
     </row>
-    <row r="267" spans="1:9" customFormat="1" ht="27">
+    <row r="267" spans="1:9" customFormat="1" ht="30">
       <c r="A267" s="25" t="s">
         <v>518</v>
       </c>
@@ -17447,7 +17445,7 @@
       </c>
       <c r="I267" s="45"/>
     </row>
-    <row r="268" spans="1:9" customFormat="1" ht="27">
+    <row r="268" spans="1:9" customFormat="1" ht="30">
       <c r="A268" s="25" t="s">
         <v>519</v>
       </c>
@@ -17472,7 +17470,7 @@
       </c>
       <c r="I268" s="45"/>
     </row>
-    <row r="269" spans="1:9" customFormat="1" ht="40.5">
+    <row r="269" spans="1:9" customFormat="1" ht="30">
       <c r="A269" s="25" t="s">
         <v>521</v>
       </c>
@@ -17497,7 +17495,7 @@
       </c>
       <c r="I269" s="45"/>
     </row>
-    <row r="270" spans="1:9" customFormat="1" ht="40.5">
+    <row r="270" spans="1:9" customFormat="1" ht="30">
       <c r="A270" s="25" t="s">
         <v>524</v>
       </c>
@@ -17522,7 +17520,7 @@
       </c>
       <c r="I270" s="45"/>
     </row>
-    <row r="271" spans="1:9" customFormat="1" ht="40.5">
+    <row r="271" spans="1:9" customFormat="1" ht="30">
       <c r="A271" s="25" t="s">
         <v>526</v>
       </c>
@@ -17547,7 +17545,7 @@
       </c>
       <c r="I271" s="45"/>
     </row>
-    <row r="272" spans="1:9" customFormat="1" ht="40.5">
+    <row r="272" spans="1:9" customFormat="1" ht="30">
       <c r="A272" s="25" t="s">
         <v>528</v>
       </c>
@@ -17572,7 +17570,7 @@
       </c>
       <c r="I272" s="45"/>
     </row>
-    <row r="273" spans="1:9" customFormat="1" ht="40.5">
+    <row r="273" spans="1:9" customFormat="1" ht="30">
       <c r="A273" s="25" t="s">
         <v>530</v>
       </c>
@@ -17597,7 +17595,7 @@
       </c>
       <c r="I273" s="45"/>
     </row>
-    <row r="274" spans="1:9" customFormat="1" ht="40.5">
+    <row r="274" spans="1:9" customFormat="1" ht="30">
       <c r="A274" s="25" t="s">
         <v>533</v>
       </c>
@@ -17622,7 +17620,7 @@
       </c>
       <c r="I274" s="45"/>
     </row>
-    <row r="275" spans="1:9" customFormat="1" ht="40.5">
+    <row r="275" spans="1:9" customFormat="1" ht="30">
       <c r="A275" s="25" t="s">
         <v>535</v>
       </c>
@@ -17647,7 +17645,7 @@
       </c>
       <c r="I275" s="45"/>
     </row>
-    <row r="276" spans="1:9" customFormat="1" ht="40.5">
+    <row r="276" spans="1:9" customFormat="1" ht="30">
       <c r="A276" s="25" t="s">
         <v>537</v>
       </c>
@@ -17672,7 +17670,7 @@
       </c>
       <c r="I276" s="45"/>
     </row>
-    <row r="277" spans="1:9" customFormat="1" ht="27">
+    <row r="277" spans="1:9" customFormat="1" ht="30">
       <c r="A277" s="25" t="s">
         <v>540</v>
       </c>
@@ -17697,7 +17695,7 @@
       </c>
       <c r="I277" s="45"/>
     </row>
-    <row r="278" spans="1:9" customFormat="1" ht="27">
+    <row r="278" spans="1:9" customFormat="1" ht="30">
       <c r="A278" s="25" t="s">
         <v>541</v>
       </c>
@@ -17722,7 +17720,7 @@
       </c>
       <c r="I278" s="45"/>
     </row>
-    <row r="279" spans="1:9" customFormat="1" ht="40.5">
+    <row r="279" spans="1:9" customFormat="1" ht="30">
       <c r="A279" s="25" t="s">
         <v>543</v>
       </c>
@@ -17747,7 +17745,7 @@
       </c>
       <c r="I279" s="45"/>
     </row>
-    <row r="280" spans="1:9" customFormat="1" ht="148.5">
+    <row r="280" spans="1:9" customFormat="1" ht="165">
       <c r="A280" s="25" t="s">
         <v>546</v>
       </c>
@@ -17772,7 +17770,7 @@
       </c>
       <c r="I280" s="45"/>
     </row>
-    <row r="281" spans="1:9" customFormat="1" ht="40.5">
+    <row r="281" spans="1:9" customFormat="1" ht="30">
       <c r="A281" s="25" t="s">
         <v>549</v>
       </c>
@@ -17797,7 +17795,7 @@
       </c>
       <c r="I281" s="45"/>
     </row>
-    <row r="282" spans="1:9" customFormat="1" ht="40.5">
+    <row r="282" spans="1:9" customFormat="1" ht="30">
       <c r="A282" s="25" t="s">
         <v>551</v>
       </c>
@@ -17822,7 +17820,7 @@
       </c>
       <c r="I282" s="45"/>
     </row>
-    <row r="283" spans="1:9" customFormat="1" ht="40.5">
+    <row r="283" spans="1:9" customFormat="1" ht="45">
       <c r="A283" s="25" t="s">
         <v>553</v>
       </c>
@@ -17847,7 +17845,7 @@
       </c>
       <c r="I283" s="45"/>
     </row>
-    <row r="284" spans="1:9" customFormat="1" ht="40.5">
+    <row r="284" spans="1:9" customFormat="1" ht="30">
       <c r="A284" s="25" t="s">
         <v>554</v>
       </c>
@@ -17872,7 +17870,7 @@
       </c>
       <c r="I284" s="45"/>
     </row>
-    <row r="285" spans="1:9" customFormat="1" ht="40.5">
+    <row r="285" spans="1:9" customFormat="1" ht="30">
       <c r="A285" s="25" t="s">
         <v>556</v>
       </c>
@@ -17897,7 +17895,7 @@
       </c>
       <c r="I285" s="45"/>
     </row>
-    <row r="286" spans="1:9" customFormat="1" ht="40.5">
+    <row r="286" spans="1:9" customFormat="1" ht="30">
       <c r="A286" s="25" t="s">
         <v>558</v>
       </c>
@@ -17922,7 +17920,7 @@
       </c>
       <c r="I286" s="45"/>
     </row>
-    <row r="287" spans="1:9" customFormat="1" ht="216">
+    <row r="287" spans="1:9" customFormat="1" ht="240">
       <c r="A287" s="25" t="s">
         <v>560</v>
       </c>
@@ -17947,7 +17945,7 @@
       </c>
       <c r="I287" s="45"/>
     </row>
-    <row r="288" spans="1:9" customFormat="1" ht="40.5">
+    <row r="288" spans="1:9" customFormat="1" ht="30">
       <c r="A288" s="25" t="s">
         <v>561</v>
       </c>
@@ -17972,7 +17970,7 @@
       </c>
       <c r="I288" s="45"/>
     </row>
-    <row r="289" spans="1:9" customFormat="1" ht="40.5">
+    <row r="289" spans="1:9" customFormat="1" ht="30">
       <c r="A289" s="25" t="s">
         <v>563</v>
       </c>
@@ -17997,7 +17995,7 @@
       </c>
       <c r="I289" s="45"/>
     </row>
-    <row r="290" spans="1:9" customFormat="1" ht="40.5">
+    <row r="290" spans="1:9" customFormat="1" ht="30">
       <c r="A290" s="25" t="s">
         <v>565</v>
       </c>
@@ -18022,7 +18020,7 @@
       </c>
       <c r="I290" s="45"/>
     </row>
-    <row r="291" spans="1:9" customFormat="1" ht="40.5">
+    <row r="291" spans="1:9" customFormat="1" ht="30">
       <c r="A291" s="25" t="s">
         <v>567</v>
       </c>
@@ -18047,7 +18045,7 @@
       </c>
       <c r="I291" s="45"/>
     </row>
-    <row r="292" spans="1:9" customFormat="1" ht="40.5">
+    <row r="292" spans="1:9" customFormat="1" ht="45">
       <c r="A292" s="25" t="s">
         <v>569</v>
       </c>
@@ -18072,7 +18070,7 @@
       </c>
       <c r="I292" s="45"/>
     </row>
-    <row r="293" spans="1:9" customFormat="1" ht="40.5">
+    <row r="293" spans="1:9" customFormat="1" ht="45">
       <c r="A293" s="25" t="s">
         <v>571</v>
       </c>
@@ -18099,7 +18097,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="294" spans="1:9" customFormat="1" ht="40.5">
+    <row r="294" spans="1:9" customFormat="1" ht="45">
       <c r="A294" s="25" t="s">
         <v>573</v>
       </c>
@@ -18126,7 +18124,7 @@
       </c>
       <c r="I294" s="45"/>
     </row>
-    <row r="295" spans="1:9" customFormat="1" ht="40.5">
+    <row r="295" spans="1:9" customFormat="1" ht="30">
       <c r="A295" s="25" t="s">
         <v>576</v>
       </c>
@@ -18151,7 +18149,7 @@
       </c>
       <c r="I295" s="45"/>
     </row>
-    <row r="296" spans="1:9" customFormat="1" ht="40.5">
+    <row r="296" spans="1:9" customFormat="1" ht="30">
       <c r="A296" s="25" t="s">
         <v>578</v>
       </c>
@@ -18176,7 +18174,7 @@
       </c>
       <c r="I296" s="45"/>
     </row>
-    <row r="297" spans="1:9" customFormat="1" ht="40.5">
+    <row r="297" spans="1:9" customFormat="1" ht="30">
       <c r="A297" s="25" t="s">
         <v>579</v>
       </c>
@@ -18201,7 +18199,7 @@
       </c>
       <c r="I297" s="45"/>
     </row>
-    <row r="298" spans="1:9" customFormat="1" ht="202.5">
+    <row r="298" spans="1:9" customFormat="1" ht="225">
       <c r="A298" s="25" t="s">
         <v>581</v>
       </c>
@@ -18226,7 +18224,7 @@
       </c>
       <c r="I298" s="45"/>
     </row>
-    <row r="299" spans="1:9" customFormat="1" ht="40.5">
+    <row r="299" spans="1:9" customFormat="1" ht="30">
       <c r="A299" s="25" t="s">
         <v>582</v>
       </c>
@@ -18251,7 +18249,7 @@
       </c>
       <c r="I299" s="45"/>
     </row>
-    <row r="300" spans="1:9" customFormat="1" ht="40.5">
+    <row r="300" spans="1:9" customFormat="1" ht="30">
       <c r="A300" s="25" t="s">
         <v>584</v>
       </c>
@@ -18276,7 +18274,7 @@
       </c>
       <c r="I300" s="45"/>
     </row>
-    <row r="301" spans="1:9" customFormat="1" ht="40.5">
+    <row r="301" spans="1:9" customFormat="1" ht="30">
       <c r="A301" s="25" t="s">
         <v>585</v>
       </c>
@@ -18301,7 +18299,7 @@
       </c>
       <c r="I301" s="45"/>
     </row>
-    <row r="302" spans="1:9" customFormat="1" ht="121.5">
+    <row r="302" spans="1:9" customFormat="1" ht="120">
       <c r="A302" s="25" t="s">
         <v>588</v>
       </c>
@@ -18326,7 +18324,7 @@
       </c>
       <c r="I302" s="45"/>
     </row>
-    <row r="303" spans="1:9" customFormat="1" ht="40.5">
+    <row r="303" spans="1:9" customFormat="1" ht="30">
       <c r="A303" s="25" t="s">
         <v>590</v>
       </c>
@@ -18351,7 +18349,7 @@
       </c>
       <c r="I303" s="45"/>
     </row>
-    <row r="304" spans="1:9" customFormat="1" ht="270">
+    <row r="304" spans="1:9" customFormat="1" ht="285">
       <c r="A304" s="25" t="s">
         <v>592</v>
       </c>
@@ -18376,7 +18374,7 @@
       </c>
       <c r="I304" s="45"/>
     </row>
-    <row r="305" spans="1:10" customFormat="1" ht="40.5">
+    <row r="305" spans="1:10" customFormat="1" ht="30">
       <c r="A305" s="25" t="s">
         <v>593</v>
       </c>
@@ -18401,7 +18399,7 @@
       </c>
       <c r="I305" s="45"/>
     </row>
-    <row r="306" spans="1:10" customFormat="1" ht="40.5">
+    <row r="306" spans="1:10" customFormat="1" ht="30">
       <c r="A306" s="25" t="s">
         <v>595</v>
       </c>
@@ -18426,7 +18424,7 @@
       </c>
       <c r="I306" s="45"/>
     </row>
-    <row r="307" spans="1:10" customFormat="1" ht="40.5">
+    <row r="307" spans="1:10" customFormat="1" ht="30">
       <c r="A307" s="25" t="s">
         <v>597</v>
       </c>
@@ -18451,7 +18449,7 @@
       </c>
       <c r="I307" s="45"/>
     </row>
-    <row r="308" spans="1:10" customFormat="1" ht="42">
+    <row r="308" spans="1:10" customFormat="1" ht="30">
       <c r="A308" s="25" t="s">
         <v>599</v>
       </c>
@@ -18476,7 +18474,7 @@
       </c>
       <c r="I308" s="52"/>
     </row>
-    <row r="309" spans="1:10" customFormat="1" ht="40.5">
+    <row r="309" spans="1:10" customFormat="1" ht="45">
       <c r="A309" s="25" t="s">
         <v>601</v>
       </c>
@@ -18503,7 +18501,7 @@
         <v>1376</v>
       </c>
     </row>
-    <row r="310" spans="1:10" customFormat="1" ht="40.5">
+    <row r="310" spans="1:10" customFormat="1" ht="30">
       <c r="A310" s="25" t="s">
         <v>603</v>
       </c>
@@ -18528,7 +18526,7 @@
       </c>
       <c r="I310" s="45"/>
     </row>
-    <row r="311" spans="1:10" customFormat="1" ht="40.5">
+    <row r="311" spans="1:10" customFormat="1" ht="30">
       <c r="A311" s="25" t="s">
         <v>605</v>
       </c>
@@ -18553,7 +18551,7 @@
       </c>
       <c r="I311" s="45"/>
     </row>
-    <row r="312" spans="1:10" customFormat="1" ht="40.5">
+    <row r="312" spans="1:10" customFormat="1" ht="30">
       <c r="A312" s="25" t="s">
         <v>607</v>
       </c>
@@ -18579,7 +18577,7 @@
       <c r="I312" s="45"/>
       <c r="J312" s="31"/>
     </row>
-    <row r="313" spans="1:10" customFormat="1" ht="40.5">
+    <row r="313" spans="1:10" customFormat="1" ht="30">
       <c r="A313" s="25" t="s">
         <v>608</v>
       </c>
@@ -18604,7 +18602,7 @@
       </c>
       <c r="I313" s="45"/>
     </row>
-    <row r="314" spans="1:10" customFormat="1" ht="40.5">
+    <row r="314" spans="1:10" customFormat="1" ht="30">
       <c r="A314" s="25" t="s">
         <v>610</v>
       </c>
@@ -18629,7 +18627,7 @@
       </c>
       <c r="I314" s="45"/>
     </row>
-    <row r="315" spans="1:10" customFormat="1" ht="40.5">
+    <row r="315" spans="1:10" customFormat="1" ht="30">
       <c r="A315" s="25" t="s">
         <v>612</v>
       </c>
@@ -18654,7 +18652,7 @@
       </c>
       <c r="I315" s="45"/>
     </row>
-    <row r="316" spans="1:10" customFormat="1" ht="148.5">
+    <row r="316" spans="1:10" customFormat="1" ht="165">
       <c r="A316" s="25" t="s">
         <v>613</v>
       </c>
@@ -18679,7 +18677,7 @@
       </c>
       <c r="I316" s="45"/>
     </row>
-    <row r="317" spans="1:10" customFormat="1" ht="40.5">
+    <row r="317" spans="1:10" customFormat="1" ht="30">
       <c r="A317" s="25" t="s">
         <v>615</v>
       </c>
@@ -18704,7 +18702,7 @@
       </c>
       <c r="I317" s="45"/>
     </row>
-    <row r="318" spans="1:10" customFormat="1" ht="40.5">
+    <row r="318" spans="1:10" customFormat="1" ht="30">
       <c r="A318" s="25" t="s">
         <v>617</v>
       </c>
@@ -18729,7 +18727,7 @@
       </c>
       <c r="I318" s="45"/>
     </row>
-    <row r="319" spans="1:10" customFormat="1" ht="40.5">
+    <row r="319" spans="1:10" customFormat="1" ht="45">
       <c r="A319" s="25" t="s">
         <v>619</v>
       </c>
@@ -18754,7 +18752,7 @@
       </c>
       <c r="I319" s="45"/>
     </row>
-    <row r="320" spans="1:10" customFormat="1" ht="27">
+    <row r="320" spans="1:10" customFormat="1" ht="30">
       <c r="A320" s="25" t="s">
         <v>621</v>
       </c>
@@ -18779,7 +18777,7 @@
       </c>
       <c r="I320" s="45"/>
     </row>
-    <row r="321" spans="1:9" customFormat="1" ht="94.5">
+    <row r="321" spans="1:9" customFormat="1" ht="90">
       <c r="A321" s="25" t="s">
         <v>624</v>
       </c>
@@ -18804,7 +18802,7 @@
       </c>
       <c r="I321" s="45"/>
     </row>
-    <row r="322" spans="1:9" customFormat="1" ht="27">
+    <row r="322" spans="1:9" customFormat="1" ht="30">
       <c r="A322" s="25" t="s">
         <v>626</v>
       </c>
@@ -18829,7 +18827,7 @@
       </c>
       <c r="I322" s="45"/>
     </row>
-    <row r="323" spans="1:9" customFormat="1" ht="27">
+    <row r="323" spans="1:9" customFormat="1" ht="30">
       <c r="A323" s="25" t="s">
         <v>628</v>
       </c>
@@ -18854,7 +18852,7 @@
       </c>
       <c r="I323" s="45"/>
     </row>
-    <row r="324" spans="1:9" customFormat="1" ht="40.5">
+    <row r="324" spans="1:9" customFormat="1" ht="30">
       <c r="A324" s="25" t="s">
         <v>630</v>
       </c>
@@ -18879,7 +18877,7 @@
       </c>
       <c r="I324" s="45"/>
     </row>
-    <row r="325" spans="1:9" customFormat="1" ht="27">
+    <row r="325" spans="1:9" customFormat="1" ht="30">
       <c r="A325" s="25" t="s">
         <v>632</v>
       </c>
@@ -18904,7 +18902,7 @@
       </c>
       <c r="I325" s="45"/>
     </row>
-    <row r="326" spans="1:9" customFormat="1" ht="40.5">
+    <row r="326" spans="1:9" customFormat="1" ht="30">
       <c r="A326" s="25" t="s">
         <v>634</v>
       </c>
@@ -18929,7 +18927,7 @@
       </c>
       <c r="I326" s="45"/>
     </row>
-    <row r="327" spans="1:9" customFormat="1" ht="40.5">
+    <row r="327" spans="1:9" customFormat="1" ht="45">
       <c r="A327" s="25" t="s">
         <v>636</v>
       </c>
@@ -18954,7 +18952,7 @@
       </c>
       <c r="I327" s="45"/>
     </row>
-    <row r="328" spans="1:9" customFormat="1" ht="40.5">
+    <row r="328" spans="1:9" customFormat="1" ht="45">
       <c r="A328" s="25" t="s">
         <v>639</v>
       </c>
@@ -18979,7 +18977,7 @@
       </c>
       <c r="I328" s="45"/>
     </row>
-    <row r="329" spans="1:9" customFormat="1" ht="27">
+    <row r="329" spans="1:9" customFormat="1" ht="30">
       <c r="A329" s="25" t="s">
         <v>641</v>
       </c>
@@ -19004,7 +19002,7 @@
       </c>
       <c r="I329" s="45"/>
     </row>
-    <row r="330" spans="1:9" customFormat="1" ht="27">
+    <row r="330" spans="1:9" customFormat="1" ht="30">
       <c r="A330" s="25" t="s">
         <v>642</v>
       </c>
@@ -19029,7 +19027,7 @@
       </c>
       <c r="I330" s="45"/>
     </row>
-    <row r="331" spans="1:9" customFormat="1" ht="40.5">
+    <row r="331" spans="1:9" customFormat="1" ht="30">
       <c r="A331" s="25" t="s">
         <v>643</v>
       </c>
@@ -19054,7 +19052,7 @@
       </c>
       <c r="I331" s="45"/>
     </row>
-    <row r="332" spans="1:9" customFormat="1" ht="40.5">
+    <row r="332" spans="1:9" customFormat="1" ht="30">
       <c r="A332" s="25" t="s">
         <v>646</v>
       </c>
@@ -19079,7 +19077,7 @@
       </c>
       <c r="I332" s="45"/>
     </row>
-    <row r="333" spans="1:9" customFormat="1" ht="40.5">
+    <row r="333" spans="1:9" customFormat="1" ht="30">
       <c r="A333" s="25" t="s">
         <v>649</v>
       </c>
@@ -19104,7 +19102,7 @@
       </c>
       <c r="I333" s="45"/>
     </row>
-    <row r="334" spans="1:9" customFormat="1" ht="40.5">
+    <row r="334" spans="1:9" customFormat="1" ht="30">
       <c r="A334" s="25" t="s">
         <v>651</v>
       </c>
@@ -19129,7 +19127,7 @@
       </c>
       <c r="I334" s="45"/>
     </row>
-    <row r="335" spans="1:9" customFormat="1" ht="40.5">
+    <row r="335" spans="1:9" customFormat="1" ht="30">
       <c r="A335" s="25" t="s">
         <v>654</v>
       </c>
@@ -19154,7 +19152,7 @@
       </c>
       <c r="I335" s="45"/>
     </row>
-    <row r="336" spans="1:9" customFormat="1" ht="40.5">
+    <row r="336" spans="1:9" customFormat="1" ht="30">
       <c r="A336" s="25" t="s">
         <v>656</v>
       </c>
@@ -19179,7 +19177,7 @@
       </c>
       <c r="I336" s="45"/>
     </row>
-    <row r="337" spans="1:10" customFormat="1" ht="40.5">
+    <row r="337" spans="1:10" customFormat="1" ht="45">
       <c r="A337" s="25" t="s">
         <v>658</v>
       </c>
@@ -19204,7 +19202,7 @@
       </c>
       <c r="I337" s="45"/>
     </row>
-    <row r="338" spans="1:10" customFormat="1" ht="27">
+    <row r="338" spans="1:10" customFormat="1" ht="30">
       <c r="A338" s="25" t="s">
         <v>660</v>
       </c>
@@ -19229,7 +19227,7 @@
       </c>
       <c r="I338" s="45"/>
     </row>
-    <row r="339" spans="1:10" customFormat="1" ht="27">
+    <row r="339" spans="1:10" customFormat="1" ht="30">
       <c r="A339" s="25" t="s">
         <v>661</v>
       </c>
@@ -19254,7 +19252,7 @@
       </c>
       <c r="I339" s="45"/>
     </row>
-    <row r="340" spans="1:10" customFormat="1" ht="40.5">
+    <row r="340" spans="1:10" customFormat="1" ht="30">
       <c r="A340" s="25" t="s">
         <v>662</v>
       </c>
@@ -19279,7 +19277,7 @@
       </c>
       <c r="I340" s="45"/>
     </row>
-    <row r="341" spans="1:10" customFormat="1" ht="108">
+    <row r="341" spans="1:10" customFormat="1" ht="120">
       <c r="A341" s="25" t="s">
         <v>665</v>
       </c>
@@ -19304,7 +19302,7 @@
       </c>
       <c r="I341" s="45"/>
     </row>
-    <row r="342" spans="1:10" customFormat="1" ht="40.5">
+    <row r="342" spans="1:10" customFormat="1" ht="30">
       <c r="A342" s="25" t="s">
         <v>668</v>
       </c>
@@ -19329,7 +19327,7 @@
       </c>
       <c r="I342" s="45"/>
     </row>
-    <row r="343" spans="1:10" customFormat="1" ht="40.5">
+    <row r="343" spans="1:10" customFormat="1" ht="30">
       <c r="A343" s="25" t="s">
         <v>669</v>
       </c>
@@ -19354,7 +19352,7 @@
       </c>
       <c r="I343" s="45"/>
     </row>
-    <row r="344" spans="1:10" customFormat="1" ht="121.5">
+    <row r="344" spans="1:10" customFormat="1" ht="120">
       <c r="A344" s="25" t="s">
         <v>671</v>
       </c>
@@ -19379,7 +19377,7 @@
       </c>
       <c r="I344" s="45"/>
     </row>
-    <row r="345" spans="1:10" customFormat="1" ht="40.5">
+    <row r="345" spans="1:10" customFormat="1" ht="30">
       <c r="A345" s="25" t="s">
         <v>673</v>
       </c>
@@ -19404,7 +19402,7 @@
       </c>
       <c r="I345" s="45"/>
     </row>
-    <row r="346" spans="1:10" customFormat="1" ht="108">
+    <row r="346" spans="1:10" customFormat="1" ht="120">
       <c r="A346" s="25" t="s">
         <v>675</v>
       </c>
@@ -19429,7 +19427,7 @@
       </c>
       <c r="I346" s="45"/>
     </row>
-    <row r="347" spans="1:10" customFormat="1" ht="40.5">
+    <row r="347" spans="1:10" customFormat="1" ht="30">
       <c r="A347" s="25" t="s">
         <v>677</v>
       </c>
@@ -19454,7 +19452,7 @@
       </c>
       <c r="I347" s="45"/>
     </row>
-    <row r="348" spans="1:10" customFormat="1" ht="40.5">
+    <row r="348" spans="1:10" customFormat="1" ht="30">
       <c r="A348" s="25" t="s">
         <v>679</v>
       </c>
@@ -19480,7 +19478,7 @@
       <c r="I348" s="45"/>
       <c r="J348" s="31"/>
     </row>
-    <row r="349" spans="1:10" customFormat="1" ht="27">
+    <row r="349" spans="1:10" customFormat="1" ht="30">
       <c r="A349" s="25" t="s">
         <v>681</v>
       </c>
@@ -19505,7 +19503,7 @@
       </c>
       <c r="I349" s="45"/>
     </row>
-    <row r="350" spans="1:10" customFormat="1" ht="81">
+    <row r="350" spans="1:10" customFormat="1" ht="90">
       <c r="A350" s="25" t="s">
         <v>683</v>
       </c>
@@ -19530,7 +19528,7 @@
       </c>
       <c r="I350" s="45"/>
     </row>
-    <row r="351" spans="1:10" customFormat="1" ht="27">
+    <row r="351" spans="1:10" customFormat="1" ht="30">
       <c r="A351" s="25" t="s">
         <v>685</v>
       </c>
@@ -19555,7 +19553,7 @@
       </c>
       <c r="I351" s="45"/>
     </row>
-    <row r="352" spans="1:10" customFormat="1" ht="27">
+    <row r="352" spans="1:10" customFormat="1" ht="30">
       <c r="A352" s="25" t="s">
         <v>687</v>
       </c>
@@ -19580,7 +19578,7 @@
       </c>
       <c r="I352" s="45"/>
     </row>
-    <row r="353" spans="1:9" customFormat="1" ht="54">
+    <row r="353" spans="1:9" customFormat="1" ht="75">
       <c r="A353" s="25" t="s">
         <v>689</v>
       </c>
@@ -19607,7 +19605,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="354" spans="1:9" customFormat="1" ht="40.5">
+    <row r="354" spans="1:9" customFormat="1" ht="30">
       <c r="A354" s="25" t="s">
         <v>692</v>
       </c>
@@ -19632,7 +19630,7 @@
       </c>
       <c r="I354" s="45"/>
     </row>
-    <row r="355" spans="1:9" customFormat="1" ht="27">
+    <row r="355" spans="1:9" customFormat="1" ht="30">
       <c r="A355" s="25" t="s">
         <v>694</v>
       </c>
@@ -19657,7 +19655,7 @@
       </c>
       <c r="I355" s="45"/>
     </row>
-    <row r="356" spans="1:9" customFormat="1" ht="40.5">
+    <row r="356" spans="1:9" customFormat="1" ht="45">
       <c r="A356" s="25" t="s">
         <v>691</v>
       </c>
@@ -19682,7 +19680,7 @@
       </c>
       <c r="I356" s="45"/>
     </row>
-    <row r="357" spans="1:9" customFormat="1" ht="27">
+    <row r="357" spans="1:9" customFormat="1" ht="30">
       <c r="A357" s="25" t="s">
         <v>697</v>
       </c>
@@ -19707,7 +19705,7 @@
       </c>
       <c r="I357" s="45"/>
     </row>
-    <row r="358" spans="1:9" customFormat="1" ht="27">
+    <row r="358" spans="1:9" customFormat="1" ht="30">
       <c r="A358" s="25" t="s">
         <v>698</v>
       </c>
@@ -19732,7 +19730,7 @@
       </c>
       <c r="I358" s="45"/>
     </row>
-    <row r="359" spans="1:9" customFormat="1" ht="40.5">
+    <row r="359" spans="1:9" customFormat="1" ht="30">
       <c r="A359" s="25" t="s">
         <v>699</v>
       </c>
@@ -19757,7 +19755,7 @@
       </c>
       <c r="I359" s="45"/>
     </row>
-    <row r="360" spans="1:9" customFormat="1" ht="40.5">
+    <row r="360" spans="1:9" customFormat="1" ht="30">
       <c r="A360" s="25" t="s">
         <v>702</v>
       </c>
@@ -19782,7 +19780,7 @@
       </c>
       <c r="I360" s="45"/>
     </row>
-    <row r="361" spans="1:9" customFormat="1" ht="40.5">
+    <row r="361" spans="1:9" customFormat="1" ht="30">
       <c r="A361" s="25" t="s">
         <v>705</v>
       </c>
@@ -19807,7 +19805,7 @@
       </c>
       <c r="I361" s="45"/>
     </row>
-    <row r="362" spans="1:9" customFormat="1" ht="40.5">
+    <row r="362" spans="1:9" customFormat="1" ht="30">
       <c r="A362" s="25" t="s">
         <v>707</v>
       </c>
@@ -19832,7 +19830,7 @@
       </c>
       <c r="I362" s="45"/>
     </row>
-    <row r="363" spans="1:9" customFormat="1" ht="40.5">
+    <row r="363" spans="1:9" customFormat="1" ht="30">
       <c r="A363" s="25" t="s">
         <v>710</v>
       </c>
@@ -19857,7 +19855,7 @@
       </c>
       <c r="I363" s="45"/>
     </row>
-    <row r="364" spans="1:9" customFormat="1" ht="40.5">
+    <row r="364" spans="1:9" customFormat="1" ht="30">
       <c r="A364" s="25" t="s">
         <v>712</v>
       </c>
@@ -19882,7 +19880,7 @@
       </c>
       <c r="I364" s="45"/>
     </row>
-    <row r="365" spans="1:9" customFormat="1" ht="40.5">
+    <row r="365" spans="1:9" customFormat="1" ht="30">
       <c r="A365" s="25" t="s">
         <v>714</v>
       </c>
@@ -19907,7 +19905,7 @@
       </c>
       <c r="I365" s="45"/>
     </row>
-    <row r="366" spans="1:9" customFormat="1" ht="27">
+    <row r="366" spans="1:9" customFormat="1" ht="30">
       <c r="A366" s="25" t="s">
         <v>716</v>
       </c>
@@ -19932,7 +19930,7 @@
       </c>
       <c r="I366" s="45"/>
     </row>
-    <row r="367" spans="1:9" customFormat="1" ht="27">
+    <row r="367" spans="1:9" customFormat="1" ht="30">
       <c r="A367" s="25" t="s">
         <v>717</v>
       </c>
@@ -19957,7 +19955,7 @@
       </c>
       <c r="I367" s="45"/>
     </row>
-    <row r="368" spans="1:9" customFormat="1" ht="40.5">
+    <row r="368" spans="1:9" customFormat="1" ht="30">
       <c r="A368" s="25" t="s">
         <v>718</v>
       </c>
@@ -19982,7 +19980,7 @@
       </c>
       <c r="I368" s="45"/>
     </row>
-    <row r="369" spans="1:9" customFormat="1" ht="54">
+    <row r="369" spans="1:9" customFormat="1" ht="60">
       <c r="A369" s="25" t="s">
         <v>721</v>
       </c>
@@ -20007,7 +20005,7 @@
       </c>
       <c r="I369" s="45"/>
     </row>
-    <row r="370" spans="1:9" customFormat="1" ht="40.5">
+    <row r="370" spans="1:9" customFormat="1" ht="30">
       <c r="A370" s="25" t="s">
         <v>724</v>
       </c>
@@ -20032,7 +20030,7 @@
       </c>
       <c r="I370" s="45"/>
     </row>
-    <row r="371" spans="1:9" customFormat="1" ht="121.5">
+    <row r="371" spans="1:9" customFormat="1" ht="120">
       <c r="A371" s="25" t="s">
         <v>727</v>
       </c>
@@ -20057,7 +20055,7 @@
       </c>
       <c r="I371" s="45"/>
     </row>
-    <row r="372" spans="1:9" customFormat="1" ht="40.5">
+    <row r="372" spans="1:9" customFormat="1" ht="30">
       <c r="A372" s="25" t="s">
         <v>729</v>
       </c>
@@ -20082,7 +20080,7 @@
       </c>
       <c r="I372" s="45"/>
     </row>
-    <row r="373" spans="1:9" customFormat="1" ht="40.5">
+    <row r="373" spans="1:9" customFormat="1" ht="30">
       <c r="A373" s="25" t="s">
         <v>731</v>
       </c>
@@ -20107,7 +20105,7 @@
       </c>
       <c r="I373" s="45"/>
     </row>
-    <row r="374" spans="1:9" customFormat="1" ht="108">
+    <row r="374" spans="1:9" customFormat="1" ht="120">
       <c r="A374" s="25" t="s">
         <v>733</v>
       </c>
@@ -20132,7 +20130,7 @@
       </c>
       <c r="I374" s="45"/>
     </row>
-    <row r="375" spans="1:9" customFormat="1" ht="40.5">
+    <row r="375" spans="1:9" customFormat="1" ht="30">
       <c r="A375" s="25" t="s">
         <v>736</v>
       </c>
@@ -20157,7 +20155,7 @@
       </c>
       <c r="I375" s="45"/>
     </row>
-    <row r="376" spans="1:9" customFormat="1" ht="40.5">
+    <row r="376" spans="1:9" customFormat="1" ht="30">
       <c r="A376" s="25" t="s">
         <v>738</v>
       </c>
@@ -20182,7 +20180,7 @@
       </c>
       <c r="I376" s="45"/>
     </row>
-    <row r="377" spans="1:9" customFormat="1" ht="27">
+    <row r="377" spans="1:9" customFormat="1" ht="30">
       <c r="A377" s="25" t="s">
         <v>740</v>
       </c>
@@ -20207,7 +20205,7 @@
       </c>
       <c r="I377" s="45"/>
     </row>
-    <row r="378" spans="1:9" customFormat="1" ht="94.5">
+    <row r="378" spans="1:9" customFormat="1" ht="90">
       <c r="A378" s="25" t="s">
         <v>742</v>
       </c>
@@ -20232,7 +20230,7 @@
       </c>
       <c r="I378" s="45"/>
     </row>
-    <row r="379" spans="1:9" customFormat="1" ht="27">
+    <row r="379" spans="1:9" customFormat="1" ht="30">
       <c r="A379" s="25" t="s">
         <v>744</v>
       </c>
@@ -20257,7 +20255,7 @@
       </c>
       <c r="I379" s="45"/>
     </row>
-    <row r="380" spans="1:9" customFormat="1" ht="27">
+    <row r="380" spans="1:9" customFormat="1" ht="30">
       <c r="A380" s="25" t="s">
         <v>746</v>
       </c>
@@ -20282,7 +20280,7 @@
       </c>
       <c r="I380" s="45"/>
     </row>
-    <row r="381" spans="1:9" customFormat="1" ht="27">
+    <row r="381" spans="1:9" customFormat="1" ht="30">
       <c r="A381" s="25" t="s">
         <v>748</v>
       </c>
@@ -20307,7 +20305,7 @@
       </c>
       <c r="I381" s="45"/>
     </row>
-    <row r="382" spans="1:9" customFormat="1" ht="27">
+    <row r="382" spans="1:9" customFormat="1" ht="30">
       <c r="A382" s="25" t="s">
         <v>750</v>
       </c>
@@ -20332,7 +20330,7 @@
       </c>
       <c r="I382" s="45"/>
     </row>
-    <row r="383" spans="1:9" customFormat="1" ht="40.5">
+    <row r="383" spans="1:9" customFormat="1" ht="45">
       <c r="A383" s="25" t="s">
         <v>752</v>
       </c>
@@ -20357,7 +20355,7 @@
       </c>
       <c r="I383" s="45"/>
     </row>
-    <row r="384" spans="1:9" customFormat="1" ht="40.5">
+    <row r="384" spans="1:9" customFormat="1" ht="45">
       <c r="A384" s="25" t="s">
         <v>753</v>
       </c>
@@ -20382,7 +20380,7 @@
       </c>
       <c r="I384" s="45"/>
     </row>
-    <row r="385" spans="1:9" customFormat="1" ht="27">
+    <row r="385" spans="1:9" customFormat="1" ht="30">
       <c r="A385" s="25" t="s">
         <v>755</v>
       </c>
@@ -20407,7 +20405,7 @@
       </c>
       <c r="I385" s="45"/>
     </row>
-    <row r="386" spans="1:9" customFormat="1" ht="27">
+    <row r="386" spans="1:9" customFormat="1" ht="30">
       <c r="A386" s="25" t="s">
         <v>756</v>
       </c>
@@ -20432,7 +20430,7 @@
       </c>
       <c r="I386" s="45"/>
     </row>
-    <row r="387" spans="1:9" customFormat="1" ht="40.5">
+    <row r="387" spans="1:9" customFormat="1" ht="30">
       <c r="A387" s="25" t="s">
         <v>757</v>
       </c>
@@ -20457,7 +20455,7 @@
       </c>
       <c r="I387" s="45"/>
     </row>
-    <row r="388" spans="1:9" customFormat="1" ht="40.5">
+    <row r="388" spans="1:9" customFormat="1" ht="30">
       <c r="A388" s="25" t="s">
         <v>760</v>
       </c>
@@ -20482,7 +20480,7 @@
       </c>
       <c r="I388" s="45"/>
     </row>
-    <row r="389" spans="1:9" customFormat="1" ht="40.5">
+    <row r="389" spans="1:9" customFormat="1" ht="30">
       <c r="A389" s="25" t="s">
         <v>763</v>
       </c>
@@ -20507,7 +20505,7 @@
       </c>
       <c r="I389" s="45"/>
     </row>
-    <row r="390" spans="1:9" customFormat="1" ht="40.5">
+    <row r="390" spans="1:9" customFormat="1" ht="30">
       <c r="A390" s="25" t="s">
         <v>765</v>
       </c>
@@ -20532,7 +20530,7 @@
       </c>
       <c r="I390" s="45"/>
     </row>
-    <row r="391" spans="1:9" customFormat="1" ht="40.5">
+    <row r="391" spans="1:9" customFormat="1" ht="30">
       <c r="A391" s="25" t="s">
         <v>768</v>
       </c>
@@ -20557,7 +20555,7 @@
       </c>
       <c r="I391" s="45"/>
     </row>
-    <row r="392" spans="1:9" customFormat="1" ht="40.5">
+    <row r="392" spans="1:9" customFormat="1" ht="30">
       <c r="A392" s="25" t="s">
         <v>770</v>
       </c>
@@ -20582,7 +20580,7 @@
       </c>
       <c r="I392" s="45"/>
     </row>
-    <row r="393" spans="1:9" customFormat="1" ht="40.5">
+    <row r="393" spans="1:9" customFormat="1" ht="45">
       <c r="A393" s="25" t="s">
         <v>772</v>
       </c>
@@ -20607,7 +20605,7 @@
       </c>
       <c r="I393" s="45"/>
     </row>
-    <row r="394" spans="1:9" customFormat="1" ht="27">
+    <row r="394" spans="1:9" customFormat="1" ht="30">
       <c r="A394" s="25" t="s">
         <v>774</v>
       </c>
@@ -20632,7 +20630,7 @@
       </c>
       <c r="I394" s="45"/>
     </row>
-    <row r="395" spans="1:9" customFormat="1" ht="27">
+    <row r="395" spans="1:9" customFormat="1" ht="30">
       <c r="A395" s="25" t="s">
         <v>775</v>
       </c>
@@ -20657,7 +20655,7 @@
       </c>
       <c r="I395" s="45"/>
     </row>
-    <row r="396" spans="1:9" customFormat="1" ht="40.5">
+    <row r="396" spans="1:9" customFormat="1" ht="30">
       <c r="A396" s="25" t="s">
         <v>776</v>
       </c>
@@ -20682,7 +20680,7 @@
       </c>
       <c r="I396" s="45"/>
     </row>
-    <row r="397" spans="1:9" customFormat="1" ht="108">
+    <row r="397" spans="1:9" customFormat="1" ht="120">
       <c r="A397" s="25" t="s">
         <v>779</v>
       </c>
@@ -20707,7 +20705,7 @@
       </c>
       <c r="I397" s="45"/>
     </row>
-    <row r="398" spans="1:9" customFormat="1" ht="40.5">
+    <row r="398" spans="1:9" customFormat="1" ht="30">
       <c r="A398" s="25" t="s">
         <v>782</v>
       </c>
@@ -20732,7 +20730,7 @@
       </c>
       <c r="I398" s="45"/>
     </row>
-    <row r="399" spans="1:9" customFormat="1" ht="40.5">
+    <row r="399" spans="1:9" customFormat="1" ht="30">
       <c r="A399" s="25" t="s">
         <v>784</v>
       </c>
@@ -20757,7 +20755,7 @@
       </c>
       <c r="I399" s="45"/>
     </row>
-    <row r="400" spans="1:9" customFormat="1" ht="108">
+    <row r="400" spans="1:9" customFormat="1" ht="120">
       <c r="A400" s="25" t="s">
         <v>787</v>
       </c>
@@ -20782,7 +20780,7 @@
       </c>
       <c r="I400" s="45"/>
     </row>
-    <row r="401" spans="1:9" customFormat="1" ht="40.5">
+    <row r="401" spans="1:9" customFormat="1" ht="30">
       <c r="A401" s="25" t="s">
         <v>789</v>
       </c>
@@ -20807,7 +20805,7 @@
       </c>
       <c r="I401" s="45"/>
     </row>
-    <row r="402" spans="1:9" customFormat="1" ht="108">
+    <row r="402" spans="1:9" customFormat="1" ht="120">
       <c r="A402" s="25" t="s">
         <v>792</v>
       </c>
@@ -20832,7 +20830,7 @@
       </c>
       <c r="I402" s="45"/>
     </row>
-    <row r="403" spans="1:9" customFormat="1" ht="40.5">
+    <row r="403" spans="1:9" customFormat="1" ht="30">
       <c r="A403" s="25" t="s">
         <v>794</v>
       </c>
@@ -20857,7 +20855,7 @@
       </c>
       <c r="I403" s="45"/>
     </row>
-    <row r="404" spans="1:9" customFormat="1" ht="40.5">
+    <row r="404" spans="1:9" customFormat="1" ht="30">
       <c r="A404" s="25" t="s">
         <v>796</v>
       </c>
@@ -20882,7 +20880,7 @@
       </c>
       <c r="I404" s="45"/>
     </row>
-    <row r="405" spans="1:9" customFormat="1" ht="27">
+    <row r="405" spans="1:9" customFormat="1" ht="30">
       <c r="A405" s="25" t="s">
         <v>798</v>
       </c>
@@ -20907,7 +20905,7 @@
       </c>
       <c r="I405" s="45"/>
     </row>
-    <row r="406" spans="1:9" customFormat="1" ht="81">
+    <row r="406" spans="1:9" customFormat="1" ht="90">
       <c r="A406" s="25" t="s">
         <v>801</v>
       </c>
@@ -20932,7 +20930,7 @@
       </c>
       <c r="I406" s="45"/>
     </row>
-    <row r="407" spans="1:9" customFormat="1" ht="27">
+    <row r="407" spans="1:9" customFormat="1" ht="30">
       <c r="A407" s="25" t="s">
         <v>803</v>
       </c>
@@ -20957,7 +20955,7 @@
       </c>
       <c r="I407" s="45"/>
     </row>
-    <row r="408" spans="1:9" customFormat="1" ht="40.5">
+    <row r="408" spans="1:9" customFormat="1" ht="45">
       <c r="A408" s="25" t="s">
         <v>805</v>
       </c>
@@ -20982,7 +20980,7 @@
       </c>
       <c r="I408" s="45"/>
     </row>
-    <row r="409" spans="1:9" customFormat="1" ht="40.5">
+    <row r="409" spans="1:9" customFormat="1" ht="45">
       <c r="A409" s="25" t="s">
         <v>807</v>
       </c>
@@ -21009,7 +21007,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="410" spans="1:9" customFormat="1" ht="40.5">
+    <row r="410" spans="1:9" customFormat="1" ht="45">
       <c r="A410" s="25" t="s">
         <v>811</v>
       </c>
@@ -21034,7 +21032,7 @@
       </c>
       <c r="I410" s="45"/>
     </row>
-    <row r="411" spans="1:9" customFormat="1" ht="27">
+    <row r="411" spans="1:9" customFormat="1" ht="30">
       <c r="A411" s="25" t="s">
         <v>813</v>
       </c>
@@ -21059,7 +21057,7 @@
       </c>
       <c r="I411" s="45"/>
     </row>
-    <row r="412" spans="1:9" customFormat="1" ht="27">
+    <row r="412" spans="1:9" customFormat="1" ht="30">
       <c r="A412" s="25" t="s">
         <v>814</v>
       </c>
@@ -21084,7 +21082,7 @@
       </c>
       <c r="I412" s="45"/>
     </row>
-    <row r="413" spans="1:9" customFormat="1" ht="40.5">
+    <row r="413" spans="1:9" customFormat="1" ht="30">
       <c r="A413" s="25" t="s">
         <v>815</v>
       </c>
@@ -21109,7 +21107,7 @@
       </c>
       <c r="I413" s="45"/>
     </row>
-    <row r="414" spans="1:9" customFormat="1" ht="40.5">
+    <row r="414" spans="1:9" customFormat="1" ht="30">
       <c r="A414" s="25" t="s">
         <v>818</v>
       </c>
@@ -21134,7 +21132,7 @@
       </c>
       <c r="I414" s="45"/>
     </row>
-    <row r="415" spans="1:9" customFormat="1" ht="40.5">
+    <row r="415" spans="1:9" customFormat="1" ht="30">
       <c r="A415" s="25" t="s">
         <v>821</v>
       </c>
@@ -21159,7 +21157,7 @@
       </c>
       <c r="I415" s="45"/>
     </row>
-    <row r="416" spans="1:9" customFormat="1" ht="40.5">
+    <row r="416" spans="1:9" customFormat="1" ht="30">
       <c r="A416" s="25" t="s">
         <v>823</v>
       </c>
@@ -21184,7 +21182,7 @@
       </c>
       <c r="I416" s="45"/>
     </row>
-    <row r="417" spans="1:9" customFormat="1" ht="40.5">
+    <row r="417" spans="1:9" customFormat="1" ht="30">
       <c r="A417" s="25" t="s">
         <v>826</v>
       </c>
@@ -21209,7 +21207,7 @@
       </c>
       <c r="I417" s="45"/>
     </row>
-    <row r="418" spans="1:9" customFormat="1" ht="40.5">
+    <row r="418" spans="1:9" customFormat="1" ht="30">
       <c r="A418" s="25" t="s">
         <v>828</v>
       </c>
@@ -21234,7 +21232,7 @@
       </c>
       <c r="I418" s="45"/>
     </row>
-    <row r="419" spans="1:9" customFormat="1" ht="40.5">
+    <row r="419" spans="1:9" customFormat="1" ht="45">
       <c r="A419" s="25" t="s">
         <v>830</v>
       </c>
@@ -21259,7 +21257,7 @@
       </c>
       <c r="I419" s="45"/>
     </row>
-    <row r="420" spans="1:9" customFormat="1" ht="27">
+    <row r="420" spans="1:9" customFormat="1" ht="30">
       <c r="A420" s="25" t="s">
         <v>832</v>
       </c>
@@ -21284,7 +21282,7 @@
       </c>
       <c r="I420" s="45"/>
     </row>
-    <row r="421" spans="1:9" customFormat="1" ht="27">
+    <row r="421" spans="1:9" customFormat="1" ht="30">
       <c r="A421" s="25" t="s">
         <v>833</v>
       </c>
@@ -21309,7 +21307,7 @@
       </c>
       <c r="I421" s="45"/>
     </row>
-    <row r="422" spans="1:9" customFormat="1" ht="40.5">
+    <row r="422" spans="1:9" customFormat="1" ht="30">
       <c r="A422" s="25" t="s">
         <v>834</v>
       </c>
@@ -21334,7 +21332,7 @@
       </c>
       <c r="I422" s="45"/>
     </row>
-    <row r="423" spans="1:9" customFormat="1" ht="108">
+    <row r="423" spans="1:9" customFormat="1" ht="120">
       <c r="A423" s="25" t="s">
         <v>837</v>
       </c>
@@ -21359,7 +21357,7 @@
       </c>
       <c r="I423" s="45"/>
     </row>
-    <row r="424" spans="1:9" customFormat="1" ht="40.5">
+    <row r="424" spans="1:9" customFormat="1" ht="30">
       <c r="A424" s="25" t="s">
         <v>840</v>
       </c>
@@ -21384,7 +21382,7 @@
       </c>
       <c r="I424" s="45"/>
     </row>
-    <row r="425" spans="1:9" customFormat="1" ht="40.5">
+    <row r="425" spans="1:9" customFormat="1" ht="30">
       <c r="A425" s="25" t="s">
         <v>841</v>
       </c>
@@ -21409,7 +21407,7 @@
       </c>
       <c r="I425" s="45"/>
     </row>
-    <row r="426" spans="1:9" customFormat="1" ht="108">
+    <row r="426" spans="1:9" customFormat="1" ht="120">
       <c r="A426" s="25" t="s">
         <v>844</v>
       </c>
@@ -21434,7 +21432,7 @@
       </c>
       <c r="I426" s="45"/>
     </row>
-    <row r="427" spans="1:9" customFormat="1" ht="121.5">
+    <row r="427" spans="1:9" customFormat="1" ht="135">
       <c r="A427" s="25" t="s">
         <v>846</v>
       </c>
@@ -21459,7 +21457,7 @@
       </c>
       <c r="I427" s="45"/>
     </row>
-    <row r="428" spans="1:9" customFormat="1" ht="40.5">
+    <row r="428" spans="1:9" customFormat="1" ht="30">
       <c r="A428" s="25" t="s">
         <v>848</v>
       </c>
@@ -21484,7 +21482,7 @@
       </c>
       <c r="I428" s="45"/>
     </row>
-    <row r="429" spans="1:9" customFormat="1" ht="40.5">
+    <row r="429" spans="1:9" customFormat="1" ht="30">
       <c r="A429" s="25" t="s">
         <v>850</v>
       </c>
@@ -21509,7 +21507,7 @@
       </c>
       <c r="I429" s="45"/>
     </row>
-    <row r="430" spans="1:9" customFormat="1" ht="27">
+    <row r="430" spans="1:9" customFormat="1" ht="30">
       <c r="A430" s="25" t="s">
         <v>852</v>
       </c>
@@ -21534,7 +21532,7 @@
       </c>
       <c r="I430" s="45"/>
     </row>
-    <row r="431" spans="1:9" customFormat="1" ht="81">
+    <row r="431" spans="1:9" customFormat="1" ht="90">
       <c r="A431" s="25" t="s">
         <v>854</v>
       </c>
@@ -21559,7 +21557,7 @@
       </c>
       <c r="I431" s="45"/>
     </row>
-    <row r="432" spans="1:9" customFormat="1" ht="40.5">
+    <row r="432" spans="1:9" customFormat="1" ht="45">
       <c r="A432" s="25" t="s">
         <v>856</v>
       </c>
@@ -21586,7 +21584,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="433" spans="1:9" customFormat="1" ht="40.5">
+    <row r="433" spans="1:9" customFormat="1" ht="30">
       <c r="A433" s="25" t="s">
         <v>860</v>
       </c>
@@ -21611,7 +21609,7 @@
       </c>
       <c r="I433" s="45"/>
     </row>
-    <row r="434" spans="1:9" customFormat="1" ht="27">
+    <row r="434" spans="1:9" customFormat="1" ht="30">
       <c r="A434" s="25" t="s">
         <v>862</v>
       </c>
@@ -21636,7 +21634,7 @@
       </c>
       <c r="I434" s="45"/>
     </row>
-    <row r="435" spans="1:9" customFormat="1" ht="40.5">
+    <row r="435" spans="1:9" customFormat="1" ht="45">
       <c r="A435" s="25" t="s">
         <v>864</v>
       </c>
@@ -21661,7 +21659,7 @@
       </c>
       <c r="I435" s="45"/>
     </row>
-    <row r="436" spans="1:9" customFormat="1" ht="40.5">
+    <row r="436" spans="1:9" customFormat="1" ht="45">
       <c r="A436" s="25" t="s">
         <v>866</v>
       </c>
@@ -21686,7 +21684,7 @@
       </c>
       <c r="I436" s="45"/>
     </row>
-    <row r="437" spans="1:9" customFormat="1" ht="27">
+    <row r="437" spans="1:9" customFormat="1" ht="30">
       <c r="A437" s="25" t="s">
         <v>869</v>
       </c>
@@ -21711,7 +21709,7 @@
       </c>
       <c r="I437" s="45"/>
     </row>
-    <row r="438" spans="1:9" customFormat="1" ht="27">
+    <row r="438" spans="1:9" customFormat="1" ht="30">
       <c r="A438" s="25" t="s">
         <v>870</v>
       </c>
@@ -21736,7 +21734,7 @@
       </c>
       <c r="I438" s="45"/>
     </row>
-    <row r="439" spans="1:9" customFormat="1" ht="40.5">
+    <row r="439" spans="1:9" customFormat="1" ht="30">
       <c r="A439" s="25" t="s">
         <v>871</v>
       </c>
@@ -21761,7 +21759,7 @@
       </c>
       <c r="I439" s="45"/>
     </row>
-    <row r="440" spans="1:9" customFormat="1" ht="40.5">
+    <row r="440" spans="1:9" customFormat="1" ht="30">
       <c r="A440" s="25" t="s">
         <v>874</v>
       </c>
@@ -21786,7 +21784,7 @@
       </c>
       <c r="I440" s="45"/>
     </row>
-    <row r="441" spans="1:9" customFormat="1" ht="40.5">
+    <row r="441" spans="1:9" customFormat="1" ht="30">
       <c r="A441" s="25" t="s">
         <v>877</v>
       </c>
@@ -21811,7 +21809,7 @@
       </c>
       <c r="I441" s="45"/>
     </row>
-    <row r="442" spans="1:9" customFormat="1" ht="40.5">
+    <row r="442" spans="1:9" customFormat="1" ht="30">
       <c r="A442" s="25" t="s">
         <v>879</v>
       </c>
@@ -21836,7 +21834,7 @@
       </c>
       <c r="I442" s="45"/>
     </row>
-    <row r="443" spans="1:9" customFormat="1" ht="40.5">
+    <row r="443" spans="1:9" customFormat="1" ht="30">
       <c r="A443" s="25" t="s">
         <v>882</v>
       </c>
@@ -21861,7 +21859,7 @@
       </c>
       <c r="I443" s="45"/>
     </row>
-    <row r="444" spans="1:9" customFormat="1" ht="40.5">
+    <row r="444" spans="1:9" customFormat="1" ht="30">
       <c r="A444" s="25" t="s">
         <v>884</v>
       </c>
@@ -21886,7 +21884,7 @@
       </c>
       <c r="I444" s="45"/>
     </row>
-    <row r="445" spans="1:9" customFormat="1" ht="40.5">
+    <row r="445" spans="1:9" customFormat="1" ht="45">
       <c r="A445" s="25" t="s">
         <v>886</v>
       </c>
@@ -21911,7 +21909,7 @@
       </c>
       <c r="I445" s="45"/>
     </row>
-    <row r="446" spans="1:9" customFormat="1" ht="27">
+    <row r="446" spans="1:9" customFormat="1" ht="30">
       <c r="A446" s="25" t="s">
         <v>888</v>
       </c>
@@ -21936,7 +21934,7 @@
       </c>
       <c r="I446" s="45"/>
     </row>
-    <row r="447" spans="1:9" customFormat="1" ht="27">
+    <row r="447" spans="1:9" customFormat="1" ht="30">
       <c r="A447" s="25" t="s">
         <v>889</v>
       </c>
@@ -21961,7 +21959,7 @@
       </c>
       <c r="I447" s="45"/>
     </row>
-    <row r="448" spans="1:9" customFormat="1" ht="40.5">
+    <row r="448" spans="1:9" customFormat="1" ht="30">
       <c r="A448" s="25" t="s">
         <v>890</v>
       </c>
@@ -21986,7 +21984,7 @@
       </c>
       <c r="I448" s="45"/>
     </row>
-    <row r="449" spans="1:9" customFormat="1" ht="121.5">
+    <row r="449" spans="1:9" customFormat="1" ht="135">
       <c r="A449" s="25" t="s">
         <v>893</v>
       </c>
@@ -22011,7 +22009,7 @@
       </c>
       <c r="I449" s="45"/>
     </row>
-    <row r="450" spans="1:9" customFormat="1" ht="40.5">
+    <row r="450" spans="1:9" customFormat="1" ht="30">
       <c r="A450" s="25" t="s">
         <v>896</v>
       </c>
@@ -22036,7 +22034,7 @@
       </c>
       <c r="I450" s="45"/>
     </row>
-    <row r="451" spans="1:9" customFormat="1" ht="40.5">
+    <row r="451" spans="1:9" customFormat="1" ht="30">
       <c r="A451" s="25" t="s">
         <v>897</v>
       </c>
@@ -22061,7 +22059,7 @@
       </c>
       <c r="I451" s="45"/>
     </row>
-    <row r="452" spans="1:9" customFormat="1" ht="40.5">
+    <row r="452" spans="1:9" customFormat="1" ht="30">
       <c r="A452" s="25" t="s">
         <v>898</v>
       </c>
@@ -22086,7 +22084,7 @@
       </c>
       <c r="I452" s="45"/>
     </row>
-    <row r="453" spans="1:9" customFormat="1" ht="40.5">
+    <row r="453" spans="1:9" customFormat="1" ht="45">
       <c r="A453" s="25" t="s">
         <v>900</v>
       </c>
@@ -22111,7 +22109,7 @@
       </c>
       <c r="I453" s="45"/>
     </row>
-    <row r="454" spans="1:9" customFormat="1" ht="40.5">
+    <row r="454" spans="1:9" customFormat="1" ht="30">
       <c r="A454" s="25" t="s">
         <v>902</v>
       </c>
@@ -22138,7 +22136,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="455" spans="1:9" customFormat="1" ht="40.5">
+    <row r="455" spans="1:9" customFormat="1" ht="30">
       <c r="A455" s="25" t="s">
         <v>904</v>
       </c>
@@ -22165,7 +22163,7 @@
       </c>
       <c r="I455" s="45"/>
     </row>
-    <row r="456" spans="1:9" customFormat="1" ht="40.5">
+    <row r="456" spans="1:9" customFormat="1" ht="30">
       <c r="A456" s="25" t="s">
         <v>907</v>
       </c>
@@ -22190,7 +22188,7 @@
       </c>
       <c r="I456" s="45"/>
     </row>
-    <row r="457" spans="1:9" customFormat="1" ht="108">
+    <row r="457" spans="1:9" customFormat="1" ht="120">
       <c r="A457" s="25" t="s">
         <v>910</v>
       </c>
@@ -22215,7 +22213,7 @@
       </c>
       <c r="I457" s="45"/>
     </row>
-    <row r="458" spans="1:9" customFormat="1" ht="40.5">
+    <row r="458" spans="1:9" customFormat="1" ht="30">
       <c r="A458" s="25" t="s">
         <v>912</v>
       </c>
@@ -22240,7 +22238,7 @@
       </c>
       <c r="I458" s="45"/>
     </row>
-    <row r="459" spans="1:9" customFormat="1" ht="94.5">
+    <row r="459" spans="1:9" customFormat="1" ht="105">
       <c r="A459" s="25" t="s">
         <v>914</v>
       </c>
@@ -22265,7 +22263,7 @@
       </c>
       <c r="I459" s="45"/>
     </row>
-    <row r="460" spans="1:9" customFormat="1" ht="40.5">
+    <row r="460" spans="1:9" customFormat="1" ht="30">
       <c r="A460" s="25" t="s">
         <v>915</v>
       </c>
@@ -22290,7 +22288,7 @@
       </c>
       <c r="I460" s="45"/>
     </row>
-    <row r="461" spans="1:9" s="39" customFormat="1" ht="40.5">
+    <row r="461" spans="1:9" s="39" customFormat="1" ht="30">
       <c r="A461" s="40" t="s">
         <v>1512</v>
       </c>
@@ -22340,7 +22338,7 @@
       </c>
       <c r="I462" s="45"/>
     </row>
-    <row r="463" spans="1:9" customFormat="1" ht="40.5">
+    <row r="463" spans="1:9" customFormat="1" ht="30">
       <c r="A463" s="25" t="s">
         <v>918</v>
       </c>
@@ -22365,7 +22363,7 @@
       </c>
       <c r="I463" s="45"/>
     </row>
-    <row r="464" spans="1:9" customFormat="1" ht="40.5">
+    <row r="464" spans="1:9" customFormat="1" ht="30">
       <c r="A464" s="25" t="s">
         <v>920</v>
       </c>
@@ -22390,7 +22388,7 @@
       </c>
       <c r="I464" s="45"/>
     </row>
-    <row r="465" spans="1:9" customFormat="1" ht="40.5">
+    <row r="465" spans="1:9" customFormat="1" ht="30">
       <c r="A465" s="25" t="s">
         <v>922</v>
       </c>
@@ -22415,7 +22413,7 @@
       </c>
       <c r="I465" s="45"/>
     </row>
-    <row r="466" spans="1:9" customFormat="1" ht="40.5">
+    <row r="466" spans="1:9" customFormat="1" ht="30">
       <c r="A466" s="25" t="s">
         <v>924</v>
       </c>
@@ -22440,7 +22438,7 @@
       </c>
       <c r="I466" s="45"/>
     </row>
-    <row r="467" spans="1:9" customFormat="1" ht="40.5">
+    <row r="467" spans="1:9" customFormat="1" ht="30">
       <c r="A467" s="25" t="s">
         <v>926</v>
       </c>
@@ -22465,7 +22463,7 @@
       </c>
       <c r="I467" s="45"/>
     </row>
-    <row r="468" spans="1:9" customFormat="1" ht="40.5">
+    <row r="468" spans="1:9" customFormat="1" ht="45">
       <c r="A468" s="25" t="s">
         <v>927</v>
       </c>
@@ -22490,7 +22488,7 @@
       </c>
       <c r="I468" s="45"/>
     </row>
-    <row r="469" spans="1:9" customFormat="1" ht="40.5">
+    <row r="469" spans="1:9" customFormat="1" ht="30">
       <c r="A469" s="25" t="s">
         <v>929</v>
       </c>
@@ -22515,7 +22513,7 @@
       </c>
       <c r="I469" s="45"/>
     </row>
-    <row r="470" spans="1:9" customFormat="1" ht="40.5">
+    <row r="470" spans="1:9" customFormat="1" ht="30">
       <c r="A470" s="25" t="s">
         <v>931</v>
       </c>
@@ -22540,7 +22538,7 @@
       </c>
       <c r="I470" s="45"/>
     </row>
-    <row r="471" spans="1:9" customFormat="1" ht="40.5">
+    <row r="471" spans="1:9" customFormat="1" ht="30">
       <c r="A471" s="25" t="s">
         <v>933</v>
       </c>
@@ -22565,7 +22563,7 @@
       </c>
       <c r="I471" s="45"/>
     </row>
-    <row r="472" spans="1:9" customFormat="1" ht="40.5">
+    <row r="472" spans="1:9" customFormat="1" ht="30">
       <c r="A472" s="25" t="s">
         <v>935</v>
       </c>
@@ -22590,7 +22588,7 @@
       </c>
       <c r="I472" s="45"/>
     </row>
-    <row r="473" spans="1:9" customFormat="1" ht="40.5">
+    <row r="473" spans="1:9" customFormat="1" ht="45">
       <c r="A473" s="25" t="s">
         <v>937</v>
       </c>
@@ -22615,7 +22613,7 @@
       </c>
       <c r="I473" s="45"/>
     </row>
-    <row r="474" spans="1:9" customFormat="1" ht="40.5">
+    <row r="474" spans="1:9" customFormat="1" ht="30">
       <c r="A474" s="25" t="s">
         <v>939</v>
       </c>
@@ -22640,7 +22638,7 @@
       </c>
       <c r="I474" s="45"/>
     </row>
-    <row r="475" spans="1:9" customFormat="1" ht="40.5">
+    <row r="475" spans="1:9" customFormat="1" ht="30">
       <c r="A475" s="25" t="s">
         <v>941</v>
       </c>
@@ -22665,7 +22663,7 @@
       </c>
       <c r="I475" s="45"/>
     </row>
-    <row r="476" spans="1:9" customFormat="1" ht="40.5">
+    <row r="476" spans="1:9" customFormat="1" ht="30">
       <c r="A476" s="25" t="s">
         <v>943</v>
       </c>
@@ -22690,7 +22688,7 @@
       </c>
       <c r="I476" s="45"/>
     </row>
-    <row r="477" spans="1:9" customFormat="1" ht="40.5">
+    <row r="477" spans="1:9" customFormat="1" ht="30">
       <c r="A477" s="25" t="s">
         <v>945</v>
       </c>
@@ -22715,7 +22713,7 @@
       </c>
       <c r="I477" s="45"/>
     </row>
-    <row r="478" spans="1:9" customFormat="1" ht="40.5">
+    <row r="478" spans="1:9" customFormat="1" ht="30">
       <c r="A478" s="25" t="s">
         <v>947</v>
       </c>
@@ -22740,7 +22738,7 @@
       </c>
       <c r="I478" s="45"/>
     </row>
-    <row r="479" spans="1:9" customFormat="1" ht="40.5">
+    <row r="479" spans="1:9" customFormat="1" ht="30">
       <c r="A479" s="25" t="s">
         <v>949</v>
       </c>
@@ -22765,7 +22763,7 @@
       </c>
       <c r="I479" s="45"/>
     </row>
-    <row r="480" spans="1:9" customFormat="1" ht="40.5">
+    <row r="480" spans="1:9" customFormat="1" ht="30">
       <c r="A480" s="25" t="s">
         <v>951</v>
       </c>
@@ -22790,7 +22788,7 @@
       </c>
       <c r="I480" s="45"/>
     </row>
-    <row r="481" spans="1:9" customFormat="1" ht="40.5">
+    <row r="481" spans="1:9" customFormat="1" ht="30">
       <c r="A481" s="25" t="s">
         <v>953</v>
       </c>
@@ -22815,7 +22813,7 @@
       </c>
       <c r="I481" s="45"/>
     </row>
-    <row r="482" spans="1:9" customFormat="1" ht="40.5">
+    <row r="482" spans="1:9" customFormat="1" ht="30">
       <c r="A482" s="25" t="s">
         <v>954</v>
       </c>
@@ -22840,7 +22838,7 @@
       </c>
       <c r="I482" s="45"/>
     </row>
-    <row r="483" spans="1:9" customFormat="1" ht="40.5">
+    <row r="483" spans="1:9" customFormat="1" ht="30">
       <c r="A483" s="25" t="s">
         <v>956</v>
       </c>
@@ -22865,7 +22863,7 @@
       </c>
       <c r="I483" s="45"/>
     </row>
-    <row r="484" spans="1:9" customFormat="1" ht="40.5">
+    <row r="484" spans="1:9" customFormat="1" ht="30">
       <c r="A484" s="25" t="s">
         <v>958</v>
       </c>
@@ -22890,7 +22888,7 @@
       </c>
       <c r="I484" s="45"/>
     </row>
-    <row r="485" spans="1:9" customFormat="1" ht="40.5">
+    <row r="485" spans="1:9" customFormat="1" ht="30">
       <c r="A485" s="25" t="s">
         <v>960</v>
       </c>
@@ -22915,7 +22913,7 @@
       </c>
       <c r="I485" s="45"/>
     </row>
-    <row r="486" spans="1:9" customFormat="1" ht="27">
+    <row r="486" spans="1:9" customFormat="1" ht="30">
       <c r="A486" s="25" t="s">
         <v>961</v>
       </c>
@@ -22940,7 +22938,7 @@
       </c>
       <c r="I486" s="45"/>
     </row>
-    <row r="487" spans="1:9" customFormat="1" ht="94.5">
+    <row r="487" spans="1:9" customFormat="1" ht="105">
       <c r="A487" s="25" t="s">
         <v>964</v>
       </c>
@@ -22965,7 +22963,7 @@
       </c>
       <c r="I487" s="45"/>
     </row>
-    <row r="488" spans="1:9" customFormat="1" ht="27">
+    <row r="488" spans="1:9" customFormat="1" ht="30">
       <c r="A488" s="25" t="s">
         <v>966</v>
       </c>
@@ -22990,7 +22988,7 @@
       </c>
       <c r="I488" s="45"/>
     </row>
-    <row r="489" spans="1:9" customFormat="1" ht="27">
+    <row r="489" spans="1:9" customFormat="1" ht="30">
       <c r="A489" s="25" t="s">
         <v>968</v>
       </c>
@@ -23015,7 +23013,7 @@
       </c>
       <c r="I489" s="45"/>
     </row>
-    <row r="490" spans="1:9" customFormat="1" ht="27">
+    <row r="490" spans="1:9" customFormat="1" ht="30">
       <c r="A490" s="25" t="s">
         <v>970</v>
       </c>
@@ -23040,7 +23038,7 @@
       </c>
       <c r="I490" s="45"/>
     </row>
-    <row r="491" spans="1:9" customFormat="1" ht="27">
+    <row r="491" spans="1:9" customFormat="1" ht="30">
       <c r="A491" s="25" t="s">
         <v>972</v>
       </c>
@@ -23065,7 +23063,7 @@
       </c>
       <c r="I491" s="45"/>
     </row>
-    <row r="492" spans="1:9" customFormat="1" ht="27">
+    <row r="492" spans="1:9" customFormat="1" ht="30">
       <c r="A492" s="25" t="s">
         <v>974</v>
       </c>
@@ -23090,7 +23088,7 @@
       </c>
       <c r="I492" s="45"/>
     </row>
-    <row r="493" spans="1:9" customFormat="1" ht="40.5">
+    <row r="493" spans="1:9" customFormat="1" ht="45">
       <c r="A493" s="25" t="s">
         <v>976</v>
       </c>
@@ -23115,7 +23113,7 @@
       </c>
       <c r="I493" s="45"/>
     </row>
-    <row r="494" spans="1:9" customFormat="1" ht="27">
+    <row r="494" spans="1:9" customFormat="1" ht="30">
       <c r="A494" s="25" t="s">
         <v>979</v>
       </c>
@@ -23140,7 +23138,7 @@
       </c>
       <c r="I494" s="45"/>
     </row>
-    <row r="495" spans="1:9" customFormat="1" ht="27">
+    <row r="495" spans="1:9" customFormat="1" ht="30">
       <c r="A495" s="25" t="s">
         <v>980</v>
       </c>
@@ -23165,7 +23163,7 @@
       </c>
       <c r="I495" s="45"/>
     </row>
-    <row r="496" spans="1:9" customFormat="1" ht="40.5">
+    <row r="496" spans="1:9" customFormat="1" ht="30">
       <c r="A496" s="25" t="s">
         <v>981</v>
       </c>
@@ -23190,7 +23188,7 @@
       </c>
       <c r="I496" s="45"/>
     </row>
-    <row r="497" spans="1:10" customFormat="1" ht="40.5">
+    <row r="497" spans="1:10" customFormat="1" ht="30">
       <c r="A497" s="25" t="s">
         <v>984</v>
       </c>
@@ -23215,7 +23213,7 @@
       </c>
       <c r="I497" s="45"/>
     </row>
-    <row r="498" spans="1:10" customFormat="1" ht="40.5">
+    <row r="498" spans="1:10" customFormat="1" ht="30">
       <c r="A498" s="25" t="s">
         <v>987</v>
       </c>
@@ -23240,7 +23238,7 @@
       </c>
       <c r="I498" s="45"/>
     </row>
-    <row r="499" spans="1:10" customFormat="1" ht="40.5">
+    <row r="499" spans="1:10" customFormat="1" ht="30">
       <c r="A499" s="25" t="s">
         <v>989</v>
       </c>
@@ -23265,7 +23263,7 @@
       </c>
       <c r="I499" s="45"/>
     </row>
-    <row r="500" spans="1:10" customFormat="1" ht="40.5">
+    <row r="500" spans="1:10" customFormat="1" ht="30">
       <c r="A500" s="25" t="s">
         <v>992</v>
       </c>
@@ -23290,7 +23288,7 @@
       </c>
       <c r="I500" s="45"/>
     </row>
-    <row r="501" spans="1:10" customFormat="1" ht="40.5">
+    <row r="501" spans="1:10" customFormat="1" ht="30">
       <c r="A501" s="25" t="s">
         <v>994</v>
       </c>
@@ -23315,7 +23313,7 @@
       </c>
       <c r="I501" s="45"/>
     </row>
-    <row r="502" spans="1:10" customFormat="1" ht="40.5">
+    <row r="502" spans="1:10" customFormat="1" ht="45">
       <c r="A502" s="25" t="s">
         <v>996</v>
       </c>
@@ -23340,7 +23338,7 @@
       </c>
       <c r="I502" s="45"/>
     </row>
-    <row r="503" spans="1:10" customFormat="1" ht="27">
+    <row r="503" spans="1:10" customFormat="1" ht="30">
       <c r="A503" s="25" t="s">
         <v>999</v>
       </c>
@@ -23365,7 +23363,7 @@
       </c>
       <c r="I503" s="45"/>
     </row>
-    <row r="504" spans="1:10" customFormat="1" ht="27">
+    <row r="504" spans="1:10" customFormat="1" ht="30">
       <c r="A504" s="25" t="s">
         <v>1002</v>
       </c>
@@ -23391,7 +23389,7 @@
       <c r="I504" s="45"/>
       <c r="J504" s="31"/>
     </row>
-    <row r="505" spans="1:10" customFormat="1" ht="27">
+    <row r="505" spans="1:10" customFormat="1" ht="30">
       <c r="A505" s="25" t="s">
         <v>1003</v>
       </c>
@@ -23416,7 +23414,7 @@
       </c>
       <c r="I505" s="45"/>
     </row>
-    <row r="506" spans="1:10" customFormat="1" ht="40.5">
+    <row r="506" spans="1:10" customFormat="1" ht="30">
       <c r="A506" s="25" t="s">
         <v>1004</v>
       </c>
@@ -23441,7 +23439,7 @@
       </c>
       <c r="I506" s="45"/>
     </row>
-    <row r="507" spans="1:10" customFormat="1" ht="135">
+    <row r="507" spans="1:10" customFormat="1" ht="150">
       <c r="A507" s="25" t="s">
         <v>1007</v>
       </c>
@@ -23466,7 +23464,7 @@
       </c>
       <c r="I507" s="45"/>
     </row>
-    <row r="508" spans="1:10" customFormat="1" ht="40.5">
+    <row r="508" spans="1:10" customFormat="1" ht="30">
       <c r="A508" s="25" t="s">
         <v>1009</v>
       </c>
@@ -23491,7 +23489,7 @@
       </c>
       <c r="I508" s="45"/>
     </row>
-    <row r="509" spans="1:10" customFormat="1" ht="40.5">
+    <row r="509" spans="1:10" customFormat="1" ht="30">
       <c r="A509" s="25" t="s">
         <v>1010</v>
       </c>
@@ -23516,7 +23514,7 @@
       </c>
       <c r="I509" s="45"/>
     </row>
-    <row r="510" spans="1:10" customFormat="1" ht="40.5">
+    <row r="510" spans="1:10" customFormat="1" ht="45">
       <c r="A510" s="25" t="s">
         <v>1012</v>
       </c>
@@ -23541,7 +23539,7 @@
       </c>
       <c r="I510" s="45"/>
     </row>
-    <row r="511" spans="1:10" customFormat="1" ht="40.5">
+    <row r="511" spans="1:10" customFormat="1" ht="30">
       <c r="A511" s="25" t="s">
         <v>1013</v>
       </c>
@@ -23566,7 +23564,7 @@
       </c>
       <c r="I511" s="45"/>
     </row>
-    <row r="512" spans="1:10" customFormat="1" ht="94.5">
+    <row r="512" spans="1:10" customFormat="1" ht="105">
       <c r="A512" s="25" t="s">
         <v>1015</v>
       </c>
@@ -23591,7 +23589,7 @@
       </c>
       <c r="I512" s="45"/>
     </row>
-    <row r="513" spans="1:9" customFormat="1" ht="94.5">
+    <row r="513" spans="1:9" customFormat="1" ht="105">
       <c r="A513" s="25" t="s">
         <v>1016</v>
       </c>
@@ -23616,7 +23614,7 @@
       </c>
       <c r="I513" s="45"/>
     </row>
-    <row r="514" spans="1:9" customFormat="1" ht="54">
+    <row r="514" spans="1:9" customFormat="1" ht="60">
       <c r="A514" s="25" t="s">
         <v>1018</v>
       </c>
@@ -23643,7 +23641,7 @@
       </c>
       <c r="I514" s="45"/>
     </row>
-    <row r="515" spans="1:9" customFormat="1" ht="40.5">
+    <row r="515" spans="1:9" customFormat="1" ht="45">
       <c r="A515" s="25" t="s">
         <v>1020</v>
       </c>
@@ -23668,7 +23666,7 @@
       </c>
       <c r="I515" s="45"/>
     </row>
-    <row r="516" spans="1:9" customFormat="1" ht="40.5">
+    <row r="516" spans="1:9" customFormat="1" ht="45">
       <c r="A516" s="25" t="s">
         <v>1022</v>
       </c>
@@ -23693,7 +23691,7 @@
       </c>
       <c r="I516" s="45"/>
     </row>
-    <row r="517" spans="1:9" customFormat="1" ht="40.5">
+    <row r="517" spans="1:9" customFormat="1" ht="45">
       <c r="A517" s="25" t="s">
         <v>1024</v>
       </c>
@@ -23718,7 +23716,7 @@
       </c>
       <c r="I517" s="45"/>
     </row>
-    <row r="518" spans="1:9" customFormat="1" ht="54">
+    <row r="518" spans="1:9" customFormat="1" ht="60">
       <c r="A518" s="25" t="s">
         <v>1026</v>
       </c>
@@ -23745,7 +23743,7 @@
       </c>
       <c r="I518" s="45"/>
     </row>
-    <row r="519" spans="1:9" customFormat="1" ht="54">
+    <row r="519" spans="1:9" customFormat="1" ht="60">
       <c r="A519" s="25" t="s">
         <v>1028</v>
       </c>
@@ -23772,7 +23770,7 @@
       </c>
       <c r="I519" s="45"/>
     </row>
-    <row r="520" spans="1:9" customFormat="1" ht="54">
+    <row r="520" spans="1:9" customFormat="1" ht="60">
       <c r="A520" s="25" t="s">
         <v>1030</v>
       </c>
@@ -23799,7 +23797,7 @@
       </c>
       <c r="I520" s="45"/>
     </row>
-    <row r="521" spans="1:9" customFormat="1" ht="40.5">
+    <row r="521" spans="1:9" customFormat="1" ht="45">
       <c r="A521" s="25" t="s">
         <v>1032</v>
       </c>
@@ -23826,7 +23824,7 @@
       </c>
       <c r="I521" s="45"/>
     </row>
-    <row r="522" spans="1:9" customFormat="1" ht="40.5">
+    <row r="522" spans="1:9" customFormat="1" ht="45">
       <c r="A522" s="25" t="s">
         <v>1034</v>
       </c>
@@ -23851,7 +23849,7 @@
       </c>
       <c r="I522" s="45"/>
     </row>
-    <row r="523" spans="1:9" customFormat="1" ht="42">
+    <row r="523" spans="1:9" customFormat="1" ht="30">
       <c r="A523" s="25" t="s">
         <v>1036</v>
       </c>
@@ -23878,7 +23876,7 @@
       </c>
       <c r="I523" s="35"/>
     </row>
-    <row r="524" spans="1:9" customFormat="1" ht="42">
+    <row r="524" spans="1:9" customFormat="1" ht="30">
       <c r="A524" s="25" t="s">
         <v>1039</v>
       </c>
@@ -23905,7 +23903,7 @@
       </c>
       <c r="I524" s="35"/>
     </row>
-    <row r="525" spans="1:9" customFormat="1" ht="40.5">
+    <row r="525" spans="1:9" customFormat="1" ht="45">
       <c r="A525" s="25" t="s">
         <v>1041</v>
       </c>
@@ -23930,7 +23928,7 @@
       </c>
       <c r="I525" s="45"/>
     </row>
-    <row r="526" spans="1:9" customFormat="1" ht="40.5">
+    <row r="526" spans="1:9" customFormat="1" ht="30">
       <c r="A526" s="25" t="s">
         <v>1043</v>
       </c>
@@ -23957,7 +23955,7 @@
       </c>
       <c r="I526" s="45"/>
     </row>
-    <row r="527" spans="1:9" customFormat="1" ht="40.5">
+    <row r="527" spans="1:9" customFormat="1" ht="45">
       <c r="A527" s="25" t="s">
         <v>1046</v>
       </c>
@@ -23984,7 +23982,7 @@
       </c>
       <c r="I527" s="45"/>
     </row>
-    <row r="528" spans="1:9" customFormat="1" ht="40.5">
+    <row r="528" spans="1:9" customFormat="1" ht="45">
       <c r="A528" s="25" t="s">
         <v>1048</v>
       </c>
@@ -24009,7 +24007,7 @@
       </c>
       <c r="I528" s="45"/>
     </row>
-    <row r="529" spans="1:9" customFormat="1" ht="40.5">
+    <row r="529" spans="1:9" customFormat="1" ht="30">
       <c r="A529" s="25" t="s">
         <v>1050</v>
       </c>
@@ -24036,7 +24034,7 @@
       </c>
       <c r="I529" s="45"/>
     </row>
-    <row r="530" spans="1:9" customFormat="1" ht="40.5">
+    <row r="530" spans="1:9" customFormat="1" ht="30">
       <c r="A530" s="25" t="s">
         <v>1053</v>
       </c>
@@ -24063,7 +24061,7 @@
       </c>
       <c r="I530" s="45"/>
     </row>
-    <row r="531" spans="1:9" customFormat="1" ht="40.5">
+    <row r="531" spans="1:9" customFormat="1" ht="45">
       <c r="A531" s="25" t="s">
         <v>1055</v>
       </c>
@@ -24090,7 +24088,7 @@
       </c>
       <c r="I531" s="45"/>
     </row>
-    <row r="532" spans="1:9" customFormat="1" ht="40.5">
+    <row r="532" spans="1:9" customFormat="1" ht="45">
       <c r="A532" s="25" t="s">
         <v>1057</v>
       </c>
@@ -24117,7 +24115,7 @@
       </c>
       <c r="I532" s="45"/>
     </row>
-    <row r="533" spans="1:9" customFormat="1" ht="40.5">
+    <row r="533" spans="1:9" customFormat="1" ht="45">
       <c r="A533" s="25" t="s">
         <v>1059</v>
       </c>
@@ -24144,7 +24142,7 @@
       </c>
       <c r="I533" s="45"/>
     </row>
-    <row r="534" spans="1:9" customFormat="1" ht="40.5">
+    <row r="534" spans="1:9" customFormat="1" ht="30">
       <c r="A534" s="25" t="s">
         <v>1061</v>
       </c>
@@ -24169,7 +24167,7 @@
       </c>
       <c r="I534" s="45"/>
     </row>
-    <row r="535" spans="1:9" customFormat="1" ht="148.5">
+    <row r="535" spans="1:9" customFormat="1" ht="150">
       <c r="A535" s="25" t="s">
         <v>1064</v>
       </c>
@@ -24219,7 +24217,7 @@
       </c>
       <c r="I536" s="45"/>
     </row>
-    <row r="537" spans="1:9" customFormat="1" ht="40.5">
+    <row r="537" spans="1:9" customFormat="1" ht="30">
       <c r="A537" s="25" t="s">
         <v>1066</v>
       </c>
@@ -24244,7 +24242,7 @@
       </c>
       <c r="I537" s="45"/>
     </row>
-    <row r="538" spans="1:9" customFormat="1" ht="40.5">
+    <row r="538" spans="1:9" customFormat="1" ht="30">
       <c r="A538" s="25" t="s">
         <v>1068</v>
       </c>
@@ -24269,7 +24267,7 @@
       </c>
       <c r="I538" s="45"/>
     </row>
-    <row r="539" spans="1:9" customFormat="1" ht="40.5">
+    <row r="539" spans="1:9" customFormat="1" ht="30">
       <c r="A539" s="25" t="s">
         <v>1070</v>
       </c>
@@ -24294,7 +24292,7 @@
       </c>
       <c r="I539" s="45"/>
     </row>
-    <row r="540" spans="1:9" customFormat="1" ht="40.5">
+    <row r="540" spans="1:9" customFormat="1" ht="45">
       <c r="A540" s="25" t="s">
         <v>1071</v>
       </c>
@@ -24318,10 +24316,10 @@
         <v>17</v>
       </c>
       <c r="I540" s="45" t="s">
-        <v>1583</v>
-      </c>
-    </row>
-    <row r="541" spans="1:9" customFormat="1" ht="40.5">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="541" spans="1:9" customFormat="1" ht="30">
       <c r="A541" s="25" t="s">
         <v>1072</v>
       </c>
@@ -24346,7 +24344,7 @@
       </c>
       <c r="I541" s="45"/>
     </row>
-    <row r="542" spans="1:9" customFormat="1" ht="40.5">
+    <row r="542" spans="1:9" customFormat="1" ht="30">
       <c r="A542" s="25" t="s">
         <v>1073</v>
       </c>
@@ -24371,7 +24369,7 @@
       </c>
       <c r="I542" s="45"/>
     </row>
-    <row r="543" spans="1:9" customFormat="1" ht="40.5">
+    <row r="543" spans="1:9" customFormat="1" ht="30">
       <c r="A543" s="25" t="s">
         <v>1075</v>
       </c>
@@ -24396,7 +24394,7 @@
       </c>
       <c r="I543" s="45"/>
     </row>
-    <row r="544" spans="1:9" customFormat="1" ht="40.5">
+    <row r="544" spans="1:9" customFormat="1" ht="30">
       <c r="A544" s="25" t="s">
         <v>1077</v>
       </c>
@@ -24421,7 +24419,7 @@
       </c>
       <c r="I544" s="45"/>
     </row>
-    <row r="545" spans="1:9" customFormat="1" ht="40.5">
+    <row r="545" spans="1:9" customFormat="1" ht="45">
       <c r="A545" s="25" t="s">
         <v>1078</v>
       </c>
@@ -24446,7 +24444,7 @@
       </c>
       <c r="I545" s="45"/>
     </row>
-    <row r="546" spans="1:9" customFormat="1" ht="40.5">
+    <row r="546" spans="1:9" customFormat="1" ht="30">
       <c r="A546" s="25" t="s">
         <v>1079</v>
       </c>
@@ -24473,7 +24471,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="547" spans="1:9" customFormat="1" ht="40.5">
+    <row r="547" spans="1:9" customFormat="1" ht="30">
       <c r="A547" s="25" t="s">
         <v>1082</v>
       </c>
@@ -24498,7 +24496,7 @@
       </c>
       <c r="I547" s="45"/>
     </row>
-    <row r="548" spans="1:9" customFormat="1" ht="40.5">
+    <row r="548" spans="1:9" customFormat="1" ht="30">
       <c r="A548" s="25" t="s">
         <v>1084</v>
       </c>
@@ -24523,7 +24521,7 @@
       </c>
       <c r="I548" s="45"/>
     </row>
-    <row r="549" spans="1:9" customFormat="1" ht="40.5">
+    <row r="549" spans="1:9" customFormat="1" ht="30">
       <c r="A549" s="25" t="s">
         <v>1086</v>
       </c>
@@ -24548,7 +24546,7 @@
       </c>
       <c r="I549" s="45"/>
     </row>
-    <row r="550" spans="1:9" customFormat="1" ht="40.5">
+    <row r="550" spans="1:9" customFormat="1" ht="30">
       <c r="A550" s="25" t="s">
         <v>1087</v>
       </c>
@@ -24573,7 +24571,7 @@
       </c>
       <c r="I550" s="45"/>
     </row>
-    <row r="551" spans="1:9" customFormat="1" ht="40.5">
+    <row r="551" spans="1:9" customFormat="1" ht="30">
       <c r="A551" s="25" t="s">
         <v>1089</v>
       </c>
@@ -24598,7 +24596,7 @@
       </c>
       <c r="I551" s="45"/>
     </row>
-    <row r="552" spans="1:9" customFormat="1" ht="40.5">
+    <row r="552" spans="1:9" customFormat="1" ht="30">
       <c r="A552" s="25" t="s">
         <v>1091</v>
       </c>
@@ -24623,7 +24621,7 @@
       </c>
       <c r="I552" s="45"/>
     </row>
-    <row r="553" spans="1:9" customFormat="1" ht="67.5">
+    <row r="553" spans="1:9" customFormat="1" ht="75">
       <c r="A553" s="25" t="s">
         <v>1092</v>
       </c>
@@ -24647,10 +24645,10 @@
         <v>17</v>
       </c>
       <c r="I553" s="45" t="s">
-        <v>1576</v>
-      </c>
-    </row>
-    <row r="554" spans="1:9" customFormat="1" ht="40.5">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="554" spans="1:9" customFormat="1" ht="60">
       <c r="A554" s="25" t="s">
         <v>1093</v>
       </c>
@@ -24658,7 +24656,7 @@
         <v>1062</v>
       </c>
       <c r="C554" s="30" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="D554" s="26"/>
       <c r="E554" s="28" t="s">
@@ -24674,10 +24672,10 @@
         <v>17</v>
       </c>
       <c r="I554" s="45" t="s">
-        <v>1569</v>
-      </c>
-    </row>
-    <row r="555" spans="1:9" customFormat="1" ht="40.5">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="555" spans="1:9" customFormat="1" ht="30">
       <c r="A555" s="25" t="s">
         <v>1094</v>
       </c>
@@ -24685,7 +24683,7 @@
         <v>1062</v>
       </c>
       <c r="C555" s="27" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="D555" s="26"/>
       <c r="E555" s="28" t="s">
@@ -24702,7 +24700,7 @@
       </c>
       <c r="I555" s="45"/>
     </row>
-    <row r="556" spans="1:9" customFormat="1" ht="40.5">
+    <row r="556" spans="1:9" customFormat="1" ht="30">
       <c r="A556" s="25" t="s">
         <v>1095</v>
       </c>
@@ -24710,7 +24708,7 @@
         <v>1062</v>
       </c>
       <c r="C556" s="30" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="D556" s="26"/>
       <c r="E556" s="28" t="s">
@@ -24727,7 +24725,7 @@
       </c>
       <c r="I556" s="45"/>
     </row>
-    <row r="557" spans="1:9" customFormat="1" ht="40.5">
+    <row r="557" spans="1:9" customFormat="1" ht="30">
       <c r="A557" s="25" t="s">
         <v>1096</v>
       </c>
@@ -24752,7 +24750,7 @@
       </c>
       <c r="I557" s="45"/>
     </row>
-    <row r="558" spans="1:9" customFormat="1" ht="67.5">
+    <row r="558" spans="1:9" customFormat="1" ht="75">
       <c r="A558" s="25" t="s">
         <v>1097</v>
       </c>
@@ -24776,10 +24774,10 @@
         <v>17</v>
       </c>
       <c r="I558" s="45" t="s">
-        <v>1577</v>
-      </c>
-    </row>
-    <row r="559" spans="1:9" customFormat="1" ht="40.5">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="559" spans="1:9" customFormat="1" ht="30">
       <c r="A559" s="25" t="s">
         <v>1099</v>
       </c>
@@ -24787,7 +24785,7 @@
         <v>1062</v>
       </c>
       <c r="C559" s="27" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="D559" s="26"/>
       <c r="E559" s="28" t="s">
@@ -24804,7 +24802,7 @@
       </c>
       <c r="I559" s="45"/>
     </row>
-    <row r="560" spans="1:9" customFormat="1" ht="40.5">
+    <row r="560" spans="1:9" customFormat="1" ht="30">
       <c r="A560" s="25" t="s">
         <v>1100</v>
       </c>
@@ -24812,7 +24810,7 @@
         <v>1062</v>
       </c>
       <c r="C560" s="27" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="D560" s="26"/>
       <c r="E560" s="28" t="s">
@@ -24829,7 +24827,7 @@
       </c>
       <c r="I560" s="45"/>
     </row>
-    <row r="561" spans="1:9" customFormat="1" ht="40.5">
+    <row r="561" spans="1:9" customFormat="1" ht="30">
       <c r="A561" s="25" t="s">
         <v>1101</v>
       </c>
@@ -24837,7 +24835,7 @@
         <v>1062</v>
       </c>
       <c r="C561" s="27" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="D561" s="26"/>
       <c r="E561" s="28" t="s">
@@ -24854,7 +24852,7 @@
       </c>
       <c r="I561" s="45"/>
     </row>
-    <row r="562" spans="1:9" customFormat="1" ht="40.5">
+    <row r="562" spans="1:9" customFormat="1" ht="30">
       <c r="A562" s="25" t="s">
         <v>1102</v>
       </c>
@@ -24879,7 +24877,7 @@
       </c>
       <c r="I562" s="46"/>
     </row>
-    <row r="563" spans="1:9" customFormat="1" ht="40.5">
+    <row r="563" spans="1:9" customFormat="1" ht="30">
       <c r="A563" s="25" t="s">
         <v>1103</v>
       </c>
@@ -24904,7 +24902,7 @@
       </c>
       <c r="I563" s="45"/>
     </row>
-    <row r="564" spans="1:9" customFormat="1" ht="40.5">
+    <row r="564" spans="1:9" customFormat="1" ht="30">
       <c r="A564" s="25" t="s">
         <v>1105</v>
       </c>
@@ -24929,7 +24927,7 @@
       </c>
       <c r="I564" s="45"/>
     </row>
-    <row r="565" spans="1:9" customFormat="1" ht="40.5">
+    <row r="565" spans="1:9" customFormat="1" ht="30">
       <c r="A565" s="25" t="s">
         <v>1107</v>
       </c>
@@ -24954,7 +24952,7 @@
       </c>
       <c r="I565" s="45"/>
     </row>
-    <row r="566" spans="1:9" customFormat="1" ht="40.5">
+    <row r="566" spans="1:9" customFormat="1" ht="30">
       <c r="A566" s="25" t="s">
         <v>1108</v>
       </c>
@@ -24979,7 +24977,7 @@
       </c>
       <c r="I566" s="45"/>
     </row>
-    <row r="567" spans="1:9" customFormat="1" ht="40.5">
+    <row r="567" spans="1:9" customFormat="1" ht="30">
       <c r="A567" s="25" t="s">
         <v>1110</v>
       </c>
@@ -25004,7 +25002,7 @@
       </c>
       <c r="I567" s="45"/>
     </row>
-    <row r="568" spans="1:9" customFormat="1" ht="40.5">
+    <row r="568" spans="1:9" customFormat="1" ht="30">
       <c r="A568" s="25" t="s">
         <v>1112</v>
       </c>
@@ -25029,7 +25027,7 @@
       </c>
       <c r="I568" s="45"/>
     </row>
-    <row r="569" spans="1:9" customFormat="1" ht="40.5">
+    <row r="569" spans="1:9" customFormat="1" ht="30">
       <c r="A569" s="25" t="s">
         <v>1114</v>
       </c>
@@ -25054,7 +25052,7 @@
       </c>
       <c r="I569" s="45"/>
     </row>
-    <row r="570" spans="1:9" customFormat="1" ht="40.5">
+    <row r="570" spans="1:9" customFormat="1" ht="30">
       <c r="A570" s="25" t="s">
         <v>1116</v>
       </c>
@@ -25079,7 +25077,7 @@
       </c>
       <c r="I570" s="45"/>
     </row>
-    <row r="571" spans="1:9" customFormat="1" ht="40.5">
+    <row r="571" spans="1:9" customFormat="1" ht="30">
       <c r="A571" s="25" t="s">
         <v>1118</v>
       </c>
@@ -25104,7 +25102,7 @@
       </c>
       <c r="I571" s="45"/>
     </row>
-    <row r="572" spans="1:9" customFormat="1" ht="40.5">
+    <row r="572" spans="1:9" customFormat="1" ht="30">
       <c r="A572" s="25" t="s">
         <v>1121</v>
       </c>
@@ -25129,7 +25127,7 @@
       </c>
       <c r="I572" s="45"/>
     </row>
-    <row r="573" spans="1:9" customFormat="1" ht="40.5">
+    <row r="573" spans="1:9" customFormat="1" ht="30">
       <c r="A573" s="25" t="s">
         <v>1122</v>
       </c>
@@ -25154,7 +25152,7 @@
       </c>
       <c r="I573" s="45"/>
     </row>
-    <row r="574" spans="1:9" customFormat="1" ht="40.5">
+    <row r="574" spans="1:9" customFormat="1" ht="45">
       <c r="A574" s="25" t="s">
         <v>1123</v>
       </c>
@@ -25179,7 +25177,7 @@
       </c>
       <c r="I574" s="45"/>
     </row>
-    <row r="575" spans="1:9" customFormat="1" ht="40.5">
+    <row r="575" spans="1:9" customFormat="1" ht="45">
       <c r="A575" s="25" t="s">
         <v>1124</v>
       </c>
@@ -25204,7 +25202,7 @@
       </c>
       <c r="I575" s="45"/>
     </row>
-    <row r="576" spans="1:9" customFormat="1" ht="40.5">
+    <row r="576" spans="1:9" customFormat="1" ht="30">
       <c r="A576" s="25" t="s">
         <v>1125</v>
       </c>
@@ -25231,7 +25229,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="577" spans="1:9" customFormat="1" ht="40.5">
+    <row r="577" spans="1:9" customFormat="1" ht="30">
       <c r="A577" s="25" t="s">
         <v>1126</v>
       </c>
@@ -25258,7 +25256,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="578" spans="1:9" customFormat="1" ht="40.5">
+    <row r="578" spans="1:9" customFormat="1" ht="30">
       <c r="A578" s="25" t="s">
         <v>1130</v>
       </c>
@@ -25283,7 +25281,7 @@
       </c>
       <c r="I578" s="45"/>
     </row>
-    <row r="579" spans="1:9" customFormat="1" ht="40.5">
+    <row r="579" spans="1:9" customFormat="1" ht="30">
       <c r="A579" s="25" t="s">
         <v>1132</v>
       </c>
@@ -25308,7 +25306,7 @@
       </c>
       <c r="I579" s="45"/>
     </row>
-    <row r="580" spans="1:9" customFormat="1" ht="40.5">
+    <row r="580" spans="1:9" customFormat="1" ht="30">
       <c r="A580" s="25" t="s">
         <v>1134</v>
       </c>
@@ -25333,7 +25331,7 @@
       </c>
       <c r="I580" s="45"/>
     </row>
-    <row r="581" spans="1:9" customFormat="1" ht="40.5">
+    <row r="581" spans="1:9" customFormat="1" ht="30">
       <c r="A581" s="25" t="s">
         <v>1135</v>
       </c>
@@ -25358,7 +25356,7 @@
       </c>
       <c r="I581" s="45"/>
     </row>
-    <row r="582" spans="1:9" customFormat="1" ht="40.5">
+    <row r="582" spans="1:9" customFormat="1" ht="30">
       <c r="A582" s="25" t="s">
         <v>1137</v>
       </c>
@@ -25383,7 +25381,7 @@
       </c>
       <c r="I582" s="45"/>
     </row>
-    <row r="583" spans="1:9" customFormat="1" ht="405">
+    <row r="583" spans="1:9" customFormat="1" ht="409.5">
       <c r="A583" s="25" t="s">
         <v>1139</v>
       </c>
@@ -25408,7 +25406,7 @@
       </c>
       <c r="I583" s="45"/>
     </row>
-    <row r="584" spans="1:9" customFormat="1" ht="40.5">
+    <row r="584" spans="1:9" customFormat="1" ht="30">
       <c r="A584" s="25" t="s">
         <v>1140</v>
       </c>
@@ -25433,7 +25431,7 @@
       </c>
       <c r="I584" s="45"/>
     </row>
-    <row r="585" spans="1:9" customFormat="1" ht="40.5">
+    <row r="585" spans="1:9" customFormat="1" ht="30">
       <c r="A585" s="25" t="s">
         <v>1142</v>
       </c>
@@ -25458,7 +25456,7 @@
       </c>
       <c r="I585" s="45"/>
     </row>
-    <row r="586" spans="1:9" customFormat="1" ht="40.5">
+    <row r="586" spans="1:9" customFormat="1" ht="45">
       <c r="A586" s="25" t="s">
         <v>1144</v>
       </c>
@@ -25466,7 +25464,7 @@
         <v>1138</v>
       </c>
       <c r="C586" s="27" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="D586" s="26"/>
       <c r="E586" s="28" t="s">
@@ -25482,10 +25480,10 @@
         <v>17</v>
       </c>
       <c r="I586" s="51" t="s">
-        <v>1575</v>
-      </c>
-    </row>
-    <row r="587" spans="1:9" customFormat="1" ht="40.5">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="587" spans="1:9" customFormat="1" ht="30">
       <c r="A587" s="25" t="s">
         <v>1145</v>
       </c>
@@ -25493,7 +25491,7 @@
         <v>1138</v>
       </c>
       <c r="C587" s="30" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="D587" s="26"/>
       <c r="E587" s="28" t="s">
@@ -25510,7 +25508,7 @@
       </c>
       <c r="I587" s="45"/>
     </row>
-    <row r="588" spans="1:9" customFormat="1" ht="40.5">
+    <row r="588" spans="1:9" customFormat="1" ht="30">
       <c r="A588" s="25" t="s">
         <v>1146</v>
       </c>
@@ -25535,7 +25533,7 @@
       </c>
       <c r="I588" s="45"/>
     </row>
-    <row r="589" spans="1:9" customFormat="1" ht="40.5">
+    <row r="589" spans="1:9" customFormat="1" ht="30">
       <c r="A589" s="25" t="s">
         <v>1148</v>
       </c>
@@ -25560,7 +25558,7 @@
       </c>
       <c r="I589" s="45"/>
     </row>
-    <row r="590" spans="1:9" customFormat="1" ht="40.5">
+    <row r="590" spans="1:9" customFormat="1" ht="30">
       <c r="A590" s="25" t="s">
         <v>1150</v>
       </c>
@@ -25568,7 +25566,7 @@
         <v>1138</v>
       </c>
       <c r="C590" s="27" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="D590" s="26"/>
       <c r="E590" s="28" t="s">
@@ -25585,7 +25583,7 @@
       </c>
       <c r="I590" s="45"/>
     </row>
-    <row r="591" spans="1:9" customFormat="1" ht="40.5">
+    <row r="591" spans="1:9" customFormat="1" ht="30">
       <c r="A591" s="25" t="s">
         <v>1151</v>
       </c>
@@ -25610,7 +25608,7 @@
       </c>
       <c r="I591" s="45"/>
     </row>
-    <row r="592" spans="1:9" customFormat="1" ht="40.5">
+    <row r="592" spans="1:9" customFormat="1" ht="30">
       <c r="A592" s="25" t="s">
         <v>1153</v>
       </c>
@@ -25635,7 +25633,7 @@
       </c>
       <c r="I592" s="45"/>
     </row>
-    <row r="593" spans="1:9" customFormat="1" ht="40.5">
+    <row r="593" spans="1:9" customFormat="1" ht="30">
       <c r="A593" s="25" t="s">
         <v>1155</v>
       </c>
@@ -25660,7 +25658,7 @@
       </c>
       <c r="I593" s="45"/>
     </row>
-    <row r="594" spans="1:9" customFormat="1" ht="40.5">
+    <row r="594" spans="1:9" customFormat="1" ht="30">
       <c r="A594" s="25" t="s">
         <v>1157</v>
       </c>
@@ -25685,7 +25683,7 @@
       </c>
       <c r="I594" s="45"/>
     </row>
-    <row r="595" spans="1:9" customFormat="1" ht="40.5">
+    <row r="595" spans="1:9" customFormat="1" ht="30">
       <c r="A595" s="25" t="s">
         <v>1159</v>
       </c>
@@ -25710,7 +25708,7 @@
       </c>
       <c r="I595" s="45"/>
     </row>
-    <row r="596" spans="1:9" customFormat="1" ht="40.5">
+    <row r="596" spans="1:9" customFormat="1" ht="30">
       <c r="A596" s="25" t="s">
         <v>1161</v>
       </c>
@@ -25735,7 +25733,7 @@
       </c>
       <c r="I596" s="45"/>
     </row>
-    <row r="597" spans="1:9" customFormat="1" ht="40.5">
+    <row r="597" spans="1:9" customFormat="1" ht="30">
       <c r="A597" s="25" t="s">
         <v>1163</v>
       </c>
@@ -25760,7 +25758,7 @@
       </c>
       <c r="I597" s="45"/>
     </row>
-    <row r="598" spans="1:9" customFormat="1" ht="27">
+    <row r="598" spans="1:9" customFormat="1" ht="30">
       <c r="A598" s="25" t="s">
         <v>1165</v>
       </c>
@@ -25785,7 +25783,7 @@
       </c>
       <c r="I598" s="45"/>
     </row>
-    <row r="599" spans="1:9" customFormat="1" ht="94.5">
+    <row r="599" spans="1:9" customFormat="1" ht="105">
       <c r="A599" s="25" t="s">
         <v>1168</v>
       </c>
@@ -25810,7 +25808,7 @@
       </c>
       <c r="I599" s="45"/>
     </row>
-    <row r="600" spans="1:9" customFormat="1" ht="81">
+    <row r="600" spans="1:9" customFormat="1" ht="90">
       <c r="A600" s="25" t="s">
         <v>1170</v>
       </c>
@@ -25835,7 +25833,7 @@
       </c>
       <c r="I600" s="45"/>
     </row>
-    <row r="601" spans="1:9" customFormat="1" ht="40.5">
+    <row r="601" spans="1:9" customFormat="1" ht="45">
       <c r="A601" s="25" t="s">
         <v>1172</v>
       </c>
@@ -25860,7 +25858,7 @@
       </c>
       <c r="I601" s="45"/>
     </row>
-    <row r="602" spans="1:9" customFormat="1" ht="40.5">
+    <row r="602" spans="1:9" customFormat="1" ht="45">
       <c r="A602" s="25" t="s">
         <v>1174</v>
       </c>
@@ -25885,7 +25883,7 @@
       </c>
       <c r="I602" s="45"/>
     </row>
-    <row r="603" spans="1:9" customFormat="1" ht="27">
+    <row r="603" spans="1:9" customFormat="1" ht="30">
       <c r="A603" s="25" t="s">
         <v>1176</v>
       </c>
@@ -25910,7 +25908,7 @@
       </c>
       <c r="I603" s="45"/>
     </row>
-    <row r="604" spans="1:9" customFormat="1" ht="27">
+    <row r="604" spans="1:9" customFormat="1" ht="30">
       <c r="A604" s="25" t="s">
         <v>1177</v>
       </c>
@@ -25935,7 +25933,7 @@
       </c>
       <c r="I604" s="45"/>
     </row>
-    <row r="605" spans="1:9" customFormat="1" ht="40.5">
+    <row r="605" spans="1:9" customFormat="1" ht="30">
       <c r="A605" s="25" t="s">
         <v>1178</v>
       </c>
@@ -25960,7 +25958,7 @@
       </c>
       <c r="I605" s="45"/>
     </row>
-    <row r="606" spans="1:9" customFormat="1" ht="40.5">
+    <row r="606" spans="1:9" customFormat="1" ht="30">
       <c r="A606" s="25" t="s">
         <v>1181</v>
       </c>
@@ -25985,7 +25983,7 @@
       </c>
       <c r="I606" s="45"/>
     </row>
-    <row r="607" spans="1:9" customFormat="1" ht="40.5">
+    <row r="607" spans="1:9" customFormat="1" ht="30">
       <c r="A607" s="25" t="s">
         <v>1184</v>
       </c>
@@ -26010,7 +26008,7 @@
       </c>
       <c r="I607" s="45"/>
     </row>
-    <row r="608" spans="1:9" customFormat="1" ht="40.5">
+    <row r="608" spans="1:9" customFormat="1" ht="30">
       <c r="A608" s="25" t="s">
         <v>1186</v>
       </c>
@@ -26035,7 +26033,7 @@
       </c>
       <c r="I608" s="45"/>
     </row>
-    <row r="609" spans="1:9" customFormat="1" ht="40.5">
+    <row r="609" spans="1:9" customFormat="1" ht="30">
       <c r="A609" s="25" t="s">
         <v>1189</v>
       </c>
@@ -26060,7 +26058,7 @@
       </c>
       <c r="I609" s="45"/>
     </row>
-    <row r="610" spans="1:9" customFormat="1" ht="40.5">
+    <row r="610" spans="1:9" customFormat="1" ht="30">
       <c r="A610" s="25" t="s">
         <v>1191</v>
       </c>
@@ -26085,7 +26083,7 @@
       </c>
       <c r="I610" s="45"/>
     </row>
-    <row r="611" spans="1:9" customFormat="1" ht="40.5">
+    <row r="611" spans="1:9" customFormat="1" ht="45">
       <c r="A611" s="25" t="s">
         <v>1194</v>
       </c>
@@ -26110,7 +26108,7 @@
       </c>
       <c r="I611" s="45"/>
     </row>
-    <row r="612" spans="1:9" customFormat="1" ht="27">
+    <row r="612" spans="1:9" customFormat="1" ht="30">
       <c r="A612" s="25" t="s">
         <v>1196</v>
       </c>
@@ -26135,7 +26133,7 @@
       </c>
       <c r="I612" s="45"/>
     </row>
-    <row r="613" spans="1:9" customFormat="1" ht="27">
+    <row r="613" spans="1:9" customFormat="1" ht="30">
       <c r="A613" s="25" t="s">
         <v>1197</v>
       </c>
@@ -26160,7 +26158,7 @@
       </c>
       <c r="I613" s="45"/>
     </row>
-    <row r="614" spans="1:9" customFormat="1" ht="40.5">
+    <row r="614" spans="1:9" customFormat="1" ht="30">
       <c r="A614" s="25" t="s">
         <v>1198</v>
       </c>
@@ -26185,7 +26183,7 @@
       </c>
       <c r="I614" s="45"/>
     </row>
-    <row r="615" spans="1:9" customFormat="1" ht="108">
+    <row r="615" spans="1:9" customFormat="1" ht="120">
       <c r="A615" s="25" t="s">
         <v>1201</v>
       </c>
@@ -26210,7 +26208,7 @@
       </c>
       <c r="I615" s="45"/>
     </row>
-    <row r="616" spans="1:9" customFormat="1" ht="40.5">
+    <row r="616" spans="1:9" customFormat="1" ht="30">
       <c r="A616" s="25" t="s">
         <v>1204</v>
       </c>
@@ -26235,7 +26233,7 @@
       </c>
       <c r="I616" s="45"/>
     </row>
-    <row r="617" spans="1:9" customFormat="1" ht="40.5">
+    <row r="617" spans="1:9" customFormat="1" ht="30">
       <c r="A617" s="25" t="s">
         <v>1206</v>
       </c>
@@ -26260,7 +26258,7 @@
       </c>
       <c r="I617" s="45"/>
     </row>
-    <row r="618" spans="1:9" customFormat="1" ht="40.5">
+    <row r="618" spans="1:9" customFormat="1" ht="30">
       <c r="A618" s="25" t="s">
         <v>1208</v>
       </c>
@@ -26285,7 +26283,7 @@
       </c>
       <c r="I618" s="45"/>
     </row>
-    <row r="619" spans="1:9" customFormat="1" ht="135">
+    <row r="619" spans="1:9" customFormat="1" ht="150">
       <c r="A619" s="25" t="s">
         <v>1211</v>
       </c>
@@ -26310,7 +26308,7 @@
       </c>
       <c r="I619" s="45"/>
     </row>
-    <row r="620" spans="1:9" customFormat="1" ht="108">
+    <row r="620" spans="1:9" customFormat="1" ht="120">
       <c r="A620" s="25" t="s">
         <v>1213</v>
       </c>
@@ -26335,7 +26333,7 @@
       </c>
       <c r="I620" s="45"/>
     </row>
-    <row r="621" spans="1:9" customFormat="1" ht="40.5">
+    <row r="621" spans="1:9" customFormat="1" ht="30">
       <c r="A621" s="25" t="s">
         <v>1215</v>
       </c>
@@ -26360,7 +26358,7 @@
       </c>
       <c r="I621" s="45"/>
     </row>
-    <row r="622" spans="1:9" customFormat="1" ht="40.5">
+    <row r="622" spans="1:9" customFormat="1" ht="30">
       <c r="A622" s="25" t="s">
         <v>1217</v>
       </c>
@@ -26385,7 +26383,7 @@
       </c>
       <c r="I622" s="45"/>
     </row>
-    <row r="623" spans="1:9" customFormat="1" ht="27">
+    <row r="623" spans="1:9" customFormat="1" ht="30">
       <c r="A623" s="25" t="s">
         <v>1219</v>
       </c>
@@ -26410,7 +26408,7 @@
       </c>
       <c r="I623" s="45"/>
     </row>
-    <row r="624" spans="1:9" customFormat="1" ht="81">
+    <row r="624" spans="1:9" customFormat="1" ht="90">
       <c r="A624" s="25" t="s">
         <v>1222</v>
       </c>
@@ -26435,7 +26433,7 @@
       </c>
       <c r="I624" s="45"/>
     </row>
-    <row r="625" spans="1:10" customFormat="1" ht="27">
+    <row r="625" spans="1:10" customFormat="1" ht="30">
       <c r="A625" s="25" t="s">
         <v>1224</v>
       </c>
@@ -26460,7 +26458,7 @@
       </c>
       <c r="I625" s="45"/>
     </row>
-    <row r="626" spans="1:10" customFormat="1" ht="27">
+    <row r="626" spans="1:10" customFormat="1" ht="30">
       <c r="A626" s="25" t="s">
         <v>1226</v>
       </c>
@@ -26485,7 +26483,7 @@
       </c>
       <c r="I626" s="45"/>
     </row>
-    <row r="627" spans="1:10" customFormat="1" ht="27">
+    <row r="627" spans="1:10" customFormat="1" ht="30">
       <c r="A627" s="25" t="s">
         <v>1228</v>
       </c>
@@ -26510,7 +26508,7 @@
       </c>
       <c r="I627" s="45"/>
     </row>
-    <row r="628" spans="1:10" customFormat="1" ht="27">
+    <row r="628" spans="1:10" customFormat="1" ht="30">
       <c r="A628" s="25" t="s">
         <v>1230</v>
       </c>
@@ -26536,7 +26534,7 @@
       <c r="I628" s="45"/>
       <c r="J628" s="31"/>
     </row>
-    <row r="629" spans="1:10" customFormat="1" ht="27">
+    <row r="629" spans="1:10" customFormat="1" ht="30">
       <c r="A629" s="25" t="s">
         <v>1232</v>
       </c>
@@ -26561,7 +26559,7 @@
       </c>
       <c r="I629" s="45"/>
     </row>
-    <row r="630" spans="1:10" customFormat="1" ht="40.5">
+    <row r="630" spans="1:10" customFormat="1" ht="45">
       <c r="A630" s="25" t="s">
         <v>1235</v>
       </c>
@@ -26586,7 +26584,7 @@
       </c>
       <c r="I630" s="45"/>
     </row>
-    <row r="631" spans="1:10" customFormat="1" ht="27">
+    <row r="631" spans="1:10" customFormat="1" ht="30">
       <c r="A631" s="25" t="s">
         <v>1237</v>
       </c>
@@ -26611,7 +26609,7 @@
       </c>
       <c r="I631" s="45"/>
     </row>
-    <row r="632" spans="1:10" customFormat="1" ht="27">
+    <row r="632" spans="1:10" customFormat="1" ht="30">
       <c r="A632" s="25" t="s">
         <v>1238</v>
       </c>
@@ -26636,7 +26634,7 @@
       </c>
       <c r="I632" s="45"/>
     </row>
-    <row r="633" spans="1:10" customFormat="1" ht="40.5">
+    <row r="633" spans="1:10" customFormat="1" ht="45">
       <c r="A633" s="25" t="s">
         <v>1239</v>
       </c>
@@ -26661,7 +26659,7 @@
       </c>
       <c r="I633" s="45"/>
     </row>
-    <row r="634" spans="1:10" customFormat="1" ht="40.5">
+    <row r="634" spans="1:10" customFormat="1" ht="45">
       <c r="A634" s="25" t="s">
         <v>1242</v>
       </c>
@@ -26686,7 +26684,7 @@
       </c>
       <c r="I634" s="45"/>
     </row>
-    <row r="635" spans="1:10" customFormat="1" ht="40.5">
+    <row r="635" spans="1:10" customFormat="1" ht="45">
       <c r="A635" s="25" t="s">
         <v>1245</v>
       </c>
@@ -26711,7 +26709,7 @@
       </c>
       <c r="I635" s="45"/>
     </row>
-    <row r="636" spans="1:10" customFormat="1" ht="40.5">
+    <row r="636" spans="1:10" customFormat="1" ht="45">
       <c r="A636" s="25" t="s">
         <v>1247</v>
       </c>
@@ -26736,7 +26734,7 @@
       </c>
       <c r="I636" s="45"/>
     </row>
-    <row r="637" spans="1:10" customFormat="1" ht="40.5">
+    <row r="637" spans="1:10" customFormat="1" ht="45">
       <c r="A637" s="25" t="s">
         <v>1250</v>
       </c>
@@ -26761,7 +26759,7 @@
       </c>
       <c r="I637" s="45"/>
     </row>
-    <row r="638" spans="1:10" customFormat="1" ht="40.5">
+    <row r="638" spans="1:10" customFormat="1" ht="45">
       <c r="A638" s="25" t="s">
         <v>1252</v>
       </c>
@@ -26786,7 +26784,7 @@
       </c>
       <c r="I638" s="45"/>
     </row>
-    <row r="639" spans="1:10" customFormat="1" ht="40.5">
+    <row r="639" spans="1:10" customFormat="1" ht="45">
       <c r="A639" s="25" t="s">
         <v>1254</v>
       </c>
@@ -26811,7 +26809,7 @@
       </c>
       <c r="I639" s="45"/>
     </row>
-    <row r="640" spans="1:10" customFormat="1" ht="27">
+    <row r="640" spans="1:10" customFormat="1" ht="30">
       <c r="A640" s="25" t="s">
         <v>1256</v>
       </c>
@@ -26836,7 +26834,7 @@
       </c>
       <c r="I640" s="45"/>
     </row>
-    <row r="641" spans="1:9" customFormat="1" ht="27">
+    <row r="641" spans="1:9" customFormat="1" ht="30">
       <c r="A641" s="25" t="s">
         <v>1257</v>
       </c>
@@ -26861,7 +26859,7 @@
       </c>
       <c r="I641" s="45"/>
     </row>
-    <row r="642" spans="1:9" customFormat="1" ht="40.5">
+    <row r="642" spans="1:9" customFormat="1" ht="45">
       <c r="A642" s="25" t="s">
         <v>1258</v>
       </c>
@@ -26886,7 +26884,7 @@
       </c>
       <c r="I642" s="45"/>
     </row>
-    <row r="643" spans="1:9" customFormat="1" ht="108">
+    <row r="643" spans="1:9" customFormat="1" ht="120">
       <c r="A643" s="25" t="s">
         <v>1261</v>
       </c>
@@ -26911,7 +26909,7 @@
       </c>
       <c r="I643" s="45"/>
     </row>
-    <row r="644" spans="1:9" customFormat="1" ht="40.5">
+    <row r="644" spans="1:9" customFormat="1" ht="45">
       <c r="A644" s="25" t="s">
         <v>1264</v>
       </c>
@@ -26936,7 +26934,7 @@
       </c>
       <c r="I644" s="45"/>
     </row>
-    <row r="645" spans="1:9" customFormat="1" ht="40.5">
+    <row r="645" spans="1:9" customFormat="1" ht="45">
       <c r="A645" s="25" t="s">
         <v>1266</v>
       </c>
@@ -26961,7 +26959,7 @@
       </c>
       <c r="I645" s="45"/>
     </row>
-    <row r="646" spans="1:9" customFormat="1" ht="121.5">
+    <row r="646" spans="1:9" customFormat="1" ht="120">
       <c r="A646" s="25" t="s">
         <v>1269</v>
       </c>
@@ -26986,7 +26984,7 @@
       </c>
       <c r="I646" s="45"/>
     </row>
-    <row r="647" spans="1:9" customFormat="1" ht="108">
+    <row r="647" spans="1:9" customFormat="1" ht="120">
       <c r="A647" s="25" t="s">
         <v>1271</v>
       </c>
@@ -27011,7 +27009,7 @@
       </c>
       <c r="I647" s="45"/>
     </row>
-    <row r="648" spans="1:9" customFormat="1" ht="40.5">
+    <row r="648" spans="1:9" customFormat="1" ht="45">
       <c r="A648" s="25" t="s">
         <v>1273</v>
       </c>
@@ -27036,7 +27034,7 @@
       </c>
       <c r="I648" s="45"/>
     </row>
-    <row r="649" spans="1:9" customFormat="1" ht="40.5">
+    <row r="649" spans="1:9" customFormat="1" ht="45">
       <c r="A649" s="25" t="s">
         <v>1275</v>
       </c>
@@ -27061,7 +27059,7 @@
       </c>
       <c r="I649" s="45"/>
     </row>
-    <row r="650" spans="1:9" customFormat="1" ht="27">
+    <row r="650" spans="1:9" customFormat="1" ht="30">
       <c r="A650" s="25" t="s">
         <v>1277</v>
       </c>
@@ -27086,7 +27084,7 @@
       </c>
       <c r="I650" s="45"/>
     </row>
-    <row r="651" spans="1:9" customFormat="1" ht="27">
+    <row r="651" spans="1:9" customFormat="1" ht="30">
       <c r="A651" s="25" t="s">
         <v>1280</v>
       </c>
@@ -27111,7 +27109,7 @@
       </c>
       <c r="I651" s="45"/>
     </row>
-    <row r="652" spans="1:9" customFormat="1" ht="94.5">
+    <row r="652" spans="1:9" customFormat="1" ht="105">
       <c r="A652" s="25" t="s">
         <v>1281</v>
       </c>
@@ -27136,7 +27134,7 @@
       </c>
       <c r="I652" s="45"/>
     </row>
-    <row r="653" spans="1:9" customFormat="1" ht="27">
+    <row r="653" spans="1:9" customFormat="1" ht="30">
       <c r="A653" s="25" t="s">
         <v>1283</v>
       </c>
@@ -27161,7 +27159,7 @@
       </c>
       <c r="I653" s="45"/>
     </row>
-    <row r="654" spans="1:9" customFormat="1" ht="27">
+    <row r="654" spans="1:9" customFormat="1" ht="30">
       <c r="A654" s="25" t="s">
         <v>1285</v>
       </c>
@@ -27186,7 +27184,7 @@
       </c>
       <c r="I654" s="45"/>
     </row>
-    <row r="655" spans="1:9" customFormat="1" ht="40.5">
+    <row r="655" spans="1:9" customFormat="1" ht="45">
       <c r="A655" s="25" t="s">
         <v>1287</v>
       </c>
@@ -27211,7 +27209,7 @@
       </c>
       <c r="I655" s="45"/>
     </row>
-    <row r="656" spans="1:9" customFormat="1" ht="27">
+    <row r="656" spans="1:9" customFormat="1" ht="30">
       <c r="A656" s="25" t="s">
         <v>1289</v>
       </c>
@@ -27236,7 +27234,7 @@
       </c>
       <c r="I656" s="45"/>
     </row>
-    <row r="657" spans="1:9" customFormat="1" ht="27">
+    <row r="657" spans="1:9" customFormat="1" ht="30">
       <c r="A657" s="25" t="s">
         <v>1290</v>
       </c>
@@ -27261,7 +27259,7 @@
       </c>
       <c r="I657" s="45"/>
     </row>
-    <row r="658" spans="1:9" customFormat="1" ht="40.5">
+    <row r="658" spans="1:9" customFormat="1" ht="45">
       <c r="A658" s="25" t="s">
         <v>1291</v>
       </c>
@@ -27286,7 +27284,7 @@
       </c>
       <c r="I658" s="45"/>
     </row>
-    <row r="659" spans="1:9" customFormat="1" ht="40.5">
+    <row r="659" spans="1:9" customFormat="1" ht="45">
       <c r="A659" s="25" t="s">
         <v>1294</v>
       </c>
@@ -27311,7 +27309,7 @@
       </c>
       <c r="I659" s="45"/>
     </row>
-    <row r="660" spans="1:9" customFormat="1" ht="40.5">
+    <row r="660" spans="1:9" customFormat="1" ht="45">
       <c r="A660" s="25" t="s">
         <v>1297</v>
       </c>
@@ -27336,7 +27334,7 @@
       </c>
       <c r="I660" s="45"/>
     </row>
-    <row r="661" spans="1:9" customFormat="1" ht="40.5">
+    <row r="661" spans="1:9" customFormat="1" ht="45">
       <c r="A661" s="25" t="s">
         <v>1299</v>
       </c>
@@ -27361,7 +27359,7 @@
       </c>
       <c r="I661" s="45"/>
     </row>
-    <row r="662" spans="1:9" customFormat="1" ht="40.5">
+    <row r="662" spans="1:9" customFormat="1" ht="45">
       <c r="A662" s="25" t="s">
         <v>1302</v>
       </c>
@@ -27386,7 +27384,7 @@
       </c>
       <c r="I662" s="45"/>
     </row>
-    <row r="663" spans="1:9" customFormat="1" ht="40.5">
+    <row r="663" spans="1:9" customFormat="1" ht="45">
       <c r="A663" s="25" t="s">
         <v>1304</v>
       </c>
@@ -27411,7 +27409,7 @@
       </c>
       <c r="I663" s="45"/>
     </row>
-    <row r="664" spans="1:9" customFormat="1" ht="40.5">
+    <row r="664" spans="1:9" customFormat="1" ht="45">
       <c r="A664" s="25" t="s">
         <v>1306</v>
       </c>
@@ -27436,7 +27434,7 @@
       </c>
       <c r="I664" s="45"/>
     </row>
-    <row r="665" spans="1:9" customFormat="1" ht="27">
+    <row r="665" spans="1:9" customFormat="1" ht="30">
       <c r="A665" s="25" t="s">
         <v>1308</v>
       </c>
@@ -27461,7 +27459,7 @@
       </c>
       <c r="I665" s="45"/>
     </row>
-    <row r="666" spans="1:9" customFormat="1" ht="27">
+    <row r="666" spans="1:9" customFormat="1" ht="30">
       <c r="A666" s="25" t="s">
         <v>1309</v>
       </c>
@@ -27486,7 +27484,7 @@
       </c>
       <c r="I666" s="45"/>
     </row>
-    <row r="667" spans="1:9" customFormat="1" ht="40.5">
+    <row r="667" spans="1:9" customFormat="1" ht="45">
       <c r="A667" s="25" t="s">
         <v>1310</v>
       </c>
@@ -27511,7 +27509,7 @@
       </c>
       <c r="I667" s="45"/>
     </row>
-    <row r="668" spans="1:9" customFormat="1" ht="121.5">
+    <row r="668" spans="1:9" customFormat="1" ht="135">
       <c r="A668" s="25" t="s">
         <v>1313</v>
       </c>
@@ -27536,7 +27534,7 @@
       </c>
       <c r="I668" s="45"/>
     </row>
-    <row r="669" spans="1:9" customFormat="1" ht="67.5">
+    <row r="669" spans="1:9" customFormat="1" ht="75">
       <c r="A669" s="25" t="s">
         <v>1316</v>
       </c>
@@ -27561,7 +27559,7 @@
       </c>
       <c r="I669" s="45"/>
     </row>
-    <row r="670" spans="1:9" customFormat="1" ht="40.5">
+    <row r="670" spans="1:9" customFormat="1" ht="45">
       <c r="A670" s="25" t="s">
         <v>1317</v>
       </c>
@@ -27586,7 +27584,7 @@
       </c>
       <c r="I670" s="45"/>
     </row>
-    <row r="671" spans="1:9" customFormat="1" ht="40.5">
+    <row r="671" spans="1:9" customFormat="1" ht="45">
       <c r="A671" s="25" t="s">
         <v>1318</v>
       </c>
@@ -27611,7 +27609,7 @@
       </c>
       <c r="I671" s="45"/>
     </row>
-    <row r="672" spans="1:9" customFormat="1" ht="40.5">
+    <row r="672" spans="1:9" customFormat="1" ht="45">
       <c r="A672" s="25" t="s">
         <v>1320</v>
       </c>
@@ -27636,7 +27634,7 @@
       </c>
       <c r="I672" s="45"/>
     </row>
-    <row r="673" spans="1:9" customFormat="1" ht="121.5">
+    <row r="673" spans="1:9" customFormat="1" ht="120">
       <c r="A673" s="25" t="s">
         <v>1323</v>
       </c>
@@ -27661,7 +27659,7 @@
       </c>
       <c r="I673" s="45"/>
     </row>
-    <row r="674" spans="1:9" customFormat="1" ht="40.5">
+    <row r="674" spans="1:9" customFormat="1" ht="45">
       <c r="A674" s="25" t="s">
         <v>1325</v>
       </c>
@@ -27686,7 +27684,7 @@
       </c>
       <c r="I674" s="45"/>
     </row>
-    <row r="675" spans="1:9" customFormat="1" ht="40.5">
+    <row r="675" spans="1:9" customFormat="1" ht="45">
       <c r="A675" s="25" t="s">
         <v>1327</v>
       </c>
@@ -27711,7 +27709,7 @@
       </c>
       <c r="I675" s="45"/>
     </row>
-    <row r="676" spans="1:9" customFormat="1" ht="54">
+    <row r="676" spans="1:9" customFormat="1" ht="45">
       <c r="A676" s="25" t="s">
         <v>1329</v>
       </c>
@@ -27736,7 +27734,7 @@
       </c>
       <c r="I676" s="45"/>
     </row>
-    <row r="677" spans="1:9" customFormat="1" ht="54">
+    <row r="677" spans="1:9" customFormat="1" ht="60">
       <c r="A677" s="25" t="s">
         <v>1331</v>
       </c>
@@ -27761,7 +27759,7 @@
       </c>
       <c r="I677" s="45"/>
     </row>
-    <row r="678" spans="1:9" customFormat="1" ht="54">
+    <row r="678" spans="1:9" customFormat="1" ht="45">
       <c r="A678" s="25" t="s">
         <v>1333</v>
       </c>
@@ -27769,7 +27767,7 @@
         <v>1334</v>
       </c>
       <c r="C678" s="30" t="s">
-        <v>1589</v>
+        <v>1587</v>
       </c>
       <c r="D678" s="26"/>
       <c r="E678" s="28" t="s">
@@ -27786,7 +27784,7 @@
       </c>
       <c r="I678" s="45"/>
     </row>
-    <row r="679" spans="1:9" customFormat="1" ht="27">
+    <row r="679" spans="1:9" customFormat="1" ht="30">
       <c r="A679" s="25" t="s">
         <v>1335</v>
       </c>
@@ -27794,7 +27792,7 @@
         <v>1334</v>
       </c>
       <c r="C679" s="30" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="D679" s="26"/>
       <c r="E679" s="28" t="s">
@@ -27811,7 +27809,7 @@
       </c>
       <c r="I679" s="45"/>
     </row>
-    <row r="680" spans="1:9" s="39" customFormat="1" ht="40.5">
+    <row r="680" spans="1:9" s="39" customFormat="1" ht="60">
       <c r="A680" s="40" t="s">
         <v>60</v>
       </c>
@@ -27840,7 +27838,7 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="681" spans="1:9" s="39" customFormat="1" ht="54">
+    <row r="681" spans="1:9" s="39" customFormat="1" ht="60">
       <c r="A681" s="42" t="s">
         <v>480</v>
       </c>
@@ -27851,7 +27849,7 @@
         <v>1364</v>
       </c>
       <c r="D681" s="41" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="E681" s="42" t="s">
         <v>22</v>
@@ -27869,7 +27867,7 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="682" spans="1:9" s="39" customFormat="1" ht="54">
+    <row r="682" spans="1:9" s="39" customFormat="1" ht="60">
       <c r="A682" s="40" t="s">
         <v>809</v>
       </c>
@@ -27898,7 +27896,7 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="683" spans="1:9" s="39" customFormat="1" ht="54">
+    <row r="683" spans="1:9" s="39" customFormat="1" ht="60">
       <c r="A683" s="40" t="s">
         <v>858</v>
       </c>
@@ -27927,7 +27925,7 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="684" spans="1:9" s="39" customFormat="1" ht="54">
+    <row r="684" spans="1:9" s="39" customFormat="1" ht="60">
       <c r="A684" s="40" t="s">
         <v>1080</v>
       </c>
@@ -27956,7 +27954,7 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="685" spans="1:9" s="39" customFormat="1" ht="54">
+    <row r="685" spans="1:9" s="39" customFormat="1" ht="60">
       <c r="A685" s="40" t="s">
         <v>1128</v>
       </c>
@@ -27985,7 +27983,7 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="686" spans="1:9" s="39" customFormat="1" ht="54">
+    <row r="686" spans="1:9" s="39" customFormat="1" ht="60">
       <c r="A686" s="40" t="s">
         <v>1129</v>
       </c>
@@ -28014,7 +28012,7 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="687" spans="1:9" customFormat="1" ht="40.5">
+    <row r="687" spans="1:9" customFormat="1" ht="45">
       <c r="A687" s="25" t="s">
         <v>1336</v>
       </c>
@@ -28025,7 +28023,7 @@
         <v>1373</v>
       </c>
       <c r="D687" s="41" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="E687" s="28" t="s">
         <v>22</v>
@@ -28041,7 +28039,7 @@
       </c>
       <c r="I687" s="45"/>
     </row>
-    <row r="688" spans="1:9" customFormat="1" ht="40.5">
+    <row r="688" spans="1:9" customFormat="1" ht="45">
       <c r="A688" s="25" t="s">
         <v>1337</v>
       </c>
@@ -28052,7 +28050,7 @@
         <v>1369</v>
       </c>
       <c r="D688" s="41" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="E688" s="28" t="s">
         <v>22</v>
@@ -28068,7 +28066,7 @@
       </c>
       <c r="I688" s="45"/>
     </row>
-    <row r="689" spans="1:9" customFormat="1" ht="54">
+    <row r="689" spans="1:9" customFormat="1" ht="60">
       <c r="A689" s="25" t="s">
         <v>1338</v>
       </c>
@@ -28079,7 +28077,7 @@
         <v>1368</v>
       </c>
       <c r="D689" s="41" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="E689" s="28" t="s">
         <v>22</v>
@@ -28095,7 +28093,7 @@
       </c>
       <c r="I689" s="45"/>
     </row>
-    <row r="690" spans="1:9" s="38" customFormat="1" ht="69">
+    <row r="690" spans="1:9" s="38" customFormat="1" ht="75">
       <c r="A690" s="40" t="s">
         <v>1345</v>
       </c>
@@ -28103,10 +28101,10 @@
         <v>1334</v>
       </c>
       <c r="C690" s="45" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="D690" s="41" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="E690" s="42" t="s">
         <v>22</v>
@@ -28124,7 +28122,7 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="691" spans="1:9" customFormat="1" ht="54">
+    <row r="691" spans="1:9" customFormat="1" ht="60">
       <c r="A691" s="25" t="s">
         <v>1339</v>
       </c>
@@ -28132,7 +28130,7 @@
         <v>1340</v>
       </c>
       <c r="C691" s="45" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="D691" s="41"/>
       <c r="E691" s="28" t="s">
@@ -28149,7 +28147,7 @@
       </c>
       <c r="I691" s="45"/>
     </row>
-    <row r="692" spans="1:9" s="39" customFormat="1" ht="55.5">
+    <row r="692" spans="1:9" s="39" customFormat="1" ht="60">
       <c r="A692" s="40" t="s">
         <v>690</v>
       </c>
@@ -28157,7 +28155,7 @@
         <v>1334</v>
       </c>
       <c r="C692" s="47" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="D692" s="36" t="s">
         <v>1370</v>
@@ -28178,7 +28176,7 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="693" spans="1:9" s="39" customFormat="1" ht="45">
+    <row r="693" spans="1:9" s="39" customFormat="1" ht="60">
       <c r="A693" s="40" t="s">
         <v>1343</v>
       </c>
@@ -28186,7 +28184,7 @@
         <v>1334</v>
       </c>
       <c r="C693" s="48" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D693" s="36" t="s">
         <v>1370</v>
@@ -28207,7 +28205,7 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="694" spans="1:9" s="39" customFormat="1" ht="45">
+    <row r="694" spans="1:9" s="39" customFormat="1" ht="60">
       <c r="A694" s="40" t="s">
         <v>1344</v>
       </c>
@@ -28215,7 +28213,7 @@
         <v>1334</v>
       </c>
       <c r="C694" s="48" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="D694" s="36" t="s">
         <v>1370</v>
@@ -28236,18 +28234,18 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="695" spans="1:9" customFormat="1" ht="96">
+    <row r="695" spans="1:9" customFormat="1" ht="105">
       <c r="A695" s="25" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
       <c r="B695" s="26" t="s">
         <v>1340</v>
       </c>
       <c r="C695" s="45" t="s">
-        <v>1584</v>
+        <v>1588</v>
       </c>
       <c r="D695" s="36" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="E695" s="28" t="s">
         <v>22</v>
@@ -28265,18 +28263,18 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="696" spans="1:9" s="39" customFormat="1" ht="42">
+    <row r="696" spans="1:9" s="39" customFormat="1" ht="45">
       <c r="A696" s="59" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="B696" s="36" t="s">
         <v>1334</v>
       </c>
       <c r="C696" s="45" t="s">
-        <v>1588</v>
+        <v>1586</v>
       </c>
       <c r="D696" s="36" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="E696" s="42" t="s">
         <v>22</v>
@@ -28292,7 +28290,7 @@
       </c>
       <c r="I696" s="57"/>
     </row>
-    <row r="697" spans="1:9" s="39" customFormat="1" ht="96">
+    <row r="697" spans="1:9" s="39" customFormat="1" ht="90">
       <c r="A697" s="60" t="s">
         <v>1452</v>
       </c>
@@ -28300,10 +28298,10 @@
         <v>1334</v>
       </c>
       <c r="C697" s="45" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="D697" s="36" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="E697" s="42" t="s">
         <v>22</v>
@@ -28323,16 +28321,16 @@
     </row>
     <row r="698" spans="1:9" s="39" customFormat="1" ht="45">
       <c r="A698" s="61" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="B698" s="36" t="s">
         <v>1334</v>
       </c>
       <c r="C698" s="54" t="s">
+        <v>1548</v>
+      </c>
+      <c r="D698" s="36" t="s">
         <v>1549</v>
-      </c>
-      <c r="D698" s="36" t="s">
-        <v>1550</v>
       </c>
       <c r="E698" s="42" t="s">
         <v>22</v>
@@ -28350,16 +28348,16 @@
     </row>
     <row r="699" spans="1:9" s="39" customFormat="1" ht="45">
       <c r="A699" s="61" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="B699" s="36" t="s">
         <v>1334</v>
       </c>
       <c r="C699" s="54" t="s">
+        <v>1563</v>
+      </c>
+      <c r="D699" s="36" t="s">
         <v>1564</v>
-      </c>
-      <c r="D699" s="36" t="s">
-        <v>1565</v>
       </c>
       <c r="E699" s="42" t="s">
         <v>22</v>
@@ -28379,16 +28377,16 @@
     </row>
     <row r="700" spans="1:9" s="39" customFormat="1" ht="45">
       <c r="A700" s="61" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="B700" s="36" t="s">
         <v>1334</v>
       </c>
       <c r="C700" s="54" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="D700" s="36" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="E700" s="42" t="s">
         <v>22</v>
@@ -28406,15 +28404,15 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="701" spans="1:9" customFormat="1" ht="27">
+    <row r="701" spans="1:9" customFormat="1" ht="30">
       <c r="A701" s="25" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="B701" s="26" t="s">
         <v>1340</v>
       </c>
       <c r="C701" s="45" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="D701" s="26"/>
       <c r="E701" s="28" t="s">
@@ -30932,7 +30930,7 @@
     <oddFooter>&amp;F&amp;RPage &amp;P</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="B19:B462 B700:B702 B463:B699 C3" numberStoredAsText="1"/>
+    <ignoredError sqref="B19:B462 B700:B702 B463:B699" numberStoredAsText="1"/>
   </ignoredErrors>
   <tableParts count="2">
     <tablePart r:id="rId2"/>

--- a/SharePoint/Docs/MS-DWSS/MS-DWSS_RequirementSpecification.xlsx
+++ b/SharePoint/Docs/MS-DWSS/MS-DWSS_RequirementSpecification.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8D86CE3-7FC9-482C-9CFD-01B488614575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85FF6C67-E60E-4A6A-A32A-9902BDAE08CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3075" yWindow="3075" windowWidth="21105" windowHeight="12480" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="2" r:id="rId1"/>
@@ -4153,9 +4153,6 @@
   </si>
   <si>
     <t>MS-DWSS_R628</t>
-  </si>
-  <si>
-    <t>[In ListInfo] The following elements MUST be present if, and only if, the user has that permission: InsertListIems, EditListItems, DeleteListItems, and ManageLists.</t>
   </si>
   <si>
     <t>MS-DWSS_R629</t>
@@ -5990,6 +5987,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>[In Appendix B: Product Behavior] Implementation does return HTTP status code 401 with response body which contains text "401 Unauthorized" instead of the "NoAccess" error if the authenticated user is not permitted to access this information. (Windows SharePoint Services 3.0, SharePoint Foundation 2010, SharePoint Foundation 2013, and SharePoint Server 2016 will never return the "NoAccess" error code; instead, these product versions will return HTTP status code 401 with a response body containing the text "401 Unauthorized".)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>MS-DWSS_R4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -6010,10 +6011,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[In Appendix B: Product Behavior] Implementation does return HTTP status code 401 with response body which contains text "401 Unauthorized" instead of the "NoAccess" error if the authenticated user is not permitted to access this information. (Windows SharePoint Services 3.0, SharePoint Foundation 2010, SharePoint Foundation 2013, SharePoint Server 2016 and SharePoint Server 2019 will never return the "NoAccess" error code; instead, these product versions will return HTTP status code 401 with a response body containing the text "401 Unauthorized".)</t>
-  </si>
-  <si>
-    <t>12.0</t>
+    <t>[In ListInfo] The following elements MUST be present if, and only if, the user has that permission: InsertListItems, EditListItems, DeleteListItems, and ManageLists.</t>
+  </si>
+  <si>
+    <t>14.0</t>
   </si>
 </sst>
 </file>
@@ -6402,21 +6403,6 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -6440,6 +6426,21 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -10876,12 +10877,12 @@
   <dimension ref="A1:L702"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" style="11" customWidth="1"/>
+    <col min="1" max="1" width="20.140625" style="11" customWidth="1"/>
     <col min="2" max="2" width="6" style="3" customWidth="1"/>
     <col min="3" max="3" width="85" style="3" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" style="3" customWidth="1"/>
@@ -10896,7 +10897,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>26</v>
@@ -10906,7 +10907,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -10923,135 +10924,135 @@
         <v>1589</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="F3" s="13">
-        <v>44308</v>
+        <v>44397</v>
       </c>
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="21">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="65" t="s">
+      <c r="B5" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="66"/>
-      <c r="H5" s="66"/>
-      <c r="I5" s="66"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="74"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="64" t="s">
+      <c r="B6" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="72"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="63" t="s">
+      <c r="B7" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="63"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="63"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="71"/>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" spans="1:10" ht="30">
+    <row r="8" spans="1:10">
       <c r="A8" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="63" t="s">
+      <c r="B8" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="63"/>
-      <c r="H8" s="63"/>
-      <c r="I8" s="63"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="71"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="71"/>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" ht="78.75" customHeight="1">
       <c r="A9" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="71" t="s">
+      <c r="B9" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="72"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="72"/>
-      <c r="G9" s="72"/>
-      <c r="H9" s="72"/>
-      <c r="I9" s="72"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="67"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="67"/>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="33.75" customHeight="1">
       <c r="A10" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="71" t="s">
+      <c r="B10" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="72"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="72"/>
-      <c r="F10" s="72"/>
-      <c r="G10" s="72"/>
-      <c r="H10" s="72"/>
-      <c r="I10" s="72"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="67"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="67"/>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="67" t="s">
+      <c r="B11" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="67"/>
-      <c r="D11" s="67"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="67"/>
-      <c r="G11" s="67"/>
-      <c r="H11" s="67"/>
-      <c r="I11" s="67"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="62"/>
+      <c r="I11" s="62"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10">
@@ -11064,12 +11065,12 @@
       <c r="C12" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="68"/>
-      <c r="E12" s="68"/>
-      <c r="F12" s="68"/>
-      <c r="G12" s="68"/>
-      <c r="H12" s="68"/>
-      <c r="I12" s="68"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1">
@@ -11082,12 +11083,12 @@
       <c r="C13" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="69"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="69"/>
-      <c r="I13" s="69"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="64"/>
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10">
@@ -11100,12 +11101,12 @@
       <c r="C14" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="69"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="69"/>
-      <c r="G14" s="69"/>
-      <c r="H14" s="69"/>
-      <c r="I14" s="69"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="64"/>
+      <c r="I14" s="64"/>
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10">
@@ -11118,60 +11119,60 @@
       <c r="C15" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="70"/>
-      <c r="I15" s="70"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="65"/>
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" ht="30" customHeight="1">
       <c r="A16" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="67" t="s">
+      <c r="B16" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="67"/>
-      <c r="D16" s="67"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="67"/>
-      <c r="H16" s="67"/>
-      <c r="I16" s="67"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="62"/>
+      <c r="I16" s="62"/>
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:12" ht="81" customHeight="1">
       <c r="A17" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="73" t="s">
-        <v>1455</v>
-      </c>
-      <c r="C17" s="74"/>
-      <c r="D17" s="74"/>
-      <c r="E17" s="74"/>
-      <c r="F17" s="74"/>
-      <c r="G17" s="74"/>
-      <c r="H17" s="74"/>
-      <c r="I17" s="74"/>
+      <c r="B17" s="68" t="s">
+        <v>1454</v>
+      </c>
+      <c r="C17" s="69"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="69"/>
+      <c r="H17" s="69"/>
+      <c r="I17" s="69"/>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1">
       <c r="A18" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="67" t="s">
+      <c r="B18" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="67"/>
-      <c r="D18" s="67"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="67"/>
-      <c r="G18" s="67"/>
-      <c r="H18" s="67"/>
-      <c r="I18" s="67"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="62"/>
       <c r="J18" s="5"/>
       <c r="L18" s="4"/>
     </row>
@@ -11213,7 +11214,7 @@
         <v>43</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="D20" s="26"/>
       <c r="E20" s="28" t="s">
@@ -11238,7 +11239,7 @@
         <v>43</v>
       </c>
       <c r="C21" s="27" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="D21" s="26"/>
       <c r="E21" s="28" t="s">
@@ -11288,7 +11289,7 @@
         <v>43</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="D23" s="26"/>
       <c r="E23" s="28" t="s">
@@ -11313,7 +11314,7 @@
         <v>49</v>
       </c>
       <c r="C24" s="27" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="D24" s="26"/>
       <c r="E24" s="28" t="s">
@@ -11363,7 +11364,7 @@
         <v>49</v>
       </c>
       <c r="C26" s="27" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="D26" s="26"/>
       <c r="E26" s="28" t="s">
@@ -11454,7 +11455,7 @@
         <v>17</v>
       </c>
       <c r="I29" s="45" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="30" spans="1:12" customFormat="1" ht="30">
@@ -11465,7 +11466,7 @@
         <v>56</v>
       </c>
       <c r="C30" s="30" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="D30" s="26"/>
       <c r="E30" s="28" t="s">
@@ -11490,7 +11491,7 @@
         <v>56</v>
       </c>
       <c r="C31" s="30" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="D31" s="26"/>
       <c r="E31" s="28" t="s">
@@ -11515,7 +11516,7 @@
         <v>63</v>
       </c>
       <c r="C32" s="30" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="D32" s="26"/>
       <c r="E32" s="28" t="s">
@@ -11815,7 +11816,7 @@
         <v>85</v>
       </c>
       <c r="C44" s="27" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="D44" s="26"/>
       <c r="E44" s="28" t="s">
@@ -11916,7 +11917,7 @@
         <v>85</v>
       </c>
       <c r="C48" s="27" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="D48" s="26"/>
       <c r="E48" s="28" t="s">
@@ -11966,7 +11967,7 @@
         <v>100</v>
       </c>
       <c r="C50" s="27" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="D50" s="26"/>
       <c r="E50" s="28" t="s">
@@ -12066,7 +12067,7 @@
         <v>108</v>
       </c>
       <c r="C54" s="30" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="D54" s="26"/>
       <c r="E54" s="28" t="s">
@@ -12216,7 +12217,7 @@
         <v>110</v>
       </c>
       <c r="C60" s="30" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="D60" s="26"/>
       <c r="E60" s="28" t="s">
@@ -13112,7 +13113,7 @@
         <v>192</v>
       </c>
       <c r="C95" s="27" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="D95" s="26"/>
       <c r="E95" s="28" t="s">
@@ -13137,7 +13138,7 @@
         <v>192</v>
       </c>
       <c r="C96" s="30" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="D96" s="26"/>
       <c r="E96" s="28" t="s">
@@ -13237,7 +13238,7 @@
         <v>192</v>
       </c>
       <c r="C100" s="27" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="D100" s="26"/>
       <c r="E100" s="28" t="s">
@@ -13313,7 +13314,7 @@
         <v>192</v>
       </c>
       <c r="C103" s="27" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="D103" s="26"/>
       <c r="E103" s="28" t="s">
@@ -13588,7 +13589,7 @@
         <v>192</v>
       </c>
       <c r="C114" s="27" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="D114" s="26"/>
       <c r="E114" s="28" t="s">
@@ -13604,7 +13605,7 @@
         <v>17</v>
       </c>
       <c r="I114" s="51" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="115" spans="1:9" customFormat="1" ht="30">
@@ -13715,7 +13716,7 @@
         <v>236</v>
       </c>
       <c r="C119" s="27" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="D119" s="26"/>
       <c r="E119" s="28" t="s">
@@ -13790,7 +13791,7 @@
         <v>236</v>
       </c>
       <c r="C122" s="27" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="D122" s="26"/>
       <c r="E122" s="28" t="s">
@@ -13940,7 +13941,7 @@
         <v>236</v>
       </c>
       <c r="C128" s="27" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="D128" s="26"/>
       <c r="E128" s="28" t="s">
@@ -14315,7 +14316,7 @@
         <v>279</v>
       </c>
       <c r="C143" s="30" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="D143" s="26"/>
       <c r="E143" s="28" t="s">
@@ -14340,7 +14341,7 @@
         <v>31</v>
       </c>
       <c r="C144" s="27" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="D144" s="26"/>
       <c r="E144" s="28" t="s">
@@ -14796,7 +14797,7 @@
         <v>31</v>
       </c>
       <c r="C162" s="27" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="D162" s="26"/>
       <c r="E162" s="28" t="s">
@@ -14812,7 +14813,7 @@
         <v>17</v>
       </c>
       <c r="I162" s="51" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="163" spans="1:9" customFormat="1" ht="30">
@@ -14842,13 +14843,13 @@
     </row>
     <row r="164" spans="1:9" s="39" customFormat="1" ht="240">
       <c r="A164" s="42" t="s">
+        <v>1438</v>
+      </c>
+      <c r="B164" s="41" t="s">
         <v>1439</v>
       </c>
-      <c r="B164" s="41" t="s">
-        <v>1440</v>
-      </c>
       <c r="C164" s="45" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="D164" s="42"/>
       <c r="E164" s="42" t="s">
@@ -14867,13 +14868,13 @@
     </row>
     <row r="165" spans="1:9" s="39" customFormat="1" ht="30">
       <c r="A165" s="42" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="B165" s="41" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="C165" s="45" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="D165" s="42"/>
       <c r="E165" s="42" t="s">
@@ -14892,13 +14893,13 @@
     </row>
     <row r="166" spans="1:9" s="39" customFormat="1" ht="30">
       <c r="A166" s="42" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="B166" s="41" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="C166" s="45" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="D166" s="42"/>
       <c r="E166" s="42" t="s">
@@ -14917,13 +14918,13 @@
     </row>
     <row r="167" spans="1:9" s="39" customFormat="1" ht="30">
       <c r="A167" s="42" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="B167" s="41" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="C167" s="45" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="D167" s="42"/>
       <c r="E167" s="42" t="s">
@@ -14942,13 +14943,13 @@
     </row>
     <row r="168" spans="1:9" s="39" customFormat="1" ht="30">
       <c r="A168" s="42" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="B168" s="53" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="C168" s="54" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="D168" s="53"/>
       <c r="E168" s="42" t="s">
@@ -14967,13 +14968,13 @@
     </row>
     <row r="169" spans="1:9" s="39" customFormat="1" ht="30">
       <c r="A169" s="42" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="B169" s="53" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="C169" s="54" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="D169" s="53"/>
       <c r="E169" s="42" t="s">
@@ -15048,7 +15049,7 @@
         <v>325</v>
       </c>
       <c r="C172" s="27" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="D172" s="26"/>
       <c r="E172" s="28" t="s">
@@ -15173,7 +15174,7 @@
         <v>338</v>
       </c>
       <c r="C177" s="30" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="D177" s="26"/>
       <c r="E177" s="28" t="s">
@@ -15273,7 +15274,7 @@
         <v>338</v>
       </c>
       <c r="C181" s="27" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="D181" s="26"/>
       <c r="E181" s="28" t="s">
@@ -15323,7 +15324,7 @@
         <v>338</v>
       </c>
       <c r="C183" s="27" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="D183" s="26"/>
       <c r="E183" s="28" t="s">
@@ -15348,7 +15349,7 @@
         <v>338</v>
       </c>
       <c r="C184" s="27" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="D184" s="26"/>
       <c r="E184" s="28" t="s">
@@ -15619,13 +15620,13 @@
     </row>
     <row r="195" spans="1:9" customFormat="1" ht="30">
       <c r="A195" s="25" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="B195" s="26" t="s">
         <v>338</v>
       </c>
       <c r="C195" s="27" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="D195" s="26"/>
       <c r="E195" s="28" t="s">
@@ -15644,13 +15645,13 @@
     </row>
     <row r="196" spans="1:9" s="39" customFormat="1" ht="30">
       <c r="A196" s="40" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="B196" s="41" t="s">
         <v>338</v>
       </c>
       <c r="C196" s="27" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="D196" s="41"/>
       <c r="E196" s="42" t="s">
@@ -15750,7 +15751,7 @@
         <v>382</v>
       </c>
       <c r="C200" s="27" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="D200" s="26"/>
       <c r="E200" s="28" t="s">
@@ -15800,7 +15801,7 @@
         <v>382</v>
       </c>
       <c r="C202" s="27" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="D202" s="26"/>
       <c r="E202" s="28" t="s">
@@ -15825,7 +15826,7 @@
         <v>382</v>
       </c>
       <c r="C203" s="27" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="D203" s="26"/>
       <c r="E203" s="28" t="s">
@@ -15975,7 +15976,7 @@
         <v>392</v>
       </c>
       <c r="C209" s="27" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="D209" s="26"/>
       <c r="E209" s="28" t="s">
@@ -16025,7 +16026,7 @@
         <v>392</v>
       </c>
       <c r="C211" s="27" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="D211" s="26"/>
       <c r="E211" s="28" t="s">
@@ -16125,7 +16126,7 @@
         <v>408</v>
       </c>
       <c r="C215" s="27" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="D215" s="26"/>
       <c r="E215" s="28" t="s">
@@ -16325,7 +16326,7 @@
         <v>408</v>
       </c>
       <c r="C223" s="27" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="D223" s="26"/>
       <c r="E223" s="28" t="s">
@@ -16501,7 +16502,7 @@
         <v>32</v>
       </c>
       <c r="C230" s="30" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="D230" s="26"/>
       <c r="E230" s="28" t="s">
@@ -16876,7 +16877,7 @@
         <v>469</v>
       </c>
       <c r="C245" s="27" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="D245" s="26"/>
       <c r="E245" s="28" t="s">
@@ -16901,7 +16902,7 @@
         <v>469</v>
       </c>
       <c r="C246" s="27" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="D246" s="26"/>
       <c r="E246" s="28" t="s">
@@ -16926,7 +16927,7 @@
         <v>469</v>
       </c>
       <c r="C247" s="27" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="D247" s="26"/>
       <c r="E247" s="28" t="s">
@@ -16951,7 +16952,7 @@
         <v>469</v>
       </c>
       <c r="C248" s="27" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="D248" s="26"/>
       <c r="E248" s="28" t="s">
@@ -16992,7 +16993,7 @@
         <v>17</v>
       </c>
       <c r="I249" s="45" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="250" spans="1:9" customFormat="1" ht="30">
@@ -17428,7 +17429,7 @@
         <v>516</v>
       </c>
       <c r="C267" s="30" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="D267" s="26"/>
       <c r="E267" s="28" t="s">
@@ -17678,7 +17679,7 @@
         <v>538</v>
       </c>
       <c r="C277" s="30" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="D277" s="26"/>
       <c r="E277" s="28" t="s">
@@ -17828,7 +17829,7 @@
         <v>547</v>
       </c>
       <c r="C283" s="27" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="D283" s="26"/>
       <c r="E283" s="28" t="s">
@@ -17928,7 +17929,7 @@
         <v>547</v>
       </c>
       <c r="C287" s="30" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="D287" s="26"/>
       <c r="E287" s="28" t="s">
@@ -18094,7 +18095,7 @@
         <v>17</v>
       </c>
       <c r="I293" s="45" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="294" spans="1:9" customFormat="1" ht="45">
@@ -18157,7 +18158,7 @@
         <v>547</v>
       </c>
       <c r="C296" s="27" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="D296" s="26"/>
       <c r="E296" s="28" t="s">
@@ -18207,7 +18208,7 @@
         <v>547</v>
       </c>
       <c r="C298" s="30" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="D298" s="26"/>
       <c r="E298" s="28" t="s">
@@ -18257,7 +18258,7 @@
         <v>547</v>
       </c>
       <c r="C300" s="27" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="D300" s="26"/>
       <c r="E300" s="28" t="s">
@@ -18357,7 +18358,7 @@
         <v>586</v>
       </c>
       <c r="C304" s="37" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="D304" s="26"/>
       <c r="E304" s="28" t="s">
@@ -18482,7 +18483,7 @@
         <v>602</v>
       </c>
       <c r="C309" s="44" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="D309" s="26"/>
       <c r="E309" s="28" t="s">
@@ -18498,7 +18499,7 @@
         <v>17</v>
       </c>
       <c r="I309" s="45" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="310" spans="1:10" customFormat="1" ht="30">
@@ -18559,7 +18560,7 @@
         <v>586</v>
       </c>
       <c r="C312" s="27" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="D312" s="26"/>
       <c r="E312" s="28" t="s">
@@ -18635,7 +18636,7 @@
         <v>586</v>
       </c>
       <c r="C315" s="27" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="D315" s="26"/>
       <c r="E315" s="28" t="s">
@@ -18960,7 +18961,7 @@
         <v>640</v>
       </c>
       <c r="C328" s="30" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="D328" s="26"/>
       <c r="E328" s="28" t="s">
@@ -18985,7 +18986,7 @@
         <v>640</v>
       </c>
       <c r="C329" s="30" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="D329" s="26"/>
       <c r="E329" s="28" t="s">
@@ -19010,7 +19011,7 @@
         <v>640</v>
       </c>
       <c r="C330" s="30" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="D330" s="26"/>
       <c r="E330" s="28" t="s">
@@ -19185,7 +19186,7 @@
         <v>659</v>
       </c>
       <c r="C337" s="30" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="D337" s="26"/>
       <c r="E337" s="28" t="s">
@@ -19210,7 +19211,7 @@
         <v>659</v>
       </c>
       <c r="C338" s="30" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="D338" s="26"/>
       <c r="E338" s="28" t="s">
@@ -19235,7 +19236,7 @@
         <v>659</v>
       </c>
       <c r="C339" s="30" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="D339" s="26"/>
       <c r="E339" s="28" t="s">
@@ -19310,7 +19311,7 @@
         <v>666</v>
       </c>
       <c r="C342" s="27" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="D342" s="26"/>
       <c r="E342" s="28" t="s">
@@ -19335,7 +19336,7 @@
         <v>670</v>
       </c>
       <c r="C343" s="30" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="D343" s="26"/>
       <c r="E343" s="28" t="s">
@@ -19410,7 +19411,7 @@
         <v>676</v>
       </c>
       <c r="C346" s="30" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D346" s="26"/>
       <c r="E346" s="28" t="s">
@@ -19486,7 +19487,7 @@
         <v>682</v>
       </c>
       <c r="C349" s="30" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="D349" s="26"/>
       <c r="E349" s="28" t="s">
@@ -19586,7 +19587,7 @@
         <v>682</v>
       </c>
       <c r="C353" s="30" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="D353" s="26"/>
       <c r="E353" s="28" t="s">
@@ -19602,7 +19603,7 @@
         <v>17</v>
       </c>
       <c r="I353" s="45" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="354" spans="1:9" customFormat="1" ht="30">
@@ -19663,7 +19664,7 @@
         <v>696</v>
       </c>
       <c r="C356" s="30" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="D356" s="26"/>
       <c r="E356" s="28" t="s">
@@ -19688,7 +19689,7 @@
         <v>696</v>
       </c>
       <c r="C357" s="30" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="D357" s="26"/>
       <c r="E357" s="28" t="s">
@@ -19713,7 +19714,7 @@
         <v>696</v>
       </c>
       <c r="C358" s="30" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="D358" s="26"/>
       <c r="E358" s="28" t="s">
@@ -19888,7 +19889,7 @@
         <v>715</v>
       </c>
       <c r="C365" s="30" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="D365" s="26"/>
       <c r="E365" s="28" t="s">
@@ -19913,7 +19914,7 @@
         <v>715</v>
       </c>
       <c r="C366" s="30" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="D366" s="26"/>
       <c r="E366" s="28" t="s">
@@ -19938,7 +19939,7 @@
         <v>715</v>
       </c>
       <c r="C367" s="30" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="D367" s="26"/>
       <c r="E367" s="28" t="s">
@@ -20188,7 +20189,7 @@
         <v>741</v>
       </c>
       <c r="C377" s="30" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="D377" s="26"/>
       <c r="E377" s="28" t="s">
@@ -20338,7 +20339,7 @@
         <v>741</v>
       </c>
       <c r="C383" s="27" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="D383" s="26"/>
       <c r="E383" s="28" t="s">
@@ -20363,7 +20364,7 @@
         <v>754</v>
       </c>
       <c r="C384" s="30" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="D384" s="26"/>
       <c r="E384" s="28" t="s">
@@ -20388,7 +20389,7 @@
         <v>754</v>
       </c>
       <c r="C385" s="30" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="D385" s="26"/>
       <c r="E385" s="28" t="s">
@@ -20413,7 +20414,7 @@
         <v>754</v>
       </c>
       <c r="C386" s="30" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="D386" s="26"/>
       <c r="E386" s="28" t="s">
@@ -20588,7 +20589,7 @@
         <v>773</v>
       </c>
       <c r="C393" s="30" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="D393" s="26"/>
       <c r="E393" s="28" t="s">
@@ -20613,7 +20614,7 @@
         <v>773</v>
       </c>
       <c r="C394" s="30" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="D394" s="26"/>
       <c r="E394" s="28" t="s">
@@ -20638,7 +20639,7 @@
         <v>773</v>
       </c>
       <c r="C395" s="30" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="D395" s="26"/>
       <c r="E395" s="28" t="s">
@@ -21004,7 +21005,7 @@
         <v>17</v>
       </c>
       <c r="I409" s="45" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="410" spans="1:9" customFormat="1" ht="45">
@@ -21015,7 +21016,7 @@
         <v>812</v>
       </c>
       <c r="C410" s="30" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="D410" s="26"/>
       <c r="E410" s="28" t="s">
@@ -21040,7 +21041,7 @@
         <v>812</v>
       </c>
       <c r="C411" s="30" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="D411" s="26"/>
       <c r="E411" s="28" t="s">
@@ -21065,7 +21066,7 @@
         <v>812</v>
       </c>
       <c r="C412" s="30" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="D412" s="26"/>
       <c r="E412" s="28" t="s">
@@ -21240,7 +21241,7 @@
         <v>831</v>
       </c>
       <c r="C419" s="30" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="D419" s="26"/>
       <c r="E419" s="28" t="s">
@@ -21265,7 +21266,7 @@
         <v>831</v>
       </c>
       <c r="C420" s="30" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="D420" s="26"/>
       <c r="E420" s="28" t="s">
@@ -21290,7 +21291,7 @@
         <v>831</v>
       </c>
       <c r="C421" s="30" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="D421" s="26"/>
       <c r="E421" s="28" t="s">
@@ -21365,7 +21366,7 @@
         <v>838</v>
       </c>
       <c r="C424" s="27" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="D424" s="26"/>
       <c r="E424" s="28" t="s">
@@ -21515,7 +21516,7 @@
         <v>853</v>
       </c>
       <c r="C430" s="30" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="D430" s="26"/>
       <c r="E430" s="28" t="s">
@@ -21581,7 +21582,7 @@
         <v>17</v>
       </c>
       <c r="I432" s="45" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="433" spans="1:9" customFormat="1" ht="30">
@@ -21692,7 +21693,7 @@
         <v>867</v>
       </c>
       <c r="C437" s="30" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="D437" s="26"/>
       <c r="E437" s="28" t="s">
@@ -21717,7 +21718,7 @@
         <v>867</v>
       </c>
       <c r="C438" s="30" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="D438" s="26"/>
       <c r="E438" s="28" t="s">
@@ -21892,7 +21893,7 @@
         <v>887</v>
       </c>
       <c r="C445" s="30" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="D445" s="26"/>
       <c r="E445" s="28" t="s">
@@ -21917,7 +21918,7 @@
         <v>887</v>
       </c>
       <c r="C446" s="30" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="D446" s="26"/>
       <c r="E446" s="28" t="s">
@@ -21942,7 +21943,7 @@
         <v>887</v>
       </c>
       <c r="C447" s="30" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="D447" s="26"/>
       <c r="E447" s="28" t="s">
@@ -22017,7 +22018,7 @@
         <v>894</v>
       </c>
       <c r="C450" s="27" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="D450" s="26"/>
       <c r="E450" s="28" t="s">
@@ -22042,7 +22043,7 @@
         <v>894</v>
       </c>
       <c r="C451" s="27" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="D451" s="26"/>
       <c r="E451" s="28" t="s">
@@ -22133,7 +22134,7 @@
         <v>17</v>
       </c>
       <c r="I454" s="45" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="455" spans="1:9" customFormat="1" ht="30">
@@ -22246,7 +22247,7 @@
         <v>908</v>
       </c>
       <c r="C459" s="30" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="D459" s="26"/>
       <c r="E459" s="28" t="s">
@@ -22290,13 +22291,13 @@
     </row>
     <row r="461" spans="1:9" s="39" customFormat="1" ht="30">
       <c r="A461" s="40" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="B461" s="41" t="s">
         <v>916</v>
       </c>
       <c r="C461" s="44" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="D461" s="41"/>
       <c r="E461" s="42" t="s">
@@ -22315,13 +22316,13 @@
     </row>
     <row r="462" spans="1:9" s="39" customFormat="1" ht="409.5">
       <c r="A462" s="40" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="B462" s="41" t="s">
         <v>916</v>
       </c>
       <c r="C462" s="44" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="D462" s="41"/>
       <c r="E462" s="42" t="s">
@@ -22446,7 +22447,7 @@
         <v>908</v>
       </c>
       <c r="C467" s="27" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="D467" s="26"/>
       <c r="E467" s="28" t="s">
@@ -23121,7 +23122,7 @@
         <v>977</v>
       </c>
       <c r="C494" s="30" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="D494" s="26"/>
       <c r="E494" s="28" t="s">
@@ -23146,7 +23147,7 @@
         <v>977</v>
       </c>
       <c r="C495" s="30" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="D495" s="26"/>
       <c r="E495" s="28" t="s">
@@ -23371,7 +23372,7 @@
         <v>1000</v>
       </c>
       <c r="C504" s="30" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="D504" s="26"/>
       <c r="E504" s="28" t="s">
@@ -23397,7 +23398,7 @@
         <v>1000</v>
       </c>
       <c r="C505" s="30" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="D505" s="26"/>
       <c r="E505" s="28" t="s">
@@ -23472,7 +23473,7 @@
         <v>1005</v>
       </c>
       <c r="C508" s="27" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="D508" s="26"/>
       <c r="E508" s="28" t="s">
@@ -23497,7 +23498,7 @@
         <v>1011</v>
       </c>
       <c r="C509" s="30" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="D509" s="26"/>
       <c r="E509" s="28" t="s">
@@ -23522,7 +23523,7 @@
         <v>1011</v>
       </c>
       <c r="C510" s="30" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="D510" s="26"/>
       <c r="E510" s="28" t="s">
@@ -23572,7 +23573,7 @@
         <v>1005</v>
       </c>
       <c r="C512" s="30" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="D512" s="26"/>
       <c r="E512" s="28" t="s">
@@ -23625,7 +23626,7 @@
         <v>1019</v>
       </c>
       <c r="D514" s="41" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="E514" s="28" t="s">
         <v>19</v>
@@ -23727,7 +23728,7 @@
         <v>1027</v>
       </c>
       <c r="D518" s="26" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="E518" s="28" t="s">
         <v>19</v>
@@ -23754,7 +23755,7 @@
         <v>1029</v>
       </c>
       <c r="D519" s="41" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="E519" s="28" t="s">
         <v>19</v>
@@ -23781,7 +23782,7 @@
         <v>1031</v>
       </c>
       <c r="D520" s="41" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="E520" s="28" t="s">
         <v>19</v>
@@ -23808,7 +23809,7 @@
         <v>1033</v>
       </c>
       <c r="D521" s="26" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="E521" s="28" t="s">
         <v>19</v>
@@ -24072,7 +24073,7 @@
         <v>1056</v>
       </c>
       <c r="D531" s="26" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="E531" s="28" t="s">
         <v>19</v>
@@ -24099,7 +24100,7 @@
         <v>1058</v>
       </c>
       <c r="D532" s="26" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="E532" s="28" t="s">
         <v>19</v>
@@ -24126,7 +24127,7 @@
         <v>1060</v>
       </c>
       <c r="D533" s="26" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="E533" s="28" t="s">
         <v>19</v>
@@ -24175,7 +24176,7 @@
         <v>1062</v>
       </c>
       <c r="C535" s="30" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="D535" s="26"/>
       <c r="E535" s="28" t="s">
@@ -24200,7 +24201,7 @@
         <v>1062</v>
       </c>
       <c r="C536" s="30" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="D536" s="26"/>
       <c r="E536" s="28" t="s">
@@ -24275,7 +24276,7 @@
         <v>1062</v>
       </c>
       <c r="C539" s="27" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="D539" s="26"/>
       <c r="E539" s="28" t="s">
@@ -24300,7 +24301,7 @@
         <v>1062</v>
       </c>
       <c r="C540" s="27" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="D540" s="26"/>
       <c r="E540" s="28" t="s">
@@ -24316,7 +24317,7 @@
         <v>17</v>
       </c>
       <c r="I540" s="45" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="541" spans="1:9" customFormat="1" ht="30">
@@ -24327,7 +24328,7 @@
         <v>1062</v>
       </c>
       <c r="C541" s="27" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="D541" s="26"/>
       <c r="E541" s="28" t="s">
@@ -24402,7 +24403,7 @@
         <v>1062</v>
       </c>
       <c r="C544" s="27" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="D544" s="26"/>
       <c r="E544" s="28" t="s">
@@ -24427,7 +24428,7 @@
         <v>1062</v>
       </c>
       <c r="C545" s="27" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="D545" s="26"/>
       <c r="E545" s="28" t="s">
@@ -24452,7 +24453,7 @@
         <v>1062</v>
       </c>
       <c r="C546" s="30" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="D546" s="26"/>
       <c r="E546" s="28" t="s">
@@ -24468,7 +24469,7 @@
         <v>17</v>
       </c>
       <c r="I546" s="45" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="547" spans="1:9" customFormat="1" ht="30">
@@ -24529,7 +24530,7 @@
         <v>1062</v>
       </c>
       <c r="C549" s="27" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="D549" s="26"/>
       <c r="E549" s="28" t="s">
@@ -24604,7 +24605,7 @@
         <v>1062</v>
       </c>
       <c r="C552" s="27" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="D552" s="26"/>
       <c r="E552" s="28" t="s">
@@ -24629,7 +24630,7 @@
         <v>1062</v>
       </c>
       <c r="C553" s="30" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="D553" s="26"/>
       <c r="E553" s="28" t="s">
@@ -24645,7 +24646,7 @@
         <v>17</v>
       </c>
       <c r="I553" s="45" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="554" spans="1:9" customFormat="1" ht="60">
@@ -24656,7 +24657,7 @@
         <v>1062</v>
       </c>
       <c r="C554" s="30" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="D554" s="26"/>
       <c r="E554" s="28" t="s">
@@ -24672,7 +24673,7 @@
         <v>17</v>
       </c>
       <c r="I554" s="45" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="555" spans="1:9" customFormat="1" ht="30">
@@ -24683,7 +24684,7 @@
         <v>1062</v>
       </c>
       <c r="C555" s="27" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="D555" s="26"/>
       <c r="E555" s="28" t="s">
@@ -24708,7 +24709,7 @@
         <v>1062</v>
       </c>
       <c r="C556" s="30" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="D556" s="26"/>
       <c r="E556" s="28" t="s">
@@ -24733,7 +24734,7 @@
         <v>1062</v>
       </c>
       <c r="C557" s="27" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="D557" s="26"/>
       <c r="E557" s="28" t="s">
@@ -24758,7 +24759,7 @@
         <v>1062</v>
       </c>
       <c r="C558" s="27" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="D558" s="26"/>
       <c r="E558" s="28" t="s">
@@ -24774,7 +24775,7 @@
         <v>17</v>
       </c>
       <c r="I558" s="45" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="559" spans="1:9" customFormat="1" ht="30">
@@ -24785,7 +24786,7 @@
         <v>1062</v>
       </c>
       <c r="C559" s="27" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="D559" s="26"/>
       <c r="E559" s="28" t="s">
@@ -24810,7 +24811,7 @@
         <v>1062</v>
       </c>
       <c r="C560" s="27" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="D560" s="26"/>
       <c r="E560" s="28" t="s">
@@ -24835,7 +24836,7 @@
         <v>1062</v>
       </c>
       <c r="C561" s="27" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="D561" s="26"/>
       <c r="E561" s="28" t="s">
@@ -24860,7 +24861,7 @@
         <v>1062</v>
       </c>
       <c r="C562" s="30" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="D562" s="26"/>
       <c r="E562" s="28" t="s">
@@ -25110,7 +25111,7 @@
         <v>1119</v>
       </c>
       <c r="C572" s="30" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="D572" s="26"/>
       <c r="E572" s="28" t="s">
@@ -25135,7 +25136,7 @@
         <v>1062</v>
       </c>
       <c r="C573" s="30" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="D573" s="26"/>
       <c r="E573" s="28" t="s">
@@ -25160,7 +25161,7 @@
         <v>1062</v>
       </c>
       <c r="C574" s="30" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="D574" s="26"/>
       <c r="E574" s="28" t="s">
@@ -25185,7 +25186,7 @@
         <v>1062</v>
       </c>
       <c r="C575" s="30" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="D575" s="26"/>
       <c r="E575" s="28" t="s">
@@ -25210,7 +25211,7 @@
         <v>1062</v>
       </c>
       <c r="C576" s="30" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="D576" s="26"/>
       <c r="E576" s="28" t="s">
@@ -25226,7 +25227,7 @@
         <v>17</v>
       </c>
       <c r="I576" s="45" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="577" spans="1:9" customFormat="1" ht="30">
@@ -25253,7 +25254,7 @@
         <v>17</v>
       </c>
       <c r="I577" s="45" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="578" spans="1:9" customFormat="1" ht="30">
@@ -25314,7 +25315,7 @@
         <v>1062</v>
       </c>
       <c r="C580" s="27" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="D580" s="26"/>
       <c r="E580" s="28" t="s">
@@ -25364,7 +25365,7 @@
         <v>1138</v>
       </c>
       <c r="C582" s="27" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="D582" s="26"/>
       <c r="E582" s="28" t="s">
@@ -25389,7 +25390,7 @@
         <v>1138</v>
       </c>
       <c r="C583" s="30" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="D583" s="26"/>
       <c r="E583" s="28" t="s">
@@ -25464,7 +25465,7 @@
         <v>1138</v>
       </c>
       <c r="C586" s="27" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="D586" s="26"/>
       <c r="E586" s="28" t="s">
@@ -25480,7 +25481,7 @@
         <v>17</v>
       </c>
       <c r="I586" s="51" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="587" spans="1:9" customFormat="1" ht="30">
@@ -25491,7 +25492,7 @@
         <v>1138</v>
       </c>
       <c r="C587" s="30" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="D587" s="26"/>
       <c r="E587" s="28" t="s">
@@ -25566,7 +25567,7 @@
         <v>1138</v>
       </c>
       <c r="C590" s="27" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="D590" s="26"/>
       <c r="E590" s="28" t="s">
@@ -25591,7 +25592,7 @@
         <v>1138</v>
       </c>
       <c r="C591" s="27" t="s">
-        <v>1152</v>
+        <v>1588</v>
       </c>
       <c r="D591" s="26"/>
       <c r="E591" s="28" t="s">
@@ -25610,13 +25611,13 @@
     </row>
     <row r="592" spans="1:9" customFormat="1" ht="30">
       <c r="A592" s="25" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="B592" s="26" t="s">
         <v>1138</v>
       </c>
       <c r="C592" s="27" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="D592" s="26"/>
       <c r="E592" s="28" t="s">
@@ -25635,13 +25636,13 @@
     </row>
     <row r="593" spans="1:9" customFormat="1" ht="30">
       <c r="A593" s="25" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B593" s="26" t="s">
         <v>1138</v>
       </c>
       <c r="C593" s="27" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="D593" s="26"/>
       <c r="E593" s="28" t="s">
@@ -25660,13 +25661,13 @@
     </row>
     <row r="594" spans="1:9" customFormat="1" ht="30">
       <c r="A594" s="25" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="B594" s="26" t="s">
         <v>1138</v>
       </c>
       <c r="C594" s="27" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="D594" s="26"/>
       <c r="E594" s="28" t="s">
@@ -25685,13 +25686,13 @@
     </row>
     <row r="595" spans="1:9" customFormat="1" ht="30">
       <c r="A595" s="25" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="B595" s="26" t="s">
         <v>1138</v>
       </c>
       <c r="C595" s="27" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="D595" s="26"/>
       <c r="E595" s="28" t="s">
@@ -25710,13 +25711,13 @@
     </row>
     <row r="596" spans="1:9" customFormat="1" ht="30">
       <c r="A596" s="25" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="B596" s="26" t="s">
         <v>1138</v>
       </c>
       <c r="C596" s="30" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="D596" s="26"/>
       <c r="E596" s="28" t="s">
@@ -25735,13 +25736,13 @@
     </row>
     <row r="597" spans="1:9" customFormat="1" ht="30">
       <c r="A597" s="25" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="B597" s="26" t="s">
         <v>1138</v>
       </c>
       <c r="C597" s="27" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="D597" s="26"/>
       <c r="E597" s="28" t="s">
@@ -25760,13 +25761,13 @@
     </row>
     <row r="598" spans="1:9" customFormat="1" ht="30">
       <c r="A598" s="25" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B598" s="26" t="s">
         <v>1165</v>
       </c>
-      <c r="B598" s="26" t="s">
+      <c r="C598" s="30" t="s">
         <v>1166</v>
-      </c>
-      <c r="C598" s="30" t="s">
-        <v>1167</v>
       </c>
       <c r="D598" s="26"/>
       <c r="E598" s="28" t="s">
@@ -25785,13 +25786,13 @@
     </row>
     <row r="599" spans="1:9" customFormat="1" ht="105">
       <c r="A599" s="25" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B599" s="26" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C599" s="27" t="s">
         <v>1168</v>
-      </c>
-      <c r="B599" s="26" t="s">
-        <v>1166</v>
-      </c>
-      <c r="C599" s="27" t="s">
-        <v>1169</v>
       </c>
       <c r="D599" s="26"/>
       <c r="E599" s="28" t="s">
@@ -25810,13 +25811,13 @@
     </row>
     <row r="600" spans="1:9" customFormat="1" ht="90">
       <c r="A600" s="25" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B600" s="26" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C600" s="27" t="s">
         <v>1170</v>
-      </c>
-      <c r="B600" s="26" t="s">
-        <v>1166</v>
-      </c>
-      <c r="C600" s="27" t="s">
-        <v>1171</v>
       </c>
       <c r="D600" s="26"/>
       <c r="E600" s="28" t="s">
@@ -25835,13 +25836,13 @@
     </row>
     <row r="601" spans="1:9" customFormat="1" ht="45">
       <c r="A601" s="25" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B601" s="26" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C601" s="27" t="s">
         <v>1172</v>
-      </c>
-      <c r="B601" s="26" t="s">
-        <v>1166</v>
-      </c>
-      <c r="C601" s="27" t="s">
-        <v>1173</v>
       </c>
       <c r="D601" s="26"/>
       <c r="E601" s="28" t="s">
@@ -25860,13 +25861,13 @@
     </row>
     <row r="602" spans="1:9" customFormat="1" ht="45">
       <c r="A602" s="25" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B602" s="26" t="s">
         <v>1174</v>
       </c>
-      <c r="B602" s="26" t="s">
-        <v>1175</v>
-      </c>
       <c r="C602" s="30" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="D602" s="26"/>
       <c r="E602" s="28" t="s">
@@ -25885,13 +25886,13 @@
     </row>
     <row r="603" spans="1:9" customFormat="1" ht="30">
       <c r="A603" s="25" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="B603" s="26" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="C603" s="30" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="D603" s="26"/>
       <c r="E603" s="28" t="s">
@@ -25910,13 +25911,13 @@
     </row>
     <row r="604" spans="1:9" customFormat="1" ht="30">
       <c r="A604" s="25" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="B604" s="26" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="C604" s="30" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="D604" s="26"/>
       <c r="E604" s="28" t="s">
@@ -25935,13 +25936,13 @@
     </row>
     <row r="605" spans="1:9" customFormat="1" ht="30">
       <c r="A605" s="25" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B605" s="26" t="s">
         <v>1178</v>
       </c>
-      <c r="B605" s="26" t="s">
+      <c r="C605" s="27" t="s">
         <v>1179</v>
-      </c>
-      <c r="C605" s="27" t="s">
-        <v>1180</v>
       </c>
       <c r="D605" s="26"/>
       <c r="E605" s="28" t="s">
@@ -25960,13 +25961,13 @@
     </row>
     <row r="606" spans="1:9" customFormat="1" ht="30">
       <c r="A606" s="25" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B606" s="26" t="s">
         <v>1181</v>
       </c>
-      <c r="B606" s="26" t="s">
+      <c r="C606" s="27" t="s">
         <v>1182</v>
-      </c>
-      <c r="C606" s="27" t="s">
-        <v>1183</v>
       </c>
       <c r="D606" s="26"/>
       <c r="E606" s="28" t="s">
@@ -25985,13 +25986,13 @@
     </row>
     <row r="607" spans="1:9" customFormat="1" ht="30">
       <c r="A607" s="25" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B607" s="26" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C607" s="27" t="s">
         <v>1184</v>
-      </c>
-      <c r="B607" s="26" t="s">
-        <v>1182</v>
-      </c>
-      <c r="C607" s="27" t="s">
-        <v>1185</v>
       </c>
       <c r="D607" s="26"/>
       <c r="E607" s="28" t="s">
@@ -26010,13 +26011,13 @@
     </row>
     <row r="608" spans="1:9" customFormat="1" ht="30">
       <c r="A608" s="25" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B608" s="26" t="s">
         <v>1186</v>
       </c>
-      <c r="B608" s="26" t="s">
+      <c r="C608" s="27" t="s">
         <v>1187</v>
-      </c>
-      <c r="C608" s="27" t="s">
-        <v>1188</v>
       </c>
       <c r="D608" s="26"/>
       <c r="E608" s="28" t="s">
@@ -26035,13 +26036,13 @@
     </row>
     <row r="609" spans="1:9" customFormat="1" ht="30">
       <c r="A609" s="25" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B609" s="26" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C609" s="27" t="s">
         <v>1189</v>
-      </c>
-      <c r="B609" s="26" t="s">
-        <v>1187</v>
-      </c>
-      <c r="C609" s="27" t="s">
-        <v>1190</v>
       </c>
       <c r="D609" s="26"/>
       <c r="E609" s="28" t="s">
@@ -26060,13 +26061,13 @@
     </row>
     <row r="610" spans="1:9" customFormat="1" ht="30">
       <c r="A610" s="25" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B610" s="26" t="s">
         <v>1191</v>
       </c>
-      <c r="B610" s="26" t="s">
+      <c r="C610" s="27" t="s">
         <v>1192</v>
-      </c>
-      <c r="C610" s="27" t="s">
-        <v>1193</v>
       </c>
       <c r="D610" s="26"/>
       <c r="E610" s="28" t="s">
@@ -26085,13 +26086,13 @@
     </row>
     <row r="611" spans="1:9" customFormat="1" ht="45">
       <c r="A611" s="25" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B611" s="26" t="s">
         <v>1194</v>
       </c>
-      <c r="B611" s="26" t="s">
-        <v>1195</v>
-      </c>
       <c r="C611" s="30" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="D611" s="26"/>
       <c r="E611" s="28" t="s">
@@ -26110,13 +26111,13 @@
     </row>
     <row r="612" spans="1:9" customFormat="1" ht="30">
       <c r="A612" s="25" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="B612" s="26" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="C612" s="30" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D612" s="26"/>
       <c r="E612" s="28" t="s">
@@ -26135,13 +26136,13 @@
     </row>
     <row r="613" spans="1:9" customFormat="1" ht="30">
       <c r="A613" s="25" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="B613" s="26" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="C613" s="30" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D613" s="26"/>
       <c r="E613" s="28" t="s">
@@ -26160,13 +26161,13 @@
     </row>
     <row r="614" spans="1:9" customFormat="1" ht="30">
       <c r="A614" s="25" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B614" s="26" t="s">
         <v>1198</v>
       </c>
-      <c r="B614" s="26" t="s">
+      <c r="C614" s="30" t="s">
         <v>1199</v>
-      </c>
-      <c r="C614" s="30" t="s">
-        <v>1200</v>
       </c>
       <c r="D614" s="26"/>
       <c r="E614" s="28" t="s">
@@ -26185,13 +26186,13 @@
     </row>
     <row r="615" spans="1:9" customFormat="1" ht="120">
       <c r="A615" s="25" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B615" s="26" t="s">
         <v>1201</v>
       </c>
-      <c r="B615" s="26" t="s">
+      <c r="C615" s="30" t="s">
         <v>1202</v>
-      </c>
-      <c r="C615" s="30" t="s">
-        <v>1203</v>
       </c>
       <c r="D615" s="26"/>
       <c r="E615" s="28" t="s">
@@ -26210,13 +26211,13 @@
     </row>
     <row r="616" spans="1:9" customFormat="1" ht="30">
       <c r="A616" s="25" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B616" s="26" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C616" s="27" t="s">
         <v>1204</v>
-      </c>
-      <c r="B616" s="26" t="s">
-        <v>1202</v>
-      </c>
-      <c r="C616" s="27" t="s">
-        <v>1205</v>
       </c>
       <c r="D616" s="26"/>
       <c r="E616" s="28" t="s">
@@ -26235,13 +26236,13 @@
     </row>
     <row r="617" spans="1:9" customFormat="1" ht="30">
       <c r="A617" s="25" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B617" s="26" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C617" s="27" t="s">
         <v>1206</v>
-      </c>
-      <c r="B617" s="26" t="s">
-        <v>1202</v>
-      </c>
-      <c r="C617" s="27" t="s">
-        <v>1207</v>
       </c>
       <c r="D617" s="26"/>
       <c r="E617" s="28" t="s">
@@ -26260,13 +26261,13 @@
     </row>
     <row r="618" spans="1:9" customFormat="1" ht="30">
       <c r="A618" s="25" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B618" s="26" t="s">
         <v>1208</v>
       </c>
-      <c r="B618" s="26" t="s">
+      <c r="C618" s="30" t="s">
         <v>1209</v>
-      </c>
-      <c r="C618" s="30" t="s">
-        <v>1210</v>
       </c>
       <c r="D618" s="26"/>
       <c r="E618" s="28" t="s">
@@ -26285,13 +26286,13 @@
     </row>
     <row r="619" spans="1:9" customFormat="1" ht="150">
       <c r="A619" s="25" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B619" s="26" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C619" s="30" t="s">
         <v>1211</v>
-      </c>
-      <c r="B619" s="26" t="s">
-        <v>1209</v>
-      </c>
-      <c r="C619" s="30" t="s">
-        <v>1212</v>
       </c>
       <c r="D619" s="26"/>
       <c r="E619" s="28" t="s">
@@ -26310,13 +26311,13 @@
     </row>
     <row r="620" spans="1:9" customFormat="1" ht="120">
       <c r="A620" s="25" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B620" s="26" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C620" s="30" t="s">
         <v>1213</v>
-      </c>
-      <c r="B620" s="26" t="s">
-        <v>1209</v>
-      </c>
-      <c r="C620" s="30" t="s">
-        <v>1214</v>
       </c>
       <c r="D620" s="26"/>
       <c r="E620" s="28" t="s">
@@ -26335,13 +26336,13 @@
     </row>
     <row r="621" spans="1:9" customFormat="1" ht="30">
       <c r="A621" s="25" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B621" s="26" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C621" s="30" t="s">
         <v>1215</v>
-      </c>
-      <c r="B621" s="26" t="s">
-        <v>1209</v>
-      </c>
-      <c r="C621" s="30" t="s">
-        <v>1216</v>
       </c>
       <c r="D621" s="26"/>
       <c r="E621" s="28" t="s">
@@ -26360,13 +26361,13 @@
     </row>
     <row r="622" spans="1:9" customFormat="1" ht="30">
       <c r="A622" s="25" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B622" s="26" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C622" s="30" t="s">
         <v>1217</v>
-      </c>
-      <c r="B622" s="26" t="s">
-        <v>1209</v>
-      </c>
-      <c r="C622" s="30" t="s">
-        <v>1218</v>
       </c>
       <c r="D622" s="26"/>
       <c r="E622" s="28" t="s">
@@ -26385,13 +26386,13 @@
     </row>
     <row r="623" spans="1:9" customFormat="1" ht="30">
       <c r="A623" s="25" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B623" s="26" t="s">
         <v>1219</v>
       </c>
-      <c r="B623" s="26" t="s">
+      <c r="C623" s="30" t="s">
         <v>1220</v>
-      </c>
-      <c r="C623" s="30" t="s">
-        <v>1221</v>
       </c>
       <c r="D623" s="26"/>
       <c r="E623" s="28" t="s">
@@ -26410,13 +26411,13 @@
     </row>
     <row r="624" spans="1:9" customFormat="1" ht="90">
       <c r="A624" s="25" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B624" s="26" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C624" s="27" t="s">
         <v>1222</v>
-      </c>
-      <c r="B624" s="26" t="s">
-        <v>1220</v>
-      </c>
-      <c r="C624" s="27" t="s">
-        <v>1223</v>
       </c>
       <c r="D624" s="26"/>
       <c r="E624" s="28" t="s">
@@ -26435,13 +26436,13 @@
     </row>
     <row r="625" spans="1:10" customFormat="1" ht="30">
       <c r="A625" s="25" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B625" s="26" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C625" s="30" t="s">
         <v>1224</v>
-      </c>
-      <c r="B625" s="26" t="s">
-        <v>1220</v>
-      </c>
-      <c r="C625" s="30" t="s">
-        <v>1225</v>
       </c>
       <c r="D625" s="26"/>
       <c r="E625" s="28" t="s">
@@ -26460,13 +26461,13 @@
     </row>
     <row r="626" spans="1:10" customFormat="1" ht="30">
       <c r="A626" s="25" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B626" s="26" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C626" s="27" t="s">
         <v>1226</v>
-      </c>
-      <c r="B626" s="26" t="s">
-        <v>1220</v>
-      </c>
-      <c r="C626" s="27" t="s">
-        <v>1227</v>
       </c>
       <c r="D626" s="26"/>
       <c r="E626" s="28" t="s">
@@ -26485,13 +26486,13 @@
     </row>
     <row r="627" spans="1:10" customFormat="1" ht="30">
       <c r="A627" s="25" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B627" s="26" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C627" s="27" t="s">
         <v>1228</v>
-      </c>
-      <c r="B627" s="26" t="s">
-        <v>1220</v>
-      </c>
-      <c r="C627" s="27" t="s">
-        <v>1229</v>
       </c>
       <c r="D627" s="26"/>
       <c r="E627" s="28" t="s">
@@ -26510,13 +26511,13 @@
     </row>
     <row r="628" spans="1:10" customFormat="1" ht="30">
       <c r="A628" s="25" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B628" s="26" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C628" s="27" t="s">
         <v>1230</v>
-      </c>
-      <c r="B628" s="26" t="s">
-        <v>1220</v>
-      </c>
-      <c r="C628" s="27" t="s">
-        <v>1231</v>
       </c>
       <c r="D628" s="26"/>
       <c r="E628" s="28" t="s">
@@ -26536,13 +26537,13 @@
     </row>
     <row r="629" spans="1:10" customFormat="1" ht="30">
       <c r="A629" s="25" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B629" s="26" t="s">
         <v>1232</v>
       </c>
-      <c r="B629" s="26" t="s">
+      <c r="C629" s="27" t="s">
         <v>1233</v>
-      </c>
-      <c r="C629" s="27" t="s">
-        <v>1234</v>
       </c>
       <c r="D629" s="26"/>
       <c r="E629" s="28" t="s">
@@ -26561,13 +26562,13 @@
     </row>
     <row r="630" spans="1:10" customFormat="1" ht="45">
       <c r="A630" s="25" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B630" s="26" t="s">
         <v>1235</v>
       </c>
-      <c r="B630" s="26" t="s">
-        <v>1236</v>
-      </c>
       <c r="C630" s="30" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="D630" s="26"/>
       <c r="E630" s="28" t="s">
@@ -26586,13 +26587,13 @@
     </row>
     <row r="631" spans="1:10" customFormat="1" ht="30">
       <c r="A631" s="25" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="B631" s="26" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="C631" s="30" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="D631" s="26"/>
       <c r="E631" s="28" t="s">
@@ -26611,13 +26612,13 @@
     </row>
     <row r="632" spans="1:10" customFormat="1" ht="30">
       <c r="A632" s="25" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="B632" s="26" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="C632" s="30" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="D632" s="26"/>
       <c r="E632" s="28" t="s">
@@ -26636,13 +26637,13 @@
     </row>
     <row r="633" spans="1:10" customFormat="1" ht="45">
       <c r="A633" s="25" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B633" s="26" t="s">
         <v>1239</v>
       </c>
-      <c r="B633" s="26" t="s">
+      <c r="C633" s="27" t="s">
         <v>1240</v>
-      </c>
-      <c r="C633" s="27" t="s">
-        <v>1241</v>
       </c>
       <c r="D633" s="26"/>
       <c r="E633" s="28" t="s">
@@ -26661,13 +26662,13 @@
     </row>
     <row r="634" spans="1:10" customFormat="1" ht="45">
       <c r="A634" s="25" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B634" s="26" t="s">
         <v>1242</v>
       </c>
-      <c r="B634" s="26" t="s">
+      <c r="C634" s="27" t="s">
         <v>1243</v>
-      </c>
-      <c r="C634" s="27" t="s">
-        <v>1244</v>
       </c>
       <c r="D634" s="26"/>
       <c r="E634" s="28" t="s">
@@ -26686,13 +26687,13 @@
     </row>
     <row r="635" spans="1:10" customFormat="1" ht="45">
       <c r="A635" s="25" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B635" s="26" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C635" s="27" t="s">
         <v>1245</v>
-      </c>
-      <c r="B635" s="26" t="s">
-        <v>1243</v>
-      </c>
-      <c r="C635" s="27" t="s">
-        <v>1246</v>
       </c>
       <c r="D635" s="26"/>
       <c r="E635" s="28" t="s">
@@ -26711,13 +26712,13 @@
     </row>
     <row r="636" spans="1:10" customFormat="1" ht="45">
       <c r="A636" s="25" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B636" s="26" t="s">
         <v>1247</v>
       </c>
-      <c r="B636" s="26" t="s">
+      <c r="C636" s="27" t="s">
         <v>1248</v>
-      </c>
-      <c r="C636" s="27" t="s">
-        <v>1249</v>
       </c>
       <c r="D636" s="26"/>
       <c r="E636" s="28" t="s">
@@ -26736,13 +26737,13 @@
     </row>
     <row r="637" spans="1:10" customFormat="1" ht="45">
       <c r="A637" s="25" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B637" s="26" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C637" s="27" t="s">
         <v>1250</v>
-      </c>
-      <c r="B637" s="26" t="s">
-        <v>1248</v>
-      </c>
-      <c r="C637" s="27" t="s">
-        <v>1251</v>
       </c>
       <c r="D637" s="26"/>
       <c r="E637" s="28" t="s">
@@ -26761,13 +26762,13 @@
     </row>
     <row r="638" spans="1:10" customFormat="1" ht="45">
       <c r="A638" s="25" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B638" s="26" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C638" s="27" t="s">
         <v>1252</v>
-      </c>
-      <c r="B638" s="26" t="s">
-        <v>1248</v>
-      </c>
-      <c r="C638" s="27" t="s">
-        <v>1253</v>
       </c>
       <c r="D638" s="26"/>
       <c r="E638" s="28" t="s">
@@ -26786,13 +26787,13 @@
     </row>
     <row r="639" spans="1:10" customFormat="1" ht="45">
       <c r="A639" s="25" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B639" s="26" t="s">
         <v>1254</v>
       </c>
-      <c r="B639" s="26" t="s">
-        <v>1255</v>
-      </c>
       <c r="C639" s="30" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="D639" s="26"/>
       <c r="E639" s="28" t="s">
@@ -26811,13 +26812,13 @@
     </row>
     <row r="640" spans="1:10" customFormat="1" ht="30">
       <c r="A640" s="25" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="B640" s="26" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="C640" s="30" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="D640" s="26"/>
       <c r="E640" s="28" t="s">
@@ -26836,13 +26837,13 @@
     </row>
     <row r="641" spans="1:9" customFormat="1" ht="30">
       <c r="A641" s="25" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="B641" s="26" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="C641" s="30" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="D641" s="26"/>
       <c r="E641" s="28" t="s">
@@ -26861,13 +26862,13 @@
     </row>
     <row r="642" spans="1:9" customFormat="1" ht="45">
       <c r="A642" s="25" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B642" s="26" t="s">
         <v>1258</v>
       </c>
-      <c r="B642" s="26" t="s">
+      <c r="C642" s="30" t="s">
         <v>1259</v>
-      </c>
-      <c r="C642" s="30" t="s">
-        <v>1260</v>
       </c>
       <c r="D642" s="26"/>
       <c r="E642" s="28" t="s">
@@ -26886,13 +26887,13 @@
     </row>
     <row r="643" spans="1:9" customFormat="1" ht="120">
       <c r="A643" s="25" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B643" s="26" t="s">
         <v>1261</v>
       </c>
-      <c r="B643" s="26" t="s">
+      <c r="C643" s="30" t="s">
         <v>1262</v>
-      </c>
-      <c r="C643" s="30" t="s">
-        <v>1263</v>
       </c>
       <c r="D643" s="26"/>
       <c r="E643" s="28" t="s">
@@ -26911,13 +26912,13 @@
     </row>
     <row r="644" spans="1:9" customFormat="1" ht="45">
       <c r="A644" s="25" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B644" s="26" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C644" s="27" t="s">
         <v>1264</v>
-      </c>
-      <c r="B644" s="26" t="s">
-        <v>1262</v>
-      </c>
-      <c r="C644" s="27" t="s">
-        <v>1265</v>
       </c>
       <c r="D644" s="26"/>
       <c r="E644" s="28" t="s">
@@ -26936,13 +26937,13 @@
     </row>
     <row r="645" spans="1:9" customFormat="1" ht="45">
       <c r="A645" s="25" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B645" s="26" t="s">
         <v>1266</v>
       </c>
-      <c r="B645" s="26" t="s">
+      <c r="C645" s="30" t="s">
         <v>1267</v>
-      </c>
-      <c r="C645" s="30" t="s">
-        <v>1268</v>
       </c>
       <c r="D645" s="26"/>
       <c r="E645" s="28" t="s">
@@ -26961,13 +26962,13 @@
     </row>
     <row r="646" spans="1:9" customFormat="1" ht="120">
       <c r="A646" s="25" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B646" s="26" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C646" s="30" t="s">
         <v>1269</v>
-      </c>
-      <c r="B646" s="26" t="s">
-        <v>1267</v>
-      </c>
-      <c r="C646" s="30" t="s">
-        <v>1270</v>
       </c>
       <c r="D646" s="26"/>
       <c r="E646" s="28" t="s">
@@ -26986,13 +26987,13 @@
     </row>
     <row r="647" spans="1:9" customFormat="1" ht="120">
       <c r="A647" s="25" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B647" s="26" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C647" s="30" t="s">
         <v>1271</v>
-      </c>
-      <c r="B647" s="26" t="s">
-        <v>1267</v>
-      </c>
-      <c r="C647" s="30" t="s">
-        <v>1272</v>
       </c>
       <c r="D647" s="26"/>
       <c r="E647" s="28" t="s">
@@ -27011,13 +27012,13 @@
     </row>
     <row r="648" spans="1:9" customFormat="1" ht="45">
       <c r="A648" s="25" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B648" s="26" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C648" s="27" t="s">
         <v>1273</v>
-      </c>
-      <c r="B648" s="26" t="s">
-        <v>1267</v>
-      </c>
-      <c r="C648" s="27" t="s">
-        <v>1274</v>
       </c>
       <c r="D648" s="26"/>
       <c r="E648" s="28" t="s">
@@ -27036,13 +27037,13 @@
     </row>
     <row r="649" spans="1:9" customFormat="1" ht="45">
       <c r="A649" s="25" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B649" s="26" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C649" s="27" t="s">
         <v>1275</v>
-      </c>
-      <c r="B649" s="26" t="s">
-        <v>1267</v>
-      </c>
-      <c r="C649" s="27" t="s">
-        <v>1276</v>
       </c>
       <c r="D649" s="26"/>
       <c r="E649" s="28" t="s">
@@ -27061,13 +27062,13 @@
     </row>
     <row r="650" spans="1:9" customFormat="1" ht="30">
       <c r="A650" s="25" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B650" s="26" t="s">
         <v>1277</v>
       </c>
-      <c r="B650" s="26" t="s">
+      <c r="C650" s="30" t="s">
         <v>1278</v>
-      </c>
-      <c r="C650" s="30" t="s">
-        <v>1279</v>
       </c>
       <c r="D650" s="26"/>
       <c r="E650" s="28" t="s">
@@ -27086,13 +27087,13 @@
     </row>
     <row r="651" spans="1:9" customFormat="1" ht="30">
       <c r="A651" s="25" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="B651" s="26" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="C651" s="30" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="D651" s="26"/>
       <c r="E651" s="28" t="s">
@@ -27111,13 +27112,13 @@
     </row>
     <row r="652" spans="1:9" customFormat="1" ht="105">
       <c r="A652" s="25" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B652" s="26" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C652" s="30" t="s">
         <v>1281</v>
-      </c>
-      <c r="B652" s="26" t="s">
-        <v>1278</v>
-      </c>
-      <c r="C652" s="30" t="s">
-        <v>1282</v>
       </c>
       <c r="D652" s="26"/>
       <c r="E652" s="28" t="s">
@@ -27136,13 +27137,13 @@
     </row>
     <row r="653" spans="1:9" customFormat="1" ht="30">
       <c r="A653" s="25" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B653" s="26" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C653" s="27" t="s">
         <v>1283</v>
-      </c>
-      <c r="B653" s="26" t="s">
-        <v>1278</v>
-      </c>
-      <c r="C653" s="27" t="s">
-        <v>1284</v>
       </c>
       <c r="D653" s="26"/>
       <c r="E653" s="28" t="s">
@@ -27161,13 +27162,13 @@
     </row>
     <row r="654" spans="1:9" customFormat="1" ht="30">
       <c r="A654" s="25" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B654" s="26" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C654" s="30" t="s">
         <v>1285</v>
-      </c>
-      <c r="B654" s="26" t="s">
-        <v>1278</v>
-      </c>
-      <c r="C654" s="30" t="s">
-        <v>1286</v>
       </c>
       <c r="D654" s="26"/>
       <c r="E654" s="28" t="s">
@@ -27186,13 +27187,13 @@
     </row>
     <row r="655" spans="1:9" customFormat="1" ht="45">
       <c r="A655" s="25" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B655" s="26" t="s">
         <v>1287</v>
       </c>
-      <c r="B655" s="26" t="s">
-        <v>1288</v>
-      </c>
       <c r="C655" s="30" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="D655" s="26"/>
       <c r="E655" s="28" t="s">
@@ -27211,13 +27212,13 @@
     </row>
     <row r="656" spans="1:9" customFormat="1" ht="30">
       <c r="A656" s="25" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="B656" s="26" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="C656" s="30" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="D656" s="26"/>
       <c r="E656" s="28" t="s">
@@ -27236,13 +27237,13 @@
     </row>
     <row r="657" spans="1:9" customFormat="1" ht="30">
       <c r="A657" s="25" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="B657" s="26" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="C657" s="30" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="D657" s="26"/>
       <c r="E657" s="28" t="s">
@@ -27261,13 +27262,13 @@
     </row>
     <row r="658" spans="1:9" customFormat="1" ht="45">
       <c r="A658" s="25" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B658" s="26" t="s">
         <v>1291</v>
       </c>
-      <c r="B658" s="26" t="s">
+      <c r="C658" s="27" t="s">
         <v>1292</v>
-      </c>
-      <c r="C658" s="27" t="s">
-        <v>1293</v>
       </c>
       <c r="D658" s="26"/>
       <c r="E658" s="28" t="s">
@@ -27286,13 +27287,13 @@
     </row>
     <row r="659" spans="1:9" customFormat="1" ht="45">
       <c r="A659" s="25" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B659" s="26" t="s">
         <v>1294</v>
       </c>
-      <c r="B659" s="26" t="s">
+      <c r="C659" s="27" t="s">
         <v>1295</v>
-      </c>
-      <c r="C659" s="27" t="s">
-        <v>1296</v>
       </c>
       <c r="D659" s="26"/>
       <c r="E659" s="28" t="s">
@@ -27311,13 +27312,13 @@
     </row>
     <row r="660" spans="1:9" customFormat="1" ht="45">
       <c r="A660" s="25" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B660" s="26" t="s">
+        <v>1294</v>
+      </c>
+      <c r="C660" s="27" t="s">
         <v>1297</v>
-      </c>
-      <c r="B660" s="26" t="s">
-        <v>1295</v>
-      </c>
-      <c r="C660" s="27" t="s">
-        <v>1298</v>
       </c>
       <c r="D660" s="26"/>
       <c r="E660" s="28" t="s">
@@ -27336,13 +27337,13 @@
     </row>
     <row r="661" spans="1:9" customFormat="1" ht="45">
       <c r="A661" s="25" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B661" s="26" t="s">
         <v>1299</v>
       </c>
-      <c r="B661" s="26" t="s">
+      <c r="C661" s="27" t="s">
         <v>1300</v>
-      </c>
-      <c r="C661" s="27" t="s">
-        <v>1301</v>
       </c>
       <c r="D661" s="26"/>
       <c r="E661" s="28" t="s">
@@ -27361,13 +27362,13 @@
     </row>
     <row r="662" spans="1:9" customFormat="1" ht="45">
       <c r="A662" s="25" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B662" s="26" t="s">
+        <v>1299</v>
+      </c>
+      <c r="C662" s="27" t="s">
         <v>1302</v>
-      </c>
-      <c r="B662" s="26" t="s">
-        <v>1300</v>
-      </c>
-      <c r="C662" s="27" t="s">
-        <v>1303</v>
       </c>
       <c r="D662" s="26"/>
       <c r="E662" s="28" t="s">
@@ -27386,13 +27387,13 @@
     </row>
     <row r="663" spans="1:9" customFormat="1" ht="45">
       <c r="A663" s="25" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B663" s="26" t="s">
+        <v>1299</v>
+      </c>
+      <c r="C663" s="27" t="s">
         <v>1304</v>
-      </c>
-      <c r="B663" s="26" t="s">
-        <v>1300</v>
-      </c>
-      <c r="C663" s="27" t="s">
-        <v>1305</v>
       </c>
       <c r="D663" s="26"/>
       <c r="E663" s="28" t="s">
@@ -27411,13 +27412,13 @@
     </row>
     <row r="664" spans="1:9" customFormat="1" ht="45">
       <c r="A664" s="25" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B664" s="26" t="s">
         <v>1306</v>
       </c>
-      <c r="B664" s="26" t="s">
-        <v>1307</v>
-      </c>
       <c r="C664" s="30" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="D664" s="26"/>
       <c r="E664" s="28" t="s">
@@ -27436,13 +27437,13 @@
     </row>
     <row r="665" spans="1:9" customFormat="1" ht="30">
       <c r="A665" s="25" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="B665" s="26" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="C665" s="30" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="D665" s="26"/>
       <c r="E665" s="28" t="s">
@@ -27461,13 +27462,13 @@
     </row>
     <row r="666" spans="1:9" customFormat="1" ht="30">
       <c r="A666" s="25" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="B666" s="26" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="C666" s="30" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="D666" s="26"/>
       <c r="E666" s="28" t="s">
@@ -27486,13 +27487,13 @@
     </row>
     <row r="667" spans="1:9" customFormat="1" ht="45">
       <c r="A667" s="25" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B667" s="26" t="s">
         <v>1310</v>
       </c>
-      <c r="B667" s="26" t="s">
+      <c r="C667" s="30" t="s">
         <v>1311</v>
-      </c>
-      <c r="C667" s="30" t="s">
-        <v>1312</v>
       </c>
       <c r="D667" s="26"/>
       <c r="E667" s="28" t="s">
@@ -27511,13 +27512,13 @@
     </row>
     <row r="668" spans="1:9" customFormat="1" ht="135">
       <c r="A668" s="25" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B668" s="26" t="s">
         <v>1313</v>
       </c>
-      <c r="B668" s="26" t="s">
+      <c r="C668" s="30" t="s">
         <v>1314</v>
-      </c>
-      <c r="C668" s="30" t="s">
-        <v>1315</v>
       </c>
       <c r="D668" s="26"/>
       <c r="E668" s="28" t="s">
@@ -27536,13 +27537,13 @@
     </row>
     <row r="669" spans="1:9" customFormat="1" ht="75">
       <c r="A669" s="25" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="B669" s="26" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="C669" s="30" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="D669" s="26"/>
       <c r="E669" s="28" t="s">
@@ -27561,13 +27562,13 @@
     </row>
     <row r="670" spans="1:9" customFormat="1" ht="45">
       <c r="A670" s="25" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="B670" s="26" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="C670" s="30" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="D670" s="26"/>
       <c r="E670" s="28" t="s">
@@ -27586,13 +27587,13 @@
     </row>
     <row r="671" spans="1:9" customFormat="1" ht="45">
       <c r="A671" s="25" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B671" s="26" t="s">
+        <v>1313</v>
+      </c>
+      <c r="C671" s="30" t="s">
         <v>1318</v>
-      </c>
-      <c r="B671" s="26" t="s">
-        <v>1314</v>
-      </c>
-      <c r="C671" s="30" t="s">
-        <v>1319</v>
       </c>
       <c r="D671" s="26"/>
       <c r="E671" s="28" t="s">
@@ -27611,13 +27612,13 @@
     </row>
     <row r="672" spans="1:9" customFormat="1" ht="45">
       <c r="A672" s="25" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B672" s="26" t="s">
         <v>1320</v>
       </c>
-      <c r="B672" s="26" t="s">
+      <c r="C672" s="30" t="s">
         <v>1321</v>
-      </c>
-      <c r="C672" s="30" t="s">
-        <v>1322</v>
       </c>
       <c r="D672" s="26"/>
       <c r="E672" s="28" t="s">
@@ -27636,13 +27637,13 @@
     </row>
     <row r="673" spans="1:9" customFormat="1" ht="120">
       <c r="A673" s="25" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B673" s="26" t="s">
         <v>1323</v>
       </c>
-      <c r="B673" s="26" t="s">
-        <v>1324</v>
-      </c>
       <c r="C673" s="30" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="D673" s="26"/>
       <c r="E673" s="28" t="s">
@@ -27661,13 +27662,13 @@
     </row>
     <row r="674" spans="1:9" customFormat="1" ht="45">
       <c r="A674" s="25" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B674" s="26" t="s">
+        <v>1320</v>
+      </c>
+      <c r="C674" s="27" t="s">
         <v>1325</v>
-      </c>
-      <c r="B674" s="26" t="s">
-        <v>1321</v>
-      </c>
-      <c r="C674" s="27" t="s">
-        <v>1326</v>
       </c>
       <c r="D674" s="26"/>
       <c r="E674" s="28" t="s">
@@ -27686,13 +27687,13 @@
     </row>
     <row r="675" spans="1:9" customFormat="1" ht="45">
       <c r="A675" s="25" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B675" s="26" t="s">
+        <v>1320</v>
+      </c>
+      <c r="C675" s="27" t="s">
         <v>1327</v>
-      </c>
-      <c r="B675" s="26" t="s">
-        <v>1321</v>
-      </c>
-      <c r="C675" s="27" t="s">
-        <v>1328</v>
       </c>
       <c r="D675" s="26"/>
       <c r="E675" s="28" t="s">
@@ -27711,13 +27712,13 @@
     </row>
     <row r="676" spans="1:9" customFormat="1" ht="45">
       <c r="A676" s="25" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B676" s="26" t="s">
+        <v>1323</v>
+      </c>
+      <c r="C676" s="30" t="s">
         <v>1329</v>
-      </c>
-      <c r="B676" s="26" t="s">
-        <v>1324</v>
-      </c>
-      <c r="C676" s="30" t="s">
-        <v>1330</v>
       </c>
       <c r="D676" s="26"/>
       <c r="E676" s="28" t="s">
@@ -27736,13 +27737,13 @@
     </row>
     <row r="677" spans="1:9" customFormat="1" ht="60">
       <c r="A677" s="25" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B677" s="26" t="s">
+        <v>1323</v>
+      </c>
+      <c r="C677" s="30" t="s">
         <v>1331</v>
-      </c>
-      <c r="B677" s="26" t="s">
-        <v>1324</v>
-      </c>
-      <c r="C677" s="30" t="s">
-        <v>1332</v>
       </c>
       <c r="D677" s="26"/>
       <c r="E677" s="28" t="s">
@@ -27761,10 +27762,10 @@
     </row>
     <row r="678" spans="1:9" customFormat="1" ht="45">
       <c r="A678" s="25" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B678" s="26" t="s">
         <v>1333</v>
-      </c>
-      <c r="B678" s="26" t="s">
-        <v>1334</v>
       </c>
       <c r="C678" s="30" t="s">
         <v>1587</v>
@@ -27786,13 +27787,13 @@
     </row>
     <row r="679" spans="1:9" customFormat="1" ht="30">
       <c r="A679" s="25" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="B679" s="26" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="C679" s="30" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="D679" s="26"/>
       <c r="E679" s="28" t="s">
@@ -27814,10 +27815,10 @@
         <v>60</v>
       </c>
       <c r="B680" s="41" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="C680" s="47" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="D680" s="41" t="s">
         <v>61</v>
@@ -27835,7 +27836,7 @@
         <v>21</v>
       </c>
       <c r="I680" s="50" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="681" spans="1:9" s="39" customFormat="1" ht="60">
@@ -27843,13 +27844,13 @@
         <v>480</v>
       </c>
       <c r="B681" s="41" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="C681" s="47" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="D681" s="41" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="E681" s="42" t="s">
         <v>22</v>
@@ -27864,7 +27865,7 @@
         <v>20</v>
       </c>
       <c r="I681" s="45" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="682" spans="1:9" s="39" customFormat="1" ht="60">
@@ -27872,10 +27873,10 @@
         <v>809</v>
       </c>
       <c r="B682" s="41" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="C682" s="47" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="D682" s="41" t="s">
         <v>810</v>
@@ -27893,7 +27894,7 @@
         <v>20</v>
       </c>
       <c r="I682" s="45" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="683" spans="1:9" s="39" customFormat="1" ht="60">
@@ -27901,10 +27902,10 @@
         <v>858</v>
       </c>
       <c r="B683" s="41" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="C683" s="47" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="D683" s="41" t="s">
         <v>859</v>
@@ -27922,7 +27923,7 @@
         <v>20</v>
       </c>
       <c r="I683" s="45" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="684" spans="1:9" s="39" customFormat="1" ht="60">
@@ -27930,10 +27931,10 @@
         <v>1080</v>
       </c>
       <c r="B684" s="41" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="C684" s="47" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="D684" s="41" t="s">
         <v>1081</v>
@@ -27951,7 +27952,7 @@
         <v>20</v>
       </c>
       <c r="I684" s="45" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="685" spans="1:9" s="39" customFormat="1" ht="60">
@@ -27959,13 +27960,13 @@
         <v>1128</v>
       </c>
       <c r="B685" s="41" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="C685" s="47" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="D685" s="41" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="E685" s="42" t="s">
         <v>22</v>
@@ -27980,7 +27981,7 @@
         <v>20</v>
       </c>
       <c r="I685" s="45" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="686" spans="1:9" s="39" customFormat="1" ht="60">
@@ -27988,13 +27989,13 @@
         <v>1129</v>
       </c>
       <c r="B686" s="41" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="C686" s="47" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="D686" s="41" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="E686" s="42" t="s">
         <v>22</v>
@@ -28009,21 +28010,21 @@
         <v>20</v>
       </c>
       <c r="I686" s="45" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="687" spans="1:9" customFormat="1" ht="45">
       <c r="A687" s="25" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="B687" s="26" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="C687" s="45" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="D687" s="41" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="E687" s="28" t="s">
         <v>22</v>
@@ -28041,16 +28042,16 @@
     </row>
     <row r="688" spans="1:9" customFormat="1" ht="45">
       <c r="A688" s="25" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="B688" s="26" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="C688" s="33" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="D688" s="41" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="E688" s="28" t="s">
         <v>22</v>
@@ -28068,16 +28069,16 @@
     </row>
     <row r="689" spans="1:9" customFormat="1" ht="60">
       <c r="A689" s="25" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="B689" s="26" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="C689" s="49" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="D689" s="41" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="E689" s="28" t="s">
         <v>22</v>
@@ -28095,16 +28096,16 @@
     </row>
     <row r="690" spans="1:9" s="38" customFormat="1" ht="75">
       <c r="A690" s="40" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="B690" s="41" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="C690" s="45" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="D690" s="41" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="E690" s="42" t="s">
         <v>22</v>
@@ -28119,18 +28120,18 @@
         <v>20</v>
       </c>
       <c r="I690" s="35" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="691" spans="1:9" customFormat="1" ht="60">
       <c r="A691" s="25" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B691" s="26" t="s">
         <v>1339</v>
       </c>
-      <c r="B691" s="26" t="s">
-        <v>1340</v>
-      </c>
       <c r="C691" s="45" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="D691" s="41"/>
       <c r="E691" s="28" t="s">
@@ -28152,13 +28153,13 @@
         <v>690</v>
       </c>
       <c r="B692" s="41" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="C692" s="47" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="D692" s="36" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="E692" s="55" t="s">
         <v>22</v>
@@ -28173,21 +28174,21 @@
         <v>20</v>
       </c>
       <c r="I692" s="35" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="693" spans="1:9" s="39" customFormat="1" ht="60">
       <c r="A693" s="40" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B693" s="41" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="C693" s="48" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="D693" s="36" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="E693" s="55" t="s">
         <v>22</v>
@@ -28202,21 +28203,21 @@
         <v>20</v>
       </c>
       <c r="I693" s="35" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="694" spans="1:9" s="39" customFormat="1" ht="60">
       <c r="A694" s="40" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="B694" s="41" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="C694" s="48" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D694" s="36" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="E694" s="55" t="s">
         <v>22</v>
@@ -28231,21 +28232,21 @@
         <v>20</v>
       </c>
       <c r="I694" s="35" t="s">
-        <v>1349</v>
-      </c>
-    </row>
-    <row r="695" spans="1:9" customFormat="1" ht="105">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="695" spans="1:9" customFormat="1" ht="90">
       <c r="A695" s="25" t="s">
         <v>1585</v>
       </c>
       <c r="B695" s="26" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="C695" s="45" t="s">
-        <v>1588</v>
+        <v>1582</v>
       </c>
       <c r="D695" s="36" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="E695" s="28" t="s">
         <v>22</v>
@@ -28260,21 +28261,21 @@
         <v>20</v>
       </c>
       <c r="I695" s="54" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="696" spans="1:9" s="39" customFormat="1" ht="45">
       <c r="A696" s="59" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="B696" s="36" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="C696" s="45" t="s">
         <v>1586</v>
       </c>
       <c r="D696" s="36" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="E696" s="42" t="s">
         <v>22</v>
@@ -28292,16 +28293,16 @@
     </row>
     <row r="697" spans="1:9" s="39" customFormat="1" ht="90">
       <c r="A697" s="60" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="B697" s="53" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="C697" s="45" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="D697" s="36" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="E697" s="42" t="s">
         <v>22</v>
@@ -28316,21 +28317,21 @@
         <v>20</v>
       </c>
       <c r="I697" s="35" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="698" spans="1:9" s="39" customFormat="1" ht="45">
       <c r="A698" s="61" t="s">
+        <v>1546</v>
+      </c>
+      <c r="B698" s="36" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C698" s="54" t="s">
         <v>1547</v>
       </c>
-      <c r="B698" s="36" t="s">
-        <v>1334</v>
-      </c>
-      <c r="C698" s="54" t="s">
+      <c r="D698" s="36" t="s">
         <v>1548</v>
-      </c>
-      <c r="D698" s="36" t="s">
-        <v>1549</v>
       </c>
       <c r="E698" s="42" t="s">
         <v>22</v>
@@ -28348,16 +28349,16 @@
     </row>
     <row r="699" spans="1:9" s="39" customFormat="1" ht="45">
       <c r="A699" s="61" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="B699" s="36" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="C699" s="54" t="s">
+        <v>1562</v>
+      </c>
+      <c r="D699" s="36" t="s">
         <v>1563</v>
-      </c>
-      <c r="D699" s="36" t="s">
-        <v>1564</v>
       </c>
       <c r="E699" s="42" t="s">
         <v>22</v>
@@ -28372,21 +28373,21 @@
         <v>21</v>
       </c>
       <c r="I699" s="57" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="700" spans="1:9" s="39" customFormat="1" ht="45">
       <c r="A700" s="61" t="s">
+        <v>1565</v>
+      </c>
+      <c r="B700" s="36" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C700" s="54" t="s">
         <v>1566</v>
       </c>
-      <c r="B700" s="36" t="s">
-        <v>1334</v>
-      </c>
-      <c r="C700" s="54" t="s">
-        <v>1567</v>
-      </c>
       <c r="D700" s="36" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="E700" s="42" t="s">
         <v>22</v>
@@ -28401,18 +28402,18 @@
         <v>21</v>
       </c>
       <c r="I700" s="57" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="701" spans="1:9" customFormat="1" ht="30">
       <c r="A701" s="25" t="s">
+        <v>1557</v>
+      </c>
+      <c r="B701" s="26" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C701" s="45" t="s">
         <v>1558</v>
-      </c>
-      <c r="B701" s="26" t="s">
-        <v>1340</v>
-      </c>
-      <c r="C701" s="45" t="s">
-        <v>1559</v>
       </c>
       <c r="D701" s="26"/>
       <c r="E701" s="28" t="s">
@@ -28435,6 +28436,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B5:I5"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="D12:I15"/>
     <mergeCell ref="B16:I16"/>
@@ -28442,11 +28448,6 @@
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B17:I17"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A577:B577 I619:I622 I678:I679 A293:B293 A513:C513 A116:C128 A131:C141 A516:C521 D524 A115:G115 A227:D227 A689:B690 I199 A687:C688 A691:C691 A239:C292 I41:I63 A309:I341 B168:D169 I168:I169 D294:H294 D116:H141 D576:D577 D523:E523 A143:I149 A343:I352 A151:I154 A150:H150 A156:I157 A155:H155 A159:I161 A158:H158 A228:H238 A525:D525 A528:D528 A142:H142 A342:H342 E655:I662 E654:H654 E664:I672 E663:H663 E674:I675 E673:H673 E676:H679 D516:H522 A514:D515 A195:H195 A353:H353 D239:I293 A20:H114 A163:I163 A162:H162 E623:I653 A295:I307 A308:H308 A354:I460 A578:D679 A701:D701 A170:I193 A692:D694 A684:D684 A681:I683 A680:H680 B164:I164 E165:H169 A197:H226 A463:I486 I496:I514 A487:D512 E487:H514 I538:I544 A531:D575 E525:H622 A695:C700 E684:H701 I546:I561">
@@ -30940,12 +30941,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -30998,15 +30996,24 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -31027,15 +31034,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/SharePoint/Docs/MS-DWSS/MS-DWSS_RequirementSpecification.xlsx
+++ b/SharePoint/Docs/MS-DWSS/MS-DWSS_RequirementSpecification.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85FF6C67-E60E-4A6A-A32A-9902BDAE08CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB798A74-CFD5-4AFA-8A13-B2EAD3E8D8F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3075" yWindow="3075" windowWidth="21105" windowHeight="12480" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="2" r:id="rId1"/>
@@ -6403,6 +6403,21 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -6426,21 +6441,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -10877,7 +10877,7 @@
   <dimension ref="A1:L702"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="B5" sqref="B5:I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -10927,132 +10927,132 @@
         <v>1455</v>
       </c>
       <c r="F3" s="13">
-        <v>44397</v>
+        <v>44516</v>
       </c>
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="21">
-      <c r="A4" s="70" t="s">
+      <c r="A4" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="70"/>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="73" t="s">
+      <c r="B5" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="74"/>
-      <c r="I5" s="74"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="72" t="s">
+      <c r="B6" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="71" t="s">
+      <c r="B7" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="71"/>
-      <c r="D7" s="71"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71"/>
-      <c r="G7" s="71"/>
-      <c r="H7" s="71"/>
-      <c r="I7" s="71"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="71" t="s">
+      <c r="B8" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="71"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="71"/>
-      <c r="G8" s="71"/>
-      <c r="H8" s="71"/>
-      <c r="I8" s="71"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="63"/>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" ht="78.75" customHeight="1">
       <c r="A9" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="66" t="s">
+      <c r="B9" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="67"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="67"/>
-      <c r="H9" s="67"/>
-      <c r="I9" s="67"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="72"/>
+      <c r="I9" s="72"/>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="33.75" customHeight="1">
       <c r="A10" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="66" t="s">
+      <c r="B10" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="67"/>
-      <c r="D10" s="67"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="67"/>
-      <c r="H10" s="67"/>
-      <c r="I10" s="67"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="72"/>
+      <c r="H10" s="72"/>
+      <c r="I10" s="72"/>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="62" t="s">
+      <c r="B11" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="62"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="62"/>
-      <c r="I11" s="62"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="67"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10">
@@ -11065,12 +11065,12 @@
       <c r="C12" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="63"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="63"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="63"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="68"/>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1">
@@ -11083,12 +11083,12 @@
       <c r="C13" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="64"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="64"/>
-      <c r="I13" s="64"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="69"/>
+      <c r="I13" s="69"/>
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10">
@@ -11101,12 +11101,12 @@
       <c r="C14" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="64"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="64"/>
-      <c r="G14" s="64"/>
-      <c r="H14" s="64"/>
-      <c r="I14" s="64"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="69"/>
+      <c r="H14" s="69"/>
+      <c r="I14" s="69"/>
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10">
@@ -11119,60 +11119,60 @@
       <c r="C15" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="65"/>
-      <c r="H15" s="65"/>
-      <c r="I15" s="65"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="70"/>
+      <c r="I15" s="70"/>
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" ht="30" customHeight="1">
       <c r="A16" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="62" t="s">
+      <c r="B16" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="62"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="62"/>
-      <c r="H16" s="62"/>
-      <c r="I16" s="62"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="67"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="67"/>
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:12" ht="81" customHeight="1">
       <c r="A17" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="68" t="s">
+      <c r="B17" s="73" t="s">
         <v>1454</v>
       </c>
-      <c r="C17" s="69"/>
-      <c r="D17" s="69"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="69"/>
-      <c r="G17" s="69"/>
-      <c r="H17" s="69"/>
-      <c r="I17" s="69"/>
+      <c r="C17" s="74"/>
+      <c r="D17" s="74"/>
+      <c r="E17" s="74"/>
+      <c r="F17" s="74"/>
+      <c r="G17" s="74"/>
+      <c r="H17" s="74"/>
+      <c r="I17" s="74"/>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1">
       <c r="A18" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="62" t="s">
+      <c r="B18" s="67" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="62"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="62"/>
-      <c r="H18" s="62"/>
-      <c r="I18" s="62"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="67"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="67"/>
+      <c r="H18" s="67"/>
+      <c r="I18" s="67"/>
       <c r="J18" s="5"/>
       <c r="L18" s="4"/>
     </row>
@@ -28436,11 +28436,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B5:I5"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="D12:I15"/>
     <mergeCell ref="B16:I16"/>
@@ -28448,6 +28443,11 @@
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B17:I17"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A577:B577 I619:I622 I678:I679 A293:B293 A513:C513 A116:C128 A131:C141 A516:C521 D524 A115:G115 A227:D227 A689:B690 I199 A687:C688 A691:C691 A239:C292 I41:I63 A309:I341 B168:D169 I168:I169 D294:H294 D116:H141 D576:D577 D523:E523 A143:I149 A343:I352 A151:I154 A150:H150 A156:I157 A155:H155 A159:I161 A158:H158 A228:H238 A525:D525 A528:D528 A142:H142 A342:H342 E655:I662 E654:H654 E664:I672 E663:H663 E674:I675 E673:H673 E676:H679 D516:H522 A514:D515 A195:H195 A353:H353 D239:I293 A20:H114 A163:I163 A162:H162 E623:I653 A295:I307 A308:H308 A354:I460 A578:D679 A701:D701 A170:I193 A692:D694 A684:D684 A681:I683 A680:H680 B164:I164 E165:H169 A197:H226 A463:I486 I496:I514 A487:D512 E487:H514 I538:I544 A531:D575 E525:H622 A695:C700 E684:H701 I546:I561">
@@ -30947,6 +30947,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F2EA47BB262D974097182E2CA8AB13E1" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="74597e8d9e42e7e4fc8eda6d37675aa2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4aeb20c0e3442673af7ee10786458764">
     <xsd:element name="properties">
@@ -30995,15 +31004,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
   <ds:schemaRefs>
@@ -31019,6 +31019,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDB2DE12-5EF6-4CF2-820D-5F9FE329E08E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -31031,12 +31039,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/SharePoint/Docs/MS-DWSS/MS-DWSS_RequirementSpecification.xlsx
+++ b/SharePoint/Docs/MS-DWSS/MS-DWSS_RequirementSpecification.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1815E3B6-5C76-4EBD-8774-3F66B3AB32CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{853C66CB-2CBA-4609-92C1-76DC647CF789}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-1272" windowWidth="23256" windowHeight="12456" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5983,10 +5983,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[In Appendix B: Product Behavior] Implementation does return HTTP status code 401 with response body which contains text "401 Unauthorized" instead of the "NoAccess" error if the authenticated user is not permitted to access this information. (Windows SharePoint Services 3.0, SharePoint Foundation 2010, SharePoint Foundation 2013, and SharePoint Server 2016 will never return the "NoAccess" error code; instead, these product versions will return HTTP status code 401 with a response body containing the text "401 Unauthorized".)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MS-DWSS_R4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -6020,6 +6016,9 @@
   </si>
   <si>
     <t>15.4</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] Implementation does return HTTP status code 401 with response body which contains text "401 Unauthorized" instead of the "NoAccess" error if the authenticated user is not permitted to access this information. (Windows SharePoint Services 3.0, SharePoint Foundation 2010, SharePoint Foundation 2013, SharePoint Server 2016 and SharePoint Server 2019 will never return the "NoAccess" error code; instead, these product versions will return HTTP status code 401 with a response body containing the text "401 Unauthorized".)</t>
   </si>
 </sst>
 </file>
@@ -6384,21 +6383,6 @@
     <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -6422,6 +6406,21 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -10857,8 +10856,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J703"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:I7"/>
+    <sheetView tabSelected="1" topLeftCell="A693" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C696" sqref="C696"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -10901,7 +10900,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>1455</v>
@@ -10912,127 +10911,127 @@
       <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:10" ht="21">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="59"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
       <c r="J6" s="4"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
       <c r="J7" s="4"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="56"/>
       <c r="J8" s="4"/>
     </row>
     <row r="9" spans="1:10" ht="78.75" customHeight="1">
       <c r="A9" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="56" t="s">
+      <c r="B9" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="57"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="57"/>
-      <c r="I9" s="57"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="52"/>
       <c r="J9" s="4"/>
     </row>
     <row r="10" spans="1:10" ht="33.75" customHeight="1">
       <c r="A10" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="56" t="s">
+      <c r="B10" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="57"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="52" t="s">
+      <c r="B11" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="52"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="52"/>
-      <c r="H11" s="52"/>
-      <c r="I11" s="52"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="47"/>
       <c r="J11" s="4"/>
     </row>
     <row r="12" spans="1:10">
@@ -11045,12 +11044,12 @@
       <c r="C12" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="53"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="48"/>
       <c r="J12" s="4"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1">
@@ -11063,12 +11062,12 @@
       <c r="C13" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="54"/>
-      <c r="H13" s="54"/>
-      <c r="I13" s="54"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
       <c r="J13" s="4"/>
     </row>
     <row r="14" spans="1:10">
@@ -11081,12 +11080,12 @@
       <c r="C14" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="54"/>
-      <c r="I14" s="54"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="49"/>
       <c r="J14" s="4"/>
     </row>
     <row r="15" spans="1:10">
@@ -11099,60 +11098,60 @@
       <c r="C15" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="55"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="55"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="50"/>
       <c r="J15" s="4"/>
     </row>
     <row r="16" spans="1:10" ht="30" customHeight="1">
       <c r="A16" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="52" t="s">
+      <c r="B16" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="52"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="52"/>
-      <c r="I16" s="52"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
       <c r="J16" s="4"/>
     </row>
     <row r="17" spans="1:10" ht="81" customHeight="1">
       <c r="A17" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="58" t="s">
+      <c r="B17" s="53" t="s">
         <v>1454</v>
       </c>
-      <c r="C17" s="59"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="54"/>
       <c r="J17" s="4"/>
     </row>
     <row r="18" spans="1:10" ht="30" customHeight="1">
       <c r="A18" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="52" t="s">
+      <c r="B18" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="52"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="52"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
       <c r="J18" s="4"/>
     </row>
     <row r="19" spans="1:10" ht="28.8">
@@ -11438,7 +11437,7 @@
     </row>
     <row r="30" spans="1:10" customFormat="1" ht="28.8">
       <c r="A30" s="22" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="B30" s="23" t="s">
         <v>56</v>
@@ -11463,7 +11462,7 @@
     </row>
     <row r="31" spans="1:10" customFormat="1" ht="43.2">
       <c r="A31" s="22" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="B31" s="23" t="s">
         <v>56</v>
@@ -14313,13 +14312,13 @@
     </row>
     <row r="144" spans="1:9" customFormat="1">
       <c r="A144" s="22" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="B144" s="23" t="s">
         <v>279</v>
       </c>
       <c r="C144" s="24" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="D144" s="45"/>
       <c r="E144" s="22" t="s">
@@ -14800,7 +14799,7 @@
         <v>31</v>
       </c>
       <c r="C163" s="24" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="D163" s="23"/>
       <c r="E163" s="22" t="s">
@@ -25595,7 +25594,7 @@
         <v>1138</v>
       </c>
       <c r="C592" s="24" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="D592" s="23"/>
       <c r="E592" s="22" t="s">
@@ -27771,7 +27770,7 @@
         <v>1333</v>
       </c>
       <c r="C679" s="24" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="D679" s="23"/>
       <c r="E679" s="22" t="s">
@@ -28240,13 +28239,13 @@
     </row>
     <row r="696" spans="1:9" customFormat="1" ht="86.4">
       <c r="A696" s="22" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="B696" s="23" t="s">
         <v>1339</v>
       </c>
       <c r="C696" s="24" t="s">
-        <v>1581</v>
+        <v>1591</v>
       </c>
       <c r="D696" s="30" t="s">
         <v>1579</v>
@@ -28275,7 +28274,7 @@
         <v>1333</v>
       </c>
       <c r="C697" s="24" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="D697" s="30" t="s">
         <v>1579</v>
@@ -28438,6 +28437,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B5:I5"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="D12:I15"/>
     <mergeCell ref="B16:I16"/>
@@ -28445,11 +28449,6 @@
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B17:I17"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A578:B578 I620:I623 I679:I680 A294:B294 A514:C514 A116:C128 A131:C141 A517:C522 D525 A115:G115 A228:D228 A690:B691 I200 A688:C689 A692:C692 A240:C293 I41:I63 A310:I342 B169:D170 I169:I170 D295:H295 D116:H141 D577:D578 D524:E524 A344:I353 A152:I155 A151:H151 A157:I158 A156:H156 A160:I162 A159:H159 A229:H239 A526:D526 A529:D529 A142:H142 A343:H343 E656:I663 E655:H655 E665:I673 E664:H664 E675:I676 E674:H674 E677:H680 D517:H523 A515:D516 A196:H196 A354:H354 D240:I294 A20:H114 A164:I164 A163:H163 E624:I654 A296:I308 A309:H309 A355:I461 A579:D680 A702:D702 A171:I194 A693:D695 A685:D685 A682:I684 A681:H681 B165:I165 E166:H170 A198:H227 A464:I487 I497:I515 A488:D513 E488:H515 I539:I545 A532:D576 E526:H623 A696:C701 E685:H702 I547:I562 A143:I150">
@@ -30949,15 +30948,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F2EA47BB262D974097182E2CA8AB13E1" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="74597e8d9e42e7e4fc8eda6d37675aa2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4aeb20c0e3442673af7ee10786458764">
     <xsd:element name="properties">
@@ -31006,6 +30996,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
   <ds:schemaRefs>
@@ -31021,14 +31020,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDB2DE12-5EF6-4CF2-820D-5F9FE329E08E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -31043,6 +31034,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{f42aa342-8706-4288-bd11-ebb85995028c}" enabled="1" method="Standard" siteId="{72f988bf-86f1-41af-91ab-2d7cd011db47}" contentBits="0" removed="0"/>
